--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+  <si>
+    <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
   <si>
     <t>11/19/2020</t>
   </si>
@@ -895,24 +904,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E267"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -920,12 +929,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4296</v>
+        <v>4514</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>4936</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="3">
@@ -933,12 +942,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>3367</v>
+        <v>3415</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>4898</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="4">
@@ -946,16 +955,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3288</v>
+        <v>3688</v>
       </c>
       <c r="C4" s="4">
-        <v>593</v>
+        <v>459</v>
       </c>
       <c r="D4" s="4">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4">
-        <v>4852</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="5">
@@ -963,16 +972,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1972</v>
+        <v>4296</v>
       </c>
       <c r="C5" s="4">
-        <v>2200</v>
+        <v>1065</v>
       </c>
       <c r="D5" s="4">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="E5" s="4">
-        <v>4814</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +989,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3117</v>
+        <v>3367</v>
       </c>
       <c r="C6" s="4">
-        <v>1082</v>
+        <v>2380</v>
       </c>
       <c r="D6" s="4">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E6" s="4">
-        <v>4806</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="7">
@@ -997,16 +1006,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3885</v>
+        <v>3288</v>
       </c>
       <c r="C7" s="4">
-        <v>1445</v>
+        <v>3377</v>
       </c>
       <c r="D7" s="4">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="E7" s="4">
-        <v>4756</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="8">
@@ -1014,16 +1023,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>1779</v>
+        <v>1972</v>
       </c>
       <c r="C8" s="4">
-        <v>3171</v>
+        <v>4389</v>
       </c>
       <c r="D8" s="4">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="E8" s="4">
-        <v>4720</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="9">
@@ -1031,16 +1040,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2893</v>
+        <v>3117</v>
       </c>
       <c r="C9" s="4">
-        <v>3051</v>
+        <v>1482</v>
       </c>
       <c r="D9" s="4">
-        <v>370</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4">
-        <v>4706</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="10">
@@ -1048,16 +1057,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3119</v>
+        <v>3885</v>
       </c>
       <c r="C10" s="4">
-        <v>2892</v>
+        <v>1760</v>
       </c>
       <c r="D10" s="4">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4">
-        <v>4698</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="11">
@@ -1065,16 +1074,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2582</v>
+        <v>1779</v>
       </c>
       <c r="C11" s="4">
-        <v>3303</v>
+        <v>3376</v>
       </c>
       <c r="D11" s="4">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="E11" s="4">
-        <v>4660</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="12">
@@ -1082,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>1521</v>
+        <v>2893</v>
       </c>
       <c r="C12" s="4">
-        <v>4006</v>
+        <v>3168</v>
       </c>
       <c r="D12" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" s="4">
-        <v>4615</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="13">
@@ -1099,16 +1108,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>2094</v>
+        <v>3119</v>
       </c>
       <c r="C13" s="4">
-        <v>1375</v>
+        <v>3013</v>
       </c>
       <c r="D13" s="4">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="E13" s="4">
-        <v>4607</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="14">
@@ -1116,16 +1125,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>2676</v>
+        <v>2582</v>
       </c>
       <c r="C14" s="4">
-        <v>1476</v>
+        <v>3346</v>
       </c>
       <c r="D14" s="4">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="E14" s="4">
-        <v>4605</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="15">
@@ -1133,16 +1142,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2908</v>
+        <v>1521</v>
       </c>
       <c r="C15" s="4">
-        <v>2386</v>
+        <v>4045</v>
       </c>
       <c r="D15" s="4">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c r="E15" s="4">
-        <v>4582</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="16">
@@ -1150,16 +1159,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2859</v>
+        <v>2094</v>
       </c>
       <c r="C16" s="4">
-        <v>2570</v>
+        <v>1373</v>
       </c>
       <c r="D16" s="4">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="E16" s="4">
-        <v>4548</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="17">
@@ -1167,16 +1176,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2425</v>
+        <v>2676</v>
       </c>
       <c r="C17" s="4">
-        <v>2607</v>
+        <v>1485</v>
       </c>
       <c r="D17" s="4">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4">
-        <v>4507</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="18">
@@ -1184,16 +1193,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2349</v>
+        <v>2908</v>
       </c>
       <c r="C18" s="4">
-        <v>2646</v>
+        <v>2401</v>
       </c>
       <c r="D18" s="4">
         <v>266</v>
       </c>
       <c r="E18" s="4">
-        <v>4457</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="19">
@@ -1201,16 +1210,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>1336</v>
+        <v>2859</v>
       </c>
       <c r="C19" s="4">
-        <v>3096</v>
+        <v>2577</v>
       </c>
       <c r="D19" s="4">
-        <v>375</v>
+        <v>243</v>
       </c>
       <c r="E19" s="4">
-        <v>4390</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="20">
@@ -1218,16 +1227,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2057</v>
+        <v>2425</v>
       </c>
       <c r="C20" s="4">
-        <v>935</v>
+        <v>2608</v>
       </c>
       <c r="D20" s="4">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="E20" s="4">
-        <v>4383</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="21">
@@ -1235,16 +1244,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2805</v>
+        <v>2349</v>
       </c>
       <c r="C21" s="4">
-        <v>1060</v>
+        <v>2656</v>
       </c>
       <c r="D21" s="4">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="E21" s="4">
-        <v>4378</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="22">
@@ -1252,16 +1261,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2809</v>
+        <v>1336</v>
       </c>
       <c r="C22" s="4">
-        <v>2243</v>
+        <v>3101</v>
       </c>
       <c r="D22" s="4">
-        <v>194</v>
+        <v>394</v>
       </c>
       <c r="E22" s="4">
-        <v>4332</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="23">
@@ -1269,16 +1278,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2885</v>
+        <v>2057</v>
       </c>
       <c r="C23" s="4">
-        <v>1974</v>
+        <v>936</v>
       </c>
       <c r="D23" s="4">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4">
-        <v>4283</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="24">
@@ -1286,16 +1295,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2253</v>
+        <v>2805</v>
       </c>
       <c r="C24" s="4">
-        <v>2434</v>
+        <v>1062</v>
       </c>
       <c r="D24" s="4">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="E24" s="4">
-        <v>4245</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="25">
@@ -1303,16 +1312,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2141</v>
+        <v>2809</v>
       </c>
       <c r="C25" s="4">
-        <v>2413</v>
+        <v>2245</v>
       </c>
       <c r="D25" s="4">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="E25" s="4">
-        <v>4211</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="26">
@@ -1320,16 +1329,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1643</v>
+        <v>2885</v>
       </c>
       <c r="C26" s="4">
-        <v>2983</v>
+        <v>1979</v>
       </c>
       <c r="D26" s="4">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="E26" s="4">
-        <v>4170</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="27">
@@ -1337,16 +1346,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>1807</v>
+        <v>2253</v>
       </c>
       <c r="C27" s="4">
-        <v>907</v>
+        <v>2436</v>
       </c>
       <c r="D27" s="4">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="E27" s="4">
-        <v>4157</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="28">
@@ -1354,16 +1363,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2584</v>
+        <v>2141</v>
       </c>
       <c r="C28" s="4">
-        <v>1071</v>
+        <v>2421</v>
       </c>
       <c r="D28" s="4">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="E28" s="4">
-        <v>4144</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="29">
@@ -1371,16 +1380,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2716</v>
+        <v>1643</v>
       </c>
       <c r="C29" s="4">
-        <v>2199</v>
+        <v>2987</v>
       </c>
       <c r="D29" s="4">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="E29" s="4">
-        <v>4114</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="30">
@@ -1388,16 +1397,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2400</v>
+        <v>1807</v>
       </c>
       <c r="C30" s="4">
-        <v>2134</v>
+        <v>906</v>
       </c>
       <c r="D30" s="4">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4">
-        <v>4082</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="31">
@@ -1405,16 +1414,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1842</v>
+        <v>2584</v>
       </c>
       <c r="C31" s="4">
-        <v>2453</v>
+        <v>1071</v>
       </c>
       <c r="D31" s="4">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4">
-        <v>4032</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="32">
@@ -1422,16 +1431,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1578</v>
+        <v>2716</v>
       </c>
       <c r="C32" s="4">
-        <v>2454</v>
+        <v>2201</v>
       </c>
       <c r="D32" s="4">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E32" s="4">
-        <v>3992</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="33">
@@ -1439,16 +1448,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>1144</v>
+        <v>2400</v>
       </c>
       <c r="C33" s="4">
-        <v>2796</v>
+        <v>2137</v>
       </c>
       <c r="D33" s="4">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="E33" s="4">
-        <v>3939</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="34">
@@ -1456,16 +1465,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2303</v>
+        <v>1842</v>
       </c>
       <c r="C34" s="4">
-        <v>848</v>
+        <v>2454</v>
       </c>
       <c r="D34" s="4">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="E34" s="4">
-        <v>3934</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="35">
@@ -1473,16 +1482,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2102</v>
+        <v>1578</v>
       </c>
       <c r="C35" s="4">
-        <v>951</v>
+        <v>2456</v>
       </c>
       <c r="D35" s="4">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="E35" s="4">
-        <v>3929</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="36">
@@ -1490,16 +1499,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2684</v>
+        <v>1144</v>
       </c>
       <c r="C36" s="4">
-        <v>2055</v>
+        <v>2797</v>
       </c>
       <c r="D36" s="4">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="E36" s="4">
-        <v>3910</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="37">
@@ -1507,16 +1516,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2532</v>
+        <v>2303</v>
       </c>
       <c r="C37" s="4">
-        <v>2103</v>
+        <v>849</v>
       </c>
       <c r="D37" s="4">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4">
-        <v>3874</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="38">
@@ -1524,16 +1533,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1926</v>
+        <v>2102</v>
       </c>
       <c r="C38" s="4">
-        <v>2128</v>
+        <v>951</v>
       </c>
       <c r="D38" s="4">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="E38" s="4">
-        <v>3856</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="39">
@@ -1541,16 +1550,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1734</v>
+        <v>2684</v>
       </c>
       <c r="C39" s="4">
-        <v>2380</v>
+        <v>2056</v>
       </c>
       <c r="D39" s="4">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="E39" s="4">
-        <v>3816</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="40">
@@ -1558,16 +1567,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>1276</v>
+        <v>2532</v>
       </c>
       <c r="C40" s="4">
-        <v>2682</v>
+        <v>2103</v>
       </c>
       <c r="D40" s="4">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="E40" s="4">
-        <v>3773</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="41">
@@ -1575,16 +1584,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>1719</v>
+        <v>1926</v>
       </c>
       <c r="C41" s="4">
-        <v>903</v>
+        <v>2128</v>
       </c>
       <c r="D41" s="4">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E41" s="4">
-        <v>3770</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="42">
@@ -1592,16 +1601,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2321</v>
+        <v>1734</v>
       </c>
       <c r="C42" s="4">
-        <v>938</v>
+        <v>2381</v>
       </c>
       <c r="D42" s="4">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="E42" s="4">
-        <v>3765</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="43">
@@ -1609,16 +1618,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2034</v>
+        <v>1276</v>
       </c>
       <c r="C43" s="4">
-        <v>1808</v>
+        <v>2682</v>
       </c>
       <c r="D43" s="4">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="E43" s="4">
-        <v>3747</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="44">
@@ -1626,16 +1635,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2428</v>
+        <v>1719</v>
       </c>
       <c r="C44" s="4">
-        <v>2002</v>
+        <v>903</v>
       </c>
       <c r="D44" s="4">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="E44" s="4">
-        <v>3722</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="45">
@@ -1643,16 +1652,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1711</v>
+        <v>2321</v>
       </c>
       <c r="C45" s="4">
-        <v>1927</v>
+        <v>938</v>
       </c>
       <c r="D45" s="4">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="E45" s="4">
-        <v>3693</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="46">
@@ -1660,16 +1669,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1504</v>
+        <v>2034</v>
       </c>
       <c r="C46" s="4">
-        <v>2065</v>
+        <v>1809</v>
       </c>
       <c r="D46" s="4">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="E46" s="4">
-        <v>3670</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="47">
@@ -1677,16 +1686,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2258</v>
+        <v>2428</v>
       </c>
       <c r="C47" s="4">
-        <v>2467</v>
+        <v>2002</v>
       </c>
       <c r="D47" s="4">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="E47" s="4">
-        <v>3637</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="48">
@@ -1694,16 +1703,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>610</v>
+        <v>1711</v>
       </c>
       <c r="C48" s="4">
-        <v>819</v>
+        <v>1927</v>
       </c>
       <c r="D48" s="4">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="E48" s="4">
-        <v>3634</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="49">
@@ -1711,16 +1720,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2202</v>
+        <v>1504</v>
       </c>
       <c r="C49" s="4">
-        <v>982</v>
+        <v>2065</v>
       </c>
       <c r="D49" s="4">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="E49" s="4">
-        <v>3629</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="50">
@@ -1728,16 +1737,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1775</v>
+        <v>2258</v>
       </c>
       <c r="C50" s="4">
-        <v>1837</v>
+        <v>2470</v>
       </c>
       <c r="D50" s="4">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="E50" s="4">
-        <v>3608</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="51">
@@ -1745,16 +1754,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2277</v>
+        <v>610</v>
       </c>
       <c r="C51" s="4">
-        <v>1820</v>
+        <v>821</v>
       </c>
       <c r="D51" s="4">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="E51" s="4">
-        <v>3579</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="52">
@@ -1762,16 +1771,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1495</v>
+        <v>2202</v>
       </c>
       <c r="C52" s="4">
-        <v>1832</v>
+        <v>982</v>
       </c>
       <c r="D52" s="4">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="E52" s="4">
-        <v>3532</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="53">
@@ -1779,16 +1788,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>889</v>
+        <v>1775</v>
       </c>
       <c r="C53" s="4">
-        <v>1807</v>
+        <v>1837</v>
       </c>
       <c r="D53" s="4">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E53" s="4">
-        <v>3494</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="54">
@@ -1796,16 +1805,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>868</v>
+        <v>2277</v>
       </c>
       <c r="C54" s="4">
-        <v>2114</v>
+        <v>1820</v>
       </c>
       <c r="D54" s="4">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="E54" s="4">
-        <v>3445</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="55">
@@ -1813,16 +1822,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1290</v>
+        <v>1495</v>
       </c>
       <c r="C55" s="4">
-        <v>640</v>
+        <v>1832</v>
       </c>
       <c r="D55" s="4">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="E55" s="4">
-        <v>3441</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="56">
@@ -1830,16 +1839,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1759</v>
+        <v>889</v>
       </c>
       <c r="C56" s="4">
-        <v>759</v>
+        <v>1806</v>
       </c>
       <c r="D56" s="4">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="E56" s="4">
-        <v>3440</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="57">
@@ -1847,16 +1856,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1693</v>
+        <v>868</v>
       </c>
       <c r="C57" s="4">
-        <v>1224</v>
+        <v>2115</v>
       </c>
       <c r="D57" s="4">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="E57" s="4">
-        <v>3409</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="58">
@@ -1864,16 +1873,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1836</v>
+        <v>1290</v>
       </c>
       <c r="C58" s="4">
-        <v>1490</v>
+        <v>640</v>
       </c>
       <c r="D58" s="4">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E58" s="4">
-        <v>3379</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="59">
@@ -1881,16 +1890,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1101</v>
+        <v>1759</v>
       </c>
       <c r="C59" s="4">
-        <v>1466</v>
+        <v>759</v>
       </c>
       <c r="D59" s="4">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E59" s="4">
-        <v>3338</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="60">
@@ -1898,16 +1907,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1312</v>
+        <v>1693</v>
       </c>
       <c r="C60" s="4">
-        <v>1522</v>
+        <v>1223</v>
       </c>
       <c r="D60" s="4">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E60" s="4">
-        <v>3286</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="61">
@@ -1915,16 +1924,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>800</v>
+        <v>1836</v>
       </c>
       <c r="C61" s="4">
-        <v>1727</v>
+        <v>1490</v>
       </c>
       <c r="D61" s="4">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E61" s="4">
-        <v>3247</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="62">
@@ -1932,16 +1941,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1335</v>
+        <v>1101</v>
       </c>
       <c r="C62" s="4">
-        <v>573</v>
+        <v>1466</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4">
-        <v>3243</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="63">
@@ -1949,16 +1958,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1239</v>
+        <v>1312</v>
       </c>
       <c r="C63" s="4">
-        <v>663</v>
+        <v>1522</v>
       </c>
       <c r="D63" s="4">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E63" s="4">
-        <v>3235</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="64">
@@ -1966,16 +1975,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1504</v>
+        <v>800</v>
       </c>
       <c r="C64" s="4">
-        <v>1305</v>
+        <v>1726</v>
       </c>
       <c r="D64" s="4">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E64" s="4">
-        <v>3207</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="65">
@@ -1983,16 +1992,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1632</v>
+        <v>1335</v>
       </c>
       <c r="C65" s="4">
-        <v>1272</v>
+        <v>573</v>
       </c>
       <c r="D65" s="4">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E65" s="4">
-        <v>3180</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="66">
@@ -2000,16 +2009,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C66" s="4">
-        <v>1408</v>
+        <v>663</v>
       </c>
       <c r="D66" s="4">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E66" s="4">
-        <v>3149</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="67">
@@ -2017,16 +2026,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1210</v>
+        <v>1504</v>
       </c>
       <c r="C67" s="4">
-        <v>1495</v>
+        <v>1305</v>
       </c>
       <c r="D67" s="4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E67" s="4">
-        <v>3111</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="68">
@@ -2034,16 +2043,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>948</v>
+        <v>1632</v>
       </c>
       <c r="C68" s="4">
-        <v>1720</v>
+        <v>1271</v>
       </c>
       <c r="D68" s="4">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E68" s="4">
-        <v>3060</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="69">
@@ -2051,16 +2060,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="C69" s="4">
-        <v>605</v>
+        <v>1408</v>
       </c>
       <c r="D69" s="4">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E69" s="4">
-        <v>3052</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="70">
@@ -2068,16 +2077,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1478</v>
+        <v>1210</v>
       </c>
       <c r="C70" s="4">
-        <v>667</v>
+        <v>1495</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E70" s="4">
-        <v>3047</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="71">
@@ -2085,16 +2094,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1610</v>
+        <v>948</v>
       </c>
       <c r="C71" s="4">
-        <v>1261</v>
+        <v>1720</v>
       </c>
       <c r="D71" s="4">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E71" s="4">
-        <v>3023</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="72">
@@ -2102,16 +2111,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1307</v>
+        <v>1220</v>
       </c>
       <c r="C72" s="4">
-        <v>1407</v>
+        <v>605</v>
       </c>
       <c r="D72" s="4">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E72" s="4">
-        <v>2990</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="73">
@@ -2119,16 +2128,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>969</v>
+        <v>1478</v>
       </c>
       <c r="C73" s="4">
-        <v>1526</v>
+        <v>667</v>
       </c>
       <c r="D73" s="4">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E73" s="4">
-        <v>2958</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="74">
@@ -2136,16 +2145,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>833</v>
+        <v>1610</v>
       </c>
       <c r="C74" s="4">
-        <v>1889</v>
+        <v>1261</v>
       </c>
       <c r="D74" s="4">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E74" s="4">
-        <v>2909</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="75">
@@ -2153,16 +2162,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1039</v>
+        <v>1307</v>
       </c>
       <c r="C75" s="4">
-        <v>720</v>
+        <v>1408</v>
       </c>
       <c r="D75" s="4">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E75" s="4">
-        <v>2897</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="76">
@@ -2170,16 +2179,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1099</v>
+        <v>969</v>
       </c>
       <c r="C76" s="4">
-        <v>611</v>
+        <v>1526</v>
       </c>
       <c r="D76" s="4">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E76" s="4">
-        <v>2890</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="77">
@@ -2187,16 +2196,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1586</v>
+        <v>833</v>
       </c>
       <c r="C77" s="4">
-        <v>652</v>
+        <v>1889</v>
       </c>
       <c r="D77" s="4">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E77" s="4">
-        <v>2889</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="78">
@@ -2204,16 +2213,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>2121</v>
+        <v>1039</v>
       </c>
       <c r="C78" s="4">
-        <v>1254</v>
+        <v>720</v>
       </c>
       <c r="D78" s="4">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E78" s="4">
-        <v>2839</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="79">
@@ -2221,16 +2230,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1716</v>
+        <v>1099</v>
       </c>
       <c r="C79" s="4">
-        <v>1534</v>
+        <v>611</v>
       </c>
       <c r="D79" s="4">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E79" s="4">
-        <v>2803</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="80">
@@ -2238,16 +2247,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1216</v>
+        <v>1586</v>
       </c>
       <c r="C80" s="4">
-        <v>1732</v>
+        <v>652</v>
       </c>
       <c r="D80" s="4">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E80" s="4">
-        <v>2779</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="81">
@@ -2255,16 +2264,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>2209</v>
+        <v>2121</v>
       </c>
       <c r="C81" s="4">
-        <v>1634</v>
+        <v>1254</v>
       </c>
       <c r="D81" s="4">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E81" s="4">
-        <v>2741</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="82">
@@ -2272,16 +2281,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1287</v>
+        <v>1716</v>
       </c>
       <c r="C82" s="4">
-        <v>1812</v>
+        <v>1534</v>
       </c>
       <c r="D82" s="4">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E82" s="4">
-        <v>2702</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="83">
@@ -2289,16 +2298,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1952</v>
+        <v>1216</v>
       </c>
       <c r="C83" s="4">
-        <v>638</v>
+        <v>1732</v>
       </c>
       <c r="D83" s="4">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E83" s="4">
-        <v>2692</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="84">
@@ -2306,16 +2315,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1723</v>
+        <v>2209</v>
       </c>
       <c r="C84" s="4">
-        <v>840</v>
+        <v>1634</v>
       </c>
       <c r="D84" s="4">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E84" s="4">
-        <v>2683</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="85">
@@ -2323,16 +2332,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1479</v>
+        <v>1287</v>
       </c>
       <c r="C85" s="4">
-        <v>1550</v>
+        <v>1812</v>
       </c>
       <c r="D85" s="4">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E85" s="4">
-        <v>2652</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="86">
@@ -2340,16 +2349,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>2177</v>
+        <v>1952</v>
       </c>
       <c r="C86" s="4">
-        <v>1701</v>
+        <v>638</v>
       </c>
       <c r="D86" s="4">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E86" s="4">
-        <v>2630</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="87">
@@ -2357,16 +2366,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1342</v>
+        <v>1723</v>
       </c>
       <c r="C87" s="4">
-        <v>1757</v>
+        <v>840</v>
       </c>
       <c r="D87" s="4">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E87" s="4">
-        <v>2606</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="88">
@@ -2374,16 +2383,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1446</v>
+        <v>1479</v>
       </c>
       <c r="C88" s="4">
-        <v>2031</v>
+        <v>1550</v>
       </c>
       <c r="D88" s="4">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E88" s="4">
-        <v>2570</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="89">
@@ -2391,16 +2400,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1389</v>
+        <v>2177</v>
       </c>
       <c r="C89" s="4">
-        <v>2194</v>
+        <v>1701</v>
       </c>
       <c r="D89" s="4">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="E89" s="4">
-        <v>2535</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="90">
@@ -2408,16 +2417,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1490</v>
+        <v>1342</v>
       </c>
       <c r="C90" s="4">
-        <v>784</v>
+        <v>1757</v>
       </c>
       <c r="D90" s="4">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E90" s="4">
-        <v>2531</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="91">
@@ -2425,16 +2434,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1781</v>
+        <v>1446</v>
       </c>
       <c r="C91" s="4">
-        <v>852</v>
+        <v>2031</v>
       </c>
       <c r="D91" s="4">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E91" s="4">
-        <v>2521</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="92">
@@ -2442,16 +2451,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>2075</v>
+        <v>1389</v>
       </c>
       <c r="C92" s="4">
-        <v>1767</v>
+        <v>2194</v>
       </c>
       <c r="D92" s="4">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E92" s="4">
-        <v>2494</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="93">
@@ -2459,16 +2468,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>2050</v>
+        <v>1490</v>
       </c>
       <c r="C93" s="4">
-        <v>1728</v>
+        <v>783</v>
       </c>
       <c r="D93" s="4">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E93" s="4">
-        <v>2465</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="94">
@@ -2476,16 +2485,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1218</v>
+        <v>1781</v>
       </c>
       <c r="C94" s="4">
-        <v>1731</v>
+        <v>852</v>
       </c>
       <c r="D94" s="4">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E94" s="4">
-        <v>2431</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="95">
@@ -2493,16 +2502,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1336</v>
+        <v>2075</v>
       </c>
       <c r="C95" s="4">
-        <v>1978</v>
+        <v>1766</v>
       </c>
       <c r="D95" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E95" s="4">
-        <v>2396</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="96">
@@ -2510,16 +2519,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>431</v>
+        <v>2050</v>
       </c>
       <c r="C96" s="4">
-        <v>1999</v>
+        <v>1727</v>
       </c>
       <c r="D96" s="4">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E96" s="4">
-        <v>2348</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="97">
@@ -2527,16 +2536,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1400</v>
+        <v>1218</v>
       </c>
       <c r="C97" s="4">
-        <v>629</v>
+        <v>1730</v>
       </c>
       <c r="D97" s="4">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E97" s="4">
-        <v>2347</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="98">
@@ -2544,16 +2553,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1662</v>
+        <v>1336</v>
       </c>
       <c r="C98" s="4">
-        <v>763</v>
+        <v>1978</v>
       </c>
       <c r="D98" s="4">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E98" s="4">
-        <v>2343</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="99">
@@ -2561,16 +2570,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1210</v>
+        <v>431</v>
       </c>
       <c r="C99" s="4">
-        <v>1555</v>
+        <v>2000</v>
       </c>
       <c r="D99" s="4">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E99" s="4">
-        <v>2313</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="100">
@@ -2578,16 +2587,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1978</v>
+        <v>1400</v>
       </c>
       <c r="C100" s="4">
-        <v>1487</v>
+        <v>629</v>
       </c>
       <c r="D100" s="4">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E100" s="4">
-        <v>2287</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="101">
@@ -2595,16 +2604,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1308</v>
+        <v>1662</v>
       </c>
       <c r="C101" s="4">
-        <v>1511</v>
+        <v>763</v>
       </c>
       <c r="D101" s="4">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E101" s="4">
-        <v>2249</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="102">
@@ -2612,16 +2621,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="C102" s="4">
-        <v>1484</v>
+        <v>1554</v>
       </c>
       <c r="D102" s="4">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E102" s="4">
-        <v>2204</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="103">
@@ -2629,16 +2638,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>512</v>
+        <v>1978</v>
       </c>
       <c r="C103" s="4">
-        <v>1735</v>
+        <v>1487</v>
       </c>
       <c r="D103" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E103" s="4">
-        <v>2172</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="104">
@@ -2646,16 +2655,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1626</v>
+        <v>1308</v>
       </c>
       <c r="C104" s="4">
-        <v>581</v>
+        <v>1511</v>
       </c>
       <c r="D104" s="4">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E104" s="4">
-        <v>2168</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="105">
@@ -2663,16 +2672,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1987</v>
+        <v>1131</v>
       </c>
       <c r="C105" s="4">
-        <v>719</v>
+        <v>1484</v>
       </c>
       <c r="D105" s="4">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E105" s="4">
-        <v>2160</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="106">
@@ -2680,16 +2689,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1582</v>
+        <v>512</v>
       </c>
       <c r="C106" s="4">
-        <v>1410</v>
+        <v>1735</v>
       </c>
       <c r="D106" s="4">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E106" s="4">
-        <v>2134</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="107">
@@ -2697,16 +2706,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>2049</v>
+        <v>1626</v>
       </c>
       <c r="C107" s="4">
-        <v>1482</v>
+        <v>581</v>
       </c>
       <c r="D107" s="4">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E107" s="4">
-        <v>2092</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="108">
@@ -2714,16 +2723,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1185</v>
+        <v>1987</v>
       </c>
       <c r="C108" s="4">
-        <v>1737</v>
+        <v>719</v>
       </c>
       <c r="D108" s="4">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E108" s="4">
-        <v>2050</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="109">
@@ -2731,16 +2740,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1694</v>
+        <v>1582</v>
       </c>
       <c r="C109" s="4">
-        <v>1546</v>
+        <v>1410</v>
       </c>
       <c r="D109" s="4">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E109" s="4">
-        <v>2010</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="110">
@@ -2748,16 +2757,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1388</v>
+        <v>2049</v>
       </c>
       <c r="C110" s="4">
-        <v>1911</v>
+        <v>1482</v>
       </c>
       <c r="D110" s="4">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E110" s="4">
-        <v>1982</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="111">
@@ -2765,16 +2774,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1362</v>
+        <v>1185</v>
       </c>
       <c r="C111" s="4">
-        <v>710</v>
+        <v>1737</v>
       </c>
       <c r="D111" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E111" s="4">
-        <v>1969</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="112">
@@ -2782,16 +2791,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1753</v>
+        <v>1694</v>
       </c>
       <c r="C112" s="4">
-        <v>774</v>
+        <v>1545</v>
       </c>
       <c r="D112" s="4">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E112" s="4">
-        <v>1964</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="113">
@@ -2799,16 +2808,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>2018</v>
+        <v>1388</v>
       </c>
       <c r="C113" s="4">
-        <v>1722</v>
+        <v>1911</v>
       </c>
       <c r="D113" s="4">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E113" s="4">
-        <v>1924</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="114">
@@ -2816,16 +2825,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>2411</v>
+        <v>1362</v>
       </c>
       <c r="C114" s="4">
-        <v>1801</v>
+        <v>710</v>
       </c>
       <c r="D114" s="4">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E114" s="4">
-        <v>1903</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="115">
@@ -2833,16 +2842,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1826</v>
+        <v>1753</v>
       </c>
       <c r="C115" s="4">
-        <v>1842</v>
+        <v>774</v>
       </c>
       <c r="D115" s="4">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E115" s="4">
-        <v>1865</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="116">
@@ -2850,16 +2859,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1805</v>
+        <v>2018</v>
       </c>
       <c r="C116" s="4">
-        <v>2022</v>
+        <v>1722</v>
       </c>
       <c r="D116" s="4">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E116" s="4">
-        <v>1820</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="117">
@@ -2867,16 +2876,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1685</v>
+        <v>2411</v>
       </c>
       <c r="C117" s="4">
-        <v>2130</v>
+        <v>1801</v>
       </c>
       <c r="D117" s="4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E117" s="4">
-        <v>1790</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="118">
@@ -2884,16 +2893,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1645</v>
+        <v>1826</v>
       </c>
       <c r="C118" s="4">
-        <v>710</v>
+        <v>1842</v>
       </c>
       <c r="D118" s="4">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E118" s="4">
-        <v>1785</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="119">
@@ -2901,16 +2910,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2114</v>
+        <v>1805</v>
       </c>
       <c r="C119" s="4">
-        <v>874</v>
+        <v>2021</v>
       </c>
       <c r="D119" s="4">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E119" s="4">
-        <v>1778</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="120">
@@ -2918,16 +2927,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>2145</v>
+        <v>1685</v>
       </c>
       <c r="C120" s="4">
-        <v>1959</v>
+        <v>2130</v>
       </c>
       <c r="D120" s="4">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E120" s="4">
-        <v>1746</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="121">
@@ -2935,16 +2944,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1945</v>
+        <v>1645</v>
       </c>
       <c r="C121" s="4">
-        <v>1840</v>
+        <v>710</v>
       </c>
       <c r="D121" s="4">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E121" s="4">
-        <v>1726</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="122">
@@ -2952,16 +2961,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>2191</v>
+        <v>2114</v>
       </c>
       <c r="C122" s="4">
-        <v>2023</v>
+        <v>874</v>
       </c>
       <c r="D122" s="4">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E122" s="4">
-        <v>1698</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="123">
@@ -2969,16 +2978,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1863</v>
+        <v>2145</v>
       </c>
       <c r="C123" s="4">
-        <v>2280</v>
+        <v>1960</v>
       </c>
       <c r="D123" s="4">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E123" s="4">
-        <v>1668</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="124">
@@ -2986,16 +2995,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1291</v>
+        <v>1945</v>
       </c>
       <c r="C124" s="4">
-        <v>2329</v>
+        <v>1839</v>
       </c>
       <c r="D124" s="4">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E124" s="4">
-        <v>1642</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="125">
@@ -3003,16 +3012,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1820</v>
+        <v>2191</v>
       </c>
       <c r="C125" s="4">
-        <v>820</v>
+        <v>2021</v>
       </c>
       <c r="D125" s="4">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E125" s="4">
-        <v>1634</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="126">
@@ -3020,16 +3029,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2486</v>
+        <v>1863</v>
       </c>
       <c r="C126" s="4">
-        <v>967</v>
+        <v>2280</v>
       </c>
       <c r="D126" s="4">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E126" s="4">
-        <v>1629</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="127">
@@ -3037,16 +3046,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>2082</v>
+        <v>1291</v>
       </c>
       <c r="C127" s="4">
-        <v>1944</v>
+        <v>2328</v>
       </c>
       <c r="D127" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E127" s="4">
-        <v>1606</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="128">
@@ -3054,16 +3063,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>2191</v>
+        <v>1820</v>
       </c>
       <c r="C128" s="4">
-        <v>2088</v>
+        <v>819</v>
       </c>
       <c r="D128" s="4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E128" s="4">
-        <v>1588</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="129">
@@ -3071,16 +3080,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1816</v>
+        <v>2486</v>
       </c>
       <c r="C129" s="4">
-        <v>2238</v>
+        <v>967</v>
       </c>
       <c r="D129" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E129" s="4">
-        <v>1568</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="130">
@@ -3088,16 +3097,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1991</v>
+        <v>2082</v>
       </c>
       <c r="C130" s="4">
-        <v>2458</v>
+        <v>1943</v>
       </c>
       <c r="D130" s="4">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E130" s="4">
-        <v>1552</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="131">
@@ -3105,16 +3114,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1846</v>
+        <v>2191</v>
       </c>
       <c r="C131" s="4">
-        <v>2485</v>
+        <v>2087</v>
       </c>
       <c r="D131" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E131" s="4">
-        <v>1510</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="132">
@@ -3122,16 +3131,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1909</v>
+        <v>1816</v>
       </c>
       <c r="C132" s="4">
-        <v>861</v>
+        <v>2240</v>
       </c>
       <c r="D132" s="4">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E132" s="4">
-        <v>1503</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="133">
@@ -3139,16 +3148,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2467</v>
+        <v>1991</v>
       </c>
       <c r="C133" s="4">
-        <v>994</v>
+        <v>2457</v>
       </c>
       <c r="D133" s="4">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E133" s="4">
-        <v>1499</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="134">
@@ -3156,16 +3165,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2007</v>
+        <v>1846</v>
       </c>
       <c r="C134" s="4">
-        <v>2142</v>
+        <v>2485</v>
       </c>
       <c r="D134" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E134" s="4">
-        <v>1479</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="135">
@@ -3173,16 +3182,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>2059</v>
+        <v>1909</v>
       </c>
       <c r="C135" s="4">
-        <v>2163</v>
+        <v>861</v>
       </c>
       <c r="D135" s="4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E135" s="4">
-        <v>1461</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="136">
@@ -3190,16 +3199,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1449</v>
+        <v>2467</v>
       </c>
       <c r="C136" s="4">
-        <v>2568</v>
+        <v>994</v>
       </c>
       <c r="D136" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E136" s="4">
-        <v>1441</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="137">
@@ -3207,16 +3216,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1367</v>
+        <v>2007</v>
       </c>
       <c r="C137" s="4">
-        <v>2813</v>
+        <v>2142</v>
       </c>
       <c r="D137" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E137" s="4">
-        <v>1420</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="138">
@@ -3224,16 +3233,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1563</v>
+        <v>2059</v>
       </c>
       <c r="C138" s="4">
-        <v>2539</v>
+        <v>2163</v>
       </c>
       <c r="D138" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E138" s="4">
-        <v>1398</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="139">
@@ -3241,16 +3250,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1330</v>
+        <v>1449</v>
       </c>
       <c r="C139" s="4">
-        <v>767</v>
+        <v>2567</v>
       </c>
       <c r="D139" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E139" s="4">
-        <v>1396</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="140">
@@ -3258,16 +3267,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1419</v>
+        <v>1367</v>
       </c>
       <c r="C140" s="4">
-        <v>587</v>
+        <v>2813</v>
       </c>
       <c r="D140" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E140" s="4">
-        <v>1395</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="141">
@@ -3275,16 +3284,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2102</v>
+        <v>1563</v>
       </c>
       <c r="C141" s="4">
-        <v>1362</v>
+        <v>2539</v>
       </c>
       <c r="D141" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E141" s="4">
-        <v>1392</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="142">
@@ -3292,16 +3301,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1639</v>
+        <v>1330</v>
       </c>
       <c r="C142" s="4">
-        <v>2036</v>
+        <v>767</v>
       </c>
       <c r="D142" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E142" s="4">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="143">
@@ -3309,16 +3318,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1862</v>
+        <v>1419</v>
       </c>
       <c r="C143" s="4">
-        <v>2077</v>
+        <v>587</v>
       </c>
       <c r="D143" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E143" s="4">
-        <v>1373</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="144">
@@ -3326,16 +3335,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1196</v>
+        <v>2102</v>
       </c>
       <c r="C144" s="4">
-        <v>2330</v>
+        <v>1362</v>
       </c>
       <c r="D144" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E144" s="4">
-        <v>1343</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="145">
@@ -3343,16 +3352,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1349</v>
+        <v>1639</v>
       </c>
       <c r="C145" s="4">
-        <v>2538</v>
+        <v>2035</v>
       </c>
       <c r="D145" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E145" s="4">
-        <v>1325</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="146">
@@ -3360,16 +3369,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1605</v>
+        <v>1862</v>
       </c>
       <c r="C146" s="4">
-        <v>1050</v>
+        <v>2074</v>
       </c>
       <c r="D146" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E146" s="4">
-        <v>1322</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="147">
@@ -3377,16 +3386,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1720</v>
+        <v>1196</v>
       </c>
       <c r="C147" s="4">
-        <v>939</v>
+        <v>2330</v>
       </c>
       <c r="D147" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E147" s="4">
-        <v>1318</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="148">
@@ -3394,16 +3403,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1649</v>
+        <v>1349</v>
       </c>
       <c r="C148" s="4">
-        <v>1973</v>
+        <v>2538</v>
       </c>
       <c r="D148" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E148" s="4">
-        <v>1303</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="149">
@@ -3411,16 +3420,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1024</v>
+        <v>1605</v>
       </c>
       <c r="C149" s="4">
-        <v>1967</v>
+        <v>1049</v>
       </c>
       <c r="D149" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E149" s="4">
-        <v>1290</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="150">
@@ -3428,16 +3437,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C150" s="4">
-        <v>1906</v>
+        <v>939</v>
       </c>
       <c r="D150" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E150" s="4">
-        <v>1271</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="151">
@@ -3445,16 +3454,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>854</v>
+        <v>1649</v>
       </c>
       <c r="C151" s="4">
-        <v>2092</v>
+        <v>1972</v>
       </c>
       <c r="D151" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E151" s="4">
-        <v>1251</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="152">
@@ -3462,16 +3471,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>805</v>
+        <v>1024</v>
       </c>
       <c r="C152" s="4">
-        <v>2042</v>
+        <v>1968</v>
       </c>
       <c r="D152" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E152" s="4">
-        <v>1223</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="153">
@@ -3479,16 +3488,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1412</v>
+        <v>1724</v>
       </c>
       <c r="C153" s="4">
-        <v>701</v>
+        <v>1906</v>
       </c>
       <c r="D153" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E153" s="4">
-        <v>1220</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="154">
@@ -3496,16 +3505,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1549</v>
+        <v>854</v>
       </c>
       <c r="C154" s="4">
-        <v>768</v>
+        <v>2092</v>
       </c>
       <c r="D154" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E154" s="4">
-        <v>1212</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="155">
@@ -3513,16 +3522,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1655</v>
+        <v>805</v>
       </c>
       <c r="C155" s="4">
-        <v>1630</v>
+        <v>2042</v>
       </c>
       <c r="D155" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E155" s="4">
-        <v>1197</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="156">
@@ -3530,16 +3539,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1335</v>
+        <v>1412</v>
       </c>
       <c r="C156" s="4">
-        <v>1787</v>
+        <v>701</v>
       </c>
       <c r="D156" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E156" s="4">
-        <v>1175</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="157">
@@ -3547,16 +3556,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1002</v>
+        <v>1549</v>
       </c>
       <c r="C157" s="4">
-        <v>1721</v>
+        <v>768</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
       </c>
       <c r="E157" s="4">
-        <v>1168</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="158">
@@ -3564,16 +3573,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>751</v>
+        <v>1655</v>
       </c>
       <c r="C158" s="4">
-        <v>1600</v>
+        <v>1629</v>
       </c>
       <c r="D158" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E158" s="4">
-        <v>1154</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="159">
@@ -3581,16 +3590,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>983</v>
+        <v>1335</v>
       </c>
       <c r="C159" s="4">
-        <v>1695</v>
+        <v>1788</v>
       </c>
       <c r="D159" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E159" s="4">
-        <v>1118</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="160">
@@ -3598,16 +3607,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1444</v>
+        <v>1002</v>
       </c>
       <c r="C160" s="4">
-        <v>552</v>
+        <v>1721</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
       </c>
       <c r="E160" s="4">
-        <v>1109</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="161">
@@ -3615,16 +3624,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1429</v>
+        <v>751</v>
       </c>
       <c r="C161" s="4">
-        <v>687</v>
+        <v>1599</v>
       </c>
       <c r="D161" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" s="4">
-        <v>1104</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="162">
@@ -3632,16 +3641,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1768</v>
+        <v>983</v>
       </c>
       <c r="C162" s="4">
-        <v>1450</v>
+        <v>1695</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
       </c>
       <c r="E162" s="4">
-        <v>1092</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="163">
@@ -3649,16 +3658,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1310</v>
+        <v>1444</v>
       </c>
       <c r="C163" s="4">
-        <v>1439</v>
+        <v>552</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
       </c>
       <c r="E163" s="4">
-        <v>1064</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="164">
@@ -3666,16 +3675,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1011</v>
+        <v>1429</v>
       </c>
       <c r="C164" s="4">
-        <v>1460</v>
+        <v>687</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="4">
-        <v>1053</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="165">
@@ -3683,16 +3692,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>676</v>
+        <v>1768</v>
       </c>
       <c r="C165" s="4">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="D165" s="4">
         <v>0</v>
       </c>
       <c r="E165" s="4">
-        <v>1029</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="166">
@@ -3700,16 +3709,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>938</v>
+        <v>1310</v>
       </c>
       <c r="C166" s="4">
-        <v>1662</v>
+        <v>1438</v>
       </c>
       <c r="D166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="4">
-        <v>1006</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="167">
@@ -3717,16 +3726,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>921</v>
+        <v>1011</v>
       </c>
       <c r="C167" s="4">
-        <v>435</v>
+        <v>1460</v>
       </c>
       <c r="D167" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>996</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="168">
@@ -3734,16 +3743,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1370</v>
+        <v>676</v>
       </c>
       <c r="C168" s="4">
-        <v>487</v>
+        <v>1557</v>
       </c>
       <c r="D168" s="4">
         <v>0</v>
       </c>
       <c r="E168" s="4">
-        <v>992</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="169">
@@ -3751,16 +3760,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1289</v>
+        <v>938</v>
       </c>
       <c r="C169" s="4">
-        <v>1323</v>
+        <v>1662</v>
       </c>
       <c r="D169" s="4">
         <v>0</v>
       </c>
       <c r="E169" s="4">
-        <v>966</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="170">
@@ -3768,16 +3777,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1190</v>
+        <v>921</v>
       </c>
       <c r="C170" s="4">
-        <v>1347</v>
+        <v>435</v>
       </c>
       <c r="D170" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>960</v>
+        <v>996</v>
       </c>
     </row>
     <row r="171">
@@ -3785,16 +3794,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>888</v>
+        <v>1370</v>
       </c>
       <c r="C171" s="4">
-        <v>1443</v>
+        <v>487</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>939</v>
+        <v>992</v>
       </c>
     </row>
     <row r="172">
@@ -3802,16 +3811,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>626</v>
+        <v>1289</v>
       </c>
       <c r="C172" s="4">
-        <v>1272</v>
+        <v>1323</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>921</v>
+        <v>966</v>
       </c>
     </row>
     <row r="173">
@@ -3819,16 +3828,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>674</v>
+        <v>1190</v>
       </c>
       <c r="C173" s="4">
-        <v>1513</v>
+        <v>1347</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>898</v>
+        <v>960</v>
       </c>
     </row>
     <row r="174">
@@ -3836,16 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="C174" s="4">
-        <v>333</v>
+        <v>1443</v>
       </c>
       <c r="D174" s="4">
         <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>886</v>
+        <v>939</v>
       </c>
     </row>
     <row r="175">
@@ -3853,16 +3862,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1185</v>
+        <v>626</v>
       </c>
       <c r="C175" s="4">
-        <v>449</v>
+        <v>1272</v>
       </c>
       <c r="D175" s="4">
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>877</v>
+        <v>921</v>
       </c>
     </row>
     <row r="176">
@@ -3870,16 +3879,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1076</v>
+        <v>674</v>
       </c>
       <c r="C176" s="4">
-        <v>1117</v>
+        <v>1513</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>859</v>
+        <v>898</v>
       </c>
     </row>
     <row r="177">
@@ -3887,16 +3896,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>784</v>
+        <v>916</v>
       </c>
       <c r="C177" s="4">
-        <v>1024</v>
+        <v>333</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>827</v>
+        <v>886</v>
       </c>
     </row>
     <row r="178">
@@ -3904,16 +3913,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>488</v>
+        <v>1185</v>
       </c>
       <c r="C178" s="4">
-        <v>1003</v>
+        <v>449</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>794</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179">
@@ -3921,16 +3930,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>176</v>
+        <v>1076</v>
       </c>
       <c r="C179" s="4">
-        <v>1368</v>
+        <v>1117</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>766</v>
+        <v>859</v>
       </c>
     </row>
     <row r="180">
@@ -3938,16 +3947,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="C180" s="4">
-        <v>370</v>
+        <v>1024</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>754</v>
+        <v>827</v>
       </c>
     </row>
     <row r="181">
@@ -3955,16 +3964,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C181" s="4">
-        <v>262</v>
+        <v>1003</v>
       </c>
       <c r="D181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>744</v>
+        <v>794</v>
       </c>
     </row>
     <row r="182">
@@ -3972,16 +3981,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1107</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4">
-        <v>340</v>
+        <v>1368</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>737</v>
+        <v>766</v>
       </c>
     </row>
     <row r="183">
@@ -3989,16 +3998,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C183" s="4">
-        <v>748</v>
+        <v>370</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>728</v>
+        <v>754</v>
       </c>
     </row>
     <row r="184">
@@ -4006,16 +4015,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>738</v>
+        <v>497</v>
       </c>
       <c r="C184" s="4">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="185">
@@ -4023,16 +4032,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>423</v>
+        <v>1107</v>
       </c>
       <c r="C185" s="4">
-        <v>839</v>
+        <v>340</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>702</v>
+        <v>737</v>
       </c>
     </row>
     <row r="186">
@@ -4040,16 +4049,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="C186" s="4">
-        <v>963</v>
+        <v>748</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="187">
@@ -4057,16 +4066,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="C187" s="4">
-        <v>1058</v>
+        <v>867</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>661</v>
+        <v>716</v>
       </c>
     </row>
     <row r="188">
@@ -4074,16 +4083,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="C188" s="4">
-        <v>195</v>
+        <v>839</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>659</v>
+        <v>702</v>
       </c>
     </row>
     <row r="189">
@@ -4091,16 +4100,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>853</v>
+        <v>677</v>
       </c>
       <c r="C189" s="4">
-        <v>288</v>
+        <v>963</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>652</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190">
@@ -4108,16 +4117,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="C190" s="4">
-        <v>706</v>
+        <v>1058</v>
       </c>
       <c r="D190" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="191">
@@ -4125,16 +4134,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>691</v>
+        <v>530</v>
       </c>
       <c r="C191" s="4">
-        <v>756</v>
+        <v>195</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>615</v>
+        <v>659</v>
       </c>
     </row>
     <row r="192">
@@ -4142,16 +4151,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>470</v>
+        <v>853</v>
       </c>
       <c r="C192" s="4">
-        <v>713</v>
+        <v>288</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>597</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193">
@@ -4159,16 +4168,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>301</v>
+        <v>622</v>
       </c>
       <c r="C193" s="4">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D193" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" s="4">
-        <v>577</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194">
@@ -4176,16 +4185,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>281</v>
+        <v>691</v>
       </c>
       <c r="C194" s="4">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195">
@@ -4193,16 +4202,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C195" s="4">
-        <v>117</v>
+        <v>713</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>547</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196">
@@ -4210,16 +4219,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>492</v>
+        <v>301</v>
       </c>
       <c r="C196" s="4">
-        <v>213</v>
+        <v>681</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="197">
@@ -4227,16 +4236,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="C197" s="4">
-        <v>538</v>
+        <v>769</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198">
@@ -4244,16 +4253,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>639</v>
+        <v>404</v>
       </c>
       <c r="C198" s="4">
-        <v>605</v>
+        <v>117</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>507</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199">
@@ -4261,16 +4270,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C199" s="4">
-        <v>677</v>
+        <v>213</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="200">
@@ -4278,16 +4287,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="C200" s="4">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201">
@@ -4295,16 +4304,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>184</v>
+        <v>639</v>
       </c>
       <c r="C201" s="4">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>430</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202">
@@ -4312,16 +4321,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>155</v>
+        <v>502</v>
       </c>
       <c r="C202" s="4">
-        <v>172</v>
+        <v>677</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203">
@@ -4329,16 +4338,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>586</v>
+        <v>408</v>
       </c>
       <c r="C203" s="4">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204">
@@ -4346,16 +4355,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>414</v>
+        <v>184</v>
       </c>
       <c r="C204" s="4">
-        <v>450</v>
+        <v>689</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>399</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205">
@@ -4363,16 +4372,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>561</v>
+        <v>155</v>
       </c>
       <c r="C205" s="4">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206">
@@ -4380,16 +4389,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="C206" s="4">
-        <v>439</v>
+        <v>182</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>354</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207">
@@ -4397,16 +4406,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C207" s="4">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>342</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -4414,16 +4423,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>312</v>
+        <v>561</v>
       </c>
       <c r="C208" s="4">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>306</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209">
@@ -4431,16 +4440,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="C209" s="4">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="210">
@@ -4448,16 +4457,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>571</v>
+        <v>426</v>
       </c>
       <c r="C210" s="4">
-        <v>254</v>
+        <v>435</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>289</v>
+        <v>342</v>
       </c>
     </row>
     <row r="211">
@@ -4465,16 +4474,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="C211" s="4">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212">
@@ -4482,16 +4491,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="C212" s="4">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>253</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213">
@@ -4499,16 +4508,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>269</v>
+        <v>571</v>
       </c>
       <c r="C213" s="4">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>242</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214">
@@ -4516,16 +4525,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="C214" s="4">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>213</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215">
@@ -4533,16 +4542,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="C215" s="4">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>179</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216">
@@ -4550,16 +4559,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="C216" s="4">
-        <v>120</v>
+        <v>439</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>172</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217">
@@ -4567,16 +4576,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C217" s="4">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218">
@@ -4584,16 +4593,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="C218" s="4">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219">
@@ -4601,16 +4610,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C219" s="4">
-        <v>541</v>
+        <v>120</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
@@ -4618,16 +4627,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="C220" s="4">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>117</v>
+        <v>164</v>
       </c>
     </row>
     <row r="221">
@@ -4635,16 +4644,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="C221" s="4">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222">
@@ -4652,16 +4661,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C222" s="4">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="223">
@@ -4669,16 +4678,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C223" s="4">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224">
@@ -4686,16 +4695,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C224" s="4">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225">
@@ -4703,16 +4712,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C225" s="4">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="226">
@@ -4720,16 +4729,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C226" s="4">
-        <v>327</v>
+        <v>112</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227">
@@ -4737,16 +4746,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="C227" s="4">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228">
@@ -4754,16 +4763,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C228" s="4">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229">
@@ -4771,16 +4780,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="C229" s="4">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230">
@@ -4788,16 +4797,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C230" s="4">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231">
@@ -4805,16 +4814,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C231" s="4">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232">
@@ -4822,16 +4831,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="C232" s="4">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233">
@@ -4839,16 +4848,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="C233" s="4">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="234">
@@ -4856,16 +4865,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="C234" s="4">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235">
@@ -4873,16 +4882,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C235" s="4">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236">
@@ -4890,16 +4899,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="C236" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
@@ -4907,16 +4916,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C237" s="4">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
@@ -4924,16 +4933,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C238" s="4">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
@@ -4941,16 +4950,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C239" s="4">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
@@ -4958,16 +4967,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -4975,16 +4984,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C241" s="4">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
@@ -4992,55 +5001,61 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C242" s="4">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
-      <c r="E242" s="4"/>
+      <c r="E242" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C243" s="4">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
-      <c r="E243" s="4"/>
+      <c r="E243" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C244" s="4">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
-      <c r="E244" s="4"/>
+      <c r="E244" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C245" s="4">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
@@ -5052,10 +5067,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C246" s="4">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
@@ -5067,10 +5082,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C247" s="4">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
@@ -5082,10 +5097,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C248" s="4">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
@@ -5097,10 +5112,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C249" s="4">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
@@ -5112,10 +5127,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C250" s="4">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
@@ -5127,10 +5142,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C251" s="4">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
@@ -5142,10 +5157,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" s="4">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5157,10 +5172,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C253" s="4">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5172,10 +5187,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C254" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5187,10 +5202,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C255" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5202,10 +5217,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" s="4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5217,10 +5232,14 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>1</v>
-      </c>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C257" s="4">
+        <v>15</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0</v>
+      </c>
       <c r="E257" s="4"/>
     </row>
     <row r="258">
@@ -5231,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="C258" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5243,10 +5262,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C259" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5258,7 +5277,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -5271,8 +5290,12 @@
       <c r="B261" s="4">
         <v>0</v>
       </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="C261" s="4">
+        <v>5</v>
+      </c>
+      <c r="D261" s="4">
+        <v>0</v>
+      </c>
       <c r="E261" s="4"/>
     </row>
     <row r="262">
@@ -5306,15 +5329,52 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
+        <v>0</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+      <c r="C265" s="4">
         <v>1</v>
       </c>
-      <c r="C264" s="4">
+      <c r="D265" s="4">
+        <v>0</v>
+      </c>
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="4">
         <v>1</v>
       </c>
-      <c r="D264" s="4">
-        <v>0</v>
-      </c>
-      <c r="E264" s="4"/>
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
+      <c r="E267" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+  <si>
+    <t>11/23/2020</t>
+  </si>
   <si>
     <t>11/22/2020</t>
   </si>
@@ -904,24 +907,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -929,12 +932,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="3">
@@ -942,12 +945,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="4">
@@ -955,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C4" s="4">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="D4" s="4">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="5">
@@ -972,16 +975,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C5" s="4">
-        <v>1065</v>
+        <v>830</v>
       </c>
       <c r="D5" s="4">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C6" s="4">
-        <v>2380</v>
+        <v>1812</v>
       </c>
       <c r="D6" s="4">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="E6" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="7">
@@ -1006,16 +1009,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C7" s="4">
-        <v>3377</v>
+        <v>2846</v>
       </c>
       <c r="D7" s="4">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="E7" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="8">
@@ -1023,16 +1026,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C8" s="4">
-        <v>4389</v>
+        <v>3656</v>
       </c>
       <c r="D8" s="4">
-        <v>512</v>
+        <v>381</v>
       </c>
       <c r="E8" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="9">
@@ -1040,16 +1043,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C9" s="4">
-        <v>1482</v>
+        <v>4434</v>
       </c>
       <c r="D9" s="4">
-        <v>177</v>
+        <v>532</v>
       </c>
       <c r="E9" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="10">
@@ -1057,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C10" s="4">
-        <v>1760</v>
+        <v>1487</v>
       </c>
       <c r="D10" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E10" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="11">
@@ -1074,16 +1077,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C11" s="4">
-        <v>3376</v>
+        <v>1765</v>
       </c>
       <c r="D11" s="4">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="E11" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="12">
@@ -1091,16 +1094,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C12" s="4">
-        <v>3168</v>
+        <v>3392</v>
       </c>
       <c r="D12" s="4">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="E12" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="13">
@@ -1108,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C13" s="4">
-        <v>3013</v>
+        <v>3172</v>
       </c>
       <c r="D13" s="4">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="E13" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="14">
@@ -1125,16 +1128,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C14" s="4">
-        <v>3346</v>
+        <v>3016</v>
       </c>
       <c r="D14" s="4">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E14" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="15">
@@ -1142,16 +1145,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C15" s="4">
-        <v>4045</v>
+        <v>3348</v>
       </c>
       <c r="D15" s="4">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="E15" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="16">
@@ -1159,16 +1162,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C16" s="4">
-        <v>1373</v>
+        <v>4047</v>
       </c>
       <c r="D16" s="4">
-        <v>133</v>
+        <v>451</v>
       </c>
       <c r="E16" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="17">
@@ -1176,16 +1179,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C17" s="4">
-        <v>1485</v>
+        <v>1374</v>
       </c>
       <c r="D17" s="4">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="18">
@@ -1193,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C18" s="4">
-        <v>2401</v>
+        <v>1486</v>
       </c>
       <c r="D18" s="4">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="E18" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="19">
@@ -1210,16 +1213,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C19" s="4">
-        <v>2577</v>
+        <v>2401</v>
       </c>
       <c r="D19" s="4">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E19" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="20">
@@ -1227,16 +1230,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C20" s="4">
-        <v>2608</v>
+        <v>2578</v>
       </c>
       <c r="D20" s="4">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E20" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="21">
@@ -1244,16 +1247,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C21" s="4">
-        <v>2656</v>
+        <v>2609</v>
       </c>
       <c r="D21" s="4">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E21" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="22">
@@ -1261,16 +1264,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C22" s="4">
-        <v>3101</v>
+        <v>2656</v>
       </c>
       <c r="D22" s="4">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="E22" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="23">
@@ -1278,16 +1281,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C23" s="4">
-        <v>936</v>
+        <v>3101</v>
       </c>
       <c r="D23" s="4">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="E23" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="24">
@@ -1295,16 +1298,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C24" s="4">
-        <v>1062</v>
+        <v>936</v>
       </c>
       <c r="D24" s="4">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="25">
@@ -1312,16 +1315,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C25" s="4">
-        <v>2245</v>
+        <v>1062</v>
       </c>
       <c r="D25" s="4">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="E25" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="26">
@@ -1329,16 +1332,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C26" s="4">
-        <v>1979</v>
+        <v>2248</v>
       </c>
       <c r="D26" s="4">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="E26" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="27">
@@ -1346,16 +1349,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C27" s="4">
-        <v>2436</v>
+        <v>1979</v>
       </c>
       <c r="D27" s="4">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E27" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="28">
@@ -1363,16 +1366,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C28" s="4">
-        <v>2421</v>
+        <v>2436</v>
       </c>
       <c r="D28" s="4">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E28" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="29">
@@ -1380,16 +1383,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C29" s="4">
-        <v>2987</v>
+        <v>2421</v>
       </c>
       <c r="D29" s="4">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="E29" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="30">
@@ -1397,16 +1400,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C30" s="4">
-        <v>906</v>
+        <v>2987</v>
       </c>
       <c r="D30" s="4">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="E30" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="31">
@@ -1414,16 +1417,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C31" s="4">
-        <v>1071</v>
+        <v>906</v>
       </c>
       <c r="D31" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="32">
@@ -1431,16 +1434,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C32" s="4">
-        <v>2201</v>
+        <v>1071</v>
       </c>
       <c r="D32" s="4">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="E32" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="33">
@@ -1448,16 +1451,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C33" s="4">
-        <v>2137</v>
+        <v>2201</v>
       </c>
       <c r="D33" s="4">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E33" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="34">
@@ -1465,16 +1468,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C34" s="4">
-        <v>2454</v>
+        <v>2137</v>
       </c>
       <c r="D34" s="4">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E34" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="35">
@@ -1482,16 +1485,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C35" s="4">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="D35" s="4">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E35" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="36">
@@ -1499,16 +1502,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C36" s="4">
-        <v>2797</v>
+        <v>2456</v>
       </c>
       <c r="D36" s="4">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="E36" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="37">
@@ -1516,16 +1519,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C37" s="4">
-        <v>849</v>
+        <v>2797</v>
       </c>
       <c r="D37" s="4">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="E37" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="38">
@@ -1533,16 +1536,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C38" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D38" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="39">
@@ -1550,16 +1553,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C39" s="4">
-        <v>2056</v>
+        <v>951</v>
       </c>
       <c r="D39" s="4">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="40">
@@ -1567,16 +1570,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C40" s="4">
-        <v>2103</v>
+        <v>2056</v>
       </c>
       <c r="D40" s="4">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="E40" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="41">
@@ -1584,16 +1587,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C41" s="4">
-        <v>2128</v>
+        <v>2103</v>
       </c>
       <c r="D41" s="4">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E41" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="42">
@@ -1601,16 +1604,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C42" s="4">
-        <v>2381</v>
+        <v>2128</v>
       </c>
       <c r="D42" s="4">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E42" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="43">
@@ -1618,16 +1621,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C43" s="4">
-        <v>2682</v>
+        <v>2381</v>
       </c>
       <c r="D43" s="4">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="E43" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="44">
@@ -1635,16 +1638,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C44" s="4">
-        <v>903</v>
+        <v>2682</v>
       </c>
       <c r="D44" s="4">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="E44" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="45">
@@ -1652,16 +1655,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C45" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D45" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E45" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="46">
@@ -1669,16 +1672,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C46" s="4">
-        <v>1809</v>
+        <v>938</v>
       </c>
       <c r="D46" s="4">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="E46" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="47">
@@ -1686,16 +1689,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C47" s="4">
-        <v>2002</v>
+        <v>1809</v>
       </c>
       <c r="D47" s="4">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E47" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="48">
@@ -1703,16 +1706,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C48" s="4">
-        <v>1927</v>
+        <v>2002</v>
       </c>
       <c r="D48" s="4">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E48" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="49">
@@ -1720,16 +1723,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C49" s="4">
-        <v>2065</v>
+        <v>1927</v>
       </c>
       <c r="D49" s="4">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E49" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="50">
@@ -1737,16 +1740,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C50" s="4">
-        <v>2470</v>
+        <v>2065</v>
       </c>
       <c r="D50" s="4">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="E50" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="51">
@@ -1754,16 +1757,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C51" s="4">
-        <v>821</v>
+        <v>2470</v>
       </c>
       <c r="D51" s="4">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="E51" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="52">
@@ -1771,16 +1774,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C52" s="4">
-        <v>982</v>
+        <v>821</v>
       </c>
       <c r="D52" s="4">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E52" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="53">
@@ -1788,16 +1791,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C53" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D53" s="4">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E53" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="54">
@@ -1805,16 +1808,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C54" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D54" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="55">
@@ -1822,16 +1825,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C55" s="4">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="D55" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E55" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="56">
@@ -1839,16 +1842,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C56" s="4">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="D56" s="4">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E56" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="57">
@@ -1856,16 +1859,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C57" s="4">
-        <v>2115</v>
+        <v>1806</v>
       </c>
       <c r="D57" s="4">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="E57" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="58">
@@ -1873,16 +1876,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C58" s="4">
-        <v>640</v>
+        <v>2115</v>
       </c>
       <c r="D58" s="4">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="E58" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="59">
@@ -1890,16 +1893,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C59" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D59" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E59" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="60">
@@ -1907,16 +1910,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C60" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D60" s="4">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="E60" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="61">
@@ -1924,16 +1927,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C61" s="4">
-        <v>1490</v>
+        <v>1223</v>
       </c>
       <c r="D61" s="4">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E61" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="62">
@@ -1941,16 +1944,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C62" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D62" s="4">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E62" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="63">
@@ -1958,16 +1961,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C63" s="4">
-        <v>1522</v>
+        <v>1466</v>
       </c>
       <c r="D63" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="64">
@@ -1975,16 +1978,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C64" s="4">
-        <v>1726</v>
+        <v>1522</v>
       </c>
       <c r="D64" s="4">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E64" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="65">
@@ -1992,16 +1995,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C65" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E65" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="66">
@@ -2009,16 +2012,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C66" s="4">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="D66" s="4">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E66" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="67">
@@ -2026,16 +2029,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C67" s="4">
-        <v>1305</v>
+        <v>663</v>
       </c>
       <c r="D67" s="4">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="E67" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="68">
@@ -2043,16 +2046,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C68" s="4">
-        <v>1271</v>
+        <v>1305</v>
       </c>
       <c r="D68" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E68" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="69">
@@ -2060,16 +2063,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C69" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D69" s="4">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E69" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="70">
@@ -2077,16 +2080,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C70" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D70" s="4">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E70" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="71">
@@ -2094,16 +2097,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C71" s="4">
-        <v>1720</v>
+        <v>1495</v>
       </c>
       <c r="D71" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E71" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="72">
@@ -2111,16 +2114,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C72" s="4">
-        <v>605</v>
+        <v>1720</v>
       </c>
       <c r="D72" s="4">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E72" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="73">
@@ -2128,16 +2131,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C73" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D73" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E73" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="74">
@@ -2145,16 +2148,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C74" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D74" s="4">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E74" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="75">
@@ -2162,16 +2165,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C75" s="4">
-        <v>1408</v>
+        <v>1261</v>
       </c>
       <c r="D75" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E75" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="76">
@@ -2179,16 +2182,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C76" s="4">
-        <v>1526</v>
+        <v>1408</v>
       </c>
       <c r="D76" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E76" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="77">
@@ -2196,16 +2199,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C77" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D77" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E77" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="78">
@@ -2213,16 +2216,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C78" s="4">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="D78" s="4">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E78" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="79">
@@ -2230,16 +2233,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C79" s="4">
-        <v>611</v>
+        <v>720</v>
       </c>
       <c r="D79" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E79" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="80">
@@ -2247,16 +2250,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C80" s="4">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="D80" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="81">
@@ -2264,16 +2267,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C81" s="4">
-        <v>1254</v>
+        <v>652</v>
       </c>
       <c r="D81" s="4">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E81" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="82">
@@ -2281,16 +2284,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C82" s="4">
-        <v>1534</v>
+        <v>1254</v>
       </c>
       <c r="D82" s="4">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E82" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="83">
@@ -2298,16 +2301,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C83" s="4">
-        <v>1732</v>
+        <v>1534</v>
       </c>
       <c r="D83" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E83" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="84">
@@ -2315,16 +2318,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C84" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D84" s="4">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E84" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="85">
@@ -2332,16 +2335,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C85" s="4">
-        <v>1812</v>
+        <v>1634</v>
       </c>
       <c r="D85" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E85" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="86">
@@ -2349,16 +2352,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C86" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D86" s="4">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E86" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="87">
@@ -2366,16 +2369,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C87" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D87" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E87" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="88">
@@ -2383,16 +2386,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C88" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D88" s="4">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E88" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="89">
@@ -2400,16 +2403,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C89" s="4">
-        <v>1701</v>
+        <v>1550</v>
       </c>
       <c r="D89" s="4">
         <v>77</v>
       </c>
       <c r="E89" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="90">
@@ -2417,16 +2420,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C90" s="4">
-        <v>1757</v>
+        <v>1701</v>
       </c>
       <c r="D90" s="4">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E90" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="91">
@@ -2434,16 +2437,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C91" s="4">
-        <v>2031</v>
+        <v>1757</v>
       </c>
       <c r="D91" s="4">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E91" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="92">
@@ -2451,16 +2454,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C92" s="4">
-        <v>2194</v>
+        <v>2031</v>
       </c>
       <c r="D92" s="4">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="E92" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="93">
@@ -2468,16 +2471,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C93" s="4">
-        <v>783</v>
+        <v>2194</v>
       </c>
       <c r="D93" s="4">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E93" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="94">
@@ -2485,16 +2488,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C94" s="4">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="D94" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E94" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="95">
@@ -2502,16 +2505,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C95" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D95" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E95" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="96">
@@ -2519,16 +2522,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C96" s="4">
-        <v>1727</v>
+        <v>1765</v>
       </c>
       <c r="D96" s="4">
         <v>85</v>
       </c>
       <c r="E96" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="97">
@@ -2536,16 +2539,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C97" s="4">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D97" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E97" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="98">
@@ -2553,16 +2556,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C98" s="4">
-        <v>1978</v>
+        <v>1730</v>
       </c>
       <c r="D98" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E98" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="99">
@@ -2570,16 +2573,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C99" s="4">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D99" s="4">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E99" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="100">
@@ -2587,16 +2590,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C100" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D100" s="4">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E100" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="101">
@@ -2604,16 +2607,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C101" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D101" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E101" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="102">
@@ -2621,16 +2624,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C102" s="4">
-        <v>1554</v>
+        <v>763</v>
       </c>
       <c r="D102" s="4">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E102" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="103">
@@ -2638,16 +2641,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C103" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D103" s="4">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E103" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="104">
@@ -2655,16 +2658,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C104" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D104" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E104" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="105">
@@ -2672,16 +2675,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C105" s="4">
-        <v>1484</v>
+        <v>1510</v>
       </c>
       <c r="D105" s="4">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E105" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="106">
@@ -2689,16 +2692,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C106" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D106" s="4">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E106" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="107">
@@ -2706,16 +2709,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C107" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D107" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E107" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="108">
@@ -2723,16 +2726,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C108" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D108" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E108" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="109">
@@ -2740,16 +2743,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C109" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D109" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E109" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="110">
@@ -2757,16 +2760,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C110" s="4">
-        <v>1482</v>
+        <v>1410</v>
       </c>
       <c r="D110" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E110" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="111">
@@ -2774,16 +2777,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C111" s="4">
-        <v>1737</v>
+        <v>1482</v>
       </c>
       <c r="D111" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E111" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="112">
@@ -2791,16 +2794,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C112" s="4">
-        <v>1545</v>
+        <v>1737</v>
       </c>
       <c r="D112" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E112" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="113">
@@ -2808,16 +2811,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C113" s="4">
-        <v>1911</v>
+        <v>1545</v>
       </c>
       <c r="D113" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E113" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="114">
@@ -2825,16 +2828,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C114" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D114" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E114" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="115">
@@ -2842,16 +2845,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C115" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D115" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E115" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="116">
@@ -2859,16 +2862,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C116" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D116" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E116" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="117">
@@ -2876,16 +2879,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C117" s="4">
-        <v>1801</v>
+        <v>1722</v>
       </c>
       <c r="D117" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E117" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="118">
@@ -2893,16 +2896,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C118" s="4">
-        <v>1842</v>
+        <v>1801</v>
       </c>
       <c r="D118" s="4">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E118" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="119">
@@ -2910,16 +2913,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C119" s="4">
-        <v>2021</v>
+        <v>1842</v>
       </c>
       <c r="D119" s="4">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E119" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="120">
@@ -2927,16 +2930,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C120" s="4">
-        <v>2130</v>
+        <v>2022</v>
       </c>
       <c r="D120" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E120" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="121">
@@ -2944,16 +2947,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C121" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D121" s="4">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E121" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="122">
@@ -2961,16 +2964,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C122" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D122" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E122" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="123">
@@ -2978,16 +2981,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C123" s="4">
-        <v>1960</v>
+        <v>874</v>
       </c>
       <c r="D123" s="4">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E123" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="124">
@@ -2995,16 +2998,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C124" s="4">
-        <v>1839</v>
+        <v>1960</v>
       </c>
       <c r="D124" s="4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E124" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="125">
@@ -3012,16 +3015,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C125" s="4">
-        <v>2021</v>
+        <v>1839</v>
       </c>
       <c r="D125" s="4">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E125" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="126">
@@ -3029,16 +3032,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C126" s="4">
-        <v>2280</v>
+        <v>2021</v>
       </c>
       <c r="D126" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E126" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="127">
@@ -3046,16 +3049,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C127" s="4">
-        <v>2328</v>
+        <v>2280</v>
       </c>
       <c r="D127" s="4">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E127" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="128">
@@ -3063,16 +3066,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C128" s="4">
-        <v>819</v>
+        <v>2329</v>
       </c>
       <c r="D128" s="4">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E128" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="129">
@@ -3080,16 +3083,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C129" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D129" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="130">
@@ -3097,16 +3100,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C130" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D130" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E130" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="131">
@@ -3114,16 +3117,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C131" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D131" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E131" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="132">
@@ -3131,16 +3134,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C132" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D132" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E132" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="133">
@@ -3148,16 +3151,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C133" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D133" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E133" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="134">
@@ -3165,16 +3168,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C134" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D134" s="4">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E134" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="135">
@@ -3182,16 +3185,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C135" s="4">
-        <v>861</v>
+        <v>2485</v>
       </c>
       <c r="D135" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E135" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="136">
@@ -3199,16 +3202,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C136" s="4">
-        <v>994</v>
+        <v>861</v>
       </c>
       <c r="D136" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E136" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="137">
@@ -3216,16 +3219,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C137" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D137" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E137" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="138">
@@ -3233,16 +3236,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C138" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D138" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E138" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="139">
@@ -3250,16 +3253,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C139" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D139" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E139" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="140">
@@ -3267,16 +3270,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C140" s="4">
-        <v>2813</v>
+        <v>2567</v>
       </c>
       <c r="D140" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E140" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="141">
@@ -3284,16 +3287,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C141" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D141" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="142">
@@ -3301,16 +3304,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C142" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D142" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E142" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="143">
@@ -3318,16 +3321,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C143" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D143" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E143" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="144">
@@ -3335,16 +3338,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C144" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D144" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="145">
@@ -3352,16 +3355,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C145" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D145" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E145" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="146">
@@ -3369,16 +3372,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C146" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D146" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E146" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="147">
@@ -3386,16 +3389,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C147" s="4">
-        <v>2330</v>
+        <v>2074</v>
       </c>
       <c r="D147" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E147" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="148">
@@ -3403,16 +3406,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C148" s="4">
-        <v>2538</v>
+        <v>2329</v>
       </c>
       <c r="D148" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E148" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="149">
@@ -3420,16 +3423,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C149" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D149" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E149" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="150">
@@ -3437,16 +3440,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C150" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D150" s="4">
         <v>0</v>
       </c>
       <c r="E150" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="151">
@@ -3454,16 +3457,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C151" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D151" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E151" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="152">
@@ -3471,16 +3474,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C152" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D152" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E152" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="153">
@@ -3488,16 +3491,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C153" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D153" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E153" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="154">
@@ -3505,16 +3508,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C154" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D154" s="4">
         <v>10</v>
       </c>
       <c r="E154" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="155">
@@ -3522,16 +3525,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C155" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D155" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E155" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="156">
@@ -3539,16 +3542,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C156" s="4">
-        <v>701</v>
+        <v>2042</v>
       </c>
       <c r="D156" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E156" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="157">
@@ -3556,16 +3559,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C157" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="158">
@@ -3573,16 +3576,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C158" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D158" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E158" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="159">
@@ -3590,16 +3593,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C159" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D159" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E159" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="160">
@@ -3607,16 +3610,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C160" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D160" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="161">
@@ -3624,16 +3627,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C161" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D161" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="162">
@@ -3641,16 +3644,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C162" s="4">
-        <v>1695</v>
+        <v>1599</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
       </c>
       <c r="E162" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="163">
@@ -3658,16 +3661,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C163" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D163" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="164">
@@ -3675,16 +3678,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C164" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D164" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="165">
@@ -3692,16 +3695,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C165" s="4">
-        <v>1450</v>
+        <v>687</v>
       </c>
       <c r="D165" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E165" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166">
@@ -3709,16 +3712,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C166" s="4">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="167">
@@ -3726,16 +3729,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C167" s="4">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="D167" s="4">
         <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="168">
@@ -3743,16 +3746,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C168" s="4">
-        <v>1557</v>
+        <v>1460</v>
       </c>
       <c r="D168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="169">
@@ -3760,16 +3763,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C169" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D169" s="4">
         <v>0</v>
       </c>
       <c r="E169" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="170">
@@ -3777,16 +3780,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C170" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D170" s="4">
         <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="171">
@@ -3794,16 +3797,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C171" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="172">
@@ -3811,16 +3814,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C172" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="173">
@@ -3828,16 +3831,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C173" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="174">
@@ -3845,16 +3848,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C174" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="175">
@@ -3862,16 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C175" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D175" s="4">
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176">
@@ -3879,16 +3882,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C176" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="177">
@@ -3896,16 +3899,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C177" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="178">
@@ -3913,16 +3916,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C178" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="179">
@@ -3930,16 +3933,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C179" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180">
@@ -3947,16 +3950,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C180" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="181">
@@ -3964,16 +3967,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C181" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="182">
@@ -3981,16 +3984,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C182" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="183">
@@ -3998,16 +4001,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C183" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184">
@@ -4015,16 +4018,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C184" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="185">
@@ -4032,16 +4035,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C185" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="186">
@@ -4049,16 +4052,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C186" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="187">
@@ -4066,16 +4069,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C187" s="4">
-        <v>867</v>
+        <v>748</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="188">
@@ -4083,16 +4086,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C188" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="189">
@@ -4100,16 +4103,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C189" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190">
@@ -4117,16 +4120,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C190" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191">
@@ -4134,16 +4137,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C191" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="192">
@@ -4151,16 +4154,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C192" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="193">
@@ -4168,16 +4171,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C193" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D193" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194">
@@ -4185,16 +4188,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C194" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D194" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195">
@@ -4202,16 +4205,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C195" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196">
@@ -4219,16 +4222,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C196" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197">
@@ -4236,16 +4239,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C197" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="198">
@@ -4253,16 +4256,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C198" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199">
@@ -4270,16 +4273,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C199" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200">
@@ -4287,16 +4290,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C200" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201">
@@ -4304,16 +4307,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C201" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202">
@@ -4321,16 +4324,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C202" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203">
@@ -4338,16 +4341,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C203" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204">
@@ -4355,16 +4358,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C204" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205">
@@ -4372,16 +4375,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C205" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206">
@@ -4389,16 +4392,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C206" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207">
@@ -4406,16 +4409,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C207" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208">
@@ -4423,16 +4426,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C208" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -4440,16 +4443,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C209" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210">
@@ -4457,16 +4460,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C210" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="211">
@@ -4474,16 +4477,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C211" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212">
@@ -4491,16 +4494,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C212" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213">
@@ -4508,16 +4511,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C213" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214">
@@ -4525,16 +4528,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C214" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="215">
@@ -4542,16 +4545,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C215" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216">
@@ -4559,16 +4562,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C216" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217">
@@ -4576,16 +4579,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C217" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218">
@@ -4593,16 +4596,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C218" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219">
@@ -4610,16 +4613,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C219" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220">
@@ -4627,16 +4630,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C220" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
@@ -4644,16 +4647,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C221" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222">
@@ -4661,16 +4664,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C222" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223">
@@ -4678,16 +4681,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C223" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="224">
@@ -4695,16 +4698,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C224" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="225">
@@ -4712,16 +4715,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C225" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="226">
@@ -4729,16 +4732,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C226" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227">
@@ -4746,16 +4749,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C227" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
@@ -4763,16 +4766,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C228" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4783,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C229" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230">
@@ -4797,16 +4800,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C230" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231">
@@ -4814,16 +4817,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C231" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232">
@@ -4831,16 +4834,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C232" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233">
@@ -4848,16 +4851,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C233" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234">
@@ -4865,16 +4868,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C234" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235">
@@ -4882,16 +4885,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C235" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
@@ -4899,16 +4902,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C236" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237">
@@ -4916,16 +4919,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C237" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238">
@@ -4933,16 +4936,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C238" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
@@ -4950,16 +4953,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C239" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -4967,16 +4970,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C240" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
@@ -4984,16 +4987,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -5001,16 +5004,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C242" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -5018,16 +5021,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C243" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -5035,7 +5038,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C244" s="4">
         <v>198</v>
@@ -5044,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -5052,25 +5055,27 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C245" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
-      <c r="E245" s="4"/>
+      <c r="E245" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C246" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
@@ -5082,10 +5087,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C247" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
@@ -5097,10 +5102,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C248" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
@@ -5112,10 +5117,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C249" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
@@ -5127,10 +5132,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C250" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
@@ -5142,10 +5147,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C251" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
@@ -5157,10 +5162,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C252" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5172,10 +5177,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C253" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5187,10 +5192,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C254" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5202,10 +5207,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C255" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5217,10 +5222,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C256" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5235,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5247,10 +5252,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C258" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5262,10 +5267,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C259" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5277,10 +5282,14 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>1</v>
-      </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C260" s="4">
+        <v>5</v>
+      </c>
+      <c r="D260" s="4">
+        <v>0</v>
+      </c>
       <c r="E260" s="4"/>
     </row>
     <row r="261">
@@ -5288,14 +5297,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>0</v>
-      </c>
-      <c r="C261" s="4">
-        <v>5</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262">
@@ -5306,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5320,8 +5325,12 @@
       <c r="B263" s="4">
         <v>0</v>
       </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+      <c r="D263" s="4">
+        <v>0</v>
+      </c>
       <c r="E263" s="4"/>
     </row>
     <row r="264">
@@ -5342,12 +5351,8 @@
       <c r="B265" s="4">
         <v>0</v>
       </c>
-      <c r="C265" s="4">
-        <v>1</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0</v>
-      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266">
@@ -5357,8 +5362,12 @@
       <c r="B266" s="4">
         <v>0</v>
       </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+      <c r="D266" s="4">
+        <v>0</v>
+      </c>
       <c r="E266" s="4"/>
     </row>
     <row r="267">
@@ -5366,15 +5375,26 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
+        <v>0</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" s="4">
         <v>1</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C268" s="4">
         <v>1</v>
       </c>
-      <c r="D267" s="4">
-        <v>0</v>
-      </c>
-      <c r="E267" s="4"/>
+      <c r="D268" s="4">
+        <v>0</v>
+      </c>
+      <c r="E268" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+  <si>
+    <t>11/24/2020</t>
+  </si>
   <si>
     <t>11/23/2020</t>
   </si>
@@ -907,24 +910,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E269"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2">
@@ -932,12 +935,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="3">
@@ -945,12 +948,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="4">
@@ -958,16 +961,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C4" s="4">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="5">
@@ -975,16 +978,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C5" s="4">
-        <v>830</v>
+        <v>505</v>
       </c>
       <c r="D5" s="4">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="6">
@@ -992,16 +995,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C6" s="4">
-        <v>1812</v>
+        <v>1701</v>
       </c>
       <c r="D6" s="4">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="E6" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="7">
@@ -1009,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C7" s="4">
-        <v>2846</v>
+        <v>2678</v>
       </c>
       <c r="D7" s="4">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E7" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="8">
@@ -1026,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C8" s="4">
-        <v>3656</v>
+        <v>3192</v>
       </c>
       <c r="D8" s="4">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="E8" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="9">
@@ -1043,16 +1046,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C9" s="4">
-        <v>4434</v>
+        <v>3748</v>
       </c>
       <c r="D9" s="4">
-        <v>532</v>
+        <v>395</v>
       </c>
       <c r="E9" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="10">
@@ -1060,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C10" s="4">
-        <v>1487</v>
+        <v>4482</v>
       </c>
       <c r="D10" s="4">
-        <v>179</v>
+        <v>546</v>
       </c>
       <c r="E10" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="11">
@@ -1077,16 +1080,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C11" s="4">
-        <v>1765</v>
+        <v>1489</v>
       </c>
       <c r="D11" s="4">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="12">
@@ -1094,16 +1097,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C12" s="4">
-        <v>3392</v>
+        <v>1771</v>
       </c>
       <c r="D12" s="4">
-        <v>354</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="13">
@@ -1111,16 +1114,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C13" s="4">
-        <v>3172</v>
+        <v>3410</v>
       </c>
       <c r="D13" s="4">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="E13" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="14">
@@ -1128,16 +1131,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C14" s="4">
-        <v>3016</v>
+        <v>3196</v>
       </c>
       <c r="D14" s="4">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="E14" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="15">
@@ -1145,16 +1148,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C15" s="4">
-        <v>3348</v>
+        <v>3018</v>
       </c>
       <c r="D15" s="4">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="16">
@@ -1162,16 +1165,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C16" s="4">
-        <v>4047</v>
+        <v>3348</v>
       </c>
       <c r="D16" s="4">
-        <v>451</v>
+        <v>341</v>
       </c>
       <c r="E16" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="17">
@@ -1179,16 +1182,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C17" s="4">
-        <v>1374</v>
+        <v>4043</v>
       </c>
       <c r="D17" s="4">
-        <v>133</v>
+        <v>454</v>
       </c>
       <c r="E17" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="18">
@@ -1196,16 +1199,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C18" s="4">
-        <v>1486</v>
+        <v>1374</v>
       </c>
       <c r="D18" s="4">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E18" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="19">
@@ -1213,16 +1216,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C19" s="4">
-        <v>2401</v>
+        <v>1487</v>
       </c>
       <c r="D19" s="4">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="E19" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="20">
@@ -1230,16 +1233,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C20" s="4">
-        <v>2578</v>
+        <v>2406</v>
       </c>
       <c r="D20" s="4">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="E20" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="21">
@@ -1247,16 +1250,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C21" s="4">
-        <v>2609</v>
+        <v>2578</v>
       </c>
       <c r="D21" s="4">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E21" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="22">
@@ -1264,16 +1267,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C22" s="4">
-        <v>2656</v>
+        <v>2609</v>
       </c>
       <c r="D22" s="4">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E22" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="23">
@@ -1281,16 +1284,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C23" s="4">
-        <v>3101</v>
+        <v>2656</v>
       </c>
       <c r="D23" s="4">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="E23" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="24">
@@ -1298,16 +1301,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C24" s="4">
-        <v>936</v>
+        <v>3101</v>
       </c>
       <c r="D24" s="4">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="E24" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="25">
@@ -1315,16 +1318,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C25" s="4">
-        <v>1062</v>
+        <v>936</v>
       </c>
       <c r="D25" s="4">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="26">
@@ -1332,16 +1335,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C26" s="4">
-        <v>2248</v>
+        <v>1062</v>
       </c>
       <c r="D26" s="4">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E26" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="27">
@@ -1349,16 +1352,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C27" s="4">
-        <v>1979</v>
+        <v>2252</v>
       </c>
       <c r="D27" s="4">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="E27" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="28">
@@ -1366,16 +1369,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C28" s="4">
-        <v>2436</v>
+        <v>1980</v>
       </c>
       <c r="D28" s="4">
         <v>249</v>
       </c>
       <c r="E28" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="29">
@@ -1383,16 +1386,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C29" s="4">
-        <v>2421</v>
+        <v>2436</v>
       </c>
       <c r="D29" s="4">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E29" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="30">
@@ -1400,16 +1403,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C30" s="4">
-        <v>2987</v>
+        <v>2421</v>
       </c>
       <c r="D30" s="4">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="E30" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="31">
@@ -1417,16 +1420,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C31" s="4">
-        <v>906</v>
+        <v>2988</v>
       </c>
       <c r="D31" s="4">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="E31" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="32">
@@ -1434,16 +1437,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C32" s="4">
-        <v>1071</v>
+        <v>906</v>
       </c>
       <c r="D32" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="33">
@@ -1451,16 +1454,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C33" s="4">
-        <v>2201</v>
+        <v>1071</v>
       </c>
       <c r="D33" s="4">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="E33" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="34">
@@ -1468,16 +1471,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C34" s="4">
-        <v>2137</v>
+        <v>2200</v>
       </c>
       <c r="D34" s="4">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="35">
@@ -1485,16 +1488,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C35" s="4">
-        <v>2454</v>
+        <v>2137</v>
       </c>
       <c r="D35" s="4">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E35" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="36">
@@ -1502,16 +1505,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C36" s="4">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D36" s="4">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E36" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="37">
@@ -1519,16 +1522,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C37" s="4">
-        <v>2797</v>
+        <v>2456</v>
       </c>
       <c r="D37" s="4">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="E37" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="38">
@@ -1536,16 +1539,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C38" s="4">
-        <v>849</v>
+        <v>2798</v>
       </c>
       <c r="D38" s="4">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="E38" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="39">
@@ -1553,16 +1556,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C39" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D39" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E39" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="40">
@@ -1570,16 +1573,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C40" s="4">
-        <v>2056</v>
+        <v>951</v>
       </c>
       <c r="D40" s="4">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="E40" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="41">
@@ -1587,16 +1590,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C41" s="4">
-        <v>2103</v>
+        <v>2056</v>
       </c>
       <c r="D41" s="4">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="E41" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="42">
@@ -1604,16 +1607,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C42" s="4">
-        <v>2128</v>
+        <v>2101</v>
       </c>
       <c r="D42" s="4">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E42" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="43">
@@ -1621,16 +1624,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C43" s="4">
-        <v>2381</v>
+        <v>2128</v>
       </c>
       <c r="D43" s="4">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E43" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="44">
@@ -1638,16 +1641,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C44" s="4">
-        <v>2682</v>
+        <v>2381</v>
       </c>
       <c r="D44" s="4">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E44" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="45">
@@ -1655,16 +1658,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C45" s="4">
-        <v>903</v>
+        <v>2683</v>
       </c>
       <c r="D45" s="4">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="E45" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="46">
@@ -1672,16 +1675,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C46" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D46" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E46" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="47">
@@ -1689,16 +1692,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C47" s="4">
-        <v>1809</v>
+        <v>938</v>
       </c>
       <c r="D47" s="4">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="48">
@@ -1706,16 +1709,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C48" s="4">
-        <v>2002</v>
+        <v>1809</v>
       </c>
       <c r="D48" s="4">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E48" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="49">
@@ -1723,16 +1726,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C49" s="4">
-        <v>1927</v>
+        <v>2002</v>
       </c>
       <c r="D49" s="4">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E49" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="50">
@@ -1740,16 +1743,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C50" s="4">
-        <v>2065</v>
+        <v>1927</v>
       </c>
       <c r="D50" s="4">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E50" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="51">
@@ -1757,16 +1760,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C51" s="4">
-        <v>2470</v>
+        <v>2066</v>
       </c>
       <c r="D51" s="4">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="52">
@@ -1774,16 +1777,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C52" s="4">
-        <v>821</v>
+        <v>2470</v>
       </c>
       <c r="D52" s="4">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="E52" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="53">
@@ -1791,16 +1794,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C53" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D53" s="4">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E53" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="54">
@@ -1808,16 +1811,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C54" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D54" s="4">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E54" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="55">
@@ -1825,16 +1828,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C55" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D55" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="56">
@@ -1842,16 +1845,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C56" s="4">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="D56" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E56" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="57">
@@ -1859,16 +1862,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C57" s="4">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="D57" s="4">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E57" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="58">
@@ -1876,16 +1879,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C58" s="4">
-        <v>2115</v>
+        <v>1805</v>
       </c>
       <c r="D58" s="4">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="E58" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="59">
@@ -1893,16 +1896,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C59" s="4">
-        <v>640</v>
+        <v>2115</v>
       </c>
       <c r="D59" s="4">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="E59" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="60">
@@ -1910,16 +1913,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C60" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D60" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E60" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="61">
@@ -1927,16 +1930,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C61" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D61" s="4">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="E61" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="62">
@@ -1944,16 +1947,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C62" s="4">
-        <v>1490</v>
+        <v>1223</v>
       </c>
       <c r="D62" s="4">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E62" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="63">
@@ -1961,16 +1964,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C63" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D63" s="4">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E63" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="64">
@@ -1978,16 +1981,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C64" s="4">
-        <v>1522</v>
+        <v>1466</v>
       </c>
       <c r="D64" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="65">
@@ -1995,16 +1998,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C65" s="4">
-        <v>1727</v>
+        <v>1522</v>
       </c>
       <c r="D65" s="4">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E65" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="66">
@@ -2012,16 +2015,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C66" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E66" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="67">
@@ -2029,16 +2032,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C67" s="4">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="D67" s="4">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E67" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="68">
@@ -2046,16 +2049,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C68" s="4">
-        <v>1305</v>
+        <v>663</v>
       </c>
       <c r="D68" s="4">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="E68" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="69">
@@ -2063,16 +2066,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C69" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D69" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E69" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="70">
@@ -2080,16 +2083,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C70" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D70" s="4">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E70" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="71">
@@ -2097,16 +2100,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C71" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D71" s="4">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E71" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="72">
@@ -2114,16 +2117,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C72" s="4">
-        <v>1720</v>
+        <v>1495</v>
       </c>
       <c r="D72" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E72" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="73">
@@ -2131,16 +2134,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C73" s="4">
-        <v>605</v>
+        <v>1720</v>
       </c>
       <c r="D73" s="4">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E73" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="74">
@@ -2148,16 +2151,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C74" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D74" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E74" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="75">
@@ -2165,16 +2168,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C75" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D75" s="4">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E75" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="76">
@@ -2182,16 +2185,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C76" s="4">
-        <v>1408</v>
+        <v>1261</v>
       </c>
       <c r="D76" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E76" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="77">
@@ -2199,16 +2202,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C77" s="4">
-        <v>1526</v>
+        <v>1408</v>
       </c>
       <c r="D77" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E77" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="78">
@@ -2216,16 +2219,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C78" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D78" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="79">
@@ -2233,16 +2236,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C79" s="4">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="D79" s="4">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E79" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="80">
@@ -2250,16 +2253,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C80" s="4">
-        <v>611</v>
+        <v>720</v>
       </c>
       <c r="D80" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E80" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="81">
@@ -2267,16 +2270,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C81" s="4">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="D81" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="82">
@@ -2284,16 +2287,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C82" s="4">
-        <v>1254</v>
+        <v>652</v>
       </c>
       <c r="D82" s="4">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E82" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="83">
@@ -2301,16 +2304,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C83" s="4">
-        <v>1534</v>
+        <v>1254</v>
       </c>
       <c r="D83" s="4">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E83" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="84">
@@ -2318,16 +2321,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C84" s="4">
-        <v>1732</v>
+        <v>1535</v>
       </c>
       <c r="D84" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E84" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="85">
@@ -2335,16 +2338,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C85" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D85" s="4">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E85" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="86">
@@ -2352,16 +2355,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C86" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D86" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E86" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="87">
@@ -2369,16 +2372,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C87" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D87" s="4">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E87" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="88">
@@ -2386,16 +2389,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C88" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D88" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E88" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="89">
@@ -2403,16 +2406,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C89" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D89" s="4">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E89" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="90">
@@ -2420,16 +2423,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C90" s="4">
-        <v>1701</v>
+        <v>1550</v>
       </c>
       <c r="D90" s="4">
         <v>77</v>
       </c>
       <c r="E90" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="91">
@@ -2437,16 +2440,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C91" s="4">
-        <v>1757</v>
+        <v>1701</v>
       </c>
       <c r="D91" s="4">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E91" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="92">
@@ -2454,16 +2457,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C92" s="4">
-        <v>2031</v>
+        <v>1757</v>
       </c>
       <c r="D92" s="4">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E92" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="93">
@@ -2471,16 +2474,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C93" s="4">
-        <v>2194</v>
+        <v>2031</v>
       </c>
       <c r="D93" s="4">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="E93" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="94">
@@ -2488,16 +2491,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C94" s="4">
-        <v>783</v>
+        <v>2194</v>
       </c>
       <c r="D94" s="4">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E94" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="95">
@@ -2505,16 +2508,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C95" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D95" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E95" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="96">
@@ -2522,16 +2525,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C96" s="4">
-        <v>1765</v>
+        <v>852</v>
       </c>
       <c r="D96" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E96" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="97">
@@ -2539,16 +2542,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C97" s="4">
-        <v>1727</v>
+        <v>1766</v>
       </c>
       <c r="D97" s="4">
         <v>85</v>
       </c>
       <c r="E97" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="98">
@@ -2556,16 +2559,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C98" s="4">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D98" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E98" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="99">
@@ -2573,16 +2576,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C99" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D99" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E99" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="100">
@@ -2590,16 +2593,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C100" s="4">
-        <v>2000</v>
+        <v>1977</v>
       </c>
       <c r="D100" s="4">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E100" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="101">
@@ -2607,16 +2610,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C101" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D101" s="4">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E101" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="102">
@@ -2624,16 +2627,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C102" s="4">
-        <v>763</v>
+        <v>628</v>
       </c>
       <c r="D102" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E102" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="103">
@@ -2641,16 +2644,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C103" s="4">
-        <v>1554</v>
+        <v>763</v>
       </c>
       <c r="D103" s="4">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E103" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="104">
@@ -2658,16 +2661,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C104" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D104" s="4">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E104" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="105">
@@ -2675,16 +2678,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C105" s="4">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="D105" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E105" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="106">
@@ -2692,16 +2695,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C106" s="4">
-        <v>1484</v>
+        <v>1510</v>
       </c>
       <c r="D106" s="4">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E106" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="107">
@@ -2709,16 +2712,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C107" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D107" s="4">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E107" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="108">
@@ -2726,16 +2729,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C108" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D108" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E108" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="109">
@@ -2743,16 +2746,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C109" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D109" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E109" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="110">
@@ -2760,16 +2763,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C110" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D110" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E110" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="111">
@@ -2777,16 +2780,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C111" s="4">
-        <v>1482</v>
+        <v>1410</v>
       </c>
       <c r="D111" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E111" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="112">
@@ -2794,16 +2797,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C112" s="4">
-        <v>1737</v>
+        <v>1482</v>
       </c>
       <c r="D112" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E112" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="113">
@@ -2811,16 +2814,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C113" s="4">
-        <v>1545</v>
+        <v>1737</v>
       </c>
       <c r="D113" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E113" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="114">
@@ -2828,16 +2831,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C114" s="4">
-        <v>1911</v>
+        <v>1545</v>
       </c>
       <c r="D114" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E114" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="115">
@@ -2845,16 +2848,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C115" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D115" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E115" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="116">
@@ -2862,16 +2865,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C116" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D116" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E116" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="117">
@@ -2879,16 +2882,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C117" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D117" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E117" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="118">
@@ -2896,16 +2899,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C118" s="4">
-        <v>1801</v>
+        <v>1722</v>
       </c>
       <c r="D118" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E118" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="119">
@@ -2913,16 +2916,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C119" s="4">
-        <v>1842</v>
+        <v>1801</v>
       </c>
       <c r="D119" s="4">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E119" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="120">
@@ -2930,16 +2933,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C120" s="4">
-        <v>2022</v>
+        <v>1842</v>
       </c>
       <c r="D120" s="4">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E120" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="121">
@@ -2947,16 +2950,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C121" s="4">
-        <v>2130</v>
+        <v>2022</v>
       </c>
       <c r="D121" s="4">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E121" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="122">
@@ -2964,16 +2967,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C122" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D122" s="4">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E122" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="123">
@@ -2981,16 +2984,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C123" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D123" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E123" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="124">
@@ -2998,16 +3001,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C124" s="4">
-        <v>1960</v>
+        <v>874</v>
       </c>
       <c r="D124" s="4">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E124" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="125">
@@ -3015,16 +3018,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C125" s="4">
-        <v>1839</v>
+        <v>1960</v>
       </c>
       <c r="D125" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E125" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="126">
@@ -3032,16 +3035,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C126" s="4">
-        <v>2021</v>
+        <v>1839</v>
       </c>
       <c r="D126" s="4">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E126" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="127">
@@ -3049,16 +3052,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C127" s="4">
-        <v>2280</v>
+        <v>2021</v>
       </c>
       <c r="D127" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E127" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="128">
@@ -3066,16 +3069,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C128" s="4">
-        <v>2329</v>
+        <v>2280</v>
       </c>
       <c r="D128" s="4">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E128" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="129">
@@ -3083,16 +3086,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C129" s="4">
-        <v>819</v>
+        <v>2329</v>
       </c>
       <c r="D129" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E129" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="130">
@@ -3100,16 +3103,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C130" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D130" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="131">
@@ -3117,16 +3120,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C131" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D131" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E131" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="132">
@@ -3134,16 +3137,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C132" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D132" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E132" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="133">
@@ -3151,16 +3154,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C133" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D133" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E133" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="134">
@@ -3168,16 +3171,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C134" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D134" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E134" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="135">
@@ -3185,16 +3188,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C135" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D135" s="4">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E135" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="136">
@@ -3202,16 +3205,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C136" s="4">
-        <v>861</v>
+        <v>2485</v>
       </c>
       <c r="D136" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E136" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="137">
@@ -3219,16 +3222,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C137" s="4">
-        <v>994</v>
+        <v>860</v>
       </c>
       <c r="D137" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E137" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="138">
@@ -3236,16 +3239,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C138" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D138" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E138" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="139">
@@ -3253,16 +3256,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C139" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D139" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E139" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="140">
@@ -3270,16 +3273,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C140" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D140" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E140" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="141">
@@ -3287,16 +3290,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C141" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D141" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E141" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="142">
@@ -3304,16 +3307,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C142" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D142" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E142" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="143">
@@ -3321,16 +3324,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C143" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D143" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E143" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="144">
@@ -3338,16 +3341,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C144" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D144" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E144" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="145">
@@ -3355,16 +3358,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C145" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D145" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="146">
@@ -3372,16 +3375,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C146" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D146" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="147">
@@ -3389,16 +3392,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C147" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D147" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E147" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="148">
@@ -3406,16 +3409,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C148" s="4">
-        <v>2329</v>
+        <v>2074</v>
       </c>
       <c r="D148" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E148" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="149">
@@ -3423,16 +3426,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C149" s="4">
-        <v>2538</v>
+        <v>2329</v>
       </c>
       <c r="D149" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E149" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="150">
@@ -3440,16 +3443,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C150" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D150" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E150" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="151">
@@ -3457,16 +3460,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C151" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D151" s="4">
         <v>0</v>
       </c>
       <c r="E151" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="152">
@@ -3474,16 +3477,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C152" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D152" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E152" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="153">
@@ -3491,16 +3494,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C153" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D153" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E153" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="154">
@@ -3508,16 +3511,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C154" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D154" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E154" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="155">
@@ -3525,16 +3528,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C155" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D155" s="4">
         <v>10</v>
       </c>
       <c r="E155" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="156">
@@ -3542,16 +3545,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C156" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D156" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E156" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="157">
@@ -3559,16 +3562,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C157" s="4">
-        <v>701</v>
+        <v>2042</v>
       </c>
       <c r="D157" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E157" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="158">
@@ -3576,16 +3579,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C158" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D158" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="159">
@@ -3593,16 +3596,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C159" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D159" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E159" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="160">
@@ -3610,16 +3613,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C160" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D160" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E160" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="161">
@@ -3627,16 +3630,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C161" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D161" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="162">
@@ -3644,16 +3647,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C162" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D162" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="163">
@@ -3661,16 +3664,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C163" s="4">
-        <v>1697</v>
+        <v>1599</v>
       </c>
       <c r="D163" s="4">
         <v>0</v>
       </c>
       <c r="E163" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="164">
@@ -3678,16 +3681,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C164" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="165">
@@ -3695,16 +3698,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C165" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D165" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="166">
@@ -3712,16 +3715,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C166" s="4">
-        <v>1450</v>
+        <v>687</v>
       </c>
       <c r="D166" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="167">
@@ -3729,16 +3732,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C167" s="4">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="168">
@@ -3746,16 +3749,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C168" s="4">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="D168" s="4">
         <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="169">
@@ -3763,16 +3766,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C169" s="4">
-        <v>1558</v>
+        <v>1460</v>
       </c>
       <c r="D169" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="170">
@@ -3780,16 +3783,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C170" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D170" s="4">
         <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="171">
@@ -3797,16 +3800,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C171" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="172">
@@ -3814,16 +3817,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C172" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="173">
@@ -3831,16 +3834,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C173" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D173" s="4">
         <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="174">
@@ -3848,16 +3851,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C174" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D174" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="175">
@@ -3865,16 +3868,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C175" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D175" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="176">
@@ -3882,16 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C176" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="177">
@@ -3899,16 +3902,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C177" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="178">
@@ -3916,16 +3919,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C178" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="179">
@@ -3933,16 +3936,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C179" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="180">
@@ -3950,16 +3953,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C180" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181">
@@ -3967,16 +3970,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C181" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182">
@@ -3984,16 +3987,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C182" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D182" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="183">
@@ -4001,16 +4004,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C183" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="184">
@@ -4018,16 +4021,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="185">
@@ -4035,16 +4038,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C185" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="186">
@@ -4052,16 +4055,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C186" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="187">
@@ -4069,16 +4072,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C187" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="188">
@@ -4086,16 +4089,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C188" s="4">
-        <v>867</v>
+        <v>748</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="189">
@@ -4103,16 +4106,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C189" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="190">
@@ -4120,16 +4123,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C190" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191">
@@ -4137,16 +4140,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C191" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192">
@@ -4154,16 +4157,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C192" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="193">
@@ -4171,16 +4174,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C193" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194">
@@ -4188,16 +4191,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C194" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D194" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195">
@@ -4205,16 +4208,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C195" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D195" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="196">
@@ -4222,16 +4225,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C196" s="4">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -4239,16 +4242,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C197" s="4">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198">
@@ -4256,16 +4259,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C198" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199">
@@ -4273,16 +4276,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C199" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200">
@@ -4290,16 +4293,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C200" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201">
@@ -4307,16 +4310,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C201" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202">
@@ -4324,16 +4327,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C202" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="203">
@@ -4341,16 +4344,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C203" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="204">
@@ -4358,16 +4361,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C204" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205">
@@ -4375,16 +4378,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C205" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206">
@@ -4392,16 +4395,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C206" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207">
@@ -4409,16 +4412,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C207" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208">
@@ -4426,16 +4429,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C208" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209">
@@ -4443,16 +4446,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C209" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -4460,16 +4463,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C210" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211">
@@ -4477,16 +4480,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C211" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212">
@@ -4494,16 +4497,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C212" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213">
@@ -4511,16 +4514,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C213" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214">
@@ -4528,16 +4531,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C214" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215">
@@ -4545,16 +4548,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C215" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="216">
@@ -4562,16 +4565,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C216" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217">
@@ -4579,16 +4582,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C217" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218">
@@ -4596,16 +4599,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C218" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219">
@@ -4613,16 +4616,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C219" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220">
@@ -4630,16 +4633,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C220" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221">
@@ -4647,16 +4650,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C221" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
@@ -4664,16 +4667,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C222" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223">
@@ -4681,16 +4684,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C223" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="224">
@@ -4698,16 +4701,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C224" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="225">
@@ -4715,16 +4718,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C225" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="226">
@@ -4732,16 +4735,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C226" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227">
@@ -4749,16 +4752,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C227" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228">
@@ -4766,16 +4769,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C228" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
@@ -4783,16 +4786,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C229" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230">
@@ -4800,16 +4803,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C230" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231">
@@ -4817,16 +4820,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C231" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232">
@@ -4834,16 +4837,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C232" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233">
@@ -4851,16 +4854,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C233" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="234">
@@ -4868,16 +4871,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C234" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235">
@@ -4885,16 +4888,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C235" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236">
@@ -4902,16 +4905,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C236" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237">
@@ -4919,16 +4922,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C237" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238">
@@ -4936,16 +4939,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C238" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239">
@@ -4953,16 +4956,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C239" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
@@ -4970,16 +4973,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C240" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
@@ -4987,16 +4990,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C241" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
@@ -5004,16 +5007,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -5021,16 +5024,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C243" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -5038,16 +5041,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C244" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -5055,7 +5058,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C245" s="4">
         <v>198</v>
@@ -5064,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -5072,25 +5075,27 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C246" s="4">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
-      <c r="E246" s="4"/>
+      <c r="E246" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C247" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
@@ -5102,10 +5107,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C248" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
@@ -5117,10 +5122,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C249" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
@@ -5132,10 +5137,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C250" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
@@ -5147,10 +5152,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C251" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
@@ -5162,10 +5167,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C252" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5177,10 +5182,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C253" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5192,10 +5197,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C254" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5207,10 +5212,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C255" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5222,10 +5227,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C256" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5237,10 +5242,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C257" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5255,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="C258" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5267,10 +5272,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C259" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5282,10 +5287,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C260" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5297,10 +5302,14 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>1</v>
-      </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C261" s="4">
+        <v>5</v>
+      </c>
+      <c r="D261" s="4">
+        <v>0</v>
+      </c>
       <c r="E261" s="4"/>
     </row>
     <row r="262">
@@ -5308,14 +5317,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>0</v>
-      </c>
-      <c r="C262" s="4">
-        <v>5</v>
-      </c>
-      <c r="D262" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263">
@@ -5326,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="C263" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5340,8 +5345,12 @@
       <c r="B264" s="4">
         <v>0</v>
       </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
       <c r="E264" s="4"/>
     </row>
     <row r="265">
@@ -5362,12 +5371,8 @@
       <c r="B266" s="4">
         <v>0</v>
       </c>
-      <c r="C266" s="4">
-        <v>1</v>
-      </c>
-      <c r="D266" s="4">
-        <v>0</v>
-      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267">
@@ -5377,8 +5382,12 @@
       <c r="B267" s="4">
         <v>0</v>
       </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
       <c r="E267" s="4"/>
     </row>
     <row r="268">
@@ -5386,15 +5395,26 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
+        <v>0</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" s="4">
         <v>1</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C269" s="4">
         <v>1</v>
       </c>
-      <c r="D268" s="4">
-        <v>0</v>
-      </c>
-      <c r="E268" s="4"/>
+      <c r="D269" s="4">
+        <v>0</v>
+      </c>
+      <c r="E269" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+  <si>
+    <t>11/25/2020</t>
+  </si>
   <si>
     <t>11/24/2020</t>
   </si>
@@ -910,24 +913,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E270"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -935,12 +938,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="3">
@@ -948,12 +951,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="4">
@@ -961,16 +964,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C4" s="4">
-        <v>274</v>
+        <v>616</v>
       </c>
       <c r="D4" s="4">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="E4" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="5">
@@ -978,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C5" s="4">
-        <v>505</v>
+        <v>652</v>
       </c>
       <c r="D5" s="4">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="6">
@@ -995,16 +998,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C6" s="4">
-        <v>1701</v>
+        <v>1161</v>
       </c>
       <c r="D6" s="4">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E6" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="7">
@@ -1012,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C7" s="4">
-        <v>2678</v>
+        <v>2665</v>
       </c>
       <c r="D7" s="4">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E7" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1032,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C8" s="4">
-        <v>3192</v>
+        <v>3175</v>
       </c>
       <c r="D8" s="4">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E8" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="9">
@@ -1046,16 +1049,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C9" s="4">
-        <v>3748</v>
+        <v>3328</v>
       </c>
       <c r="D9" s="4">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="E9" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="10">
@@ -1063,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C10" s="4">
-        <v>4482</v>
+        <v>3932</v>
       </c>
       <c r="D10" s="4">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="E10" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="11">
@@ -1080,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C11" s="4">
-        <v>1489</v>
+        <v>4574</v>
       </c>
       <c r="D11" s="4">
-        <v>182</v>
+        <v>554</v>
       </c>
       <c r="E11" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="12">
@@ -1097,16 +1100,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C12" s="4">
-        <v>1771</v>
+        <v>1502</v>
       </c>
       <c r="D12" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E12" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="13">
@@ -1114,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C13" s="4">
-        <v>3410</v>
+        <v>1780</v>
       </c>
       <c r="D13" s="4">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="E13" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="14">
@@ -1131,16 +1134,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C14" s="4">
-        <v>3196</v>
+        <v>3423</v>
       </c>
       <c r="D14" s="4">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="E14" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="15">
@@ -1148,16 +1151,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C15" s="4">
-        <v>3018</v>
+        <v>3212</v>
       </c>
       <c r="D15" s="4">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="E15" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="16">
@@ -1165,16 +1168,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C16" s="4">
-        <v>3348</v>
+        <v>3022</v>
       </c>
       <c r="D16" s="4">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E16" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="17">
@@ -1182,16 +1185,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C17" s="4">
-        <v>4043</v>
+        <v>3357</v>
       </c>
       <c r="D17" s="4">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="E17" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="18">
@@ -1199,16 +1202,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C18" s="4">
-        <v>1374</v>
+        <v>4050</v>
       </c>
       <c r="D18" s="4">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="E18" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="19">
@@ -1216,16 +1219,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C19" s="4">
-        <v>1487</v>
+        <v>1374</v>
       </c>
       <c r="D19" s="4">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E19" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="20">
@@ -1233,16 +1236,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C20" s="4">
-        <v>2406</v>
+        <v>1487</v>
       </c>
       <c r="D20" s="4">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="21">
@@ -1250,16 +1253,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C21" s="4">
-        <v>2578</v>
+        <v>2409</v>
       </c>
       <c r="D21" s="4">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E21" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="22">
@@ -1267,16 +1270,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C22" s="4">
-        <v>2609</v>
+        <v>2580</v>
       </c>
       <c r="D22" s="4">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E22" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="23">
@@ -1284,16 +1287,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C23" s="4">
-        <v>2656</v>
+        <v>2607</v>
       </c>
       <c r="D23" s="4">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E23" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="24">
@@ -1301,16 +1304,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C24" s="4">
-        <v>3101</v>
+        <v>2657</v>
       </c>
       <c r="D24" s="4">
-        <v>396</v>
+        <v>273</v>
       </c>
       <c r="E24" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="25">
@@ -1318,16 +1321,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C25" s="4">
-        <v>936</v>
+        <v>3106</v>
       </c>
       <c r="D25" s="4">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="E25" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="26">
@@ -1335,16 +1338,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C26" s="4">
-        <v>1062</v>
+        <v>936</v>
       </c>
       <c r="D26" s="4">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="27">
@@ -1352,16 +1355,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C27" s="4">
-        <v>2252</v>
+        <v>1063</v>
       </c>
       <c r="D27" s="4">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E27" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="28">
@@ -1369,16 +1372,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C28" s="4">
-        <v>1980</v>
+        <v>2252</v>
       </c>
       <c r="D28" s="4">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E28" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="29">
@@ -1386,16 +1389,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C29" s="4">
-        <v>2436</v>
+        <v>1979</v>
       </c>
       <c r="D29" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="30">
@@ -1403,16 +1406,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C30" s="4">
-        <v>2421</v>
+        <v>2436</v>
       </c>
       <c r="D30" s="4">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E30" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="31">
@@ -1420,16 +1423,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C31" s="4">
-        <v>2988</v>
+        <v>2423</v>
       </c>
       <c r="D31" s="4">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="E31" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="32">
@@ -1437,16 +1440,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C32" s="4">
-        <v>906</v>
+        <v>2987</v>
       </c>
       <c r="D32" s="4">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="E32" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="33">
@@ -1454,16 +1457,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C33" s="4">
-        <v>1071</v>
+        <v>907</v>
       </c>
       <c r="D33" s="4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="34">
@@ -1471,16 +1474,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C34" s="4">
-        <v>2200</v>
+        <v>1071</v>
       </c>
       <c r="D34" s="4">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="E34" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="35">
@@ -1488,16 +1491,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C35" s="4">
-        <v>2137</v>
+        <v>2200</v>
       </c>
       <c r="D35" s="4">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E35" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="36">
@@ -1505,16 +1508,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C36" s="4">
-        <v>2453</v>
+        <v>2138</v>
       </c>
       <c r="D36" s="4">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E36" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="37">
@@ -1522,16 +1525,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C37" s="4">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D37" s="4">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E37" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="38">
@@ -1539,16 +1542,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C38" s="4">
-        <v>2798</v>
+        <v>2457</v>
       </c>
       <c r="D38" s="4">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="E38" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="39">
@@ -1556,16 +1559,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C39" s="4">
-        <v>849</v>
+        <v>2798</v>
       </c>
       <c r="D39" s="4">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="E39" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="40">
@@ -1573,16 +1576,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C40" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D40" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="41">
@@ -1590,16 +1593,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C41" s="4">
-        <v>2056</v>
+        <v>951</v>
       </c>
       <c r="D41" s="4">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="42">
@@ -1607,16 +1610,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C42" s="4">
-        <v>2101</v>
+        <v>2056</v>
       </c>
       <c r="D42" s="4">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="E42" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="43">
@@ -1624,16 +1627,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C43" s="4">
-        <v>2128</v>
+        <v>2103</v>
       </c>
       <c r="D43" s="4">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E43" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="44">
@@ -1641,16 +1644,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C44" s="4">
-        <v>2381</v>
+        <v>2128</v>
       </c>
       <c r="D44" s="4">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="E44" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="45">
@@ -1658,16 +1661,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C45" s="4">
-        <v>2683</v>
+        <v>2384</v>
       </c>
       <c r="D45" s="4">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E45" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="46">
@@ -1675,16 +1678,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C46" s="4">
-        <v>903</v>
+        <v>2684</v>
       </c>
       <c r="D46" s="4">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="E46" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="47">
@@ -1692,16 +1695,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C47" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D47" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E47" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="48">
@@ -1709,16 +1712,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C48" s="4">
-        <v>1809</v>
+        <v>938</v>
       </c>
       <c r="D48" s="4">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="E48" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="49">
@@ -1726,16 +1729,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C49" s="4">
-        <v>2002</v>
+        <v>1814</v>
       </c>
       <c r="D49" s="4">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E49" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="50">
@@ -1743,16 +1746,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C50" s="4">
-        <v>1927</v>
+        <v>2002</v>
       </c>
       <c r="D50" s="4">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E50" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="51">
@@ -1760,16 +1763,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C51" s="4">
-        <v>2066</v>
+        <v>1927</v>
       </c>
       <c r="D51" s="4">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E51" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="52">
@@ -1777,16 +1780,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C52" s="4">
-        <v>2470</v>
+        <v>2066</v>
       </c>
       <c r="D52" s="4">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="E52" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="53">
@@ -1794,16 +1797,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C53" s="4">
-        <v>821</v>
+        <v>2471</v>
       </c>
       <c r="D53" s="4">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="E53" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="54">
@@ -1811,16 +1814,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C54" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D54" s="4">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E54" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="55">
@@ -1828,16 +1831,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C55" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D55" s="4">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="E55" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="56">
@@ -1845,16 +1848,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C56" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D56" s="4">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E56" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="57">
@@ -1862,16 +1865,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C57" s="4">
-        <v>1832</v>
+        <v>1819</v>
       </c>
       <c r="D57" s="4">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E57" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="58">
@@ -1879,16 +1882,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C58" s="4">
-        <v>1805</v>
+        <v>1832</v>
       </c>
       <c r="D58" s="4">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E58" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="59">
@@ -1896,16 +1899,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C59" s="4">
-        <v>2115</v>
+        <v>1804</v>
       </c>
       <c r="D59" s="4">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="E59" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="60">
@@ -1913,16 +1916,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C60" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D60" s="4">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="E60" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="61">
@@ -1930,16 +1933,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C61" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D61" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E61" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="62">
@@ -1947,16 +1950,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C62" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D62" s="4">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="E62" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="63">
@@ -1964,16 +1967,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C63" s="4">
-        <v>1490</v>
+        <v>1223</v>
       </c>
       <c r="D63" s="4">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E63" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="64">
@@ -1981,16 +1984,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C64" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D64" s="4">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E64" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="65">
@@ -1998,16 +2001,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C65" s="4">
-        <v>1522</v>
+        <v>1466</v>
       </c>
       <c r="D65" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="66">
@@ -2015,16 +2018,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C66" s="4">
-        <v>1727</v>
+        <v>1522</v>
       </c>
       <c r="D66" s="4">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E66" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="67">
@@ -2032,16 +2035,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C67" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D67" s="4">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="E67" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="68">
@@ -2049,16 +2052,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C68" s="4">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="D68" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E68" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="69">
@@ -2066,16 +2069,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C69" s="4">
-        <v>1305</v>
+        <v>662</v>
       </c>
       <c r="D69" s="4">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="E69" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="70">
@@ -2083,16 +2086,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C70" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D70" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E70" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="71">
@@ -2100,16 +2103,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C71" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D71" s="4">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E71" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="72">
@@ -2117,16 +2120,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C72" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D72" s="4">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E72" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="73">
@@ -2134,16 +2137,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C73" s="4">
-        <v>1720</v>
+        <v>1495</v>
       </c>
       <c r="D73" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E73" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="74">
@@ -2151,16 +2154,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C74" s="4">
-        <v>605</v>
+        <v>1720</v>
       </c>
       <c r="D74" s="4">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E74" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="75">
@@ -2168,16 +2171,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C75" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D75" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E75" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="76">
@@ -2185,16 +2188,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C76" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D76" s="4">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E76" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="77">
@@ -2202,16 +2205,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C77" s="4">
-        <v>1408</v>
+        <v>1261</v>
       </c>
       <c r="D77" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E77" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="78">
@@ -2219,16 +2222,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C78" s="4">
-        <v>1526</v>
+        <v>1408</v>
       </c>
       <c r="D78" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E78" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="79">
@@ -2236,16 +2239,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C79" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D79" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E79" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="80">
@@ -2253,16 +2256,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C80" s="4">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="D80" s="4">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="E80" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="81">
@@ -2270,16 +2273,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C81" s="4">
-        <v>611</v>
+        <v>720</v>
       </c>
       <c r="D81" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E81" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="82">
@@ -2287,16 +2290,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C82" s="4">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="D82" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="83">
@@ -2304,16 +2307,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C83" s="4">
-        <v>1254</v>
+        <v>652</v>
       </c>
       <c r="D83" s="4">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E83" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="84">
@@ -2321,16 +2324,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C84" s="4">
-        <v>1535</v>
+        <v>1254</v>
       </c>
       <c r="D84" s="4">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E84" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="85">
@@ -2338,16 +2341,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C85" s="4">
-        <v>1732</v>
+        <v>1535</v>
       </c>
       <c r="D85" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E85" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="86">
@@ -2355,16 +2358,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C86" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D86" s="4">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E86" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="87">
@@ -2372,16 +2375,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C87" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D87" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E87" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="88">
@@ -2389,16 +2392,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C88" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D88" s="4">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E88" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="89">
@@ -2406,16 +2409,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C89" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D89" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E89" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="90">
@@ -2423,16 +2426,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C90" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D90" s="4">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E90" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="91">
@@ -2440,16 +2443,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C91" s="4">
-        <v>1701</v>
+        <v>1550</v>
       </c>
       <c r="D91" s="4">
         <v>77</v>
       </c>
       <c r="E91" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="92">
@@ -2457,16 +2460,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C92" s="4">
-        <v>1757</v>
+        <v>1701</v>
       </c>
       <c r="D92" s="4">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E92" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="93">
@@ -2474,16 +2477,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C93" s="4">
-        <v>2031</v>
+        <v>1757</v>
       </c>
       <c r="D93" s="4">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E93" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="94">
@@ -2491,16 +2494,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C94" s="4">
-        <v>2194</v>
+        <v>2031</v>
       </c>
       <c r="D94" s="4">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E94" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="95">
@@ -2508,16 +2511,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C95" s="4">
-        <v>784</v>
+        <v>2194</v>
       </c>
       <c r="D95" s="4">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E95" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="96">
@@ -2525,16 +2528,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C96" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D96" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E96" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="97">
@@ -2542,16 +2545,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C97" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D97" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E97" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="98">
@@ -2559,16 +2562,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C98" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D98" s="4">
         <v>85</v>
       </c>
       <c r="E98" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="99">
@@ -2576,16 +2579,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C99" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D99" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E99" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="100">
@@ -2593,16 +2596,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C100" s="4">
-        <v>1977</v>
+        <v>1731</v>
       </c>
       <c r="D100" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E100" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="101">
@@ -2610,16 +2613,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C101" s="4">
-        <v>2000</v>
+        <v>1977</v>
       </c>
       <c r="D101" s="4">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E101" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="102">
@@ -2627,16 +2630,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C102" s="4">
-        <v>628</v>
+        <v>2000</v>
       </c>
       <c r="D102" s="4">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E102" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="103">
@@ -2644,16 +2647,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C103" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D103" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E103" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="104">
@@ -2661,16 +2664,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C104" s="4">
-        <v>1554</v>
+        <v>763</v>
       </c>
       <c r="D104" s="4">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E104" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="105">
@@ -2678,16 +2681,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C105" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D105" s="4">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E105" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="106">
@@ -2695,16 +2698,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C106" s="4">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="D106" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E106" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="107">
@@ -2712,16 +2715,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C107" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D107" s="4">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E107" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="108">
@@ -2729,16 +2732,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C108" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D108" s="4">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E108" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="109">
@@ -2746,16 +2749,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C109" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D109" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E109" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="110">
@@ -2763,16 +2766,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C110" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D110" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E110" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="111">
@@ -2780,16 +2783,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C111" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D111" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E111" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="112">
@@ -2797,16 +2800,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C112" s="4">
-        <v>1482</v>
+        <v>1410</v>
       </c>
       <c r="D112" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E112" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="113">
@@ -2814,16 +2817,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C113" s="4">
-        <v>1737</v>
+        <v>1482</v>
       </c>
       <c r="D113" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E113" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="114">
@@ -2831,16 +2834,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C114" s="4">
-        <v>1545</v>
+        <v>1737</v>
       </c>
       <c r="D114" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E114" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="115">
@@ -2848,16 +2851,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C115" s="4">
-        <v>1911</v>
+        <v>1545</v>
       </c>
       <c r="D115" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E115" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="116">
@@ -2865,16 +2868,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C116" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D116" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E116" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="117">
@@ -2882,16 +2885,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C117" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D117" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E117" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="118">
@@ -2899,16 +2902,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C118" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D118" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E118" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="119">
@@ -2916,16 +2919,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C119" s="4">
-        <v>1801</v>
+        <v>1722</v>
       </c>
       <c r="D119" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E119" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="120">
@@ -2933,16 +2936,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C120" s="4">
-        <v>1842</v>
+        <v>1801</v>
       </c>
       <c r="D120" s="4">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E120" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="121">
@@ -2950,16 +2953,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C121" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D121" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E121" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="122">
@@ -2967,16 +2970,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C122" s="4">
-        <v>2130</v>
+        <v>2022</v>
       </c>
       <c r="D122" s="4">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E122" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="123">
@@ -2984,16 +2987,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C123" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D123" s="4">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E123" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="124">
@@ -3001,16 +3004,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C124" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D124" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E124" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="125">
@@ -3018,16 +3021,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C125" s="4">
-        <v>1960</v>
+        <v>874</v>
       </c>
       <c r="D125" s="4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E125" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="126">
@@ -3035,16 +3038,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C126" s="4">
-        <v>1839</v>
+        <v>1961</v>
       </c>
       <c r="D126" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E126" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="127">
@@ -3052,16 +3055,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C127" s="4">
-        <v>2021</v>
+        <v>1839</v>
       </c>
       <c r="D127" s="4">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E127" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="128">
@@ -3069,16 +3072,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C128" s="4">
-        <v>2280</v>
+        <v>2021</v>
       </c>
       <c r="D128" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E128" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="129">
@@ -3086,16 +3089,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C129" s="4">
-        <v>2329</v>
+        <v>2281</v>
       </c>
       <c r="D129" s="4">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E129" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="130">
@@ -3103,16 +3106,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C130" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D130" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E130" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="131">
@@ -3120,16 +3123,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C131" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D131" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="132">
@@ -3137,16 +3140,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C132" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D132" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E132" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="133">
@@ -3154,16 +3157,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C133" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D133" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E133" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="134">
@@ -3171,16 +3174,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C134" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D134" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E134" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="135">
@@ -3188,16 +3191,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C135" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D135" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E135" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="136">
@@ -3205,16 +3208,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C136" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D136" s="4">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E136" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="137">
@@ -3222,16 +3225,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C137" s="4">
-        <v>860</v>
+        <v>2485</v>
       </c>
       <c r="D137" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E137" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="138">
@@ -3239,16 +3242,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C138" s="4">
-        <v>994</v>
+        <v>861</v>
       </c>
       <c r="D138" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E138" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="139">
@@ -3256,16 +3259,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C139" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D139" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E139" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="140">
@@ -3273,16 +3276,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C140" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D140" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E140" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="141">
@@ -3290,16 +3293,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C141" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D141" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E141" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="142">
@@ -3307,16 +3310,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C142" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D142" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E142" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="143">
@@ -3324,16 +3327,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C143" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D143" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="144">
@@ -3341,16 +3344,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C144" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D144" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E144" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="145">
@@ -3358,16 +3361,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C145" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D145" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E145" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="146">
@@ -3375,16 +3378,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C146" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D146" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E146" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="147">
@@ -3392,16 +3395,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C147" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D147" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E147" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="148">
@@ -3409,16 +3412,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C148" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D148" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E148" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="149">
@@ -3426,16 +3429,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C149" s="4">
-        <v>2329</v>
+        <v>2074</v>
       </c>
       <c r="D149" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E149" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="150">
@@ -3443,16 +3446,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C150" s="4">
-        <v>2538</v>
+        <v>2330</v>
       </c>
       <c r="D150" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E150" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="151">
@@ -3460,16 +3463,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C151" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D151" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E151" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="152">
@@ -3477,16 +3480,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C152" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D152" s="4">
         <v>0</v>
       </c>
       <c r="E152" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="153">
@@ -3494,16 +3497,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C153" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D153" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E153" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="154">
@@ -3511,16 +3514,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C154" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D154" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E154" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="155">
@@ -3528,16 +3531,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C155" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D155" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E155" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="156">
@@ -3545,16 +3548,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C156" s="4">
-        <v>2092</v>
+        <v>1905</v>
       </c>
       <c r="D156" s="4">
         <v>10</v>
       </c>
       <c r="E156" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="157">
@@ -3562,16 +3565,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C157" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D157" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E157" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="158">
@@ -3579,16 +3582,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C158" s="4">
-        <v>701</v>
+        <v>2042</v>
       </c>
       <c r="D158" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E158" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="159">
@@ -3596,16 +3599,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C159" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D159" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="160">
@@ -3613,16 +3616,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C160" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D160" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="161">
@@ -3630,16 +3633,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C161" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D161" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E161" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="162">
@@ -3647,16 +3650,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C162" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D162" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="163">
@@ -3664,16 +3667,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C163" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D163" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="164">
@@ -3681,16 +3684,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C164" s="4">
-        <v>1697</v>
+        <v>1599</v>
       </c>
       <c r="D164" s="4">
         <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="165">
@@ -3698,16 +3701,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C165" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="166">
@@ -3715,16 +3718,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C166" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D166" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="167">
@@ -3732,16 +3735,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C167" s="4">
-        <v>1450</v>
+        <v>687</v>
       </c>
       <c r="D167" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E167" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="168">
@@ -3749,16 +3752,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C168" s="4">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D168" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="169">
@@ -3766,16 +3769,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C169" s="4">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="D169" s="4">
         <v>1</v>
       </c>
       <c r="E169" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="170">
@@ -3783,16 +3786,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C170" s="4">
-        <v>1558</v>
+        <v>1460</v>
       </c>
       <c r="D170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="171">
@@ -3800,16 +3803,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C171" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="172">
@@ -3817,16 +3820,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C172" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="173">
@@ -3834,16 +3837,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C173" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D173" s="4">
         <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="174">
@@ -3851,16 +3854,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C174" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D174" s="4">
         <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="175">
@@ -3868,16 +3871,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C175" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="176">
@@ -3885,16 +3888,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C176" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="177">
@@ -3902,16 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C177" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="178">
@@ -3919,16 +3922,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C178" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="179">
@@ -3936,16 +3939,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C179" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="180">
@@ -3953,16 +3956,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C180" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="181">
@@ -3970,16 +3973,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C181" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="182">
@@ -3987,16 +3990,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C182" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="183">
@@ -4004,16 +4007,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C183" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="184">
@@ -4021,16 +4024,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C184" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="185">
@@ -4038,16 +4041,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C185" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="186">
@@ -4055,16 +4058,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C186" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="187">
@@ -4072,16 +4075,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C187" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="188">
@@ -4089,16 +4092,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C188" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="189">
@@ -4106,16 +4109,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C189" s="4">
-        <v>867</v>
+        <v>748</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="190">
@@ -4123,16 +4126,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C190" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="191">
@@ -4140,16 +4143,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C191" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="192">
@@ -4157,16 +4160,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C192" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193">
@@ -4174,16 +4177,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C193" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194">
@@ -4191,16 +4194,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C194" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="195">
@@ -4208,16 +4211,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C195" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D195" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="196">
@@ -4225,16 +4228,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C196" s="4">
-        <v>755</v>
+        <v>706</v>
       </c>
       <c r="D196" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="197">
@@ -4242,16 +4245,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C197" s="4">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198">
@@ -4259,16 +4262,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C198" s="4">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199">
@@ -4276,16 +4279,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C199" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="200">
@@ -4293,16 +4296,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C200" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201">
@@ -4310,16 +4313,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C201" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202">
@@ -4327,16 +4330,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C202" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="203">
@@ -4344,16 +4347,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C203" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204">
@@ -4361,16 +4364,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C204" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205">
@@ -4378,16 +4381,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C205" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206">
@@ -4395,16 +4398,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C206" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207">
@@ -4412,16 +4415,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C207" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208">
@@ -4429,16 +4432,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C208" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209">
@@ -4446,16 +4449,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C209" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="210">
@@ -4463,16 +4466,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C210" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -4480,16 +4483,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C211" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212">
@@ -4497,16 +4500,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C212" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="213">
@@ -4514,16 +4517,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C213" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214">
@@ -4531,16 +4534,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C214" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215">
@@ -4548,16 +4551,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C215" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216">
@@ -4565,16 +4568,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C216" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="217">
@@ -4582,16 +4585,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C217" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218">
@@ -4599,16 +4602,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C218" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219">
@@ -4616,16 +4619,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C219" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220">
@@ -4633,16 +4636,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C220" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221">
@@ -4650,16 +4653,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C221" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222">
@@ -4667,16 +4670,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C222" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
@@ -4684,16 +4687,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C223" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224">
@@ -4701,16 +4704,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C224" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="225">
@@ -4718,16 +4721,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C225" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226">
@@ -4735,16 +4738,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C226" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="227">
@@ -4752,16 +4755,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C227" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228">
@@ -4769,16 +4772,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C228" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229">
@@ -4786,16 +4789,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C229" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230">
@@ -4803,16 +4806,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C230" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231">
@@ -4820,16 +4823,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C231" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4840,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233">
@@ -4854,16 +4857,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C233" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
@@ -4871,16 +4874,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C234" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235">
@@ -4888,16 +4891,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C235" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236">
@@ -4905,16 +4908,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C236" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237">
@@ -4922,16 +4925,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C237" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238">
@@ -4939,16 +4942,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C238" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239">
@@ -4956,16 +4959,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C239" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
@@ -4973,16 +4976,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C240" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
@@ -4990,16 +4993,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C241" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
@@ -5007,16 +5010,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C242" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
@@ -5024,16 +5027,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C243" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -5041,16 +5044,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C244" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
@@ -5058,16 +5061,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C245" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -5075,16 +5078,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C246" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -5092,25 +5095,27 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C247" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
-      <c r="E247" s="4"/>
+      <c r="E247" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C248" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
@@ -5122,10 +5127,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C249" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
@@ -5137,10 +5142,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C250" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
@@ -5152,10 +5157,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C251" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
@@ -5167,10 +5172,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C252" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5182,10 +5187,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C253" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5197,10 +5202,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C254" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5212,10 +5217,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C255" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5227,10 +5232,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C256" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5242,10 +5247,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C257" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5257,10 +5262,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C258" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5275,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="C259" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5287,10 +5292,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C260" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5302,10 +5307,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C261" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5317,10 +5322,14 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>1</v>
-      </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C262" s="4">
+        <v>5</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0</v>
+      </c>
       <c r="E262" s="4"/>
     </row>
     <row r="263">
@@ -5328,14 +5337,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>0</v>
-      </c>
-      <c r="C263" s="4">
-        <v>5</v>
-      </c>
-      <c r="D263" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264">
@@ -5346,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5360,8 +5365,12 @@
       <c r="B265" s="4">
         <v>0</v>
       </c>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4">
+        <v>0</v>
+      </c>
       <c r="E265" s="4"/>
     </row>
     <row r="266">
@@ -5382,12 +5391,8 @@
       <c r="B267" s="4">
         <v>0</v>
       </c>
-      <c r="C267" s="4">
-        <v>1</v>
-      </c>
-      <c r="D267" s="4">
-        <v>0</v>
-      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268">
@@ -5397,8 +5402,12 @@
       <c r="B268" s="4">
         <v>0</v>
       </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+      <c r="D268" s="4">
+        <v>0</v>
+      </c>
       <c r="E268" s="4"/>
     </row>
     <row r="269">
@@ -5406,15 +5415,26 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
+        <v>0</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="4">
         <v>1</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C270" s="4">
         <v>1</v>
       </c>
-      <c r="D269" s="4">
-        <v>0</v>
-      </c>
-      <c r="E269" s="4"/>
+      <c r="D270" s="4">
+        <v>0</v>
+      </c>
+      <c r="E270" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+  <si>
+    <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
+  </si>
   <si>
     <t>11/25/2020</t>
   </si>
@@ -913,24 +925,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E274"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -938,12 +950,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4212</v>
+        <v>3820</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5138</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="3">
@@ -951,12 +963,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>3100</v>
+        <v>3444</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5074</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="4">
@@ -964,16 +976,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>2419</v>
+        <v>3834</v>
       </c>
       <c r="C4" s="4">
-        <v>616</v>
+        <v>798</v>
       </c>
       <c r="D4" s="4">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="E4" s="4">
-        <v>5039</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="5">
@@ -981,16 +993,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4514</v>
+        <v>4174</v>
       </c>
       <c r="C5" s="4">
-        <v>652</v>
+        <v>329</v>
       </c>
       <c r="D5" s="4">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4">
-        <v>5034</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="6">
@@ -998,16 +1010,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3415</v>
+        <v>4212</v>
       </c>
       <c r="C6" s="4">
-        <v>1161</v>
+        <v>2530</v>
       </c>
       <c r="D6" s="4">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="E6" s="4">
-        <v>5005</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="7">
@@ -1015,16 +1027,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3688</v>
+        <v>3100</v>
       </c>
       <c r="C7" s="4">
-        <v>2665</v>
+        <v>3513</v>
       </c>
       <c r="D7" s="4">
-        <v>305</v>
+        <v>464</v>
       </c>
       <c r="E7" s="4">
-        <v>4979</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="8">
@@ -1032,16 +1044,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4296</v>
+        <v>2419</v>
       </c>
       <c r="C8" s="4">
-        <v>3175</v>
+        <v>4620</v>
       </c>
       <c r="D8" s="4">
-        <v>345</v>
+        <v>630</v>
       </c>
       <c r="E8" s="4">
-        <v>4936</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="9">
@@ -1049,16 +1061,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3367</v>
+        <v>4514</v>
       </c>
       <c r="C9" s="4">
-        <v>3328</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="4">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="E9" s="4">
-        <v>4898</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="10">
@@ -1066,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3288</v>
+        <v>3415</v>
       </c>
       <c r="C10" s="4">
-        <v>3932</v>
+        <v>1732</v>
       </c>
       <c r="D10" s="4">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="E10" s="4">
-        <v>4852</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="11">
@@ -1083,16 +1095,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>1972</v>
+        <v>3688</v>
       </c>
       <c r="C11" s="4">
-        <v>4574</v>
+        <v>3185</v>
       </c>
       <c r="D11" s="4">
-        <v>554</v>
+        <v>366</v>
       </c>
       <c r="E11" s="4">
-        <v>4814</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="12">
@@ -1100,16 +1112,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3117</v>
+        <v>4296</v>
       </c>
       <c r="C12" s="4">
-        <v>1502</v>
+        <v>3361</v>
       </c>
       <c r="D12" s="4">
-        <v>180</v>
+        <v>387</v>
       </c>
       <c r="E12" s="4">
-        <v>4806</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="13">
@@ -1117,16 +1129,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3885</v>
+        <v>3367</v>
       </c>
       <c r="C13" s="4">
-        <v>1780</v>
+        <v>3449</v>
       </c>
       <c r="D13" s="4">
-        <v>173</v>
+        <v>417</v>
       </c>
       <c r="E13" s="4">
-        <v>4756</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="14">
@@ -1134,16 +1146,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>1779</v>
+        <v>3288</v>
       </c>
       <c r="C14" s="4">
-        <v>3423</v>
+        <v>4032</v>
       </c>
       <c r="D14" s="4">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="E14" s="4">
-        <v>4720</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="15">
@@ -1151,16 +1163,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2893</v>
+        <v>1972</v>
       </c>
       <c r="C15" s="4">
-        <v>3212</v>
+        <v>4619</v>
       </c>
       <c r="D15" s="4">
-        <v>417</v>
+        <v>581</v>
       </c>
       <c r="E15" s="4">
-        <v>4706</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="16">
@@ -1168,16 +1180,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="C16" s="4">
-        <v>3022</v>
+        <v>1513</v>
       </c>
       <c r="D16" s="4">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="E16" s="4">
-        <v>4698</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="17">
@@ -1185,16 +1197,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2582</v>
+        <v>3885</v>
       </c>
       <c r="C17" s="4">
-        <v>3357</v>
+        <v>1782</v>
       </c>
       <c r="D17" s="4">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="E17" s="4">
-        <v>4660</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="18">
@@ -1202,16 +1214,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>1521</v>
+        <v>1779</v>
       </c>
       <c r="C18" s="4">
-        <v>4050</v>
+        <v>3426</v>
       </c>
       <c r="D18" s="4">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="E18" s="4">
-        <v>4615</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="19">
@@ -1219,16 +1231,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2094</v>
+        <v>2893</v>
       </c>
       <c r="C19" s="4">
-        <v>1374</v>
+        <v>3222</v>
       </c>
       <c r="D19" s="4">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="E19" s="4">
-        <v>4607</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="20">
@@ -1236,16 +1248,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2676</v>
+        <v>3119</v>
       </c>
       <c r="C20" s="4">
-        <v>1487</v>
+        <v>3022</v>
       </c>
       <c r="D20" s="4">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="E20" s="4">
-        <v>4605</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="21">
@@ -1253,16 +1265,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2908</v>
+        <v>2582</v>
       </c>
       <c r="C21" s="4">
-        <v>2409</v>
+        <v>3377</v>
       </c>
       <c r="D21" s="4">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="E21" s="4">
-        <v>4582</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="22">
@@ -1270,16 +1282,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2859</v>
+        <v>1521</v>
       </c>
       <c r="C22" s="4">
-        <v>2580</v>
+        <v>4059</v>
       </c>
       <c r="D22" s="4">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="E22" s="4">
-        <v>4548</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="23">
@@ -1287,16 +1299,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2425</v>
+        <v>2094</v>
       </c>
       <c r="C23" s="4">
-        <v>2607</v>
+        <v>1374</v>
       </c>
       <c r="D23" s="4">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="E23" s="4">
-        <v>4507</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="24">
@@ -1304,16 +1316,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2349</v>
+        <v>2676</v>
       </c>
       <c r="C24" s="4">
-        <v>2657</v>
+        <v>1488</v>
       </c>
       <c r="D24" s="4">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="E24" s="4">
-        <v>4457</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="25">
@@ -1321,16 +1333,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>1336</v>
+        <v>2908</v>
       </c>
       <c r="C25" s="4">
-        <v>3106</v>
+        <v>2411</v>
       </c>
       <c r="D25" s="4">
-        <v>397</v>
+        <v>269</v>
       </c>
       <c r="E25" s="4">
-        <v>4390</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="26">
@@ -1338,16 +1350,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2057</v>
+        <v>2859</v>
       </c>
       <c r="C26" s="4">
-        <v>936</v>
+        <v>2581</v>
       </c>
       <c r="D26" s="4">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="E26" s="4">
-        <v>4383</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="27">
@@ -1355,16 +1367,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2805</v>
+        <v>2425</v>
       </c>
       <c r="C27" s="4">
-        <v>1063</v>
+        <v>2608</v>
       </c>
       <c r="D27" s="4">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="E27" s="4">
-        <v>4378</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="28">
@@ -1372,16 +1384,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2809</v>
+        <v>2349</v>
       </c>
       <c r="C28" s="4">
-        <v>2252</v>
+        <v>2654</v>
       </c>
       <c r="D28" s="4">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="E28" s="4">
-        <v>4332</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="29">
@@ -1389,16 +1401,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2885</v>
+        <v>1336</v>
       </c>
       <c r="C29" s="4">
-        <v>1979</v>
+        <v>3107</v>
       </c>
       <c r="D29" s="4">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="E29" s="4">
-        <v>4283</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="30">
@@ -1406,16 +1418,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2253</v>
+        <v>2057</v>
       </c>
       <c r="C30" s="4">
-        <v>2436</v>
+        <v>937</v>
       </c>
       <c r="D30" s="4">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4">
-        <v>4245</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="31">
@@ -1423,16 +1435,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2141</v>
+        <v>2805</v>
       </c>
       <c r="C31" s="4">
-        <v>2423</v>
+        <v>1063</v>
       </c>
       <c r="D31" s="4">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="E31" s="4">
-        <v>4211</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="32">
@@ -1440,16 +1452,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1643</v>
+        <v>2809</v>
       </c>
       <c r="C32" s="4">
-        <v>2987</v>
+        <v>2253</v>
       </c>
       <c r="D32" s="4">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="E32" s="4">
-        <v>4170</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="33">
@@ -1457,16 +1469,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>1807</v>
+        <v>2885</v>
       </c>
       <c r="C33" s="4">
-        <v>907</v>
+        <v>1980</v>
       </c>
       <c r="D33" s="4">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="E33" s="4">
-        <v>4157</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="34">
@@ -1474,16 +1486,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2584</v>
+        <v>2253</v>
       </c>
       <c r="C34" s="4">
-        <v>1071</v>
+        <v>2437</v>
       </c>
       <c r="D34" s="4">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="E34" s="4">
-        <v>4144</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="35">
@@ -1491,16 +1503,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2716</v>
+        <v>2141</v>
       </c>
       <c r="C35" s="4">
-        <v>2200</v>
+        <v>2422</v>
       </c>
       <c r="D35" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E35" s="4">
-        <v>4114</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="36">
@@ -1508,16 +1520,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2400</v>
+        <v>1643</v>
       </c>
       <c r="C36" s="4">
-        <v>2138</v>
+        <v>2987</v>
       </c>
       <c r="D36" s="4">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="E36" s="4">
-        <v>4082</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="37">
@@ -1525,16 +1537,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1842</v>
+        <v>1807</v>
       </c>
       <c r="C37" s="4">
-        <v>2453</v>
+        <v>908</v>
       </c>
       <c r="D37" s="4">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="E37" s="4">
-        <v>4032</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="38">
@@ -1542,16 +1554,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1578</v>
+        <v>2584</v>
       </c>
       <c r="C38" s="4">
-        <v>2457</v>
+        <v>1071</v>
       </c>
       <c r="D38" s="4">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4">
-        <v>3992</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="39">
@@ -1559,16 +1571,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1144</v>
+        <v>2716</v>
       </c>
       <c r="C39" s="4">
-        <v>2798</v>
+        <v>2200</v>
       </c>
       <c r="D39" s="4">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="E39" s="4">
-        <v>3939</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="40">
@@ -1576,16 +1588,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2303</v>
+        <v>2400</v>
       </c>
       <c r="C40" s="4">
-        <v>849</v>
+        <v>2138</v>
       </c>
       <c r="D40" s="4">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="E40" s="4">
-        <v>3934</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="41">
@@ -1593,16 +1605,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2102</v>
+        <v>1842</v>
       </c>
       <c r="C41" s="4">
-        <v>951</v>
+        <v>2454</v>
       </c>
       <c r="D41" s="4">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="E41" s="4">
-        <v>3929</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="42">
@@ -1610,16 +1622,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2684</v>
+        <v>1578</v>
       </c>
       <c r="C42" s="4">
-        <v>2056</v>
+        <v>2459</v>
       </c>
       <c r="D42" s="4">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="E42" s="4">
-        <v>3910</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="43">
@@ -1627,16 +1639,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2532</v>
+        <v>1144</v>
       </c>
       <c r="C43" s="4">
-        <v>2103</v>
+        <v>2798</v>
       </c>
       <c r="D43" s="4">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="E43" s="4">
-        <v>3874</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="44">
@@ -1644,16 +1656,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1926</v>
+        <v>2303</v>
       </c>
       <c r="C44" s="4">
-        <v>2128</v>
+        <v>849</v>
       </c>
       <c r="D44" s="4">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4">
-        <v>3856</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="45">
@@ -1661,16 +1673,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1734</v>
+        <v>2102</v>
       </c>
       <c r="C45" s="4">
-        <v>2384</v>
+        <v>951</v>
       </c>
       <c r="D45" s="4">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="E45" s="4">
-        <v>3816</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="46">
@@ -1678,16 +1690,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1276</v>
+        <v>2684</v>
       </c>
       <c r="C46" s="4">
-        <v>2684</v>
+        <v>2056</v>
       </c>
       <c r="D46" s="4">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="E46" s="4">
-        <v>3773</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="47">
@@ -1695,16 +1707,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>1719</v>
+        <v>2532</v>
       </c>
       <c r="C47" s="4">
-        <v>903</v>
+        <v>2104</v>
       </c>
       <c r="D47" s="4">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="E47" s="4">
-        <v>3770</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="48">
@@ -1712,16 +1724,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2321</v>
+        <v>1926</v>
       </c>
       <c r="C48" s="4">
-        <v>938</v>
+        <v>2129</v>
       </c>
       <c r="D48" s="4">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="E48" s="4">
-        <v>3765</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="49">
@@ -1729,16 +1741,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2034</v>
+        <v>1734</v>
       </c>
       <c r="C49" s="4">
-        <v>1814</v>
+        <v>2384</v>
       </c>
       <c r="D49" s="4">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="E49" s="4">
-        <v>3747</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="50">
@@ -1746,16 +1758,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2428</v>
+        <v>1276</v>
       </c>
       <c r="C50" s="4">
-        <v>2002</v>
+        <v>2683</v>
       </c>
       <c r="D50" s="4">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="E50" s="4">
-        <v>3722</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="51">
@@ -1763,16 +1775,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C51" s="4">
-        <v>1927</v>
+        <v>903</v>
       </c>
       <c r="D51" s="4">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="E51" s="4">
-        <v>3693</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="52">
@@ -1780,16 +1792,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1504</v>
+        <v>2321</v>
       </c>
       <c r="C52" s="4">
-        <v>2066</v>
+        <v>938</v>
       </c>
       <c r="D52" s="4">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="E52" s="4">
-        <v>3670</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="53">
@@ -1797,16 +1809,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2258</v>
+        <v>2034</v>
       </c>
       <c r="C53" s="4">
-        <v>2471</v>
+        <v>1814</v>
       </c>
       <c r="D53" s="4">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c r="E53" s="4">
-        <v>3637</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="54">
@@ -1814,16 +1826,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>610</v>
+        <v>2428</v>
       </c>
       <c r="C54" s="4">
-        <v>821</v>
+        <v>2004</v>
       </c>
       <c r="D54" s="4">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="E54" s="4">
-        <v>3634</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="55">
@@ -1831,16 +1843,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2202</v>
+        <v>1711</v>
       </c>
       <c r="C55" s="4">
-        <v>983</v>
+        <v>1927</v>
       </c>
       <c r="D55" s="4">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="E55" s="4">
-        <v>3629</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="56">
@@ -1848,16 +1860,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1775</v>
+        <v>1504</v>
       </c>
       <c r="C56" s="4">
-        <v>1837</v>
+        <v>2066</v>
       </c>
       <c r="D56" s="4">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="E56" s="4">
-        <v>3608</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="57">
@@ -1865,16 +1877,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2277</v>
+        <v>2258</v>
       </c>
       <c r="C57" s="4">
-        <v>1819</v>
+        <v>2472</v>
       </c>
       <c r="D57" s="4">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="E57" s="4">
-        <v>3579</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="58">
@@ -1882,16 +1894,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1495</v>
+        <v>610</v>
       </c>
       <c r="C58" s="4">
-        <v>1832</v>
+        <v>821</v>
       </c>
       <c r="D58" s="4">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E58" s="4">
-        <v>3532</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="59">
@@ -1899,16 +1911,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>889</v>
+        <v>2202</v>
       </c>
       <c r="C59" s="4">
-        <v>1804</v>
+        <v>983</v>
       </c>
       <c r="D59" s="4">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="E59" s="4">
-        <v>3494</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="60">
@@ -1916,16 +1928,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>868</v>
+        <v>1775</v>
       </c>
       <c r="C60" s="4">
-        <v>2116</v>
+        <v>1837</v>
       </c>
       <c r="D60" s="4">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="E60" s="4">
-        <v>3445</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="61">
@@ -1933,16 +1945,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1290</v>
+        <v>2277</v>
       </c>
       <c r="C61" s="4">
-        <v>640</v>
+        <v>1820</v>
       </c>
       <c r="D61" s="4">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="E61" s="4">
-        <v>3441</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="62">
@@ -1950,16 +1962,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1759</v>
+        <v>1495</v>
       </c>
       <c r="C62" s="4">
-        <v>759</v>
+        <v>1831</v>
       </c>
       <c r="D62" s="4">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="E62" s="4">
-        <v>3440</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="63">
@@ -1967,16 +1979,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1693</v>
+        <v>889</v>
       </c>
       <c r="C63" s="4">
-        <v>1223</v>
+        <v>1804</v>
       </c>
       <c r="D63" s="4">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E63" s="4">
-        <v>3409</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="64">
@@ -1984,16 +1996,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1836</v>
+        <v>868</v>
       </c>
       <c r="C64" s="4">
-        <v>1490</v>
+        <v>2116</v>
       </c>
       <c r="D64" s="4">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="E64" s="4">
-        <v>3379</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="65">
@@ -2001,16 +2013,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1101</v>
+        <v>1290</v>
       </c>
       <c r="C65" s="4">
-        <v>1466</v>
+        <v>640</v>
       </c>
       <c r="D65" s="4">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E65" s="4">
-        <v>3338</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="66">
@@ -2018,16 +2030,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1312</v>
+        <v>1759</v>
       </c>
       <c r="C66" s="4">
-        <v>1522</v>
+        <v>759</v>
       </c>
       <c r="D66" s="4">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="E66" s="4">
-        <v>3286</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="67">
@@ -2035,16 +2047,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>800</v>
+        <v>1693</v>
       </c>
       <c r="C67" s="4">
-        <v>1727</v>
+        <v>1223</v>
       </c>
       <c r="D67" s="4">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E67" s="4">
-        <v>3247</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="68">
@@ -2052,16 +2064,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1335</v>
+        <v>1836</v>
       </c>
       <c r="C68" s="4">
-        <v>573</v>
+        <v>1490</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E68" s="4">
-        <v>3243</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="69">
@@ -2069,16 +2081,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1239</v>
+        <v>1101</v>
       </c>
       <c r="C69" s="4">
-        <v>662</v>
+        <v>1466</v>
       </c>
       <c r="D69" s="4">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E69" s="4">
-        <v>3235</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="70">
@@ -2086,16 +2098,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1504</v>
+        <v>1312</v>
       </c>
       <c r="C70" s="4">
-        <v>1305</v>
+        <v>1522</v>
       </c>
       <c r="D70" s="4">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E70" s="4">
-        <v>3207</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="71">
@@ -2103,16 +2115,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1632</v>
+        <v>800</v>
       </c>
       <c r="C71" s="4">
-        <v>1272</v>
+        <v>1727</v>
       </c>
       <c r="D71" s="4">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E71" s="4">
-        <v>3180</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="72">
@@ -2120,16 +2132,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1234</v>
+        <v>1335</v>
       </c>
       <c r="C72" s="4">
-        <v>1408</v>
+        <v>573</v>
       </c>
       <c r="D72" s="4">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E72" s="4">
-        <v>3149</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="73">
@@ -2137,16 +2149,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1210</v>
+        <v>1239</v>
       </c>
       <c r="C73" s="4">
-        <v>1495</v>
+        <v>662</v>
       </c>
       <c r="D73" s="4">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E73" s="4">
-        <v>3111</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="74">
@@ -2154,16 +2166,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>948</v>
+        <v>1504</v>
       </c>
       <c r="C74" s="4">
-        <v>1720</v>
+        <v>1305</v>
       </c>
       <c r="D74" s="4">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E74" s="4">
-        <v>3060</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="75">
@@ -2171,16 +2183,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1220</v>
+        <v>1632</v>
       </c>
       <c r="C75" s="4">
-        <v>605</v>
+        <v>1272</v>
       </c>
       <c r="D75" s="4">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E75" s="4">
-        <v>3052</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="76">
@@ -2188,16 +2200,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1478</v>
+        <v>1234</v>
       </c>
       <c r="C76" s="4">
-        <v>667</v>
+        <v>1408</v>
       </c>
       <c r="D76" s="4">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E76" s="4">
-        <v>3047</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="77">
@@ -2205,16 +2217,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1610</v>
+        <v>1210</v>
       </c>
       <c r="C77" s="4">
-        <v>1261</v>
+        <v>1495</v>
       </c>
       <c r="D77" s="4">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E77" s="4">
-        <v>3023</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="78">
@@ -2222,16 +2234,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1307</v>
+        <v>948</v>
       </c>
       <c r="C78" s="4">
-        <v>1408</v>
+        <v>1720</v>
       </c>
       <c r="D78" s="4">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E78" s="4">
-        <v>2990</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="79">
@@ -2239,16 +2251,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>969</v>
+        <v>1220</v>
       </c>
       <c r="C79" s="4">
-        <v>1526</v>
+        <v>605</v>
       </c>
       <c r="D79" s="4">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E79" s="4">
-        <v>2958</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="80">
@@ -2256,16 +2268,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>833</v>
+        <v>1478</v>
       </c>
       <c r="C80" s="4">
-        <v>1889</v>
+        <v>667</v>
       </c>
       <c r="D80" s="4">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E80" s="4">
-        <v>2909</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="81">
@@ -2273,16 +2285,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1039</v>
+        <v>1610</v>
       </c>
       <c r="C81" s="4">
-        <v>720</v>
+        <v>1261</v>
       </c>
       <c r="D81" s="4">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E81" s="4">
-        <v>2897</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="82">
@@ -2290,16 +2302,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1099</v>
+        <v>1307</v>
       </c>
       <c r="C82" s="4">
-        <v>611</v>
+        <v>1411</v>
       </c>
       <c r="D82" s="4">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E82" s="4">
-        <v>2890</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="83">
@@ -2307,16 +2319,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1586</v>
+        <v>969</v>
       </c>
       <c r="C83" s="4">
-        <v>652</v>
+        <v>1526</v>
       </c>
       <c r="D83" s="4">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E83" s="4">
-        <v>2889</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="84">
@@ -2324,16 +2336,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>2121</v>
+        <v>833</v>
       </c>
       <c r="C84" s="4">
-        <v>1254</v>
+        <v>1889</v>
       </c>
       <c r="D84" s="4">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E84" s="4">
-        <v>2839</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="85">
@@ -2341,16 +2353,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1716</v>
+        <v>1039</v>
       </c>
       <c r="C85" s="4">
-        <v>1535</v>
+        <v>720</v>
       </c>
       <c r="D85" s="4">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E85" s="4">
-        <v>2803</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="86">
@@ -2358,16 +2370,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1216</v>
+        <v>1099</v>
       </c>
       <c r="C86" s="4">
-        <v>1732</v>
+        <v>612</v>
       </c>
       <c r="D86" s="4">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E86" s="4">
-        <v>2779</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="87">
@@ -2375,16 +2387,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>2209</v>
+        <v>1586</v>
       </c>
       <c r="C87" s="4">
-        <v>1634</v>
+        <v>652</v>
       </c>
       <c r="D87" s="4">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="E87" s="4">
-        <v>2741</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="88">
@@ -2392,16 +2404,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1287</v>
+        <v>2121</v>
       </c>
       <c r="C88" s="4">
-        <v>1813</v>
+        <v>1258</v>
       </c>
       <c r="D88" s="4">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E88" s="4">
-        <v>2702</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="89">
@@ -2409,16 +2421,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1952</v>
+        <v>1716</v>
       </c>
       <c r="C89" s="4">
-        <v>638</v>
+        <v>1535</v>
       </c>
       <c r="D89" s="4">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E89" s="4">
-        <v>2692</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="90">
@@ -2426,16 +2438,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1723</v>
+        <v>1216</v>
       </c>
       <c r="C90" s="4">
-        <v>840</v>
+        <v>1732</v>
       </c>
       <c r="D90" s="4">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E90" s="4">
-        <v>2683</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="91">
@@ -2443,16 +2455,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1479</v>
+        <v>2209</v>
       </c>
       <c r="C91" s="4">
-        <v>1550</v>
+        <v>1634</v>
       </c>
       <c r="D91" s="4">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E91" s="4">
-        <v>2652</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="92">
@@ -2460,16 +2472,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>2177</v>
+        <v>1287</v>
       </c>
       <c r="C92" s="4">
-        <v>1701</v>
+        <v>1813</v>
       </c>
       <c r="D92" s="4">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E92" s="4">
-        <v>2630</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="93">
@@ -2477,16 +2489,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1342</v>
+        <v>1952</v>
       </c>
       <c r="C93" s="4">
-        <v>1757</v>
+        <v>638</v>
       </c>
       <c r="D93" s="4">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E93" s="4">
-        <v>2606</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="94">
@@ -2494,16 +2506,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1446</v>
+        <v>1723</v>
       </c>
       <c r="C94" s="4">
-        <v>2031</v>
+        <v>840</v>
       </c>
       <c r="D94" s="4">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E94" s="4">
-        <v>2570</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="95">
@@ -2511,16 +2523,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1389</v>
+        <v>1479</v>
       </c>
       <c r="C95" s="4">
-        <v>2194</v>
+        <v>1551</v>
       </c>
       <c r="D95" s="4">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E95" s="4">
-        <v>2535</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="96">
@@ -2528,16 +2540,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1490</v>
+        <v>2177</v>
       </c>
       <c r="C96" s="4">
-        <v>784</v>
+        <v>1701</v>
       </c>
       <c r="D96" s="4">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E96" s="4">
-        <v>2531</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="97">
@@ -2545,16 +2557,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1781</v>
+        <v>1342</v>
       </c>
       <c r="C97" s="4">
-        <v>852</v>
+        <v>1757</v>
       </c>
       <c r="D97" s="4">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E97" s="4">
-        <v>2521</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="98">
@@ -2562,16 +2574,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>2075</v>
+        <v>1446</v>
       </c>
       <c r="C98" s="4">
-        <v>1766</v>
+        <v>2032</v>
       </c>
       <c r="D98" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E98" s="4">
-        <v>2494</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="99">
@@ -2579,16 +2591,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>2050</v>
+        <v>1389</v>
       </c>
       <c r="C99" s="4">
-        <v>1728</v>
+        <v>2194</v>
       </c>
       <c r="D99" s="4">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E99" s="4">
-        <v>2465</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="100">
@@ -2596,16 +2608,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1218</v>
+        <v>1490</v>
       </c>
       <c r="C100" s="4">
-        <v>1731</v>
+        <v>783</v>
       </c>
       <c r="D100" s="4">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E100" s="4">
-        <v>2431</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="101">
@@ -2613,16 +2625,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1336</v>
+        <v>1781</v>
       </c>
       <c r="C101" s="4">
-        <v>1977</v>
+        <v>852</v>
       </c>
       <c r="D101" s="4">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E101" s="4">
-        <v>2396</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="102">
@@ -2630,16 +2642,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>431</v>
+        <v>2075</v>
       </c>
       <c r="C102" s="4">
-        <v>2000</v>
+        <v>1766</v>
       </c>
       <c r="D102" s="4">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E102" s="4">
-        <v>2348</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="103">
@@ -2647,16 +2659,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1400</v>
+        <v>2050</v>
       </c>
       <c r="C103" s="4">
-        <v>629</v>
+        <v>1728</v>
       </c>
       <c r="D103" s="4">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E103" s="4">
-        <v>2347</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="104">
@@ -2664,16 +2676,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1662</v>
+        <v>1218</v>
       </c>
       <c r="C104" s="4">
-        <v>763</v>
+        <v>1731</v>
       </c>
       <c r="D104" s="4">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E104" s="4">
-        <v>2343</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="105">
@@ -2681,16 +2693,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1210</v>
+        <v>1336</v>
       </c>
       <c r="C105" s="4">
-        <v>1554</v>
+        <v>1978</v>
       </c>
       <c r="D105" s="4">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E105" s="4">
-        <v>2313</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="106">
@@ -2698,16 +2710,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1978</v>
+        <v>431</v>
       </c>
       <c r="C106" s="4">
-        <v>1487</v>
+        <v>2000</v>
       </c>
       <c r="D106" s="4">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="E106" s="4">
-        <v>2287</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="107">
@@ -2715,16 +2727,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1308</v>
+        <v>1400</v>
       </c>
       <c r="C107" s="4">
-        <v>1511</v>
+        <v>629</v>
       </c>
       <c r="D107" s="4">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E107" s="4">
-        <v>2249</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="108">
@@ -2732,16 +2744,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1131</v>
+        <v>1662</v>
       </c>
       <c r="C108" s="4">
-        <v>1484</v>
+        <v>763</v>
       </c>
       <c r="D108" s="4">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E108" s="4">
-        <v>2204</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="109">
@@ -2749,16 +2761,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>512</v>
+        <v>1210</v>
       </c>
       <c r="C109" s="4">
-        <v>1735</v>
+        <v>1555</v>
       </c>
       <c r="D109" s="4">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E109" s="4">
-        <v>2172</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="110">
@@ -2766,16 +2778,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1626</v>
+        <v>1978</v>
       </c>
       <c r="C110" s="4">
-        <v>581</v>
+        <v>1487</v>
       </c>
       <c r="D110" s="4">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E110" s="4">
-        <v>2168</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="111">
@@ -2783,16 +2795,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1987</v>
+        <v>1308</v>
       </c>
       <c r="C111" s="4">
-        <v>719</v>
+        <v>1511</v>
       </c>
       <c r="D111" s="4">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E111" s="4">
-        <v>2160</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="112">
@@ -2800,16 +2812,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1582</v>
+        <v>1131</v>
       </c>
       <c r="C112" s="4">
-        <v>1410</v>
+        <v>1484</v>
       </c>
       <c r="D112" s="4">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E112" s="4">
-        <v>2134</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="113">
@@ -2817,16 +2829,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>2049</v>
+        <v>512</v>
       </c>
       <c r="C113" s="4">
-        <v>1482</v>
+        <v>1735</v>
       </c>
       <c r="D113" s="4">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E113" s="4">
-        <v>2092</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="114">
@@ -2834,16 +2846,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1185</v>
+        <v>1626</v>
       </c>
       <c r="C114" s="4">
-        <v>1737</v>
+        <v>581</v>
       </c>
       <c r="D114" s="4">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E114" s="4">
-        <v>2050</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="115">
@@ -2851,16 +2863,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1694</v>
+        <v>1987</v>
       </c>
       <c r="C115" s="4">
-        <v>1545</v>
+        <v>719</v>
       </c>
       <c r="D115" s="4">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E115" s="4">
-        <v>2010</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="116">
@@ -2868,16 +2880,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1388</v>
+        <v>1582</v>
       </c>
       <c r="C116" s="4">
-        <v>1911</v>
+        <v>1409</v>
       </c>
       <c r="D116" s="4">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E116" s="4">
-        <v>1982</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="117">
@@ -2885,16 +2897,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1362</v>
+        <v>2049</v>
       </c>
       <c r="C117" s="4">
-        <v>710</v>
+        <v>1481</v>
       </c>
       <c r="D117" s="4">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E117" s="4">
-        <v>1969</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="118">
@@ -2902,16 +2914,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1753</v>
+        <v>1185</v>
       </c>
       <c r="C118" s="4">
-        <v>774</v>
+        <v>1737</v>
       </c>
       <c r="D118" s="4">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E118" s="4">
-        <v>1964</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="119">
@@ -2919,16 +2931,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2018</v>
+        <v>1694</v>
       </c>
       <c r="C119" s="4">
-        <v>1722</v>
+        <v>1546</v>
       </c>
       <c r="D119" s="4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E119" s="4">
-        <v>1924</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="120">
@@ -2936,16 +2948,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>2411</v>
+        <v>1388</v>
       </c>
       <c r="C120" s="4">
-        <v>1801</v>
+        <v>1911</v>
       </c>
       <c r="D120" s="4">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E120" s="4">
-        <v>1903</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="121">
@@ -2953,16 +2965,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1826</v>
+        <v>1362</v>
       </c>
       <c r="C121" s="4">
-        <v>1841</v>
+        <v>710</v>
       </c>
       <c r="D121" s="4">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E121" s="4">
-        <v>1865</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="122">
@@ -2970,16 +2982,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1805</v>
+        <v>1753</v>
       </c>
       <c r="C122" s="4">
-        <v>2022</v>
+        <v>774</v>
       </c>
       <c r="D122" s="4">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E122" s="4">
-        <v>1820</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="123">
@@ -2987,16 +2999,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1685</v>
+        <v>2018</v>
       </c>
       <c r="C123" s="4">
-        <v>2130</v>
+        <v>1722</v>
       </c>
       <c r="D123" s="4">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E123" s="4">
-        <v>1790</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="124">
@@ -3004,16 +3016,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1645</v>
+        <v>2411</v>
       </c>
       <c r="C124" s="4">
-        <v>710</v>
+        <v>1802</v>
       </c>
       <c r="D124" s="4">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E124" s="4">
-        <v>1785</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="125">
@@ -3021,16 +3033,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2114</v>
+        <v>1826</v>
       </c>
       <c r="C125" s="4">
-        <v>874</v>
+        <v>1841</v>
       </c>
       <c r="D125" s="4">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E125" s="4">
-        <v>1778</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="126">
@@ -3038,16 +3050,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2145</v>
+        <v>1805</v>
       </c>
       <c r="C126" s="4">
-        <v>1961</v>
+        <v>2022</v>
       </c>
       <c r="D126" s="4">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E126" s="4">
-        <v>1746</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="127">
@@ -3055,16 +3067,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1945</v>
+        <v>1685</v>
       </c>
       <c r="C127" s="4">
-        <v>1839</v>
+        <v>2131</v>
       </c>
       <c r="D127" s="4">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E127" s="4">
-        <v>1726</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="128">
@@ -3072,16 +3084,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>2191</v>
+        <v>1645</v>
       </c>
       <c r="C128" s="4">
-        <v>2021</v>
+        <v>710</v>
       </c>
       <c r="D128" s="4">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E128" s="4">
-        <v>1698</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="129">
@@ -3089,16 +3101,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1863</v>
+        <v>2114</v>
       </c>
       <c r="C129" s="4">
-        <v>2281</v>
+        <v>874</v>
       </c>
       <c r="D129" s="4">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E129" s="4">
-        <v>1668</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="130">
@@ -3106,16 +3118,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1291</v>
+        <v>2145</v>
       </c>
       <c r="C130" s="4">
-        <v>2330</v>
+        <v>1961</v>
       </c>
       <c r="D130" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E130" s="4">
-        <v>1642</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="131">
@@ -3123,16 +3135,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1820</v>
+        <v>1945</v>
       </c>
       <c r="C131" s="4">
-        <v>819</v>
+        <v>1839</v>
       </c>
       <c r="D131" s="4">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E131" s="4">
-        <v>1634</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="132">
@@ -3140,16 +3152,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2486</v>
+        <v>2191</v>
       </c>
       <c r="C132" s="4">
-        <v>967</v>
+        <v>2021</v>
       </c>
       <c r="D132" s="4">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E132" s="4">
-        <v>1629</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="133">
@@ -3157,16 +3169,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2082</v>
+        <v>1863</v>
       </c>
       <c r="C133" s="4">
-        <v>1943</v>
+        <v>2282</v>
       </c>
       <c r="D133" s="4">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E133" s="4">
-        <v>1606</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="134">
@@ -3174,16 +3186,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2191</v>
+        <v>1291</v>
       </c>
       <c r="C134" s="4">
-        <v>2087</v>
+        <v>2330</v>
       </c>
       <c r="D134" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E134" s="4">
-        <v>1588</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="135">
@@ -3191,16 +3203,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1816</v>
+        <v>1820</v>
       </c>
       <c r="C135" s="4">
-        <v>2240</v>
+        <v>819</v>
       </c>
       <c r="D135" s="4">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E135" s="4">
-        <v>1568</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="136">
@@ -3208,16 +3220,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1991</v>
+        <v>2486</v>
       </c>
       <c r="C136" s="4">
-        <v>2457</v>
+        <v>967</v>
       </c>
       <c r="D136" s="4">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E136" s="4">
-        <v>1552</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="137">
@@ -3225,16 +3237,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1846</v>
+        <v>2082</v>
       </c>
       <c r="C137" s="4">
-        <v>2485</v>
+        <v>1942</v>
       </c>
       <c r="D137" s="4">
         <v>31</v>
       </c>
       <c r="E137" s="4">
-        <v>1510</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="138">
@@ -3242,16 +3254,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1909</v>
+        <v>2191</v>
       </c>
       <c r="C138" s="4">
-        <v>861</v>
+        <v>2087</v>
       </c>
       <c r="D138" s="4">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E138" s="4">
-        <v>1503</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="139">
@@ -3259,16 +3271,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2467</v>
+        <v>1816</v>
       </c>
       <c r="C139" s="4">
-        <v>994</v>
+        <v>2240</v>
       </c>
       <c r="D139" s="4">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E139" s="4">
-        <v>1499</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="140">
@@ -3276,16 +3288,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="C140" s="4">
-        <v>2142</v>
+        <v>2457</v>
       </c>
       <c r="D140" s="4">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E140" s="4">
-        <v>1479</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="141">
@@ -3293,16 +3305,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2059</v>
+        <v>1846</v>
       </c>
       <c r="C141" s="4">
-        <v>2163</v>
+        <v>2485</v>
       </c>
       <c r="D141" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E141" s="4">
-        <v>1461</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="142">
@@ -3310,16 +3322,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1449</v>
+        <v>1909</v>
       </c>
       <c r="C142" s="4">
-        <v>2567</v>
+        <v>862</v>
       </c>
       <c r="D142" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E142" s="4">
-        <v>1441</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="143">
@@ -3327,16 +3339,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1367</v>
+        <v>2467</v>
       </c>
       <c r="C143" s="4">
-        <v>2814</v>
+        <v>994</v>
       </c>
       <c r="D143" s="4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E143" s="4">
-        <v>1420</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="144">
@@ -3344,16 +3356,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1563</v>
+        <v>2007</v>
       </c>
       <c r="C144" s="4">
-        <v>2539</v>
+        <v>2142</v>
       </c>
       <c r="D144" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E144" s="4">
-        <v>1398</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="145">
@@ -3361,16 +3373,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1330</v>
+        <v>2059</v>
       </c>
       <c r="C145" s="4">
-        <v>767</v>
+        <v>2163</v>
       </c>
       <c r="D145" s="4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E145" s="4">
-        <v>1396</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="146">
@@ -3378,16 +3390,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1419</v>
+        <v>1449</v>
       </c>
       <c r="C146" s="4">
-        <v>587</v>
+        <v>2567</v>
       </c>
       <c r="D146" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E146" s="4">
-        <v>1395</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="147">
@@ -3395,16 +3407,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2102</v>
+        <v>1367</v>
       </c>
       <c r="C147" s="4">
-        <v>1362</v>
+        <v>2814</v>
       </c>
       <c r="D147" s="4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E147" s="4">
-        <v>1392</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="148">
@@ -3412,16 +3424,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1639</v>
+        <v>1563</v>
       </c>
       <c r="C148" s="4">
-        <v>2035</v>
+        <v>2539</v>
       </c>
       <c r="D148" s="4">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E148" s="4">
-        <v>1391</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="149">
@@ -3429,16 +3441,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1862</v>
+        <v>1330</v>
       </c>
       <c r="C149" s="4">
-        <v>2074</v>
+        <v>767</v>
       </c>
       <c r="D149" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E149" s="4">
-        <v>1373</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="150">
@@ -3446,16 +3458,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1196</v>
+        <v>1419</v>
       </c>
       <c r="C150" s="4">
-        <v>2330</v>
+        <v>587</v>
       </c>
       <c r="D150" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E150" s="4">
-        <v>1343</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="151">
@@ -3463,16 +3475,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1349</v>
+        <v>2102</v>
       </c>
       <c r="C151" s="4">
-        <v>2538</v>
+        <v>1362</v>
       </c>
       <c r="D151" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E151" s="4">
-        <v>1325</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="152">
@@ -3480,16 +3492,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1605</v>
+        <v>1639</v>
       </c>
       <c r="C152" s="4">
-        <v>1049</v>
+        <v>2035</v>
       </c>
       <c r="D152" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E152" s="4">
-        <v>1322</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="153">
@@ -3497,16 +3509,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1720</v>
+        <v>1862</v>
       </c>
       <c r="C153" s="4">
-        <v>939</v>
+        <v>2074</v>
       </c>
       <c r="D153" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E153" s="4">
-        <v>1318</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="154">
@@ -3514,16 +3526,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1649</v>
+        <v>1196</v>
       </c>
       <c r="C154" s="4">
-        <v>1972</v>
+        <v>2330</v>
       </c>
       <c r="D154" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E154" s="4">
-        <v>1303</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="155">
@@ -3531,16 +3543,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1024</v>
+        <v>1349</v>
       </c>
       <c r="C155" s="4">
-        <v>1968</v>
+        <v>2538</v>
       </c>
       <c r="D155" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E155" s="4">
-        <v>1290</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="156">
@@ -3548,16 +3560,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1724</v>
+        <v>1605</v>
       </c>
       <c r="C156" s="4">
-        <v>1905</v>
+        <v>1049</v>
       </c>
       <c r="D156" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E156" s="4">
-        <v>1271</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="157">
@@ -3565,16 +3577,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>854</v>
+        <v>1720</v>
       </c>
       <c r="C157" s="4">
-        <v>2092</v>
+        <v>939</v>
       </c>
       <c r="D157" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E157" s="4">
-        <v>1251</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="158">
@@ -3582,16 +3594,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>805</v>
+        <v>1649</v>
       </c>
       <c r="C158" s="4">
-        <v>2042</v>
+        <v>1972</v>
       </c>
       <c r="D158" s="4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E158" s="4">
-        <v>1223</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="159">
@@ -3599,16 +3611,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1412</v>
+        <v>1024</v>
       </c>
       <c r="C159" s="4">
-        <v>701</v>
+        <v>1968</v>
       </c>
       <c r="D159" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E159" s="4">
-        <v>1220</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="160">
@@ -3616,16 +3628,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1549</v>
+        <v>1724</v>
       </c>
       <c r="C160" s="4">
-        <v>768</v>
+        <v>1906</v>
       </c>
       <c r="D160" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E160" s="4">
-        <v>1212</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="161">
@@ -3633,16 +3645,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1655</v>
+        <v>854</v>
       </c>
       <c r="C161" s="4">
-        <v>1629</v>
+        <v>2092</v>
       </c>
       <c r="D161" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E161" s="4">
-        <v>1197</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="162">
@@ -3650,16 +3662,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1335</v>
+        <v>805</v>
       </c>
       <c r="C162" s="4">
-        <v>1788</v>
+        <v>2042</v>
       </c>
       <c r="D162" s="4">
         <v>4</v>
       </c>
       <c r="E162" s="4">
-        <v>1175</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="163">
@@ -3667,16 +3679,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1002</v>
+        <v>1412</v>
       </c>
       <c r="C163" s="4">
-        <v>1721</v>
+        <v>701</v>
       </c>
       <c r="D163" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" s="4">
-        <v>1168</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="164">
@@ -3684,16 +3696,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>751</v>
+        <v>1549</v>
       </c>
       <c r="C164" s="4">
-        <v>1599</v>
+        <v>768</v>
       </c>
       <c r="D164" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="4">
-        <v>1154</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="165">
@@ -3701,16 +3713,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>983</v>
+        <v>1655</v>
       </c>
       <c r="C165" s="4">
-        <v>1697</v>
+        <v>1629</v>
       </c>
       <c r="D165" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E165" s="4">
-        <v>1118</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="166">
@@ -3718,16 +3730,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1444</v>
+        <v>1335</v>
       </c>
       <c r="C166" s="4">
-        <v>552</v>
+        <v>1787</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E166" s="4">
-        <v>1109</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="167">
@@ -3735,16 +3747,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1429</v>
+        <v>1002</v>
       </c>
       <c r="C167" s="4">
-        <v>687</v>
+        <v>1721</v>
       </c>
       <c r="D167" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>1104</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="168">
@@ -3752,16 +3764,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1768</v>
+        <v>751</v>
       </c>
       <c r="C168" s="4">
-        <v>1450</v>
+        <v>1599</v>
       </c>
       <c r="D168" s="4">
         <v>0</v>
       </c>
       <c r="E168" s="4">
-        <v>1092</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="169">
@@ -3769,16 +3781,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1310</v>
+        <v>983</v>
       </c>
       <c r="C169" s="4">
-        <v>1438</v>
+        <v>1697</v>
       </c>
       <c r="D169" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" s="4">
-        <v>1064</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="170">
@@ -3786,16 +3798,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1011</v>
+        <v>1444</v>
       </c>
       <c r="C170" s="4">
-        <v>1460</v>
+        <v>552</v>
       </c>
       <c r="D170" s="4">
         <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>1053</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="171">
@@ -3803,16 +3815,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>676</v>
+        <v>1429</v>
       </c>
       <c r="C171" s="4">
-        <v>1558</v>
+        <v>687</v>
       </c>
       <c r="D171" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E171" s="4">
-        <v>1029</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="172">
@@ -3820,16 +3832,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>938</v>
+        <v>1768</v>
       </c>
       <c r="C172" s="4">
-        <v>1662</v>
+        <v>1450</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>1006</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="173">
@@ -3837,16 +3849,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>921</v>
+        <v>1310</v>
       </c>
       <c r="C173" s="4">
-        <v>435</v>
+        <v>1438</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>996</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="174">
@@ -3854,16 +3866,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1370</v>
+        <v>1011</v>
       </c>
       <c r="C174" s="4">
-        <v>487</v>
+        <v>1459</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>992</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="175">
@@ -3871,16 +3883,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1289</v>
+        <v>676</v>
       </c>
       <c r="C175" s="4">
-        <v>1323</v>
+        <v>1558</v>
       </c>
       <c r="D175" s="4">
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>966</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="176">
@@ -3888,16 +3900,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1190</v>
+        <v>938</v>
       </c>
       <c r="C176" s="4">
-        <v>1347</v>
+        <v>1662</v>
       </c>
       <c r="D176" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>960</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="177">
@@ -3905,16 +3917,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="C177" s="4">
-        <v>1443</v>
+        <v>435</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>939</v>
+        <v>996</v>
       </c>
     </row>
     <row r="178">
@@ -3922,16 +3934,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>626</v>
+        <v>1370</v>
       </c>
       <c r="C178" s="4">
-        <v>1272</v>
+        <v>487</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>921</v>
+        <v>992</v>
       </c>
     </row>
     <row r="179">
@@ -3939,16 +3951,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>674</v>
+        <v>1289</v>
       </c>
       <c r="C179" s="4">
-        <v>1513</v>
+        <v>1322</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>898</v>
+        <v>966</v>
       </c>
     </row>
     <row r="180">
@@ -3956,16 +3968,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>916</v>
+        <v>1190</v>
       </c>
       <c r="C180" s="4">
-        <v>333</v>
+        <v>1347</v>
       </c>
       <c r="D180" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="4">
-        <v>886</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181">
@@ -3973,16 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1185</v>
+        <v>888</v>
       </c>
       <c r="C181" s="4">
-        <v>449</v>
+        <v>1443</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>877</v>
+        <v>939</v>
       </c>
     </row>
     <row r="182">
@@ -3990,16 +4002,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1076</v>
+        <v>626</v>
       </c>
       <c r="C182" s="4">
-        <v>1117</v>
+        <v>1272</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>859</v>
+        <v>921</v>
       </c>
     </row>
     <row r="183">
@@ -4007,16 +4019,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>784</v>
+        <v>674</v>
       </c>
       <c r="C183" s="4">
-        <v>1024</v>
+        <v>1513</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>827</v>
+        <v>898</v>
       </c>
     </row>
     <row r="184">
@@ -4024,16 +4036,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>488</v>
+        <v>916</v>
       </c>
       <c r="C184" s="4">
-        <v>1003</v>
+        <v>333</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>794</v>
+        <v>886</v>
       </c>
     </row>
     <row r="185">
@@ -4041,16 +4053,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>176</v>
+        <v>1185</v>
       </c>
       <c r="C185" s="4">
-        <v>1368</v>
+        <v>449</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>766</v>
+        <v>877</v>
       </c>
     </row>
     <row r="186">
@@ -4058,16 +4070,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>742</v>
+        <v>1076</v>
       </c>
       <c r="C186" s="4">
-        <v>370</v>
+        <v>1117</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>754</v>
+        <v>859</v>
       </c>
     </row>
     <row r="187">
@@ -4075,16 +4087,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>497</v>
+        <v>784</v>
       </c>
       <c r="C187" s="4">
-        <v>262</v>
+        <v>1024</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>744</v>
+        <v>827</v>
       </c>
     </row>
     <row r="188">
@@ -4092,16 +4104,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1107</v>
+        <v>488</v>
       </c>
       <c r="C188" s="4">
-        <v>340</v>
+        <v>1003</v>
       </c>
       <c r="D188" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" s="4">
-        <v>737</v>
+        <v>794</v>
       </c>
     </row>
     <row r="189">
@@ -4109,16 +4121,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>758</v>
+        <v>176</v>
       </c>
       <c r="C189" s="4">
-        <v>748</v>
+        <v>1368</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>728</v>
+        <v>766</v>
       </c>
     </row>
     <row r="190">
@@ -4126,16 +4138,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C190" s="4">
-        <v>867</v>
+        <v>370</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>716</v>
+        <v>754</v>
       </c>
     </row>
     <row r="191">
@@ -4143,16 +4155,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="C191" s="4">
-        <v>839</v>
+        <v>262</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>702</v>
+        <v>744</v>
       </c>
     </row>
     <row r="192">
@@ -4160,16 +4172,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>677</v>
+        <v>1107</v>
       </c>
       <c r="C192" s="4">
-        <v>963</v>
+        <v>340</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>691</v>
+        <v>737</v>
       </c>
     </row>
     <row r="193">
@@ -4177,16 +4189,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>511</v>
+        <v>758</v>
       </c>
       <c r="C193" s="4">
-        <v>1058</v>
+        <v>748</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>661</v>
+        <v>728</v>
       </c>
     </row>
     <row r="194">
@@ -4194,16 +4206,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>530</v>
+        <v>738</v>
       </c>
       <c r="C194" s="4">
-        <v>195</v>
+        <v>867</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>659</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195">
@@ -4211,16 +4223,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>853</v>
+        <v>423</v>
       </c>
       <c r="C195" s="4">
-        <v>288</v>
+        <v>839</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>652</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196">
@@ -4228,16 +4240,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="C196" s="4">
-        <v>706</v>
+        <v>963</v>
       </c>
       <c r="D196" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>641</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197">
@@ -4245,16 +4257,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>691</v>
+        <v>511</v>
       </c>
       <c r="C197" s="4">
-        <v>755</v>
+        <v>1058</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>615</v>
+        <v>661</v>
       </c>
     </row>
     <row r="198">
@@ -4262,16 +4274,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="C198" s="4">
-        <v>712</v>
+        <v>195</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>597</v>
+        <v>659</v>
       </c>
     </row>
     <row r="199">
@@ -4279,16 +4291,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>301</v>
+        <v>853</v>
       </c>
       <c r="C199" s="4">
-        <v>681</v>
+        <v>288</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>577</v>
+        <v>652</v>
       </c>
     </row>
     <row r="200">
@@ -4296,16 +4308,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>281</v>
+        <v>622</v>
       </c>
       <c r="C200" s="4">
-        <v>769</v>
+        <v>706</v>
       </c>
       <c r="D200" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="4">
-        <v>550</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201">
@@ -4313,16 +4325,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>404</v>
+        <v>691</v>
       </c>
       <c r="C201" s="4">
-        <v>117</v>
+        <v>756</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>547</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202">
@@ -4330,16 +4342,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C202" s="4">
-        <v>213</v>
+        <v>713</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>544</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203">
@@ -4347,16 +4359,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>471</v>
+        <v>301</v>
       </c>
       <c r="C203" s="4">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="204">
@@ -4364,16 +4376,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>639</v>
+        <v>281</v>
       </c>
       <c r="C204" s="4">
-        <v>605</v>
+        <v>769</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>507</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205">
@@ -4381,16 +4393,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="C205" s="4">
-        <v>677</v>
+        <v>117</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>477</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206">
@@ -4398,16 +4410,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="C206" s="4">
-        <v>552</v>
+        <v>213</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>452</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207">
@@ -4415,16 +4427,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="C207" s="4">
-        <v>689</v>
+        <v>538</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>430</v>
+        <v>527</v>
       </c>
     </row>
     <row r="208">
@@ -4432,16 +4444,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>155</v>
+        <v>639</v>
       </c>
       <c r="C208" s="4">
-        <v>172</v>
+        <v>605</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>422</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209">
@@ -4449,16 +4461,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="C209" s="4">
-        <v>182</v>
+        <v>677</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>420</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210">
@@ -4466,16 +4478,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C210" s="4">
-        <v>450</v>
+        <v>552</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211">
@@ -4483,16 +4495,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>561</v>
+        <v>184</v>
       </c>
       <c r="C211" s="4">
-        <v>460</v>
+        <v>689</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>378</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212">
@@ -4500,16 +4512,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>380</v>
+        <v>155</v>
       </c>
       <c r="C212" s="4">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>354</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213">
@@ -4517,16 +4529,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="C213" s="4">
-        <v>435</v>
+        <v>182</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>342</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214">
@@ -4534,16 +4546,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="C214" s="4">
-        <v>561</v>
+        <v>450</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>306</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -4551,16 +4563,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>207</v>
+        <v>561</v>
       </c>
       <c r="C215" s="4">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>299</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216">
@@ -4568,16 +4580,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>571</v>
+        <v>380</v>
       </c>
       <c r="C216" s="4">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>289</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217">
@@ -4585,16 +4597,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C217" s="4">
-        <v>574</v>
+        <v>435</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218">
@@ -4602,16 +4614,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="C218" s="4">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>253</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219">
@@ -4619,16 +4631,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C219" s="4">
-        <v>439</v>
+        <v>120</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220">
@@ -4636,16 +4648,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>187</v>
+        <v>571</v>
       </c>
       <c r="C220" s="4">
-        <v>464</v>
+        <v>254</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>213</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221">
@@ -4653,16 +4665,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="C221" s="4">
-        <v>440</v>
+        <v>574</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>179</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222">
@@ -4670,16 +4682,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="C222" s="4">
-        <v>120</v>
+        <v>507</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>172</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223">
@@ -4687,16 +4699,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C223" s="4">
-        <v>138</v>
+        <v>439</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224">
@@ -4704,16 +4716,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="C224" s="4">
-        <v>258</v>
+        <v>464</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>152</v>
+        <v>213</v>
       </c>
     </row>
     <row r="225">
@@ -4721,16 +4733,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="C225" s="4">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226">
@@ -4738,16 +4750,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="C226" s="4">
-        <v>376</v>
+        <v>120</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
@@ -4755,16 +4767,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="C227" s="4">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>108</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228">
@@ -4772,16 +4784,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="C228" s="4">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="229">
@@ -4789,16 +4801,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="C229" s="4">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230">
@@ -4806,16 +4818,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="C230" s="4">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231">
@@ -4823,16 +4835,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="C231" s="4">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232">
@@ -4840,16 +4852,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="C232" s="4">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="233">
@@ -4857,16 +4869,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C233" s="4">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234">
@@ -4874,16 +4886,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="C234" s="4">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235">
@@ -4891,16 +4903,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C235" s="4">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236">
@@ -4908,16 +4920,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C236" s="4">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237">
@@ -4925,16 +4937,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="C237" s="4">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="238">
@@ -4942,16 +4954,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="C238" s="4">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239">
@@ -4959,16 +4971,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C239" s="4">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240">
@@ -4976,16 +4988,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
+        <v>183</v>
+      </c>
+      <c r="C240" s="4">
         <v>86</v>
       </c>
-      <c r="C240" s="4">
-        <v>240</v>
-      </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241">
@@ -4993,16 +5005,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="C241" s="4">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
@@ -5010,16 +5022,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C242" s="4">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
@@ -5027,16 +5039,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C243" s="4">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -5044,16 +5056,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="C244" s="4">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
@@ -5061,16 +5073,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C245" s="4">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -5078,16 +5090,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C246" s="4">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
@@ -5095,16 +5107,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C247" s="4">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
@@ -5112,70 +5124,78 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="C248" s="4">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
-      <c r="E248" s="4"/>
+      <c r="E248" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C249" s="4">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
-      <c r="E249" s="4"/>
+      <c r="E249" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C250" s="4">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
-      <c r="E250" s="4"/>
+      <c r="E250" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C251" s="4">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
-      <c r="E251" s="4"/>
+      <c r="E251" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C252" s="4">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5187,10 +5207,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C253" s="4">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5202,10 +5222,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C254" s="4">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5217,10 +5237,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C255" s="4">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5232,10 +5252,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C256" s="4">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5247,10 +5267,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C257" s="4">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5262,10 +5282,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C258" s="4">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5277,10 +5297,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C259" s="4">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5292,10 +5312,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C260" s="4">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5307,10 +5327,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C261" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5322,10 +5342,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C262" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5337,10 +5357,14 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>1</v>
-      </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C263" s="4">
+        <v>57</v>
+      </c>
+      <c r="D263" s="4">
+        <v>0</v>
+      </c>
       <c r="E263" s="4"/>
     </row>
     <row r="264">
@@ -5348,10 +5372,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C264" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5366,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="C265" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5378,10 +5402,14 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>0</v>
-      </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C266" s="4">
+        <v>5</v>
+      </c>
+      <c r="D266" s="4">
+        <v>0</v>
+      </c>
       <c r="E266" s="4"/>
     </row>
     <row r="267">
@@ -5389,7 +5417,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -5403,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="C268" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5417,8 +5445,12 @@
       <c r="B269" s="4">
         <v>0</v>
       </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4">
+        <v>0</v>
+      </c>
       <c r="E269" s="4"/>
     </row>
     <row r="270">
@@ -5426,15 +5458,63 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
+        <v>0</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+      <c r="C272" s="4">
         <v>1</v>
       </c>
-      <c r="C270" s="4">
+      <c r="D272" s="4">
+        <v>0</v>
+      </c>
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" s="4">
         <v>1</v>
       </c>
-      <c r="D270" s="4">
-        <v>0</v>
-      </c>
-      <c r="E270" s="4"/>
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0</v>
+      </c>
+      <c r="E274" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+  <si>
+    <t>11/30/2020</t>
+  </si>
   <si>
     <t>11/29/2020</t>
   </si>
@@ -925,24 +928,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -950,12 +953,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="3">
@@ -963,12 +966,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="4">
@@ -976,16 +979,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C4" s="4">
-        <v>798</v>
+        <v>453</v>
       </c>
       <c r="D4" s="4">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="5">
@@ -993,16 +996,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C5" s="4">
-        <v>329</v>
+        <v>1687</v>
       </c>
       <c r="D5" s="4">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="6">
@@ -1010,16 +1013,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C6" s="4">
-        <v>2530</v>
+        <v>447</v>
       </c>
       <c r="D6" s="4">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="7">
@@ -1027,16 +1030,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C7" s="4">
-        <v>3513</v>
+        <v>3276</v>
       </c>
       <c r="D7" s="4">
-        <v>464</v>
+        <v>315</v>
       </c>
       <c r="E7" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="8">
@@ -1044,16 +1047,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C8" s="4">
-        <v>4620</v>
+        <v>3779</v>
       </c>
       <c r="D8" s="4">
-        <v>630</v>
+        <v>472</v>
       </c>
       <c r="E8" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="9">
@@ -1061,16 +1064,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C9" s="4">
-        <v>1399</v>
+        <v>4730</v>
       </c>
       <c r="D9" s="4">
-        <v>217</v>
+        <v>633</v>
       </c>
       <c r="E9" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="10">
@@ -1078,16 +1081,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C10" s="4">
-        <v>1732</v>
+        <v>1405</v>
       </c>
       <c r="D10" s="4">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="11">
@@ -1095,16 +1098,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C11" s="4">
-        <v>3185</v>
+        <v>1731</v>
       </c>
       <c r="D11" s="4">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="E11" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="12">
@@ -1112,16 +1115,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C12" s="4">
-        <v>3361</v>
+        <v>3196</v>
       </c>
       <c r="D12" s="4">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E12" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="13">
@@ -1129,16 +1132,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C13" s="4">
-        <v>3449</v>
+        <v>3364</v>
       </c>
       <c r="D13" s="4">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="E13" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="14">
@@ -1146,16 +1149,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C14" s="4">
-        <v>4032</v>
+        <v>3450</v>
       </c>
       <c r="D14" s="4">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="E14" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="15">
@@ -1163,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C15" s="4">
-        <v>4619</v>
+        <v>4032</v>
       </c>
       <c r="D15" s="4">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="E15" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="16">
@@ -1180,16 +1183,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C16" s="4">
-        <v>1513</v>
+        <v>4619</v>
       </c>
       <c r="D16" s="4">
-        <v>182</v>
+        <v>583</v>
       </c>
       <c r="E16" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="17">
@@ -1197,16 +1200,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C17" s="4">
-        <v>1782</v>
+        <v>1513</v>
       </c>
       <c r="D17" s="4">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="18">
@@ -1214,16 +1217,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C18" s="4">
-        <v>3426</v>
+        <v>1782</v>
       </c>
       <c r="D18" s="4">
-        <v>368</v>
+        <v>176</v>
       </c>
       <c r="E18" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="19">
@@ -1231,16 +1234,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C19" s="4">
-        <v>3222</v>
+        <v>3425</v>
       </c>
       <c r="D19" s="4">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="E19" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="20">
@@ -1248,16 +1251,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C20" s="4">
-        <v>3022</v>
+        <v>3222</v>
       </c>
       <c r="D20" s="4">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="E20" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="21">
@@ -1265,16 +1268,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C21" s="4">
-        <v>3377</v>
+        <v>3022</v>
       </c>
       <c r="D21" s="4">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E21" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="22">
@@ -1282,16 +1285,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C22" s="4">
-        <v>4059</v>
+        <v>3378</v>
       </c>
       <c r="D22" s="4">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="E22" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="23">
@@ -1299,16 +1302,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C23" s="4">
-        <v>1374</v>
+        <v>4059</v>
       </c>
       <c r="D23" s="4">
-        <v>133</v>
+        <v>466</v>
       </c>
       <c r="E23" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="24">
@@ -1316,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C24" s="4">
-        <v>1488</v>
+        <v>1374</v>
       </c>
       <c r="D24" s="4">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E24" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="25">
@@ -1333,16 +1336,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C25" s="4">
-        <v>2411</v>
+        <v>1488</v>
       </c>
       <c r="D25" s="4">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="E25" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="26">
@@ -1350,16 +1353,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C26" s="4">
-        <v>2581</v>
+        <v>2411</v>
       </c>
       <c r="D26" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E26" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="27">
@@ -1367,16 +1370,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C27" s="4">
-        <v>2608</v>
+        <v>2581</v>
       </c>
       <c r="D27" s="4">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E27" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="28">
@@ -1384,16 +1387,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C28" s="4">
-        <v>2654</v>
+        <v>2608</v>
       </c>
       <c r="D28" s="4">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="E28" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="29">
@@ -1401,16 +1404,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C29" s="4">
-        <v>3107</v>
+        <v>2654</v>
       </c>
       <c r="D29" s="4">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="E29" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="30">
@@ -1418,16 +1421,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C30" s="4">
-        <v>937</v>
+        <v>3107</v>
       </c>
       <c r="D30" s="4">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E30" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="31">
@@ -1435,16 +1438,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C31" s="4">
-        <v>1063</v>
+        <v>937</v>
       </c>
       <c r="D31" s="4">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="32">
@@ -1452,16 +1455,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C32" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D32" s="4">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="33">
@@ -1469,16 +1472,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C33" s="4">
-        <v>1980</v>
+        <v>2253</v>
       </c>
       <c r="D33" s="4">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="E33" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="34">
@@ -1486,16 +1489,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C34" s="4">
-        <v>2437</v>
+        <v>1980</v>
       </c>
       <c r="D34" s="4">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E34" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="35">
@@ -1503,16 +1506,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C35" s="4">
-        <v>2422</v>
+        <v>2437</v>
       </c>
       <c r="D35" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E35" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="36">
@@ -1520,16 +1523,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C36" s="4">
-        <v>2987</v>
+        <v>2422</v>
       </c>
       <c r="D36" s="4">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="E36" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="37">
@@ -1537,16 +1540,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C37" s="4">
-        <v>908</v>
+        <v>2987</v>
       </c>
       <c r="D37" s="4">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="E37" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="38">
@@ -1554,16 +1557,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C38" s="4">
-        <v>1071</v>
+        <v>908</v>
       </c>
       <c r="D38" s="4">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="39">
@@ -1571,16 +1574,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C39" s="4">
-        <v>2200</v>
+        <v>1071</v>
       </c>
       <c r="D39" s="4">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="40">
@@ -1588,16 +1591,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C40" s="4">
-        <v>2138</v>
+        <v>2200</v>
       </c>
       <c r="D40" s="4">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E40" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="41">
@@ -1605,16 +1608,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C41" s="4">
-        <v>2454</v>
+        <v>2138</v>
       </c>
       <c r="D41" s="4">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="E41" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="42">
@@ -1622,16 +1625,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C42" s="4">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="D42" s="4">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="E42" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="43">
@@ -1639,16 +1642,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C43" s="4">
-        <v>2798</v>
+        <v>2459</v>
       </c>
       <c r="D43" s="4">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="E43" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="44">
@@ -1656,16 +1659,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C44" s="4">
-        <v>849</v>
+        <v>2798</v>
       </c>
       <c r="D44" s="4">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="E44" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="45">
@@ -1673,16 +1676,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C45" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D45" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E45" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="46">
@@ -1690,16 +1693,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C46" s="4">
-        <v>2056</v>
+        <v>951</v>
       </c>
       <c r="D46" s="4">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="E46" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="47">
@@ -1707,16 +1710,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C47" s="4">
-        <v>2104</v>
+        <v>2056</v>
       </c>
       <c r="D47" s="4">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E47" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="48">
@@ -1724,16 +1727,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C48" s="4">
-        <v>2129</v>
+        <v>2104</v>
       </c>
       <c r="D48" s="4">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E48" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="49">
@@ -1741,16 +1744,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C49" s="4">
-        <v>2384</v>
+        <v>2129</v>
       </c>
       <c r="D49" s="4">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="E49" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="50">
@@ -1758,16 +1761,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C50" s="4">
-        <v>2683</v>
+        <v>2384</v>
       </c>
       <c r="D50" s="4">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E50" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="51">
@@ -1775,16 +1778,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C51" s="4">
-        <v>903</v>
+        <v>2683</v>
       </c>
       <c r="D51" s="4">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="E51" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="52">
@@ -1792,16 +1795,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C52" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D52" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E52" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="53">
@@ -1809,16 +1812,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C53" s="4">
-        <v>1814</v>
+        <v>938</v>
       </c>
       <c r="D53" s="4">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="E53" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="54">
@@ -1826,16 +1829,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C54" s="4">
-        <v>2004</v>
+        <v>1814</v>
       </c>
       <c r="D54" s="4">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E54" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="55">
@@ -1843,16 +1846,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C55" s="4">
-        <v>1927</v>
+        <v>2003</v>
       </c>
       <c r="D55" s="4">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E55" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="56">
@@ -1860,16 +1863,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C56" s="4">
-        <v>2066</v>
+        <v>1927</v>
       </c>
       <c r="D56" s="4">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E56" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="57">
@@ -1877,16 +1880,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C57" s="4">
-        <v>2472</v>
+        <v>2066</v>
       </c>
       <c r="D57" s="4">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="E57" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="58">
@@ -1894,16 +1897,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C58" s="4">
-        <v>821</v>
+        <v>2472</v>
       </c>
       <c r="D58" s="4">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="E58" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="59">
@@ -1911,16 +1914,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C59" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D59" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E59" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="60">
@@ -1928,16 +1931,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C60" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D60" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E60" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="61">
@@ -1945,16 +1948,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C61" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D61" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="62">
@@ -1962,16 +1965,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C62" s="4">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="D62" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E62" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="63">
@@ -1979,16 +1982,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C63" s="4">
-        <v>1804</v>
+        <v>1831</v>
       </c>
       <c r="D63" s="4">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E63" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="64">
@@ -1996,16 +1999,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C64" s="4">
-        <v>2116</v>
+        <v>1804</v>
       </c>
       <c r="D64" s="4">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="E64" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="65">
@@ -2013,16 +2016,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C65" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D65" s="4">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="E65" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="66">
@@ -2030,16 +2033,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C66" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D66" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E66" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="67">
@@ -2047,16 +2050,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C67" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D67" s="4">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="E67" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="68">
@@ -2064,16 +2067,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C68" s="4">
-        <v>1490</v>
+        <v>1223</v>
       </c>
       <c r="D68" s="4">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E68" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="69">
@@ -2081,16 +2084,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C69" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D69" s="4">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E69" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="70">
@@ -2098,16 +2101,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C70" s="4">
-        <v>1522</v>
+        <v>1466</v>
       </c>
       <c r="D70" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E70" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="71">
@@ -2115,16 +2118,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C71" s="4">
-        <v>1727</v>
+        <v>1522</v>
       </c>
       <c r="D71" s="4">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E71" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="72">
@@ -2132,16 +2135,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C72" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E72" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="73">
@@ -2149,16 +2152,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C73" s="4">
-        <v>662</v>
+        <v>573</v>
       </c>
       <c r="D73" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E73" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="74">
@@ -2166,16 +2169,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C74" s="4">
-        <v>1305</v>
+        <v>662</v>
       </c>
       <c r="D74" s="4">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E74" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="75">
@@ -2183,16 +2186,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C75" s="4">
-        <v>1272</v>
+        <v>1304</v>
       </c>
       <c r="D75" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E75" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="76">
@@ -2200,16 +2203,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C76" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D76" s="4">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E76" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="77">
@@ -2217,16 +2220,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C77" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D77" s="4">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E77" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="78">
@@ -2234,16 +2237,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C78" s="4">
-        <v>1720</v>
+        <v>1495</v>
       </c>
       <c r="D78" s="4">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E78" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="79">
@@ -2251,16 +2254,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C79" s="4">
-        <v>605</v>
+        <v>1720</v>
       </c>
       <c r="D79" s="4">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E79" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="80">
@@ -2268,16 +2271,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C80" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D80" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E80" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="81">
@@ -2285,16 +2288,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C81" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D81" s="4">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E81" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="82">
@@ -2302,16 +2305,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C82" s="4">
-        <v>1411</v>
+        <v>1261</v>
       </c>
       <c r="D82" s="4">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E82" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="83">
@@ -2319,16 +2322,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C83" s="4">
-        <v>1526</v>
+        <v>1412</v>
       </c>
       <c r="D83" s="4">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E83" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="84">
@@ -2336,16 +2339,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C84" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D84" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E84" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="85">
@@ -2353,16 +2356,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C85" s="4">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="D85" s="4">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E85" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="86">
@@ -2370,16 +2373,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C86" s="4">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="D86" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E86" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="87">
@@ -2387,16 +2390,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C87" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D87" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E87" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="88">
@@ -2404,16 +2407,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C88" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D88" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E88" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="89">
@@ -2421,16 +2424,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C89" s="4">
-        <v>1535</v>
+        <v>1258</v>
       </c>
       <c r="D89" s="4">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E89" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="90">
@@ -2438,16 +2441,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C90" s="4">
-        <v>1732</v>
+        <v>1535</v>
       </c>
       <c r="D90" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E90" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="91">
@@ -2455,16 +2458,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C91" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D91" s="4">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E91" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="92">
@@ -2472,16 +2475,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C92" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D92" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E92" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="93">
@@ -2489,16 +2492,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C93" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D93" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E93" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="94">
@@ -2506,16 +2509,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C94" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D94" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E94" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="95">
@@ -2523,16 +2526,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C95" s="4">
-        <v>1551</v>
+        <v>840</v>
       </c>
       <c r="D95" s="4">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E95" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="96">
@@ -2540,16 +2543,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C96" s="4">
-        <v>1701</v>
+        <v>1551</v>
       </c>
       <c r="D96" s="4">
         <v>78</v>
       </c>
       <c r="E96" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="97">
@@ -2557,16 +2560,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C97" s="4">
-        <v>1757</v>
+        <v>1701</v>
       </c>
       <c r="D97" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E97" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="98">
@@ -2574,16 +2577,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C98" s="4">
-        <v>2032</v>
+        <v>1757</v>
       </c>
       <c r="D98" s="4">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E98" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="99">
@@ -2591,16 +2594,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C99" s="4">
-        <v>2194</v>
+        <v>2032</v>
       </c>
       <c r="D99" s="4">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E99" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="100">
@@ -2608,16 +2611,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C100" s="4">
-        <v>783</v>
+        <v>2193</v>
       </c>
       <c r="D100" s="4">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E100" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="101">
@@ -2625,16 +2628,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C101" s="4">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="D101" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E101" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="102">
@@ -2642,16 +2645,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C102" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D102" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E102" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="103">
@@ -2659,16 +2662,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C103" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D103" s="4">
         <v>85</v>
       </c>
       <c r="E103" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="104">
@@ -2676,16 +2679,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C104" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D104" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E104" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="105">
@@ -2693,16 +2696,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C105" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D105" s="4">
         <v>83</v>
       </c>
       <c r="E105" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="106">
@@ -2710,16 +2713,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C106" s="4">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D106" s="4">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E106" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="107">
@@ -2727,16 +2730,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C107" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D107" s="4">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E107" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="108">
@@ -2744,16 +2747,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C108" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D108" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E108" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="109">
@@ -2761,16 +2764,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C109" s="4">
-        <v>1555</v>
+        <v>763</v>
       </c>
       <c r="D109" s="4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E109" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="110">
@@ -2778,16 +2781,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C110" s="4">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="D110" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E110" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="111">
@@ -2795,16 +2798,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C111" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D111" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E111" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="112">
@@ -2812,16 +2815,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C112" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D112" s="4">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E112" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="113">
@@ -2829,16 +2832,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C113" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D113" s="4">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E113" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="114">
@@ -2846,16 +2849,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C114" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D114" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E114" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="115">
@@ -2863,16 +2866,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C115" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D115" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E115" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="116">
@@ -2880,16 +2883,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C116" s="4">
-        <v>1409</v>
+        <v>719</v>
       </c>
       <c r="D116" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E116" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="117">
@@ -2897,16 +2900,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C117" s="4">
-        <v>1481</v>
+        <v>1409</v>
       </c>
       <c r="D117" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E117" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="118">
@@ -2914,16 +2917,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C118" s="4">
-        <v>1737</v>
+        <v>1481</v>
       </c>
       <c r="D118" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E118" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="119">
@@ -2931,16 +2934,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C119" s="4">
-        <v>1546</v>
+        <v>1737</v>
       </c>
       <c r="D119" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E119" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="120">
@@ -2948,16 +2951,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C120" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D120" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E120" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="121">
@@ -2965,16 +2968,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C121" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D121" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E121" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="122">
@@ -2982,16 +2985,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C122" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D122" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E122" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="123">
@@ -2999,16 +3002,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C123" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D123" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E123" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="124">
@@ -3016,16 +3019,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C124" s="4">
-        <v>1802</v>
+        <v>1722</v>
       </c>
       <c r="D124" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E124" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="125">
@@ -3033,16 +3036,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C125" s="4">
-        <v>1841</v>
+        <v>1802</v>
       </c>
       <c r="D125" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E125" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="126">
@@ -3050,16 +3053,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C126" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D126" s="4">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E126" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="127">
@@ -3067,16 +3070,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C127" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D127" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E127" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="128">
@@ -3084,16 +3087,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C128" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D128" s="4">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E128" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="129">
@@ -3101,16 +3104,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C129" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D129" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E129" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="130">
@@ -3118,16 +3121,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C130" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D130" s="4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E130" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="131">
@@ -3135,16 +3138,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C131" s="4">
-        <v>1839</v>
+        <v>1961</v>
       </c>
       <c r="D131" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E131" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="132">
@@ -3152,16 +3155,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C132" s="4">
-        <v>2021</v>
+        <v>1839</v>
       </c>
       <c r="D132" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E132" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="133">
@@ -3169,16 +3172,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C133" s="4">
-        <v>2282</v>
+        <v>2021</v>
       </c>
       <c r="D133" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E133" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="134">
@@ -3186,16 +3189,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C134" s="4">
-        <v>2330</v>
+        <v>2282</v>
       </c>
       <c r="D134" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E134" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="135">
@@ -3203,16 +3206,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C135" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D135" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E135" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="136">
@@ -3220,16 +3223,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C136" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D136" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="137">
@@ -3237,16 +3240,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C137" s="4">
-        <v>1942</v>
+        <v>967</v>
       </c>
       <c r="D137" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E137" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="138">
@@ -3254,16 +3257,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C138" s="4">
-        <v>2087</v>
+        <v>1942</v>
       </c>
       <c r="D138" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E138" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="139">
@@ -3271,16 +3274,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C139" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D139" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E139" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="140">
@@ -3288,16 +3291,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C140" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D140" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E140" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="141">
@@ -3305,16 +3308,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C141" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D141" s="4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E141" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="142">
@@ -3322,16 +3325,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C142" s="4">
-        <v>862</v>
+        <v>2485</v>
       </c>
       <c r="D142" s="4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E142" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="143">
@@ -3339,16 +3342,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C143" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D143" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E143" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="144">
@@ -3356,16 +3359,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C144" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D144" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E144" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="145">
@@ -3373,16 +3376,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C145" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D145" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E145" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="146">
@@ -3390,16 +3393,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C146" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D146" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E146" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="147">
@@ -3407,16 +3410,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C147" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D147" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E147" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="148">
@@ -3424,16 +3427,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C148" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D148" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E148" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="149">
@@ -3441,16 +3444,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C149" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D149" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E149" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="150">
@@ -3458,16 +3461,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C150" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D150" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E150" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="151">
@@ -3475,16 +3478,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C151" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D151" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E151" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="152">
@@ -3492,16 +3495,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C152" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D152" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E152" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="153">
@@ -3509,16 +3512,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C153" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D153" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E153" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="154">
@@ -3526,16 +3529,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C154" s="4">
-        <v>2330</v>
+        <v>2074</v>
       </c>
       <c r="D154" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E154" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="155">
@@ -3543,16 +3546,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C155" s="4">
-        <v>2538</v>
+        <v>2330</v>
       </c>
       <c r="D155" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E155" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="156">
@@ -3560,16 +3563,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C156" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D156" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E156" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="157">
@@ -3577,16 +3580,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C157" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D157" s="4">
         <v>0</v>
       </c>
       <c r="E157" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="158">
@@ -3594,16 +3597,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C158" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D158" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E158" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="159">
@@ -3611,16 +3614,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C159" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D159" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E159" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="160">
@@ -3628,16 +3631,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C160" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D160" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E160" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="161">
@@ -3645,16 +3648,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C161" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D161" s="4">
         <v>10</v>
       </c>
       <c r="E161" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="162">
@@ -3662,16 +3665,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C162" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D162" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E162" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="163">
@@ -3679,16 +3682,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C163" s="4">
-        <v>701</v>
+        <v>2042</v>
       </c>
       <c r="D163" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E163" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="164">
@@ -3696,16 +3699,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C164" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="165">
@@ -3713,16 +3716,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C165" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D165" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E165" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="166">
@@ -3730,16 +3733,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C166" s="4">
-        <v>1787</v>
+        <v>1629</v>
       </c>
       <c r="D166" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="167">
@@ -3747,16 +3750,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C167" s="4">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="D167" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E167" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="168">
@@ -3764,16 +3767,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C168" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="169">
@@ -3781,16 +3784,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C169" s="4">
-        <v>1697</v>
+        <v>1599</v>
       </c>
       <c r="D169" s="4">
         <v>0</v>
       </c>
       <c r="E169" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="170">
@@ -3798,16 +3801,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C170" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D170" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="171">
@@ -3815,16 +3818,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C171" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D171" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="172">
@@ -3832,16 +3835,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C172" s="4">
-        <v>1450</v>
+        <v>687</v>
       </c>
       <c r="D172" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E172" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="173">
@@ -3849,16 +3852,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C173" s="4">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="174">
@@ -3866,16 +3869,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C174" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D174" s="4">
         <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="175">
@@ -3883,16 +3886,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C175" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D175" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="176">
@@ -3900,16 +3903,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C176" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="177">
@@ -3917,16 +3920,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C177" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="178">
@@ -3934,16 +3937,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C178" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="179">
@@ -3951,16 +3954,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C179" s="4">
-        <v>1322</v>
+        <v>487</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="180">
@@ -3968,16 +3971,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C180" s="4">
-        <v>1347</v>
+        <v>1322</v>
       </c>
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="181">
@@ -3985,16 +3988,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C181" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="182">
@@ -4002,16 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C182" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="183">
@@ -4019,16 +4022,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C183" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="184">
@@ -4036,16 +4039,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C184" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="185">
@@ -4053,16 +4056,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C185" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="186">
@@ -4070,16 +4073,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C186" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187">
@@ -4087,16 +4090,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C187" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="188">
@@ -4104,16 +4107,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C188" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D188" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="189">
@@ -4121,16 +4124,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C189" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D189" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="190">
@@ -4138,16 +4141,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C190" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="191">
@@ -4155,16 +4158,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C191" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="192">
@@ -4172,16 +4175,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C192" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="193">
@@ -4189,16 +4192,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C193" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194">
@@ -4206,16 +4209,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C194" s="4">
-        <v>867</v>
+        <v>748</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="195">
@@ -4223,16 +4226,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C195" s="4">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="196">
@@ -4240,16 +4243,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C196" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197">
@@ -4257,16 +4260,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C197" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="198">
@@ -4274,16 +4277,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C198" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="199">
@@ -4291,16 +4294,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C199" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200">
@@ -4308,16 +4311,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C200" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D200" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="201">
@@ -4325,16 +4328,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C201" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D201" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="202">
@@ -4342,16 +4345,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C202" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203">
@@ -4359,16 +4362,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C203" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204">
@@ -4376,16 +4379,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C204" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205">
@@ -4393,16 +4396,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C205" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="206">
@@ -4410,16 +4413,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C206" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207">
@@ -4427,16 +4430,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C207" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208">
@@ -4444,16 +4447,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C208" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209">
@@ -4461,16 +4464,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C209" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210">
@@ -4478,16 +4481,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C210" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="211">
@@ -4495,16 +4498,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C211" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212">
@@ -4512,16 +4515,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C212" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213">
@@ -4529,16 +4532,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C213" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214">
@@ -4546,16 +4549,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C214" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215">
@@ -4563,16 +4566,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C215" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -4580,16 +4583,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C216" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217">
@@ -4597,16 +4600,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C217" s="4">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="218">
@@ -4614,16 +4617,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C218" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219">
@@ -4631,16 +4634,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C219" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220">
@@ -4648,16 +4651,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C220" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221">
@@ -4665,16 +4668,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C221" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222">
@@ -4682,16 +4685,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C222" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223">
@@ -4699,16 +4702,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C223" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224">
@@ -4716,16 +4719,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C224" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225">
@@ -4733,16 +4736,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C225" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226">
@@ -4750,16 +4753,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C226" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227">
@@ -4767,16 +4770,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C227" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228">
@@ -4784,16 +4787,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C228" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229">
@@ -4801,16 +4804,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C229" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230">
@@ -4818,16 +4821,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C230" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231">
@@ -4835,16 +4838,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C231" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="232">
@@ -4852,16 +4855,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C232" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233">
@@ -4869,16 +4872,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C233" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234">
@@ -4886,16 +4889,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C234" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
@@ -4903,16 +4906,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C235" s="4">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236">
@@ -4920,16 +4923,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C236" s="4">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237">
@@ -4937,16 +4940,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C237" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="238">
@@ -4954,16 +4957,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C238" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239">
@@ -4971,16 +4974,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C239" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="240">
@@ -4988,16 +4991,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C240" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241">
@@ -5005,16 +5008,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C241" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242">
@@ -5022,16 +5025,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C242" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243">
@@ -5039,16 +5042,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C243" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
@@ -5056,16 +5059,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C244" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
@@ -5073,16 +5076,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C245" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -5090,16 +5093,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C246" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -5107,16 +5110,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C247" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -5124,16 +5127,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C248" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -5141,16 +5144,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C249" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -5158,16 +5161,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C250" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -5175,7 +5178,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C251" s="4">
         <v>198</v>
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -5192,25 +5195,27 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C252" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
-      <c r="E252" s="4"/>
+      <c r="E252" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C253" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5222,10 +5227,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C254" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5237,10 +5242,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C255" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5252,10 +5257,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C256" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5267,10 +5272,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C257" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5282,10 +5287,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C258" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5297,10 +5302,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C259" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5312,10 +5317,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C260" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5327,10 +5332,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C261" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5342,10 +5347,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C262" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5357,10 +5362,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C263" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5375,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="C264" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5387,10 +5392,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C265" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5402,10 +5407,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C266" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5417,10 +5422,14 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>1</v>
-      </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C267" s="4">
+        <v>5</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
       <c r="E267" s="4"/>
     </row>
     <row r="268">
@@ -5428,14 +5437,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>0</v>
-      </c>
-      <c r="C268" s="4">
-        <v>5</v>
-      </c>
-      <c r="D268" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
       <c r="E268" s="4"/>
     </row>
     <row r="269">
@@ -5446,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="C269" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5460,8 +5465,12 @@
       <c r="B270" s="4">
         <v>0</v>
       </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="C270" s="4">
+        <v>1</v>
+      </c>
+      <c r="D270" s="4">
+        <v>0</v>
+      </c>
       <c r="E270" s="4"/>
     </row>
     <row r="271">
@@ -5482,12 +5491,8 @@
       <c r="B272" s="4">
         <v>0</v>
       </c>
-      <c r="C272" s="4">
-        <v>1</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0</v>
-      </c>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273">
@@ -5497,8 +5502,12 @@
       <c r="B273" s="4">
         <v>0</v>
       </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>0</v>
+      </c>
       <c r="E273" s="4"/>
     </row>
     <row r="274">
@@ -5506,15 +5515,26 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" s="4">
         <v>1</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C275" s="4">
         <v>1</v>
       </c>
-      <c r="D274" s="4">
-        <v>0</v>
-      </c>
-      <c r="E274" s="4"/>
+      <c r="D275" s="4">
+        <v>0</v>
+      </c>
+      <c r="E275" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+  <si>
+    <t>12/1/2020</t>
+  </si>
   <si>
     <t>11/30/2020</t>
   </si>
@@ -928,24 +931,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -953,12 +956,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="3">
@@ -966,12 +969,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="4">
@@ -979,16 +982,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C4" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D4" s="4">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="E4" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="5">
@@ -996,16 +999,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C5" s="4">
-        <v>1687</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="4">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E5" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="6">
@@ -1013,16 +1016,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C6" s="4">
-        <v>447</v>
+        <v>2531</v>
       </c>
       <c r="D6" s="4">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="E6" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="7">
@@ -1030,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C7" s="4">
-        <v>3276</v>
+        <v>501</v>
       </c>
       <c r="D7" s="4">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="8">
@@ -1047,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C8" s="4">
-        <v>3779</v>
+        <v>3492</v>
       </c>
       <c r="D8" s="4">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="E8" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="9">
@@ -1064,16 +1067,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C9" s="4">
-        <v>4730</v>
+        <v>3813</v>
       </c>
       <c r="D9" s="4">
-        <v>633</v>
+        <v>477</v>
       </c>
       <c r="E9" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="10">
@@ -1081,16 +1084,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C10" s="4">
-        <v>1405</v>
+        <v>4771</v>
       </c>
       <c r="D10" s="4">
-        <v>218</v>
+        <v>637</v>
       </c>
       <c r="E10" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="11">
@@ -1098,16 +1101,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C11" s="4">
-        <v>1731</v>
+        <v>1416</v>
       </c>
       <c r="D11" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="12">
@@ -1115,16 +1118,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C12" s="4">
-        <v>3196</v>
+        <v>1739</v>
       </c>
       <c r="D12" s="4">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="E12" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="13">
@@ -1132,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C13" s="4">
-        <v>3364</v>
+        <v>3203</v>
       </c>
       <c r="D13" s="4">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E13" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="14">
@@ -1149,16 +1152,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
+        <v>4296</v>
+      </c>
+      <c r="C14" s="4">
         <v>3367</v>
       </c>
-      <c r="C14" s="4">
-        <v>3450</v>
-      </c>
       <c r="D14" s="4">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="E14" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="15">
@@ -1166,16 +1169,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C15" s="4">
-        <v>4032</v>
+        <v>3455</v>
       </c>
       <c r="D15" s="4">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E15" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="16">
@@ -1183,16 +1186,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C16" s="4">
-        <v>4619</v>
+        <v>4033</v>
       </c>
       <c r="D16" s="4">
-        <v>583</v>
+        <v>445</v>
       </c>
       <c r="E16" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="17">
@@ -1200,16 +1203,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C17" s="4">
-        <v>1513</v>
+        <v>4625</v>
       </c>
       <c r="D17" s="4">
-        <v>182</v>
+        <v>587</v>
       </c>
       <c r="E17" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="18">
@@ -1217,16 +1220,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C18" s="4">
-        <v>1782</v>
+        <v>1513</v>
       </c>
       <c r="D18" s="4">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E18" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="19">
@@ -1234,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C19" s="4">
-        <v>3425</v>
+        <v>1781</v>
       </c>
       <c r="D19" s="4">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="E19" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="20">
@@ -1251,16 +1254,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C20" s="4">
-        <v>3222</v>
+        <v>3426</v>
       </c>
       <c r="D20" s="4">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="E20" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="21">
@@ -1268,16 +1271,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C21" s="4">
-        <v>3022</v>
+        <v>3223</v>
       </c>
       <c r="D21" s="4">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="E21" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="22">
@@ -1285,16 +1288,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C22" s="4">
-        <v>3378</v>
+        <v>3022</v>
       </c>
       <c r="D22" s="4">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E22" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +1305,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C23" s="4">
-        <v>4059</v>
+        <v>3378</v>
       </c>
       <c r="D23" s="4">
-        <v>466</v>
+        <v>350</v>
       </c>
       <c r="E23" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="24">
@@ -1319,16 +1322,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C24" s="4">
-        <v>1374</v>
+        <v>4063</v>
       </c>
       <c r="D24" s="4">
-        <v>133</v>
+        <v>463</v>
       </c>
       <c r="E24" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="25">
@@ -1336,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C25" s="4">
-        <v>1488</v>
+        <v>1374</v>
       </c>
       <c r="D25" s="4">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E25" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="26">
@@ -1353,16 +1356,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C26" s="4">
-        <v>2411</v>
+        <v>1488</v>
       </c>
       <c r="D26" s="4">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="E26" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="27">
@@ -1370,16 +1373,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C27" s="4">
-        <v>2581</v>
+        <v>2412</v>
       </c>
       <c r="D27" s="4">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E27" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="28">
@@ -1387,16 +1390,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C28" s="4">
-        <v>2608</v>
+        <v>2582</v>
       </c>
       <c r="D28" s="4">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E28" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="29">
@@ -1404,16 +1407,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C29" s="4">
-        <v>2654</v>
+        <v>2608</v>
       </c>
       <c r="D29" s="4">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="E29" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="30">
@@ -1421,16 +1424,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C30" s="4">
-        <v>3107</v>
+        <v>2654</v>
       </c>
       <c r="D30" s="4">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="E30" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="31">
@@ -1438,16 +1441,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C31" s="4">
-        <v>937</v>
+        <v>3110</v>
       </c>
       <c r="D31" s="4">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E31" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="32">
@@ -1455,16 +1458,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C32" s="4">
-        <v>1063</v>
+        <v>937</v>
       </c>
       <c r="D32" s="4">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="33">
@@ -1472,16 +1475,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C33" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D33" s="4">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="34">
@@ -1489,16 +1492,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C34" s="4">
-        <v>1980</v>
+        <v>2253</v>
       </c>
       <c r="D34" s="4">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E34" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="35">
@@ -1506,16 +1509,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C35" s="4">
-        <v>2437</v>
+        <v>1980</v>
       </c>
       <c r="D35" s="4">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E35" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="36">
@@ -1523,16 +1526,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C36" s="4">
-        <v>2422</v>
+        <v>2437</v>
       </c>
       <c r="D36" s="4">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E36" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="37">
@@ -1540,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C37" s="4">
-        <v>2987</v>
+        <v>2422</v>
       </c>
       <c r="D37" s="4">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="E37" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="38">
@@ -1557,16 +1560,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C38" s="4">
-        <v>908</v>
+        <v>2987</v>
       </c>
       <c r="D38" s="4">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="E38" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="39">
@@ -1574,16 +1577,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C39" s="4">
-        <v>1071</v>
+        <v>908</v>
       </c>
       <c r="D39" s="4">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E39" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="40">
@@ -1591,16 +1594,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C40" s="4">
-        <v>2200</v>
+        <v>1071</v>
       </c>
       <c r="D40" s="4">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="E40" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="41">
@@ -1608,16 +1611,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C41" s="4">
-        <v>2138</v>
+        <v>2200</v>
       </c>
       <c r="D41" s="4">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E41" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="42">
@@ -1625,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C42" s="4">
-        <v>2454</v>
+        <v>2138</v>
       </c>
       <c r="D42" s="4">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E42" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="43">
@@ -1642,16 +1645,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C43" s="4">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="D43" s="4">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="E43" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="44">
@@ -1659,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C44" s="4">
-        <v>2798</v>
+        <v>2459</v>
       </c>
       <c r="D44" s="4">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="E44" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="45">
@@ -1676,16 +1679,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C45" s="4">
-        <v>849</v>
+        <v>2799</v>
       </c>
       <c r="D45" s="4">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="E45" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="46">
@@ -1693,16 +1696,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C46" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D46" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E46" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="47">
@@ -1710,16 +1713,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C47" s="4">
-        <v>2056</v>
+        <v>951</v>
       </c>
       <c r="D47" s="4">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="E47" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="48">
@@ -1727,16 +1730,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C48" s="4">
-        <v>2104</v>
+        <v>2057</v>
       </c>
       <c r="D48" s="4">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="E48" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="49">
@@ -1744,16 +1747,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C49" s="4">
-        <v>2129</v>
+        <v>2104</v>
       </c>
       <c r="D49" s="4">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E49" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="50">
@@ -1761,16 +1764,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C50" s="4">
-        <v>2384</v>
+        <v>2130</v>
       </c>
       <c r="D50" s="4">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="E50" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="51">
@@ -1778,16 +1781,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C51" s="4">
-        <v>2683</v>
+        <v>2385</v>
       </c>
       <c r="D51" s="4">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E51" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="52">
@@ -1795,16 +1798,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C52" s="4">
-        <v>903</v>
+        <v>2683</v>
       </c>
       <c r="D52" s="4">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="E52" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="53">
@@ -1812,16 +1815,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C53" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D53" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E53" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="54">
@@ -1829,16 +1832,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C54" s="4">
-        <v>1814</v>
+        <v>938</v>
       </c>
       <c r="D54" s="4">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="E54" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="55">
@@ -1846,16 +1849,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C55" s="4">
-        <v>2003</v>
+        <v>1815</v>
       </c>
       <c r="D55" s="4">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E55" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="56">
@@ -1863,16 +1866,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C56" s="4">
-        <v>1927</v>
+        <v>2003</v>
       </c>
       <c r="D56" s="4">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E56" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="57">
@@ -1880,16 +1883,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C57" s="4">
-        <v>2066</v>
+        <v>1927</v>
       </c>
       <c r="D57" s="4">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E57" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="58">
@@ -1897,16 +1900,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C58" s="4">
-        <v>2472</v>
+        <v>2066</v>
       </c>
       <c r="D58" s="4">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="E58" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="59">
@@ -1914,16 +1917,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C59" s="4">
-        <v>821</v>
+        <v>2472</v>
       </c>
       <c r="D59" s="4">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="E59" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="60">
@@ -1931,16 +1934,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C60" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D60" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E60" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="61">
@@ -1948,16 +1951,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C61" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D61" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E61" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="62">
@@ -1965,16 +1968,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C62" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D62" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E62" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="63">
@@ -1982,16 +1985,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C63" s="4">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="D63" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E63" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="64">
@@ -1999,16 +2002,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C64" s="4">
-        <v>1804</v>
+        <v>1831</v>
       </c>
       <c r="D64" s="4">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E64" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="65">
@@ -2016,16 +2019,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C65" s="4">
-        <v>2116</v>
+        <v>1804</v>
       </c>
       <c r="D65" s="4">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="E65" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="66">
@@ -2033,16 +2036,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C66" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D66" s="4">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="E66" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="67">
@@ -2050,16 +2053,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C67" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D67" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E67" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="68">
@@ -2067,16 +2070,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C68" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D68" s="4">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="E68" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="69">
@@ -2084,16 +2087,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C69" s="4">
-        <v>1490</v>
+        <v>1223</v>
       </c>
       <c r="D69" s="4">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E69" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="70">
@@ -2101,16 +2104,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C70" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D70" s="4">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E70" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="71">
@@ -2118,16 +2121,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C71" s="4">
-        <v>1522</v>
+        <v>1466</v>
       </c>
       <c r="D71" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E71" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="72">
@@ -2135,16 +2138,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C72" s="4">
-        <v>1727</v>
+        <v>1521</v>
       </c>
       <c r="D72" s="4">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E72" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="73">
@@ -2152,16 +2155,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C73" s="4">
-        <v>573</v>
+        <v>1728</v>
       </c>
       <c r="D73" s="4">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E73" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="74">
@@ -2169,16 +2172,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C74" s="4">
-        <v>662</v>
+        <v>573</v>
       </c>
       <c r="D74" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E74" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="75">
@@ -2186,16 +2189,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C75" s="4">
-        <v>1304</v>
+        <v>662</v>
       </c>
       <c r="D75" s="4">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E75" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="76">
@@ -2203,16 +2206,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C76" s="4">
-        <v>1272</v>
+        <v>1304</v>
       </c>
       <c r="D76" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E76" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="77">
@@ -2220,16 +2223,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C77" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D77" s="4">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E77" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="78">
@@ -2237,16 +2240,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C78" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D78" s="4">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E78" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="79">
@@ -2254,16 +2257,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C79" s="4">
-        <v>1720</v>
+        <v>1495</v>
       </c>
       <c r="D79" s="4">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E79" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="80">
@@ -2271,16 +2274,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C80" s="4">
-        <v>605</v>
+        <v>1724</v>
       </c>
       <c r="D80" s="4">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E80" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="81">
@@ -2288,16 +2291,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C81" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D81" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E81" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="82">
@@ -2305,16 +2308,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C82" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D82" s="4">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E82" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="83">
@@ -2322,16 +2325,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C83" s="4">
-        <v>1412</v>
+        <v>1261</v>
       </c>
       <c r="D83" s="4">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E83" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="84">
@@ -2339,16 +2342,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C84" s="4">
-        <v>1526</v>
+        <v>1411</v>
       </c>
       <c r="D84" s="4">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E84" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="85">
@@ -2356,16 +2359,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C85" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D85" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E85" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="86">
@@ -2373,16 +2376,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C86" s="4">
-        <v>719</v>
+        <v>1889</v>
       </c>
       <c r="D86" s="4">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E86" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="87">
@@ -2390,16 +2393,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C87" s="4">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="D87" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E87" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="88">
@@ -2407,16 +2410,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C88" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D88" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E88" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="89">
@@ -2424,16 +2427,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C89" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D89" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E89" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="90">
@@ -2441,16 +2444,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C90" s="4">
-        <v>1535</v>
+        <v>1258</v>
       </c>
       <c r="D90" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E90" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="91">
@@ -2458,16 +2461,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C91" s="4">
-        <v>1732</v>
+        <v>1535</v>
       </c>
       <c r="D91" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E91" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="92">
@@ -2475,16 +2478,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C92" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D92" s="4">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E92" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="93">
@@ -2492,16 +2495,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C93" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D93" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E93" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="94">
@@ -2509,16 +2512,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C94" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D94" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E94" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="95">
@@ -2526,16 +2529,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C95" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D95" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E95" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="96">
@@ -2543,16 +2546,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C96" s="4">
-        <v>1551</v>
+        <v>840</v>
       </c>
       <c r="D96" s="4">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E96" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="97">
@@ -2560,16 +2563,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C97" s="4">
-        <v>1701</v>
+        <v>1550</v>
       </c>
       <c r="D97" s="4">
         <v>78</v>
       </c>
       <c r="E97" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="98">
@@ -2577,16 +2580,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C98" s="4">
-        <v>1757</v>
+        <v>1700</v>
       </c>
       <c r="D98" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E98" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="99">
@@ -2594,16 +2597,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C99" s="4">
-        <v>2032</v>
+        <v>1756</v>
       </c>
       <c r="D99" s="4">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E99" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="100">
@@ -2611,16 +2614,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C100" s="4">
-        <v>2193</v>
+        <v>2032</v>
       </c>
       <c r="D100" s="4">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E100" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="101">
@@ -2628,16 +2631,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C101" s="4">
-        <v>783</v>
+        <v>2193</v>
       </c>
       <c r="D101" s="4">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E101" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="102">
@@ -2645,16 +2648,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C102" s="4">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="D102" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E102" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="103">
@@ -2662,16 +2665,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C103" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D103" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E103" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="104">
@@ -2679,16 +2682,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C104" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D104" s="4">
         <v>85</v>
       </c>
       <c r="E104" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="105">
@@ -2696,16 +2699,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C105" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D105" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E105" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="106">
@@ -2713,16 +2716,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C106" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D106" s="4">
         <v>83</v>
       </c>
       <c r="E106" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="107">
@@ -2730,16 +2733,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C107" s="4">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="D107" s="4">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E107" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="108">
@@ -2747,16 +2750,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C108" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D108" s="4">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E108" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="109">
@@ -2764,16 +2767,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C109" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D109" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E109" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="110">
@@ -2781,16 +2784,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C110" s="4">
-        <v>1555</v>
+        <v>763</v>
       </c>
       <c r="D110" s="4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E110" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="111">
@@ -2798,16 +2801,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C111" s="4">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="D111" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E111" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="112">
@@ -2815,16 +2818,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C112" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D112" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E112" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="113">
@@ -2832,16 +2835,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C113" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D113" s="4">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E113" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="114">
@@ -2849,16 +2852,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C114" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D114" s="4">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E114" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="115">
@@ -2866,16 +2869,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C115" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D115" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E115" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="116">
@@ -2883,16 +2886,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C116" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D116" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E116" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="117">
@@ -2900,16 +2903,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C117" s="4">
-        <v>1409</v>
+        <v>719</v>
       </c>
       <c r="D117" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E117" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="118">
@@ -2917,16 +2920,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C118" s="4">
-        <v>1481</v>
+        <v>1409</v>
       </c>
       <c r="D118" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E118" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="119">
@@ -2934,16 +2937,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C119" s="4">
-        <v>1737</v>
+        <v>1481</v>
       </c>
       <c r="D119" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E119" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="120">
@@ -2951,16 +2954,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C120" s="4">
-        <v>1546</v>
+        <v>1737</v>
       </c>
       <c r="D120" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E120" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="121">
@@ -2968,16 +2971,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C121" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D121" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E121" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="122">
@@ -2985,16 +2988,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C122" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D122" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E122" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="123">
@@ -3002,16 +3005,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C123" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D123" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E123" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="124">
@@ -3019,16 +3022,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C124" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D124" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E124" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="125">
@@ -3036,16 +3039,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C125" s="4">
-        <v>1802</v>
+        <v>1722</v>
       </c>
       <c r="D125" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E125" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="126">
@@ -3053,16 +3056,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C126" s="4">
-        <v>1841</v>
+        <v>1802</v>
       </c>
       <c r="D126" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E126" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="127">
@@ -3070,16 +3073,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C127" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D127" s="4">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E127" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="128">
@@ -3087,16 +3090,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C128" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D128" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E128" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="129">
@@ -3104,16 +3107,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C129" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D129" s="4">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E129" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="130">
@@ -3121,16 +3124,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C130" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D130" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E130" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="131">
@@ -3138,16 +3141,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C131" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D131" s="4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E131" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="132">
@@ -3155,16 +3158,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C132" s="4">
-        <v>1839</v>
+        <v>1961</v>
       </c>
       <c r="D132" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E132" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="133">
@@ -3172,16 +3175,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C133" s="4">
-        <v>2021</v>
+        <v>1839</v>
       </c>
       <c r="D133" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E133" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="134">
@@ -3189,16 +3192,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C134" s="4">
-        <v>2282</v>
+        <v>2021</v>
       </c>
       <c r="D134" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E134" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="135">
@@ -3206,16 +3209,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C135" s="4">
-        <v>2330</v>
+        <v>2282</v>
       </c>
       <c r="D135" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E135" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="136">
@@ -3223,16 +3226,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C136" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D136" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E136" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="137">
@@ -3240,16 +3243,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C137" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D137" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E137" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="138">
@@ -3257,16 +3260,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C138" s="4">
-        <v>1942</v>
+        <v>967</v>
       </c>
       <c r="D138" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E138" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="139">
@@ -3274,16 +3277,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C139" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D139" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E139" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="140">
@@ -3291,16 +3294,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C140" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D140" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E140" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="141">
@@ -3308,16 +3311,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C141" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D141" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E141" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="142">
@@ -3325,16 +3328,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C142" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D142" s="4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E142" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="143">
@@ -3342,16 +3345,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C143" s="4">
-        <v>862</v>
+        <v>2485</v>
       </c>
       <c r="D143" s="4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E143" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="144">
@@ -3359,16 +3362,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C144" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D144" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E144" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="145">
@@ -3376,16 +3379,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C145" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D145" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E145" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="146">
@@ -3393,16 +3396,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C146" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D146" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="147">
@@ -3410,16 +3413,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C147" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D147" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E147" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="148">
@@ -3427,16 +3430,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C148" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D148" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E148" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="149">
@@ -3444,16 +3447,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C149" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D149" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="150">
@@ -3461,16 +3464,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C150" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D150" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E150" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="151">
@@ -3478,16 +3481,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C151" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D151" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E151" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="152">
@@ -3495,16 +3498,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C152" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D152" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E152" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="153">
@@ -3512,16 +3515,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C153" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D153" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E153" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="154">
@@ -3529,16 +3532,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C154" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D154" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E154" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="155">
@@ -3546,16 +3549,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C155" s="4">
-        <v>2330</v>
+        <v>2074</v>
       </c>
       <c r="D155" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E155" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="156">
@@ -3563,16 +3566,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C156" s="4">
-        <v>2538</v>
+        <v>2330</v>
       </c>
       <c r="D156" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E156" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="157">
@@ -3580,16 +3583,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C157" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D157" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E157" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="158">
@@ -3597,16 +3600,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C158" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D158" s="4">
         <v>0</v>
       </c>
       <c r="E158" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="159">
@@ -3614,16 +3617,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C159" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D159" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E159" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="160">
@@ -3631,16 +3634,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C160" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D160" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E160" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="161">
@@ -3648,16 +3651,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C161" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D161" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E161" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="162">
@@ -3665,16 +3668,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C162" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D162" s="4">
         <v>10</v>
       </c>
       <c r="E162" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="163">
@@ -3682,16 +3685,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C163" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D163" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E163" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="164">
@@ -3699,16 +3702,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C164" s="4">
-        <v>701</v>
+        <v>2042</v>
       </c>
       <c r="D164" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E164" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="165">
@@ -3716,16 +3719,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C165" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="166">
@@ -3733,16 +3736,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C166" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D166" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E166" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="167">
@@ -3750,16 +3753,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C167" s="4">
-        <v>1787</v>
+        <v>1629</v>
       </c>
       <c r="D167" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E167" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="168">
@@ -3767,16 +3770,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C168" s="4">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="D168" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E168" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="169">
@@ -3784,16 +3787,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C169" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D169" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="170">
@@ -3801,16 +3804,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C170" s="4">
-        <v>1697</v>
+        <v>1599</v>
       </c>
       <c r="D170" s="4">
         <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="171">
@@ -3818,16 +3821,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C171" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D171" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="172">
@@ -3835,16 +3838,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C172" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D172" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="173">
@@ -3852,16 +3855,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C173" s="4">
-        <v>1450</v>
+        <v>687</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="174">
@@ -3869,16 +3872,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C174" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D174" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="175">
@@ -3886,16 +3889,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C175" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D175" s="4">
         <v>1</v>
       </c>
       <c r="E175" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="176">
@@ -3903,16 +3906,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C176" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="177">
@@ -3920,16 +3923,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C177" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="178">
@@ -3937,16 +3940,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C178" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="179">
@@ -3954,16 +3957,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C179" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="180">
@@ -3971,16 +3974,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C180" s="4">
-        <v>1322</v>
+        <v>487</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="181">
@@ -3988,16 +3991,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C181" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="182">
@@ -4005,16 +4008,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C182" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="183">
@@ -4022,16 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C183" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="184">
@@ -4039,16 +4042,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C184" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="185">
@@ -4056,16 +4059,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C185" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="186">
@@ -4073,16 +4076,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C186" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="187">
@@ -4090,16 +4093,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C187" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="188">
@@ -4107,16 +4110,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C188" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="189">
@@ -4124,16 +4127,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C189" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D189" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="190">
@@ -4141,16 +4144,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C190" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D190" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="191">
@@ -4158,16 +4161,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C191" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="192">
@@ -4175,16 +4178,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C192" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="193">
@@ -4192,16 +4195,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C193" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="194">
@@ -4209,16 +4212,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C194" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="195">
@@ -4226,16 +4229,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C195" s="4">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="196">
@@ -4243,16 +4246,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C196" s="4">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="197">
@@ -4260,16 +4263,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C197" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="198">
@@ -4277,16 +4280,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C198" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="199">
@@ -4294,16 +4297,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C199" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="200">
@@ -4311,16 +4314,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C200" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="201">
@@ -4328,16 +4331,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C201" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D201" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="202">
@@ -4345,16 +4348,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C202" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D202" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203">
@@ -4362,16 +4365,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C203" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204">
@@ -4379,16 +4382,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C204" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205">
@@ -4396,16 +4399,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C205" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206">
@@ -4413,16 +4416,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C206" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207">
@@ -4430,16 +4433,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C207" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208">
@@ -4447,16 +4450,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C208" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="209">
@@ -4464,16 +4467,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C209" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210">
@@ -4481,16 +4484,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C210" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="211">
@@ -4498,16 +4501,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C211" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212">
@@ -4515,16 +4518,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C212" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213">
@@ -4532,16 +4535,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C213" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="214">
@@ -4549,16 +4552,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C214" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215">
@@ -4566,16 +4569,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C215" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216">
@@ -4583,16 +4586,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C216" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -4600,16 +4603,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C217" s="4">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218">
@@ -4617,16 +4620,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C218" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="219">
@@ -4634,16 +4637,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C219" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220">
@@ -4651,16 +4654,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C220" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221">
@@ -4668,16 +4671,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C221" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222">
@@ -4685,16 +4688,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C222" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223">
@@ -4702,16 +4705,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C223" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224">
@@ -4719,16 +4722,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C224" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225">
@@ -4736,16 +4739,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C225" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226">
@@ -4753,16 +4756,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C226" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227">
@@ -4770,16 +4773,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C227" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228">
@@ -4787,16 +4790,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C228" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229">
@@ -4804,16 +4807,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C229" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230">
@@ -4821,16 +4824,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C230" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231">
@@ -4838,16 +4841,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C231" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="232">
@@ -4855,16 +4858,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C232" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233">
@@ -4872,16 +4875,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C233" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234">
@@ -4889,16 +4892,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C234" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="235">
@@ -4906,16 +4909,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C235" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236">
@@ -4923,16 +4926,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C236" s="4">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237">
@@ -4940,16 +4943,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C237" s="4">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238">
@@ -4957,16 +4960,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C238" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239">
@@ -4974,16 +4977,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C239" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240">
@@ -4991,16 +4994,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C240" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5011,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C241" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242">
@@ -5025,16 +5028,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C242" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243">
@@ -5042,16 +5045,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C243" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244">
@@ -5059,16 +5062,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
@@ -5076,16 +5079,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C245" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
@@ -5093,16 +5096,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C246" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
@@ -5110,16 +5113,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C247" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
@@ -5127,16 +5130,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C248" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
@@ -5144,16 +5147,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C249" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
@@ -5161,16 +5164,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C250" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -5178,16 +5181,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C251" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -5195,7 +5198,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C252" s="4">
         <v>198</v>
@@ -5204,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -5212,25 +5215,27 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C253" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
-      <c r="E253" s="4"/>
+      <c r="E253" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C254" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
@@ -5242,10 +5247,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C255" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5257,10 +5262,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C256" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5272,10 +5277,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C257" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5287,10 +5292,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C258" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5302,10 +5307,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C259" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5317,10 +5322,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C260" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5332,10 +5337,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C261" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5347,10 +5352,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C262" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5362,10 +5367,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C263" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5377,10 +5382,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C264" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5395,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5407,10 +5412,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C266" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5422,10 +5427,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C267" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5437,10 +5442,14 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>1</v>
-      </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C268" s="4">
+        <v>5</v>
+      </c>
+      <c r="D268" s="4">
+        <v>0</v>
+      </c>
       <c r="E268" s="4"/>
     </row>
     <row r="269">
@@ -5448,14 +5457,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>0</v>
-      </c>
-      <c r="C269" s="4">
-        <v>5</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270">
@@ -5466,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="C270" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5480,8 +5485,12 @@
       <c r="B271" s="4">
         <v>0</v>
       </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="C271" s="4">
+        <v>1</v>
+      </c>
+      <c r="D271" s="4">
+        <v>0</v>
+      </c>
       <c r="E271" s="4"/>
     </row>
     <row r="272">
@@ -5502,12 +5511,8 @@
       <c r="B273" s="4">
         <v>0</v>
       </c>
-      <c r="C273" s="4">
-        <v>1</v>
-      </c>
-      <c r="D273" s="4">
-        <v>0</v>
-      </c>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274">
@@ -5517,8 +5522,12 @@
       <c r="B274" s="4">
         <v>0</v>
       </c>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0</v>
+      </c>
       <c r="E274" s="4"/>
     </row>
     <row r="275">
@@ -5526,15 +5535,26 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
+        <v>0</v>
+      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" s="4">
         <v>1</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C276" s="4">
         <v>1</v>
       </c>
-      <c r="D275" s="4">
-        <v>0</v>
-      </c>
-      <c r="E275" s="4"/>
+      <c r="D276" s="4">
+        <v>0</v>
+      </c>
+      <c r="E276" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+  <si>
+    <t>12/2/2020</t>
+  </si>
   <si>
     <t>12/1/2020</t>
   </si>
@@ -931,24 +934,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E277"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
@@ -956,12 +959,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="3">
@@ -969,12 +972,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="4">
@@ -982,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C4" s="4">
-        <v>428</v>
+        <v>1046</v>
       </c>
       <c r="D4" s="4">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="E4" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="5">
@@ -999,16 +1002,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C5" s="4">
-        <v>1167</v>
+        <v>1071</v>
       </c>
       <c r="D5" s="4">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E5" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="6">
@@ -1016,16 +1019,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C6" s="4">
-        <v>2531</v>
+        <v>1891</v>
       </c>
       <c r="D6" s="4">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E6" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="7">
@@ -1033,16 +1036,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C7" s="4">
-        <v>501</v>
+        <v>2886</v>
       </c>
       <c r="D7" s="4">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="E7" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="8">
@@ -1050,16 +1053,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C8" s="4">
-        <v>3492</v>
+        <v>575</v>
       </c>
       <c r="D8" s="4">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="9">
@@ -1067,16 +1070,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C9" s="4">
-        <v>3813</v>
+        <v>3669</v>
       </c>
       <c r="D9" s="4">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="E9" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="10">
@@ -1084,16 +1087,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C10" s="4">
-        <v>4771</v>
+        <v>3912</v>
       </c>
       <c r="D10" s="4">
-        <v>637</v>
+        <v>513</v>
       </c>
       <c r="E10" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="11">
@@ -1101,16 +1104,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C11" s="4">
-        <v>1416</v>
+        <v>4814</v>
       </c>
       <c r="D11" s="4">
-        <v>219</v>
+        <v>657</v>
       </c>
       <c r="E11" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="12">
@@ -1118,16 +1121,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C12" s="4">
-        <v>1739</v>
+        <v>1433</v>
       </c>
       <c r="D12" s="4">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="13">
@@ -1135,16 +1138,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C13" s="4">
-        <v>3203</v>
+        <v>1760</v>
       </c>
       <c r="D13" s="4">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="E13" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="14">
@@ -1152,16 +1155,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C14" s="4">
-        <v>3367</v>
+        <v>3254</v>
       </c>
       <c r="D14" s="4">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E14" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1172,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C15" s="4">
-        <v>3455</v>
+        <v>3404</v>
       </c>
       <c r="D15" s="4">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E15" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="16">
@@ -1186,16 +1189,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C16" s="4">
-        <v>4033</v>
+        <v>3471</v>
       </c>
       <c r="D16" s="4">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="E16" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="17">
@@ -1203,16 +1206,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C17" s="4">
-        <v>4625</v>
+        <v>4040</v>
       </c>
       <c r="D17" s="4">
-        <v>587</v>
+        <v>448</v>
       </c>
       <c r="E17" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="18">
@@ -1220,16 +1223,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C18" s="4">
-        <v>1513</v>
+        <v>4631</v>
       </c>
       <c r="D18" s="4">
-        <v>182</v>
+        <v>591</v>
       </c>
       <c r="E18" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="19">
@@ -1237,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C19" s="4">
-        <v>1781</v>
+        <v>1515</v>
       </c>
       <c r="D19" s="4">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E19" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="20">
@@ -1254,16 +1257,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C20" s="4">
-        <v>3426</v>
+        <v>1782</v>
       </c>
       <c r="D20" s="4">
-        <v>370</v>
+        <v>177</v>
       </c>
       <c r="E20" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="21">
@@ -1271,16 +1274,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C21" s="4">
-        <v>3223</v>
+        <v>3428</v>
       </c>
       <c r="D21" s="4">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="E21" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="22">
@@ -1288,16 +1291,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C22" s="4">
-        <v>3022</v>
+        <v>3223</v>
       </c>
       <c r="D22" s="4">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="E22" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="23">
@@ -1305,16 +1308,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C23" s="4">
-        <v>3378</v>
+        <v>3027</v>
       </c>
       <c r="D23" s="4">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E23" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="24">
@@ -1322,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C24" s="4">
-        <v>4063</v>
+        <v>3380</v>
       </c>
       <c r="D24" s="4">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="E24" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="25">
@@ -1339,16 +1342,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C25" s="4">
-        <v>1374</v>
+        <v>4072</v>
       </c>
       <c r="D25" s="4">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="E25" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="26">
@@ -1356,16 +1359,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C26" s="4">
-        <v>1488</v>
+        <v>1376</v>
       </c>
       <c r="D26" s="4">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E26" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="27">
@@ -1373,16 +1376,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C27" s="4">
-        <v>2412</v>
+        <v>1490</v>
       </c>
       <c r="D27" s="4">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="E27" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="28">
@@ -1390,16 +1393,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C28" s="4">
-        <v>2582</v>
+        <v>2412</v>
       </c>
       <c r="D28" s="4">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="E28" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="29">
@@ -1407,16 +1410,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C29" s="4">
-        <v>2608</v>
+        <v>2583</v>
       </c>
       <c r="D29" s="4">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E29" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="30">
@@ -1424,16 +1427,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C30" s="4">
-        <v>2654</v>
+        <v>2611</v>
       </c>
       <c r="D30" s="4">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="E30" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="31">
@@ -1441,16 +1444,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C31" s="4">
-        <v>3110</v>
+        <v>2654</v>
       </c>
       <c r="D31" s="4">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="E31" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="32">
@@ -1458,16 +1461,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C32" s="4">
-        <v>937</v>
+        <v>3111</v>
       </c>
       <c r="D32" s="4">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="E32" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="33">
@@ -1475,16 +1478,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C33" s="4">
-        <v>1063</v>
+        <v>937</v>
       </c>
       <c r="D33" s="4">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="34">
@@ -1492,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C34" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D34" s="4">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="35">
@@ -1509,16 +1512,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C35" s="4">
-        <v>1980</v>
+        <v>2253</v>
       </c>
       <c r="D35" s="4">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="E35" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="36">
@@ -1526,16 +1529,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C36" s="4">
-        <v>2437</v>
+        <v>1981</v>
       </c>
       <c r="D36" s="4">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E36" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="37">
@@ -1543,16 +1546,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C37" s="4">
-        <v>2422</v>
+        <v>2437</v>
       </c>
       <c r="D37" s="4">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E37" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="38">
@@ -1560,16 +1563,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C38" s="4">
-        <v>2987</v>
+        <v>2422</v>
       </c>
       <c r="D38" s="4">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="E38" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="39">
@@ -1577,16 +1580,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C39" s="4">
-        <v>908</v>
+        <v>2988</v>
       </c>
       <c r="D39" s="4">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="E39" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="40">
@@ -1594,16 +1597,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C40" s="4">
-        <v>1071</v>
+        <v>908</v>
       </c>
       <c r="D40" s="4">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="41">
@@ -1611,16 +1614,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C41" s="4">
-        <v>2200</v>
+        <v>1071</v>
       </c>
       <c r="D41" s="4">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="E41" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="42">
@@ -1628,16 +1631,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C42" s="4">
-        <v>2138</v>
+        <v>2200</v>
       </c>
       <c r="D42" s="4">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="E42" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="43">
@@ -1645,16 +1648,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C43" s="4">
-        <v>2454</v>
+        <v>2138</v>
       </c>
       <c r="D43" s="4">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E43" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="44">
@@ -1662,16 +1665,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C44" s="4">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="D44" s="4">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="E44" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="45">
@@ -1679,16 +1682,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C45" s="4">
-        <v>2799</v>
+        <v>2459</v>
       </c>
       <c r="D45" s="4">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="E45" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="46">
@@ -1696,16 +1699,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C46" s="4">
-        <v>849</v>
+        <v>2798</v>
       </c>
       <c r="D46" s="4">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="E46" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="47">
@@ -1713,16 +1716,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C47" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D47" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E47" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="48">
@@ -1730,16 +1733,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C48" s="4">
-        <v>2057</v>
+        <v>951</v>
       </c>
       <c r="D48" s="4">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="E48" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="49">
@@ -1747,16 +1750,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C49" s="4">
-        <v>2104</v>
+        <v>2057</v>
       </c>
       <c r="D49" s="4">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="E49" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="50">
@@ -1764,16 +1767,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C50" s="4">
-        <v>2130</v>
+        <v>2102</v>
       </c>
       <c r="D50" s="4">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E50" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="51">
@@ -1781,16 +1784,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C51" s="4">
-        <v>2385</v>
+        <v>2130</v>
       </c>
       <c r="D51" s="4">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E51" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="52">
@@ -1798,16 +1801,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C52" s="4">
-        <v>2683</v>
+        <v>2385</v>
       </c>
       <c r="D52" s="4">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E52" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="53">
@@ -1815,16 +1818,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C53" s="4">
-        <v>903</v>
+        <v>2683</v>
       </c>
       <c r="D53" s="4">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="E53" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="54">
@@ -1832,16 +1835,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C54" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D54" s="4">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="55">
@@ -1849,16 +1852,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C55" s="4">
-        <v>1815</v>
+        <v>938</v>
       </c>
       <c r="D55" s="4">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="E55" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="56">
@@ -1866,16 +1869,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C56" s="4">
-        <v>2003</v>
+        <v>1815</v>
       </c>
       <c r="D56" s="4">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E56" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="57">
@@ -1883,16 +1886,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C57" s="4">
-        <v>1927</v>
+        <v>2005</v>
       </c>
       <c r="D57" s="4">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E57" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="58">
@@ -1900,16 +1903,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C58" s="4">
-        <v>2066</v>
+        <v>1929</v>
       </c>
       <c r="D58" s="4">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E58" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="59">
@@ -1917,16 +1920,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C59" s="4">
-        <v>2472</v>
+        <v>2066</v>
       </c>
       <c r="D59" s="4">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="E59" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="60">
@@ -1934,16 +1937,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C60" s="4">
-        <v>821</v>
+        <v>2472</v>
       </c>
       <c r="D60" s="4">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="E60" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="61">
@@ -1951,16 +1954,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C61" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D61" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E61" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="62">
@@ -1968,16 +1971,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C62" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D62" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E62" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="63">
@@ -1985,16 +1988,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C63" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D63" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="64">
@@ -2002,16 +2005,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C64" s="4">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="D64" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E64" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="65">
@@ -2019,16 +2022,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C65" s="4">
-        <v>1804</v>
+        <v>1832</v>
       </c>
       <c r="D65" s="4">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E65" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="66">
@@ -2036,16 +2039,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C66" s="4">
-        <v>2116</v>
+        <v>1804</v>
       </c>
       <c r="D66" s="4">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="E66" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="67">
@@ -2053,16 +2056,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C67" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D67" s="4">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="E67" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="68">
@@ -2070,16 +2073,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C68" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D68" s="4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E68" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="69">
@@ -2087,16 +2090,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C69" s="4">
-        <v>1223</v>
+        <v>759</v>
       </c>
       <c r="D69" s="4">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="E69" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="70">
@@ -2104,16 +2107,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C70" s="4">
-        <v>1490</v>
+        <v>1224</v>
       </c>
       <c r="D70" s="4">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E70" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="71">
@@ -2121,16 +2124,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C71" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D71" s="4">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E71" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="72">
@@ -2138,16 +2141,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C72" s="4">
-        <v>1521</v>
+        <v>1466</v>
       </c>
       <c r="D72" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="73">
@@ -2155,16 +2158,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C73" s="4">
-        <v>1728</v>
+        <v>1521</v>
       </c>
       <c r="D73" s="4">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E73" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="74">
@@ -2172,16 +2175,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C74" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D74" s="4">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="E74" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="75">
@@ -2189,16 +2192,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C75" s="4">
-        <v>662</v>
+        <v>573</v>
       </c>
       <c r="D75" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E75" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="76">
@@ -2206,16 +2209,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C76" s="4">
-        <v>1304</v>
+        <v>664</v>
       </c>
       <c r="D76" s="4">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E76" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="77">
@@ -2223,16 +2226,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C77" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D77" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E77" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="78">
@@ -2240,16 +2243,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C78" s="4">
-        <v>1408</v>
+        <v>1272</v>
       </c>
       <c r="D78" s="4">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="79">
@@ -2257,16 +2260,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C79" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D79" s="4">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E79" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="80">
@@ -2274,16 +2277,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C80" s="4">
-        <v>1724</v>
+        <v>1495</v>
       </c>
       <c r="D80" s="4">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="81">
@@ -2291,16 +2294,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C81" s="4">
-        <v>605</v>
+        <v>1724</v>
       </c>
       <c r="D81" s="4">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E81" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="82">
@@ -2308,16 +2311,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C82" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D82" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E82" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="83">
@@ -2325,16 +2328,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C83" s="4">
-        <v>1261</v>
+        <v>667</v>
       </c>
       <c r="D83" s="4">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E83" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="84">
@@ -2342,16 +2345,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C84" s="4">
-        <v>1411</v>
+        <v>1261</v>
       </c>
       <c r="D84" s="4">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E84" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="85">
@@ -2359,16 +2362,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C85" s="4">
-        <v>1526</v>
+        <v>1411</v>
       </c>
       <c r="D85" s="4">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E85" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="86">
@@ -2376,16 +2379,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C86" s="4">
-        <v>1889</v>
+        <v>1526</v>
       </c>
       <c r="D86" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E86" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="87">
@@ -2393,16 +2396,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C87" s="4">
-        <v>719</v>
+        <v>1889</v>
       </c>
       <c r="D87" s="4">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E87" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="88">
@@ -2410,16 +2413,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C88" s="4">
-        <v>612</v>
+        <v>720</v>
       </c>
       <c r="D88" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E88" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="89">
@@ -2427,16 +2430,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C89" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D89" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E89" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="90">
@@ -2444,16 +2447,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C90" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D90" s="4">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E90" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="91">
@@ -2461,16 +2464,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C91" s="4">
-        <v>1535</v>
+        <v>1258</v>
       </c>
       <c r="D91" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E91" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="92">
@@ -2478,16 +2481,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C92" s="4">
-        <v>1732</v>
+        <v>1535</v>
       </c>
       <c r="D92" s="4">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E92" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="93">
@@ -2495,16 +2498,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C93" s="4">
-        <v>1634</v>
+        <v>1732</v>
       </c>
       <c r="D93" s="4">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E93" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="94">
@@ -2512,16 +2515,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C94" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E94" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="95">
@@ -2529,16 +2532,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C95" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D95" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E95" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="96">
@@ -2546,16 +2549,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C96" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D96" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E96" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="97">
@@ -2563,16 +2566,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C97" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D97" s="4">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E97" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="98">
@@ -2580,16 +2583,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C98" s="4">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="D98" s="4">
         <v>78</v>
       </c>
       <c r="E98" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="99">
@@ -2597,16 +2600,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C99" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D99" s="4">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E99" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="100">
@@ -2614,16 +2617,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C100" s="4">
-        <v>2032</v>
+        <v>1756</v>
       </c>
       <c r="D100" s="4">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E100" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="101">
@@ -2631,16 +2634,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C101" s="4">
-        <v>2193</v>
+        <v>2032</v>
       </c>
       <c r="D101" s="4">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E101" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="102">
@@ -2648,16 +2651,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C102" s="4">
-        <v>783</v>
+        <v>2193</v>
       </c>
       <c r="D102" s="4">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="E102" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="103">
@@ -2665,16 +2668,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C103" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D103" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E103" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="104">
@@ -2682,16 +2685,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C104" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D104" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E104" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="105">
@@ -2699,16 +2702,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C105" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D105" s="4">
         <v>85</v>
       </c>
       <c r="E105" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="106">
@@ -2716,16 +2719,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C106" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D106" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E106" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="107">
@@ -2733,16 +2736,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C107" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D107" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E107" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="108">
@@ -2750,16 +2753,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C108" s="4">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="D108" s="4">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E108" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="109">
@@ -2767,16 +2770,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C109" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D109" s="4">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E109" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="110">
@@ -2784,16 +2787,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C110" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D110" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E110" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="111">
@@ -2801,16 +2804,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C111" s="4">
-        <v>1555</v>
+        <v>763</v>
       </c>
       <c r="D111" s="4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E111" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="112">
@@ -2818,16 +2821,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C112" s="4">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="D112" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E112" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="113">
@@ -2835,16 +2838,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C113" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D113" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E113" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="114">
@@ -2852,16 +2855,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C114" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D114" s="4">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E114" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="115">
@@ -2869,16 +2872,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C115" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D115" s="4">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E115" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="116">
@@ -2886,16 +2889,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C116" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D116" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E116" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="117">
@@ -2903,16 +2906,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C117" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D117" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E117" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="118">
@@ -2920,16 +2923,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C118" s="4">
-        <v>1409</v>
+        <v>719</v>
       </c>
       <c r="D118" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E118" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="119">
@@ -2937,16 +2940,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C119" s="4">
-        <v>1481</v>
+        <v>1409</v>
       </c>
       <c r="D119" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E119" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="120">
@@ -2954,16 +2957,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C120" s="4">
-        <v>1737</v>
+        <v>1481</v>
       </c>
       <c r="D120" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E120" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="121">
@@ -2971,16 +2974,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C121" s="4">
-        <v>1546</v>
+        <v>1737</v>
       </c>
       <c r="D121" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E121" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="122">
@@ -2988,16 +2991,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C122" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D122" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E122" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="123">
@@ -3005,16 +3008,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C123" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D123" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E123" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="124">
@@ -3022,16 +3025,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C124" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D124" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E124" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="125">
@@ -3039,16 +3042,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C125" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D125" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E125" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="126">
@@ -3056,16 +3059,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C126" s="4">
-        <v>1802</v>
+        <v>1722</v>
       </c>
       <c r="D126" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E126" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="127">
@@ -3073,16 +3076,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C127" s="4">
-        <v>1841</v>
+        <v>1802</v>
       </c>
       <c r="D127" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E127" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="128">
@@ -3090,16 +3093,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C128" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D128" s="4">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E128" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="129">
@@ -3107,16 +3110,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C129" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D129" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E129" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="130">
@@ -3124,16 +3127,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C130" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D130" s="4">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E130" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="131">
@@ -3141,16 +3144,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C131" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D131" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E131" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="132">
@@ -3158,16 +3161,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C132" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D132" s="4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E132" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="133">
@@ -3175,16 +3178,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C133" s="4">
-        <v>1839</v>
+        <v>1961</v>
       </c>
       <c r="D133" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E133" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="134">
@@ -3192,16 +3195,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C134" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D134" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E134" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="135">
@@ -3209,16 +3212,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C135" s="4">
-        <v>2282</v>
+        <v>2021</v>
       </c>
       <c r="D135" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E135" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="136">
@@ -3226,16 +3229,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C136" s="4">
-        <v>2330</v>
+        <v>2281</v>
       </c>
       <c r="D136" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E136" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="137">
@@ -3243,16 +3246,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C137" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D137" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E137" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="138">
@@ -3260,16 +3263,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C138" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D138" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E138" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="139">
@@ -3277,16 +3280,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C139" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D139" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E139" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="140">
@@ -3294,16 +3297,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C140" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D140" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E140" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="141">
@@ -3311,16 +3314,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C141" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D141" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E141" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="142">
@@ -3328,16 +3331,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C142" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D142" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E142" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="143">
@@ -3345,16 +3348,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C143" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D143" s="4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E143" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="144">
@@ -3362,16 +3365,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C144" s="4">
-        <v>862</v>
+        <v>2485</v>
       </c>
       <c r="D144" s="4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E144" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="145">
@@ -3379,16 +3382,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C145" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D145" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E145" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="146">
@@ -3396,16 +3399,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C146" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D146" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E146" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="147">
@@ -3413,16 +3416,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C147" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D147" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E147" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="148">
@@ -3430,16 +3433,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C148" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D148" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E148" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="149">
@@ -3447,16 +3450,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C149" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D149" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E149" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="150">
@@ -3464,16 +3467,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C150" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D150" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151">
@@ -3481,16 +3484,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C151" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D151" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E151" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="152">
@@ -3498,16 +3501,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C152" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D152" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E152" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="153">
@@ -3515,16 +3518,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C153" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D153" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E153" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="154">
@@ -3532,16 +3535,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C154" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D154" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E154" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="155">
@@ -3549,16 +3552,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C155" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D155" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E155" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="156">
@@ -3566,16 +3569,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C156" s="4">
-        <v>2330</v>
+        <v>2074</v>
       </c>
       <c r="D156" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E156" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="157">
@@ -3583,16 +3586,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C157" s="4">
-        <v>2538</v>
+        <v>2330</v>
       </c>
       <c r="D157" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E157" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="158">
@@ -3600,16 +3603,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C158" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D158" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E158" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="159">
@@ -3617,16 +3620,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C159" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D159" s="4">
         <v>0</v>
       </c>
       <c r="E159" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="160">
@@ -3634,16 +3637,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C160" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D160" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E160" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="161">
@@ -3651,16 +3654,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C161" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D161" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E161" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="162">
@@ -3668,16 +3671,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C162" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D162" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E162" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="163">
@@ -3685,16 +3688,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C163" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D163" s="4">
         <v>10</v>
       </c>
       <c r="E163" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="164">
@@ -3702,16 +3705,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C164" s="4">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="D164" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E164" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="165">
@@ -3719,16 +3722,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C165" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D165" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E165" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="166">
@@ -3736,16 +3739,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C166" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="167">
@@ -3753,16 +3756,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C167" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D167" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="168">
@@ -3770,16 +3773,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C168" s="4">
-        <v>1787</v>
+        <v>1629</v>
       </c>
       <c r="D168" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E168" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="169">
@@ -3787,16 +3790,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C169" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D169" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E169" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="170">
@@ -3804,16 +3807,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C170" s="4">
-        <v>1599</v>
+        <v>1721</v>
       </c>
       <c r="D170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="171">
@@ -3821,16 +3824,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C171" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="172">
@@ -3838,16 +3841,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C172" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D172" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="173">
@@ -3855,16 +3858,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C173" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D173" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="174">
@@ -3872,16 +3875,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C174" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E174" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="175">
@@ -3889,16 +3892,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C175" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="176">
@@ -3906,16 +3909,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C176" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D176" s="4">
         <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="177">
@@ -3923,16 +3926,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C177" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D177" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="178">
@@ -3940,16 +3943,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C178" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="179">
@@ -3957,16 +3960,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C179" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="180">
@@ -3974,16 +3977,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C180" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="181">
@@ -3991,16 +3994,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C181" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="182">
@@ -4008,16 +4011,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C182" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D182" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="183">
@@ -4025,16 +4028,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C183" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="184">
@@ -4042,16 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C184" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="185">
@@ -4059,16 +4062,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C185" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="186">
@@ -4076,16 +4079,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C186" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="187">
@@ -4093,16 +4096,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C187" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="188">
@@ -4110,16 +4113,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C188" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="189">
@@ -4127,16 +4130,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C189" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="190">
@@ -4144,16 +4147,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C190" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D190" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="191">
@@ -4161,16 +4164,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C191" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D191" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="192">
@@ -4178,16 +4181,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C192" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="193">
@@ -4195,16 +4198,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C193" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="194">
@@ -4212,16 +4215,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C194" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="195">
@@ -4229,16 +4232,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C195" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="196">
@@ -4246,16 +4249,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C196" s="4">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="197">
@@ -4263,16 +4266,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C197" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="198">
@@ -4280,16 +4283,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C198" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199">
@@ -4297,16 +4300,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C199" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200">
@@ -4314,16 +4317,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C200" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="201">
@@ -4331,16 +4334,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C201" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202">
@@ -4348,16 +4351,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C202" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D202" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="203">
@@ -4365,16 +4368,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C203" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D203" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="204">
@@ -4382,16 +4385,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C204" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="205">
@@ -4399,16 +4402,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C205" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206">
@@ -4416,16 +4419,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C206" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="207">
@@ -4433,16 +4436,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C207" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208">
@@ -4450,16 +4453,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C208" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209">
@@ -4467,16 +4470,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C209" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210">
@@ -4484,16 +4487,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C210" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="211">
@@ -4501,16 +4504,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C211" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212">
@@ -4518,16 +4521,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C212" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="213">
@@ -4535,16 +4538,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C213" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214">
@@ -4552,16 +4555,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C214" s="4">
-        <v>172</v>
+        <v>689</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="215">
@@ -4569,16 +4572,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C215" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216">
@@ -4586,16 +4589,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C216" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217">
@@ -4603,16 +4606,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C217" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -4620,16 +4623,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C218" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219">
@@ -4637,16 +4640,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C219" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="220">
@@ -4654,16 +4657,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C220" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221">
@@ -4671,16 +4674,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C221" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222">
@@ -4688,16 +4691,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C222" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223">
@@ -4705,16 +4708,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C223" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224">
@@ -4722,16 +4725,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C224" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225">
@@ -4739,16 +4742,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C225" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226">
@@ -4756,16 +4759,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C226" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227">
@@ -4773,16 +4776,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C227" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228">
@@ -4790,16 +4793,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C228" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229">
@@ -4807,16 +4810,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C229" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230">
@@ -4824,16 +4827,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C230" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="231">
@@ -4841,16 +4844,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C231" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232">
@@ -4858,16 +4861,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C232" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="233">
@@ -4875,16 +4878,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C233" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234">
@@ -4892,16 +4895,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C234" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="235">
@@ -4909,16 +4912,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C235" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236">
@@ -4926,16 +4929,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C236" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
@@ -4943,16 +4946,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C237" s="4">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238">
@@ -4960,16 +4963,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C238" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239">
@@ -4977,16 +4980,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C239" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240">
@@ -4994,16 +4997,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C240" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="241">
@@ -5011,16 +5014,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C241" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242">
@@ -5028,16 +5031,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C242" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243">
@@ -5045,16 +5048,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C243" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244">
@@ -5062,16 +5065,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C244" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
@@ -5079,16 +5082,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246">
@@ -5096,16 +5099,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C246" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -5113,16 +5116,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C247" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
@@ -5130,16 +5133,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C248" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
@@ -5147,16 +5150,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C249" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
@@ -5164,16 +5167,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C250" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -5181,16 +5184,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C251" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -5198,16 +5201,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C252" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -5215,7 +5218,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C253" s="4">
         <v>198</v>
@@ -5224,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -5232,25 +5235,27 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C254" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
-      <c r="E254" s="4"/>
+      <c r="E254" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C255" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
@@ -5262,10 +5267,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C256" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5277,10 +5282,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C257" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5292,10 +5297,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C258" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5307,10 +5312,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C259" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5322,10 +5327,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C260" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5337,10 +5342,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C261" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5352,10 +5357,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C262" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5367,10 +5372,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C263" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5382,10 +5387,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C264" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5397,10 +5402,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C265" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5415,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5427,10 +5432,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C267" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5442,10 +5447,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C268" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5457,10 +5462,14 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>1</v>
-      </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C269" s="4">
+        <v>5</v>
+      </c>
+      <c r="D269" s="4">
+        <v>0</v>
+      </c>
       <c r="E269" s="4"/>
     </row>
     <row r="270">
@@ -5468,14 +5477,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>0</v>
-      </c>
-      <c r="C270" s="4">
-        <v>5</v>
-      </c>
-      <c r="D270" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271">
@@ -5486,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="C271" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5500,8 +5505,12 @@
       <c r="B272" s="4">
         <v>0</v>
       </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+      <c r="D272" s="4">
+        <v>0</v>
+      </c>
       <c r="E272" s="4"/>
     </row>
     <row r="273">
@@ -5522,12 +5531,8 @@
       <c r="B274" s="4">
         <v>0</v>
       </c>
-      <c r="C274" s="4">
-        <v>1</v>
-      </c>
-      <c r="D274" s="4">
-        <v>0</v>
-      </c>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275">
@@ -5537,8 +5542,12 @@
       <c r="B275" s="4">
         <v>0</v>
       </c>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4">
+        <v>0</v>
+      </c>
       <c r="E275" s="4"/>
     </row>
     <row r="276">
@@ -5546,15 +5555,26 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277" s="4">
         <v>1</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C277" s="4">
         <v>1</v>
       </c>
-      <c r="D276" s="4">
-        <v>0</v>
-      </c>
-      <c r="E276" s="4"/>
+      <c r="D277" s="4">
+        <v>0</v>
+      </c>
+      <c r="E277" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+  <si>
+    <t>12/3/2020</t>
+  </si>
   <si>
     <t>12/2/2020</t>
   </si>
@@ -934,24 +937,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E278"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2">
@@ -959,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5366</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="3">
@@ -972,12 +975,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="4">
@@ -985,16 +988,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C4" s="4">
-        <v>1046</v>
+        <v>802</v>
       </c>
       <c r="D4" s="4">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="E4" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="5">
@@ -1002,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C5" s="4">
-        <v>1071</v>
+        <v>3503</v>
       </c>
       <c r="D5" s="4">
-        <v>232</v>
+        <v>709</v>
       </c>
       <c r="E5" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="6">
@@ -1019,16 +1022,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C6" s="4">
-        <v>1891</v>
+        <v>1624</v>
       </c>
       <c r="D6" s="4">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="E6" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="7">
@@ -1036,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C7" s="4">
-        <v>2886</v>
+        <v>2256</v>
       </c>
       <c r="D7" s="4">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="E7" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="8">
@@ -1053,16 +1056,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C8" s="4">
-        <v>575</v>
+        <v>3125</v>
       </c>
       <c r="D8" s="4">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="E8" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="9">
@@ -1070,16 +1073,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C9" s="4">
-        <v>3669</v>
+        <v>610</v>
       </c>
       <c r="D9" s="4">
-        <v>440</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="10">
@@ -1087,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C10" s="4">
-        <v>3912</v>
+        <v>3725</v>
       </c>
       <c r="D10" s="4">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="E10" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="11">
@@ -1104,16 +1107,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C11" s="4">
-        <v>4814</v>
+        <v>3957</v>
       </c>
       <c r="D11" s="4">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="E11" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="12">
@@ -1121,16 +1124,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C12" s="4">
-        <v>1433</v>
+        <v>4863</v>
       </c>
       <c r="D12" s="4">
-        <v>221</v>
+        <v>704</v>
       </c>
       <c r="E12" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="13">
@@ -1138,16 +1141,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C13" s="4">
-        <v>1760</v>
+        <v>1435</v>
       </c>
       <c r="D13" s="4">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E13" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="14">
@@ -1155,16 +1158,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C14" s="4">
-        <v>3254</v>
+        <v>1766</v>
       </c>
       <c r="D14" s="4">
-        <v>389</v>
+        <v>235</v>
       </c>
       <c r="E14" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="15">
@@ -1172,16 +1175,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C15" s="4">
-        <v>3404</v>
+        <v>3266</v>
       </c>
       <c r="D15" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="16">
@@ -1189,16 +1192,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C16" s="4">
-        <v>3471</v>
+        <v>3410</v>
       </c>
       <c r="D16" s="4">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E16" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="17">
@@ -1206,16 +1209,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C17" s="4">
-        <v>4040</v>
+        <v>3475</v>
       </c>
       <c r="D17" s="4">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E17" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="18">
@@ -1223,16 +1226,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C18" s="4">
-        <v>4631</v>
+        <v>4043</v>
       </c>
       <c r="D18" s="4">
-        <v>591</v>
+        <v>458</v>
       </c>
       <c r="E18" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="19">
@@ -1240,16 +1243,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C19" s="4">
-        <v>1515</v>
+        <v>4635</v>
       </c>
       <c r="D19" s="4">
-        <v>183</v>
+        <v>596</v>
       </c>
       <c r="E19" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="20">
@@ -1257,16 +1260,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C20" s="4">
-        <v>1782</v>
+        <v>1516</v>
       </c>
       <c r="D20" s="4">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E20" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="21">
@@ -1274,16 +1277,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C21" s="4">
-        <v>3428</v>
+        <v>1783</v>
       </c>
       <c r="D21" s="4">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="E21" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="22">
@@ -1291,16 +1294,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C22" s="4">
-        <v>3223</v>
+        <v>3429</v>
       </c>
       <c r="D22" s="4">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="E22" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="23">
@@ -1308,16 +1311,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C23" s="4">
-        <v>3027</v>
+        <v>3226</v>
       </c>
       <c r="D23" s="4">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="E23" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="24">
@@ -1325,16 +1328,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C24" s="4">
-        <v>3380</v>
+        <v>3029</v>
       </c>
       <c r="D24" s="4">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="E24" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="25">
@@ -1342,16 +1345,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C25" s="4">
-        <v>4072</v>
+        <v>3379</v>
       </c>
       <c r="D25" s="4">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="E25" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="26">
@@ -1359,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C26" s="4">
-        <v>1376</v>
+        <v>4072</v>
       </c>
       <c r="D26" s="4">
-        <v>134</v>
+        <v>462</v>
       </c>
       <c r="E26" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="27">
@@ -1376,16 +1379,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C27" s="4">
-        <v>1490</v>
+        <v>1376</v>
       </c>
       <c r="D27" s="4">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E27" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="28">
@@ -1393,16 +1396,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C28" s="4">
-        <v>2412</v>
+        <v>1490</v>
       </c>
       <c r="D28" s="4">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="E28" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="29">
@@ -1410,16 +1413,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C29" s="4">
-        <v>2583</v>
+        <v>2412</v>
       </c>
       <c r="D29" s="4">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E29" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="30">
@@ -1427,16 +1430,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C30" s="4">
-        <v>2611</v>
+        <v>2583</v>
       </c>
       <c r="D30" s="4">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E30" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="31">
@@ -1444,16 +1447,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C31" s="4">
-        <v>2654</v>
+        <v>2611</v>
       </c>
       <c r="D31" s="4">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="E31" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="32">
@@ -1461,16 +1464,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C32" s="4">
-        <v>3111</v>
+        <v>2654</v>
       </c>
       <c r="D32" s="4">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="E32" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="33">
@@ -1478,16 +1481,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C33" s="4">
-        <v>937</v>
+        <v>3112</v>
       </c>
       <c r="D33" s="4">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="E33" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="34">
@@ -1495,16 +1498,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C34" s="4">
-        <v>1063</v>
+        <v>937</v>
       </c>
       <c r="D34" s="4">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="35">
@@ -1512,16 +1515,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C35" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D35" s="4">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="36">
@@ -1529,16 +1532,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C36" s="4">
-        <v>1981</v>
+        <v>2252</v>
       </c>
       <c r="D36" s="4">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E36" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="37">
@@ -1546,16 +1549,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C37" s="4">
-        <v>2437</v>
+        <v>1982</v>
       </c>
       <c r="D37" s="4">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E37" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="38">
@@ -1563,16 +1566,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C38" s="4">
-        <v>2422</v>
+        <v>2438</v>
       </c>
       <c r="D38" s="4">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E38" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="39">
@@ -1580,16 +1583,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C39" s="4">
-        <v>2988</v>
+        <v>2422</v>
       </c>
       <c r="D39" s="4">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="E39" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="40">
@@ -1597,16 +1600,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C40" s="4">
-        <v>908</v>
+        <v>2988</v>
       </c>
       <c r="D40" s="4">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="E40" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="41">
@@ -1614,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C41" s="4">
-        <v>1071</v>
+        <v>908</v>
       </c>
       <c r="D41" s="4">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E41" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="42">
@@ -1631,16 +1634,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C42" s="4">
-        <v>2200</v>
+        <v>1070</v>
       </c>
       <c r="D42" s="4">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="E42" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="43">
@@ -1648,16 +1651,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C43" s="4">
-        <v>2138</v>
+        <v>2200</v>
       </c>
       <c r="D43" s="4">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="E43" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="44">
@@ -1665,16 +1668,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C44" s="4">
-        <v>2454</v>
+        <v>2139</v>
       </c>
       <c r="D44" s="4">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="E44" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="45">
@@ -1682,16 +1685,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C45" s="4">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="D45" s="4">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="E45" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="46">
@@ -1699,16 +1702,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C46" s="4">
-        <v>2798</v>
+        <v>2459</v>
       </c>
       <c r="D46" s="4">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="E46" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="47">
@@ -1716,16 +1719,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C47" s="4">
-        <v>849</v>
+        <v>2798</v>
       </c>
       <c r="D47" s="4">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="E47" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="48">
@@ -1733,16 +1736,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C48" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D48" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="49">
@@ -1750,16 +1753,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C49" s="4">
-        <v>2057</v>
+        <v>951</v>
       </c>
       <c r="D49" s="4">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E49" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="50">
@@ -1767,16 +1770,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C50" s="4">
-        <v>2102</v>
+        <v>2057</v>
       </c>
       <c r="D50" s="4">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="E50" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="51">
@@ -1784,16 +1787,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C51" s="4">
-        <v>2130</v>
+        <v>2104</v>
       </c>
       <c r="D51" s="4">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="E51" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="52">
@@ -1801,16 +1804,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C52" s="4">
-        <v>2385</v>
+        <v>2130</v>
       </c>
       <c r="D52" s="4">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E52" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="53">
@@ -1818,16 +1821,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C53" s="4">
-        <v>2683</v>
+        <v>2385</v>
       </c>
       <c r="D53" s="4">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E53" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="54">
@@ -1835,16 +1838,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C54" s="4">
-        <v>903</v>
+        <v>2683</v>
       </c>
       <c r="D54" s="4">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E54" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="55">
@@ -1852,16 +1855,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C55" s="4">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D55" s="4">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="56">
@@ -1869,16 +1872,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C56" s="4">
-        <v>1815</v>
+        <v>940</v>
       </c>
       <c r="D56" s="4">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="57">
@@ -1886,16 +1889,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C57" s="4">
-        <v>2005</v>
+        <v>1815</v>
       </c>
       <c r="D57" s="4">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E57" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="58">
@@ -1903,16 +1906,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C58" s="4">
-        <v>1929</v>
+        <v>2005</v>
       </c>
       <c r="D58" s="4">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E58" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="59">
@@ -1920,16 +1923,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C59" s="4">
-        <v>2066</v>
+        <v>1929</v>
       </c>
       <c r="D59" s="4">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E59" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="60">
@@ -1937,16 +1940,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C60" s="4">
-        <v>2472</v>
+        <v>2066</v>
       </c>
       <c r="D60" s="4">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="E60" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="61">
@@ -1954,16 +1957,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C61" s="4">
-        <v>821</v>
+        <v>2472</v>
       </c>
       <c r="D61" s="4">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="E61" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="62">
@@ -1971,16 +1974,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C62" s="4">
-        <v>983</v>
+        <v>821</v>
       </c>
       <c r="D62" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E62" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="63">
@@ -1988,16 +1991,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C63" s="4">
-        <v>1837</v>
+        <v>983</v>
       </c>
       <c r="D63" s="4">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E63" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="64">
@@ -2005,16 +2008,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C64" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D64" s="4">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="65">
@@ -2022,16 +2025,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C65" s="4">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="D65" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E65" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="66">
@@ -2039,16 +2042,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C66" s="4">
-        <v>1804</v>
+        <v>1832</v>
       </c>
       <c r="D66" s="4">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E66" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="67">
@@ -2056,16 +2059,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C67" s="4">
-        <v>2116</v>
+        <v>1804</v>
       </c>
       <c r="D67" s="4">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="E67" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="68">
@@ -2073,16 +2076,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C68" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D68" s="4">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="E68" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="69">
@@ -2090,16 +2093,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C69" s="4">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D69" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E69" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="70">
@@ -2107,16 +2110,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C70" s="4">
-        <v>1224</v>
+        <v>760</v>
       </c>
       <c r="D70" s="4">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E70" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="71">
@@ -2124,16 +2127,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C71" s="4">
-        <v>1490</v>
+        <v>1225</v>
       </c>
       <c r="D71" s="4">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E71" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="72">
@@ -2141,16 +2144,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C72" s="4">
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="D72" s="4">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E72" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="73">
@@ -2158,16 +2161,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C73" s="4">
-        <v>1521</v>
+        <v>1466</v>
       </c>
       <c r="D73" s="4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="74">
@@ -2175,16 +2178,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C74" s="4">
-        <v>1727</v>
+        <v>1521</v>
       </c>
       <c r="D74" s="4">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="E74" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="75">
@@ -2192,16 +2195,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C75" s="4">
-        <v>573</v>
+        <v>1729</v>
       </c>
       <c r="D75" s="4">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E75" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="76">
@@ -2209,16 +2212,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C76" s="4">
-        <v>664</v>
+        <v>573</v>
       </c>
       <c r="D76" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E76" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="77">
@@ -2226,16 +2229,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C77" s="4">
-        <v>1305</v>
+        <v>664</v>
       </c>
       <c r="D77" s="4">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="E77" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="78">
@@ -2243,16 +2246,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C78" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D78" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E78" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="79">
@@ -2260,16 +2263,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C79" s="4">
-        <v>1408</v>
+        <v>1275</v>
       </c>
       <c r="D79" s="4">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E79" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="80">
@@ -2277,16 +2280,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C80" s="4">
-        <v>1495</v>
+        <v>1408</v>
       </c>
       <c r="D80" s="4">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E80" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="81">
@@ -2294,16 +2297,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C81" s="4">
-        <v>1724</v>
+        <v>1496</v>
       </c>
       <c r="D81" s="4">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E81" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="82">
@@ -2311,16 +2314,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C82" s="4">
-        <v>605</v>
+        <v>1725</v>
       </c>
       <c r="D82" s="4">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E82" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="83">
@@ -2328,16 +2331,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C83" s="4">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="D83" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E83" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="84">
@@ -2345,16 +2348,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C84" s="4">
-        <v>1261</v>
+        <v>668</v>
       </c>
       <c r="D84" s="4">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E84" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="85">
@@ -2362,16 +2365,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C85" s="4">
-        <v>1411</v>
+        <v>1267</v>
       </c>
       <c r="D85" s="4">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E85" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="86">
@@ -2379,16 +2382,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C86" s="4">
-        <v>1526</v>
+        <v>1411</v>
       </c>
       <c r="D86" s="4">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E86" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="87">
@@ -2396,16 +2399,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C87" s="4">
-        <v>1889</v>
+        <v>1529</v>
       </c>
       <c r="D87" s="4">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E87" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="88">
@@ -2413,16 +2416,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C88" s="4">
-        <v>720</v>
+        <v>1889</v>
       </c>
       <c r="D88" s="4">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E88" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="89">
@@ -2430,16 +2433,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C89" s="4">
-        <v>612</v>
+        <v>720</v>
       </c>
       <c r="D89" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E89" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="90">
@@ -2447,16 +2450,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C90" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D90" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E90" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="91">
@@ -2464,16 +2467,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C91" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D91" s="4">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E91" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="92">
@@ -2481,16 +2484,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C92" s="4">
-        <v>1535</v>
+        <v>1259</v>
       </c>
       <c r="D92" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E92" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="93">
@@ -2498,16 +2501,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C93" s="4">
-        <v>1732</v>
+        <v>1534</v>
       </c>
       <c r="D93" s="4">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E93" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="94">
@@ -2515,16 +2518,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C94" s="4">
-        <v>1634</v>
+        <v>1736</v>
       </c>
       <c r="D94" s="4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E94" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="95">
@@ -2532,16 +2535,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C95" s="4">
-        <v>1813</v>
+        <v>1634</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E95" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="96">
@@ -2549,16 +2552,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C96" s="4">
-        <v>638</v>
+        <v>1813</v>
       </c>
       <c r="D96" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E96" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="97">
@@ -2566,16 +2569,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C97" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D97" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E97" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="98">
@@ -2583,16 +2586,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C98" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D98" s="4">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E98" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="99">
@@ -2600,16 +2603,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C99" s="4">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="D99" s="4">
         <v>79</v>
       </c>
       <c r="E99" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="100">
@@ -2617,16 +2620,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C100" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D100" s="4">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E100" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="101">
@@ -2634,16 +2637,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C101" s="4">
-        <v>2032</v>
+        <v>1756</v>
       </c>
       <c r="D101" s="4">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E101" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="102">
@@ -2651,16 +2654,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C102" s="4">
-        <v>2193</v>
+        <v>2031</v>
       </c>
       <c r="D102" s="4">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E102" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="103">
@@ -2668,16 +2671,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C103" s="4">
-        <v>784</v>
+        <v>2192</v>
       </c>
       <c r="D103" s="4">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="E103" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="104">
@@ -2685,16 +2688,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C104" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D104" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E104" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="105">
@@ -2702,16 +2705,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C105" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D105" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E105" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="106">
@@ -2719,16 +2722,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C106" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D106" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E106" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="107">
@@ -2736,16 +2739,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C107" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D107" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E107" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="108">
@@ -2753,16 +2756,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C108" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D108" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="109">
@@ -2770,16 +2773,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C109" s="4">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D109" s="4">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E109" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="110">
@@ -2787,16 +2790,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C110" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D110" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E110" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="111">
@@ -2804,16 +2807,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C111" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D111" s="4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E111" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="112">
@@ -2821,16 +2824,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C112" s="4">
-        <v>1555</v>
+        <v>763</v>
       </c>
       <c r="D112" s="4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E112" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="113">
@@ -2838,16 +2841,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C113" s="4">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="D113" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E113" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="114">
@@ -2855,16 +2858,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C114" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D114" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E114" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="115">
@@ -2872,16 +2875,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C115" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D115" s="4">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E115" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="116">
@@ -2889,16 +2892,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C116" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D116" s="4">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E116" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="117">
@@ -2906,16 +2909,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C117" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D117" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E117" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="118">
@@ -2923,16 +2926,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C118" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D118" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E118" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="119">
@@ -2940,16 +2943,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C119" s="4">
-        <v>1409</v>
+        <v>719</v>
       </c>
       <c r="D119" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E119" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="120">
@@ -2957,16 +2960,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C120" s="4">
-        <v>1481</v>
+        <v>1410</v>
       </c>
       <c r="D120" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E120" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="121">
@@ -2974,16 +2977,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C121" s="4">
-        <v>1737</v>
+        <v>1481</v>
       </c>
       <c r="D121" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E121" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="122">
@@ -2991,16 +2994,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C122" s="4">
-        <v>1546</v>
+        <v>1737</v>
       </c>
       <c r="D122" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E122" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="123">
@@ -3008,16 +3011,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C123" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D123" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E123" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="124">
@@ -3025,16 +3028,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C124" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D124" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E124" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="125">
@@ -3042,16 +3045,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C125" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D125" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E125" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="126">
@@ -3059,16 +3062,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C126" s="4">
-        <v>1722</v>
+        <v>774</v>
       </c>
       <c r="D126" s="4">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E126" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="127">
@@ -3076,16 +3079,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C127" s="4">
-        <v>1802</v>
+        <v>1722</v>
       </c>
       <c r="D127" s="4">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E127" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="128">
@@ -3093,16 +3096,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C128" s="4">
-        <v>1841</v>
+        <v>1801</v>
       </c>
       <c r="D128" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E128" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="129">
@@ -3110,16 +3113,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C129" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D129" s="4">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E129" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="130">
@@ -3127,16 +3130,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C130" s="4">
-        <v>2131</v>
+        <v>2021</v>
       </c>
       <c r="D130" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E130" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="131">
@@ -3144,16 +3147,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C131" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D131" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E131" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="132">
@@ -3161,16 +3164,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C132" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D132" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E132" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="133">
@@ -3178,16 +3181,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C133" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D133" s="4">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E133" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="134">
@@ -3195,16 +3198,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C134" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D134" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E134" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="135">
@@ -3212,16 +3215,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C135" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D135" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E135" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="136">
@@ -3229,16 +3232,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C136" s="4">
-        <v>2281</v>
+        <v>2021</v>
       </c>
       <c r="D136" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E136" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="137">
@@ -3246,16 +3249,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C137" s="4">
-        <v>2330</v>
+        <v>2281</v>
       </c>
       <c r="D137" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E137" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="138">
@@ -3263,16 +3266,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C138" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D138" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E138" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="139">
@@ -3280,16 +3283,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C139" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D139" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E139" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="140">
@@ -3297,16 +3300,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C140" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D140" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E140" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="141">
@@ -3314,16 +3317,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C141" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D141" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E141" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="142">
@@ -3331,16 +3334,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C142" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D142" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E142" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="143">
@@ -3348,16 +3351,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C143" s="4">
-        <v>2457</v>
+        <v>2240</v>
       </c>
       <c r="D143" s="4">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E143" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="144">
@@ -3365,16 +3368,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C144" s="4">
-        <v>2485</v>
+        <v>2457</v>
       </c>
       <c r="D144" s="4">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E144" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="145">
@@ -3382,16 +3385,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C145" s="4">
-        <v>862</v>
+        <v>2485</v>
       </c>
       <c r="D145" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E145" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="146">
@@ -3399,16 +3402,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C146" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D146" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E146" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="147">
@@ -3416,16 +3419,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C147" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D147" s="4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E147" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="148">
@@ -3433,16 +3436,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C148" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D148" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E148" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="149">
@@ -3450,16 +3453,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C149" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D149" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E149" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="150">
@@ -3467,16 +3470,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C150" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D150" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E150" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="151">
@@ -3484,16 +3487,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C151" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D151" s="4">
         <v>22</v>
       </c>
       <c r="E151" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="152">
@@ -3501,16 +3504,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C152" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D152" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E152" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="153">
@@ -3518,16 +3521,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C153" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D153" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E153" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="154">
@@ -3535,16 +3538,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C154" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D154" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E154" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="155">
@@ -3552,16 +3555,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C155" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D155" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E155" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="156">
@@ -3569,16 +3572,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C156" s="4">
-        <v>2074</v>
+        <v>2035</v>
       </c>
       <c r="D156" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E156" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="157">
@@ -3586,16 +3589,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C157" s="4">
-        <v>2330</v>
+        <v>2074</v>
       </c>
       <c r="D157" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E157" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="158">
@@ -3603,16 +3606,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="4">
-        <v>2538</v>
+        <v>2330</v>
       </c>
       <c r="D158" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E158" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="159">
@@ -3620,16 +3623,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C159" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D159" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E159" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="160">
@@ -3637,16 +3640,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C160" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
       </c>
       <c r="E160" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="161">
@@ -3654,16 +3657,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C161" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D161" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E161" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="162">
@@ -3671,16 +3674,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C162" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D162" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E162" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="163">
@@ -3688,16 +3691,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C163" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D163" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E163" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="164">
@@ -3705,16 +3708,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C164" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D164" s="4">
         <v>10</v>
       </c>
       <c r="E164" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="165">
@@ -3722,16 +3725,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C165" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D165" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E165" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="166">
@@ -3739,16 +3742,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C166" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D166" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E166" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="167">
@@ -3756,16 +3759,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C167" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="168">
@@ -3773,16 +3776,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C168" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D168" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="169">
@@ -3790,16 +3793,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C169" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D169" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E169" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="170">
@@ -3807,16 +3810,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C170" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D170" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E170" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="171">
@@ -3824,16 +3827,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C171" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="172">
@@ -3841,16 +3844,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C172" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="173">
@@ -3858,16 +3861,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C173" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="174">
@@ -3875,16 +3878,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C174" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D174" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="175">
@@ -3892,16 +3895,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C175" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D175" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E175" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="176">
@@ -3909,16 +3912,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C176" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D176" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="177">
@@ -3926,16 +3929,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C177" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D177" s="4">
         <v>1</v>
       </c>
       <c r="E177" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="178">
@@ -3943,16 +3946,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C178" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D178" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="179">
@@ -3960,16 +3963,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C179" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="180">
@@ -3977,16 +3980,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C180" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="181">
@@ -3994,16 +3997,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C181" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="182">
@@ -4011,16 +4014,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C182" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="183">
@@ -4028,16 +4031,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C183" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="184">
@@ -4045,16 +4048,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C184" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="185">
@@ -4062,16 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C185" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="186">
@@ -4079,16 +4082,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C186" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="187">
@@ -4096,16 +4099,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C187" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="188">
@@ -4113,16 +4116,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C188" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="189">
@@ -4130,16 +4133,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C189" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190">
@@ -4147,16 +4150,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C190" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="191">
@@ -4164,16 +4167,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C191" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D191" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="192">
@@ -4181,16 +4184,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C192" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D192" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="193">
@@ -4198,16 +4201,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C193" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="194">
@@ -4215,16 +4218,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C194" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="195">
@@ -4232,16 +4235,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C195" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196">
@@ -4249,16 +4252,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C196" s="4">
-        <v>748</v>
+        <v>340</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="197">
@@ -4266,16 +4269,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C197" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="198">
@@ -4283,16 +4286,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C198" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="199">
@@ -4300,16 +4303,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C199" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="200">
@@ -4317,16 +4320,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C200" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="201">
@@ -4334,16 +4337,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C201" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="202">
@@ -4351,16 +4354,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C202" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="203">
@@ -4368,16 +4371,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C203" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D203" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="204">
@@ -4385,16 +4388,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C204" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D204" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205">
@@ -4402,16 +4405,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C205" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206">
@@ -4419,16 +4422,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C206" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207">
@@ -4436,16 +4439,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C207" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208">
@@ -4453,16 +4456,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C208" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209">
@@ -4470,16 +4473,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C209" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210">
@@ -4487,16 +4490,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C210" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211">
@@ -4504,16 +4507,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C211" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212">
@@ -4521,16 +4524,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C212" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="213">
@@ -4538,16 +4541,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C213" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214">
@@ -4555,16 +4558,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C214" s="4">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215">
@@ -4572,16 +4575,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C215" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216">
@@ -4589,16 +4592,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C216" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217">
@@ -4606,16 +4609,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C217" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218">
@@ -4623,16 +4626,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C218" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -4640,16 +4643,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C219" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220">
@@ -4657,16 +4660,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C220" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="221">
@@ -4674,16 +4677,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C221" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222">
@@ -4691,16 +4694,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C222" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223">
@@ -4708,16 +4711,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C223" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224">
@@ -4725,16 +4728,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C224" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225">
@@ -4742,16 +4745,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C225" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="226">
@@ -4759,16 +4762,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C226" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227">
@@ -4776,16 +4779,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C227" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228">
@@ -4793,16 +4796,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C228" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229">
@@ -4810,16 +4813,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C229" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230">
@@ -4827,16 +4830,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C230" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231">
@@ -4844,16 +4847,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C231" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232">
@@ -4861,16 +4864,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C232" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="233">
@@ -4878,16 +4881,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C233" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="234">
@@ -4895,16 +4898,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C234" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235">
@@ -4912,16 +4915,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C235" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236">
@@ -4929,16 +4932,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C236" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="237">
@@ -4946,16 +4949,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C237" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238">
@@ -4963,16 +4966,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C238" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239">
@@ -4980,16 +4983,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C239" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240">
@@ -4997,16 +5000,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C240" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241">
@@ -5014,16 +5017,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C241" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="242">
@@ -5031,16 +5034,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C242" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243">
@@ -5048,16 +5051,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C243" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5068,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C244" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245">
@@ -5082,16 +5085,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C245" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246">
@@ -5099,16 +5102,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
@@ -5116,16 +5119,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C247" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -5133,16 +5136,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C248" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
@@ -5150,16 +5153,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C249" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250">
@@ -5167,16 +5170,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C250" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
@@ -5184,16 +5187,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C251" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -5201,16 +5204,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C252" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253">
@@ -5218,16 +5221,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C253" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -5235,7 +5238,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C254" s="4">
         <v>198</v>
@@ -5244,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -5252,25 +5255,27 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C255" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
-      <c r="E255" s="4"/>
+      <c r="E255" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C256" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5282,10 +5287,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C257" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5297,10 +5302,10 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C258" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
@@ -5312,10 +5317,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C259" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5327,10 +5332,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C260" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5342,10 +5347,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C261" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5357,10 +5362,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C262" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5372,10 +5377,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C263" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5387,10 +5392,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C264" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5402,10 +5407,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C265" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5417,10 +5422,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C266" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5435,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="C267" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5447,10 +5452,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C268" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5462,10 +5467,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C269" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5477,10 +5482,14 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>1</v>
-      </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C270" s="4">
+        <v>5</v>
+      </c>
+      <c r="D270" s="4">
+        <v>0</v>
+      </c>
       <c r="E270" s="4"/>
     </row>
     <row r="271">
@@ -5488,14 +5497,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>0</v>
-      </c>
-      <c r="C271" s="4">
-        <v>5</v>
-      </c>
-      <c r="D271" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272">
@@ -5506,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5520,8 +5525,12 @@
       <c r="B273" s="4">
         <v>0</v>
       </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>0</v>
+      </c>
       <c r="E273" s="4"/>
     </row>
     <row r="274">
@@ -5542,12 +5551,8 @@
       <c r="B275" s="4">
         <v>0</v>
       </c>
-      <c r="C275" s="4">
-        <v>1</v>
-      </c>
-      <c r="D275" s="4">
-        <v>0</v>
-      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276">
@@ -5557,8 +5562,12 @@
       <c r="B276" s="4">
         <v>0</v>
       </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4">
+        <v>0</v>
+      </c>
       <c r="E276" s="4"/>
     </row>
     <row r="277">
@@ -5566,15 +5575,26 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278" s="4">
         <v>1</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C278" s="4">
         <v>1</v>
       </c>
-      <c r="D277" s="4">
-        <v>0</v>
-      </c>
-      <c r="E277" s="4"/>
+      <c r="D278" s="4">
+        <v>0</v>
+      </c>
+      <c r="E278" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+  <si>
+    <t>12/6/2020</t>
+  </si>
+  <si>
+    <t>12/5/2020</t>
+  </si>
+  <si>
+    <t>12/4/2020</t>
+  </si>
   <si>
     <t>12/3/2020</t>
   </si>
@@ -937,24 +946,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E281"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -962,12 +971,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5637</v>
+        <v>6438</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5410</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="3">
@@ -975,12 +984,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4199</v>
+        <v>6018</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5366</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="4">
@@ -988,16 +997,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>2883</v>
+        <v>5303</v>
       </c>
       <c r="C4" s="4">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D4" s="4">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="E4" s="4">
-        <v>5284</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="5">
@@ -1005,16 +1014,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>2734</v>
+        <v>5637</v>
       </c>
       <c r="C5" s="4">
-        <v>3503</v>
+        <v>2039</v>
       </c>
       <c r="D5" s="4">
-        <v>709</v>
+        <v>436</v>
       </c>
       <c r="E5" s="4">
-        <v>5261</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="6">
@@ -1022,16 +1031,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>3820</v>
+        <v>4199</v>
       </c>
       <c r="C6" s="4">
-        <v>1624</v>
+        <v>3423</v>
       </c>
       <c r="D6" s="4">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="E6" s="4">
-        <v>5240</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="7">
@@ -1039,16 +1048,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3444</v>
+        <v>2883</v>
       </c>
       <c r="C7" s="4">
-        <v>2256</v>
+        <v>5282</v>
       </c>
       <c r="D7" s="4">
-        <v>312</v>
+        <v>692</v>
       </c>
       <c r="E7" s="4">
-        <v>5219</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="8">
@@ -1056,16 +1065,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3834</v>
+        <v>2734</v>
       </c>
       <c r="C8" s="4">
-        <v>3125</v>
+        <v>6724</v>
       </c>
       <c r="D8" s="4">
-        <v>388</v>
+        <v>891</v>
       </c>
       <c r="E8" s="4">
-        <v>5210</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="9">
@@ -1073,16 +1082,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4174</v>
+        <v>3820</v>
       </c>
       <c r="C9" s="4">
-        <v>610</v>
+        <v>2303</v>
       </c>
       <c r="D9" s="4">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="E9" s="4">
-        <v>5181</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="10">
@@ -1090,16 +1099,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4212</v>
+        <v>3444</v>
       </c>
       <c r="C10" s="4">
-        <v>3725</v>
+        <v>2559</v>
       </c>
       <c r="D10" s="4">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="E10" s="4">
-        <v>5138</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="11">
@@ -1107,16 +1116,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3100</v>
+        <v>3834</v>
       </c>
       <c r="C11" s="4">
-        <v>3957</v>
+        <v>3308</v>
       </c>
       <c r="D11" s="4">
-        <v>540</v>
+        <v>436</v>
       </c>
       <c r="E11" s="4">
-        <v>5074</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="12">
@@ -1124,16 +1133,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2419</v>
+        <v>4174</v>
       </c>
       <c r="C12" s="4">
-        <v>4863</v>
+        <v>634</v>
       </c>
       <c r="D12" s="4">
-        <v>704</v>
+        <v>96</v>
       </c>
       <c r="E12" s="4">
-        <v>5039</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="13">
@@ -1141,16 +1150,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4514</v>
+        <v>4212</v>
       </c>
       <c r="C13" s="4">
-        <v>1435</v>
+        <v>3809</v>
       </c>
       <c r="D13" s="4">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="E13" s="4">
-        <v>5034</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="14">
@@ -1158,16 +1167,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3415</v>
+        <v>3100</v>
       </c>
       <c r="C14" s="4">
-        <v>1766</v>
+        <v>4039</v>
       </c>
       <c r="D14" s="4">
-        <v>235</v>
+        <v>575</v>
       </c>
       <c r="E14" s="4">
-        <v>5005</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="15">
@@ -1175,16 +1184,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3688</v>
+        <v>2419</v>
       </c>
       <c r="C15" s="4">
-        <v>3266</v>
+        <v>4946</v>
       </c>
       <c r="D15" s="4">
-        <v>396</v>
+        <v>748</v>
       </c>
       <c r="E15" s="4">
-        <v>4979</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="16">
@@ -1192,16 +1201,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4296</v>
+        <v>4514</v>
       </c>
       <c r="C16" s="4">
-        <v>3410</v>
+        <v>1452</v>
       </c>
       <c r="D16" s="4">
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="E16" s="4">
-        <v>4936</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="17">
@@ -1209,16 +1218,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3367</v>
+        <v>3415</v>
       </c>
       <c r="C17" s="4">
-        <v>3475</v>
+        <v>1779</v>
       </c>
       <c r="D17" s="4">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="E17" s="4">
-        <v>4898</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="18">
@@ -1226,16 +1235,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3288</v>
+        <v>3688</v>
       </c>
       <c r="C18" s="4">
-        <v>4043</v>
+        <v>3307</v>
       </c>
       <c r="D18" s="4">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="E18" s="4">
-        <v>4852</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="19">
@@ -1243,16 +1252,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>1972</v>
+        <v>4296</v>
       </c>
       <c r="C19" s="4">
-        <v>4635</v>
+        <v>3424</v>
       </c>
       <c r="D19" s="4">
-        <v>596</v>
+        <v>417</v>
       </c>
       <c r="E19" s="4">
-        <v>4814</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="20">
@@ -1260,16 +1269,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3117</v>
+        <v>3367</v>
       </c>
       <c r="C20" s="4">
-        <v>1516</v>
+        <v>3486</v>
       </c>
       <c r="D20" s="4">
-        <v>183</v>
+        <v>435</v>
       </c>
       <c r="E20" s="4">
-        <v>4806</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="21">
@@ -1277,16 +1286,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3885</v>
+        <v>3288</v>
       </c>
       <c r="C21" s="4">
-        <v>1783</v>
+        <v>4052</v>
       </c>
       <c r="D21" s="4">
-        <v>176</v>
+        <v>481</v>
       </c>
       <c r="E21" s="4">
-        <v>4756</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="22">
@@ -1294,16 +1303,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>1779</v>
+        <v>1972</v>
       </c>
       <c r="C22" s="4">
-        <v>3429</v>
+        <v>4646</v>
       </c>
       <c r="D22" s="4">
-        <v>382</v>
+        <v>609</v>
       </c>
       <c r="E22" s="4">
-        <v>4720</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="23">
@@ -1311,16 +1320,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2893</v>
+        <v>3117</v>
       </c>
       <c r="C23" s="4">
-        <v>3226</v>
+        <v>1516</v>
       </c>
       <c r="D23" s="4">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="E23" s="4">
-        <v>4706</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="24">
@@ -1328,16 +1337,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3119</v>
+        <v>3885</v>
       </c>
       <c r="C24" s="4">
-        <v>3029</v>
+        <v>1785</v>
       </c>
       <c r="D24" s="4">
-        <v>367</v>
+        <v>180</v>
       </c>
       <c r="E24" s="4">
-        <v>4698</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="25">
@@ -1345,16 +1354,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2582</v>
+        <v>1779</v>
       </c>
       <c r="C25" s="4">
-        <v>3379</v>
+        <v>3433</v>
       </c>
       <c r="D25" s="4">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="E25" s="4">
-        <v>4660</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="26">
@@ -1362,16 +1371,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1521</v>
+        <v>2893</v>
       </c>
       <c r="C26" s="4">
-        <v>4072</v>
+        <v>3224</v>
       </c>
       <c r="D26" s="4">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E26" s="4">
-        <v>4615</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="27">
@@ -1379,16 +1388,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2094</v>
+        <v>3119</v>
       </c>
       <c r="C27" s="4">
-        <v>1376</v>
+        <v>3030</v>
       </c>
       <c r="D27" s="4">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="E27" s="4">
-        <v>4607</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="28">
@@ -1396,16 +1405,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2676</v>
+        <v>2582</v>
       </c>
       <c r="C28" s="4">
-        <v>1490</v>
+        <v>3385</v>
       </c>
       <c r="D28" s="4">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="E28" s="4">
-        <v>4605</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="29">
@@ -1413,16 +1422,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2908</v>
+        <v>1521</v>
       </c>
       <c r="C29" s="4">
-        <v>2412</v>
+        <v>4075</v>
       </c>
       <c r="D29" s="4">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="E29" s="4">
-        <v>4582</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="30">
@@ -1430,16 +1439,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2859</v>
+        <v>2094</v>
       </c>
       <c r="C30" s="4">
-        <v>2583</v>
+        <v>1376</v>
       </c>
       <c r="D30" s="4">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="E30" s="4">
-        <v>4548</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="31">
@@ -1447,16 +1456,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2425</v>
+        <v>2676</v>
       </c>
       <c r="C31" s="4">
-        <v>2611</v>
+        <v>1490</v>
       </c>
       <c r="D31" s="4">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="E31" s="4">
-        <v>4507</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="32">
@@ -1464,16 +1473,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2349</v>
+        <v>2908</v>
       </c>
       <c r="C32" s="4">
-        <v>2654</v>
+        <v>2411</v>
       </c>
       <c r="D32" s="4">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E32" s="4">
-        <v>4457</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="33">
@@ -1481,16 +1490,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>1336</v>
+        <v>2859</v>
       </c>
       <c r="C33" s="4">
-        <v>3112</v>
+        <v>2581</v>
       </c>
       <c r="D33" s="4">
-        <v>401</v>
+        <v>260</v>
       </c>
       <c r="E33" s="4">
-        <v>4390</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="34">
@@ -1498,16 +1507,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2057</v>
+        <v>2425</v>
       </c>
       <c r="C34" s="4">
-        <v>937</v>
+        <v>2610</v>
       </c>
       <c r="D34" s="4">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="E34" s="4">
-        <v>4383</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="35">
@@ -1515,16 +1524,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2805</v>
+        <v>2349</v>
       </c>
       <c r="C35" s="4">
-        <v>1063</v>
+        <v>2651</v>
       </c>
       <c r="D35" s="4">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="E35" s="4">
-        <v>4378</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="36">
@@ -1532,16 +1541,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2809</v>
+        <v>1336</v>
       </c>
       <c r="C36" s="4">
-        <v>2252</v>
+        <v>3108</v>
       </c>
       <c r="D36" s="4">
-        <v>210</v>
+        <v>402</v>
       </c>
       <c r="E36" s="4">
-        <v>4332</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="37">
@@ -1549,16 +1558,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2885</v>
+        <v>2057</v>
       </c>
       <c r="C37" s="4">
-        <v>1982</v>
+        <v>940</v>
       </c>
       <c r="D37" s="4">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4">
-        <v>4283</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="38">
@@ -1566,16 +1575,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2253</v>
+        <v>2805</v>
       </c>
       <c r="C38" s="4">
-        <v>2438</v>
+        <v>1063</v>
       </c>
       <c r="D38" s="4">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4">
-        <v>4245</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="39">
@@ -1583,16 +1592,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2141</v>
+        <v>2809</v>
       </c>
       <c r="C39" s="4">
-        <v>2422</v>
+        <v>2253</v>
       </c>
       <c r="D39" s="4">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="E39" s="4">
-        <v>4211</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="40">
@@ -1600,16 +1609,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>1643</v>
+        <v>2885</v>
       </c>
       <c r="C40" s="4">
-        <v>2988</v>
+        <v>1982</v>
       </c>
       <c r="D40" s="4">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="E40" s="4">
-        <v>4170</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="41">
@@ -1617,16 +1626,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>1807</v>
+        <v>2253</v>
       </c>
       <c r="C41" s="4">
-        <v>908</v>
+        <v>2439</v>
       </c>
       <c r="D41" s="4">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="E41" s="4">
-        <v>4157</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="42">
@@ -1634,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2584</v>
+        <v>2141</v>
       </c>
       <c r="C42" s="4">
-        <v>1070</v>
+        <v>2423</v>
       </c>
       <c r="D42" s="4">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="E42" s="4">
-        <v>4144</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="43">
@@ -1651,16 +1660,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2716</v>
+        <v>1643</v>
       </c>
       <c r="C43" s="4">
-        <v>2200</v>
+        <v>2986</v>
       </c>
       <c r="D43" s="4">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="E43" s="4">
-        <v>4114</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="44">
@@ -1668,16 +1677,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2400</v>
+        <v>1807</v>
       </c>
       <c r="C44" s="4">
-        <v>2139</v>
+        <v>908</v>
       </c>
       <c r="D44" s="4">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="E44" s="4">
-        <v>4082</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="45">
@@ -1685,16 +1694,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1842</v>
+        <v>2584</v>
       </c>
       <c r="C45" s="4">
-        <v>2455</v>
+        <v>1070</v>
       </c>
       <c r="D45" s="4">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="E45" s="4">
-        <v>4032</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="46">
@@ -1702,16 +1711,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1578</v>
+        <v>2716</v>
       </c>
       <c r="C46" s="4">
-        <v>2459</v>
+        <v>2203</v>
       </c>
       <c r="D46" s="4">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E46" s="4">
-        <v>3992</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="47">
@@ -1719,16 +1728,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>1144</v>
+        <v>2400</v>
       </c>
       <c r="C47" s="4">
-        <v>2798</v>
+        <v>2140</v>
       </c>
       <c r="D47" s="4">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="E47" s="4">
-        <v>3939</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="48">
@@ -1736,16 +1745,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2303</v>
+        <v>1842</v>
       </c>
       <c r="C48" s="4">
-        <v>849</v>
+        <v>2458</v>
       </c>
       <c r="D48" s="4">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="E48" s="4">
-        <v>3934</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="49">
@@ -1753,16 +1762,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2102</v>
+        <v>1578</v>
       </c>
       <c r="C49" s="4">
-        <v>951</v>
+        <v>2458</v>
       </c>
       <c r="D49" s="4">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="E49" s="4">
-        <v>3929</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="50">
@@ -1770,16 +1779,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2684</v>
+        <v>1144</v>
       </c>
       <c r="C50" s="4">
-        <v>2057</v>
+        <v>2798</v>
       </c>
       <c r="D50" s="4">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="E50" s="4">
-        <v>3910</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="51">
@@ -1787,16 +1796,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2532</v>
+        <v>2303</v>
       </c>
       <c r="C51" s="4">
-        <v>2104</v>
+        <v>849</v>
       </c>
       <c r="D51" s="4">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="E51" s="4">
-        <v>3874</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="52">
@@ -1804,16 +1813,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1926</v>
+        <v>2102</v>
       </c>
       <c r="C52" s="4">
-        <v>2130</v>
+        <v>951</v>
       </c>
       <c r="D52" s="4">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="E52" s="4">
-        <v>3856</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="53">
@@ -1821,16 +1830,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1734</v>
+        <v>2684</v>
       </c>
       <c r="C53" s="4">
-        <v>2385</v>
+        <v>2055</v>
       </c>
       <c r="D53" s="4">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E53" s="4">
-        <v>3816</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="54">
@@ -1838,16 +1847,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>1276</v>
+        <v>2532</v>
       </c>
       <c r="C54" s="4">
-        <v>2683</v>
+        <v>2106</v>
       </c>
       <c r="D54" s="4">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E54" s="4">
-        <v>3773</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="55">
@@ -1855,16 +1864,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1719</v>
+        <v>1926</v>
       </c>
       <c r="C55" s="4">
-        <v>903</v>
+        <v>2131</v>
       </c>
       <c r="D55" s="4">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="E55" s="4">
-        <v>3770</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="56">
@@ -1872,16 +1881,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2321</v>
+        <v>1734</v>
       </c>
       <c r="C56" s="4">
-        <v>940</v>
+        <v>2385</v>
       </c>
       <c r="D56" s="4">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="E56" s="4">
-        <v>3765</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="57">
@@ -1889,16 +1898,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2034</v>
+        <v>1276</v>
       </c>
       <c r="C57" s="4">
-        <v>1815</v>
+        <v>2682</v>
       </c>
       <c r="D57" s="4">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="E57" s="4">
-        <v>3747</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="58">
@@ -1906,16 +1915,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>2428</v>
+        <v>1719</v>
       </c>
       <c r="C58" s="4">
-        <v>2005</v>
+        <v>902</v>
       </c>
       <c r="D58" s="4">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="E58" s="4">
-        <v>3722</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="59">
@@ -1923,16 +1932,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1711</v>
+        <v>2321</v>
       </c>
       <c r="C59" s="4">
-        <v>1929</v>
+        <v>939</v>
       </c>
       <c r="D59" s="4">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4">
-        <v>3693</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="60">
@@ -1940,16 +1949,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1504</v>
+        <v>2034</v>
       </c>
       <c r="C60" s="4">
-        <v>2066</v>
+        <v>1814</v>
       </c>
       <c r="D60" s="4">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E60" s="4">
-        <v>3670</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="61">
@@ -1957,16 +1966,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2258</v>
+        <v>2428</v>
       </c>
       <c r="C61" s="4">
-        <v>2472</v>
+        <v>2005</v>
       </c>
       <c r="D61" s="4">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="E61" s="4">
-        <v>3637</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="62">
@@ -1974,16 +1983,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>610</v>
+        <v>1711</v>
       </c>
       <c r="C62" s="4">
-        <v>821</v>
+        <v>1927</v>
       </c>
       <c r="D62" s="4">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="E62" s="4">
-        <v>3634</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="63">
@@ -1991,16 +2000,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2202</v>
+        <v>1504</v>
       </c>
       <c r="C63" s="4">
-        <v>983</v>
+        <v>2067</v>
       </c>
       <c r="D63" s="4">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="E63" s="4">
-        <v>3629</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="64">
@@ -2008,16 +2017,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1775</v>
+        <v>2258</v>
       </c>
       <c r="C64" s="4">
-        <v>1837</v>
+        <v>2472</v>
       </c>
       <c r="D64" s="4">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="E64" s="4">
-        <v>3608</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="65">
@@ -2025,16 +2034,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>2277</v>
+        <v>610</v>
       </c>
       <c r="C65" s="4">
-        <v>1820</v>
+        <v>820</v>
       </c>
       <c r="D65" s="4">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="E65" s="4">
-        <v>3579</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="66">
@@ -2042,16 +2051,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1495</v>
+        <v>2202</v>
       </c>
       <c r="C66" s="4">
-        <v>1832</v>
+        <v>982</v>
       </c>
       <c r="D66" s="4">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="E66" s="4">
-        <v>3532</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="67">
@@ -2059,16 +2068,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>889</v>
+        <v>1775</v>
       </c>
       <c r="C67" s="4">
-        <v>1804</v>
+        <v>1837</v>
       </c>
       <c r="D67" s="4">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E67" s="4">
-        <v>3494</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="68">
@@ -2076,16 +2085,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>868</v>
+        <v>2277</v>
       </c>
       <c r="C68" s="4">
-        <v>2116</v>
+        <v>1820</v>
       </c>
       <c r="D68" s="4">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="E68" s="4">
-        <v>3445</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="69">
@@ -2093,16 +2102,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1290</v>
+        <v>1495</v>
       </c>
       <c r="C69" s="4">
-        <v>640</v>
+        <v>1834</v>
       </c>
       <c r="D69" s="4">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="E69" s="4">
-        <v>3441</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="70">
@@ -2110,16 +2119,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1759</v>
+        <v>889</v>
       </c>
       <c r="C70" s="4">
-        <v>760</v>
+        <v>1809</v>
       </c>
       <c r="D70" s="4">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="E70" s="4">
-        <v>3440</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="71">
@@ -2127,16 +2136,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1693</v>
+        <v>868</v>
       </c>
       <c r="C71" s="4">
-        <v>1225</v>
+        <v>2119</v>
       </c>
       <c r="D71" s="4">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="E71" s="4">
-        <v>3409</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="72">
@@ -2144,16 +2153,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1836</v>
+        <v>1290</v>
       </c>
       <c r="C72" s="4">
-        <v>1490</v>
+        <v>640</v>
       </c>
       <c r="D72" s="4">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E72" s="4">
-        <v>3379</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="73">
@@ -2161,16 +2170,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1101</v>
+        <v>1759</v>
       </c>
       <c r="C73" s="4">
-        <v>1466</v>
+        <v>762</v>
       </c>
       <c r="D73" s="4">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E73" s="4">
-        <v>3338</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="74">
@@ -2178,16 +2187,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1312</v>
+        <v>1693</v>
       </c>
       <c r="C74" s="4">
-        <v>1521</v>
+        <v>1227</v>
       </c>
       <c r="D74" s="4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4">
-        <v>3286</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="75">
@@ -2195,16 +2204,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>800</v>
+        <v>1836</v>
       </c>
       <c r="C75" s="4">
-        <v>1729</v>
+        <v>1490</v>
       </c>
       <c r="D75" s="4">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E75" s="4">
-        <v>3247</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="76">
@@ -2212,16 +2221,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1335</v>
+        <v>1101</v>
       </c>
       <c r="C76" s="4">
-        <v>573</v>
+        <v>1467</v>
       </c>
       <c r="D76" s="4">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="E76" s="4">
-        <v>3243</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="77">
@@ -2229,16 +2238,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1239</v>
+        <v>1312</v>
       </c>
       <c r="C77" s="4">
-        <v>664</v>
+        <v>1523</v>
       </c>
       <c r="D77" s="4">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E77" s="4">
-        <v>3235</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="78">
@@ -2246,16 +2255,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1504</v>
+        <v>800</v>
       </c>
       <c r="C78" s="4">
-        <v>1305</v>
+        <v>1727</v>
       </c>
       <c r="D78" s="4">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="E78" s="4">
-        <v>3207</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="79">
@@ -2263,16 +2272,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1632</v>
+        <v>1335</v>
       </c>
       <c r="C79" s="4">
-        <v>1275</v>
+        <v>573</v>
       </c>
       <c r="D79" s="4">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E79" s="4">
-        <v>3180</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="80">
@@ -2280,16 +2289,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C80" s="4">
-        <v>1408</v>
+        <v>665</v>
       </c>
       <c r="D80" s="4">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E80" s="4">
-        <v>3149</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="81">
@@ -2297,16 +2306,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1210</v>
+        <v>1504</v>
       </c>
       <c r="C81" s="4">
-        <v>1496</v>
+        <v>1306</v>
       </c>
       <c r="D81" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E81" s="4">
-        <v>3111</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="82">
@@ -2314,16 +2323,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>948</v>
+        <v>1632</v>
       </c>
       <c r="C82" s="4">
-        <v>1725</v>
+        <v>1281</v>
       </c>
       <c r="D82" s="4">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E82" s="4">
-        <v>3060</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="83">
@@ -2331,16 +2340,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="C83" s="4">
-        <v>605</v>
+        <v>1410</v>
       </c>
       <c r="D83" s="4">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E83" s="4">
-        <v>3052</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="84">
@@ -2348,16 +2357,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1478</v>
+        <v>1210</v>
       </c>
       <c r="C84" s="4">
-        <v>668</v>
+        <v>1496</v>
       </c>
       <c r="D84" s="4">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="E84" s="4">
-        <v>3047</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="85">
@@ -2365,16 +2374,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1610</v>
+        <v>948</v>
       </c>
       <c r="C85" s="4">
-        <v>1267</v>
+        <v>1726</v>
       </c>
       <c r="D85" s="4">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E85" s="4">
-        <v>3023</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="86">
@@ -2382,16 +2391,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1307</v>
+        <v>1220</v>
       </c>
       <c r="C86" s="4">
-        <v>1411</v>
+        <v>605</v>
       </c>
       <c r="D86" s="4">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E86" s="4">
-        <v>2990</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="87">
@@ -2399,16 +2408,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>969</v>
+        <v>1478</v>
       </c>
       <c r="C87" s="4">
-        <v>1529</v>
+        <v>668</v>
       </c>
       <c r="D87" s="4">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E87" s="4">
-        <v>2958</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="88">
@@ -2416,16 +2425,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>833</v>
+        <v>1610</v>
       </c>
       <c r="C88" s="4">
-        <v>1889</v>
+        <v>1267</v>
       </c>
       <c r="D88" s="4">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E88" s="4">
-        <v>2909</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="89">
@@ -2433,16 +2442,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1039</v>
+        <v>1307</v>
       </c>
       <c r="C89" s="4">
-        <v>720</v>
+        <v>1411</v>
       </c>
       <c r="D89" s="4">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E89" s="4">
-        <v>2897</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="90">
@@ -2450,16 +2459,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1099</v>
+        <v>969</v>
       </c>
       <c r="C90" s="4">
-        <v>612</v>
+        <v>1529</v>
       </c>
       <c r="D90" s="4">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E90" s="4">
-        <v>2890</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="91">
@@ -2467,16 +2476,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1586</v>
+        <v>833</v>
       </c>
       <c r="C91" s="4">
-        <v>652</v>
+        <v>1888</v>
       </c>
       <c r="D91" s="4">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E91" s="4">
-        <v>2889</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="92">
@@ -2484,16 +2493,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>2121</v>
+        <v>1039</v>
       </c>
       <c r="C92" s="4">
-        <v>1259</v>
+        <v>720</v>
       </c>
       <c r="D92" s="4">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E92" s="4">
-        <v>2839</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="93">
@@ -2501,16 +2510,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1716</v>
+        <v>1099</v>
       </c>
       <c r="C93" s="4">
-        <v>1534</v>
+        <v>612</v>
       </c>
       <c r="D93" s="4">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E93" s="4">
-        <v>2803</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="94">
@@ -2518,16 +2527,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1216</v>
+        <v>1586</v>
       </c>
       <c r="C94" s="4">
-        <v>1736</v>
+        <v>652</v>
       </c>
       <c r="D94" s="4">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E94" s="4">
-        <v>2779</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="95">
@@ -2535,16 +2544,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>2209</v>
+        <v>2121</v>
       </c>
       <c r="C95" s="4">
-        <v>1634</v>
+        <v>1259</v>
       </c>
       <c r="D95" s="4">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="E95" s="4">
-        <v>2741</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="96">
@@ -2552,16 +2561,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1287</v>
+        <v>1716</v>
       </c>
       <c r="C96" s="4">
-        <v>1813</v>
+        <v>1535</v>
       </c>
       <c r="D96" s="4">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E96" s="4">
-        <v>2702</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="97">
@@ -2569,16 +2578,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1952</v>
+        <v>1216</v>
       </c>
       <c r="C97" s="4">
-        <v>638</v>
+        <v>1736</v>
       </c>
       <c r="D97" s="4">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E97" s="4">
-        <v>2692</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="98">
@@ -2586,16 +2595,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1723</v>
+        <v>2209</v>
       </c>
       <c r="C98" s="4">
-        <v>840</v>
+        <v>1634</v>
       </c>
       <c r="D98" s="4">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="E98" s="4">
-        <v>2683</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="99">
@@ -2603,16 +2612,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1479</v>
+        <v>1287</v>
       </c>
       <c r="C99" s="4">
-        <v>1550</v>
+        <v>1812</v>
       </c>
       <c r="D99" s="4">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E99" s="4">
-        <v>2652</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="100">
@@ -2620,16 +2629,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>2177</v>
+        <v>1952</v>
       </c>
       <c r="C100" s="4">
-        <v>1700</v>
+        <v>638</v>
       </c>
       <c r="D100" s="4">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E100" s="4">
-        <v>2630</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="101">
@@ -2637,16 +2646,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1342</v>
+        <v>1723</v>
       </c>
       <c r="C101" s="4">
-        <v>1756</v>
+        <v>840</v>
       </c>
       <c r="D101" s="4">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E101" s="4">
-        <v>2606</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="102">
@@ -2654,16 +2663,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1446</v>
+        <v>1479</v>
       </c>
       <c r="C102" s="4">
-        <v>2031</v>
+        <v>1550</v>
       </c>
       <c r="D102" s="4">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E102" s="4">
-        <v>2570</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="103">
@@ -2671,16 +2680,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1389</v>
+        <v>2177</v>
       </c>
       <c r="C103" s="4">
-        <v>2192</v>
+        <v>1700</v>
       </c>
       <c r="D103" s="4">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E103" s="4">
-        <v>2535</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="104">
@@ -2688,16 +2697,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1490</v>
+        <v>1342</v>
       </c>
       <c r="C104" s="4">
-        <v>784</v>
+        <v>1756</v>
       </c>
       <c r="D104" s="4">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E104" s="4">
-        <v>2531</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="105">
@@ -2705,16 +2714,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1781</v>
+        <v>1446</v>
       </c>
       <c r="C105" s="4">
-        <v>852</v>
+        <v>2033</v>
       </c>
       <c r="D105" s="4">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E105" s="4">
-        <v>2521</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="106">
@@ -2722,16 +2731,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>2075</v>
+        <v>1389</v>
       </c>
       <c r="C106" s="4">
-        <v>1766</v>
+        <v>2193</v>
       </c>
       <c r="D106" s="4">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E106" s="4">
-        <v>2494</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="107">
@@ -2739,16 +2748,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>2050</v>
+        <v>1490</v>
       </c>
       <c r="C107" s="4">
-        <v>1728</v>
+        <v>784</v>
       </c>
       <c r="D107" s="4">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E107" s="4">
-        <v>2465</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="108">
@@ -2756,16 +2765,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1218</v>
+        <v>1781</v>
       </c>
       <c r="C108" s="4">
-        <v>1731</v>
+        <v>852</v>
       </c>
       <c r="D108" s="4">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E108" s="4">
-        <v>2431</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="109">
@@ -2773,16 +2782,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1336</v>
+        <v>2075</v>
       </c>
       <c r="C109" s="4">
-        <v>1978</v>
+        <v>1766</v>
       </c>
       <c r="D109" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E109" s="4">
-        <v>2396</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="110">
@@ -2790,16 +2799,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>431</v>
+        <v>2050</v>
       </c>
       <c r="C110" s="4">
-        <v>2000</v>
+        <v>1728</v>
       </c>
       <c r="D110" s="4">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E110" s="4">
-        <v>2348</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="111">
@@ -2807,16 +2816,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1400</v>
+        <v>1218</v>
       </c>
       <c r="C111" s="4">
-        <v>629</v>
+        <v>1731</v>
       </c>
       <c r="D111" s="4">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E111" s="4">
-        <v>2347</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="112">
@@ -2824,16 +2833,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1662</v>
+        <v>1336</v>
       </c>
       <c r="C112" s="4">
-        <v>763</v>
+        <v>1978</v>
       </c>
       <c r="D112" s="4">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E112" s="4">
-        <v>2343</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="113">
@@ -2841,16 +2850,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1210</v>
+        <v>431</v>
       </c>
       <c r="C113" s="4">
-        <v>1555</v>
+        <v>2000</v>
       </c>
       <c r="D113" s="4">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E113" s="4">
-        <v>2313</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="114">
@@ -2858,16 +2867,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1978</v>
+        <v>1400</v>
       </c>
       <c r="C114" s="4">
-        <v>1487</v>
+        <v>629</v>
       </c>
       <c r="D114" s="4">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E114" s="4">
-        <v>2287</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="115">
@@ -2875,16 +2884,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1308</v>
+        <v>1662</v>
       </c>
       <c r="C115" s="4">
-        <v>1511</v>
+        <v>763</v>
       </c>
       <c r="D115" s="4">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E115" s="4">
-        <v>2249</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="116">
@@ -2892,16 +2901,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="C116" s="4">
-        <v>1484</v>
+        <v>1554</v>
       </c>
       <c r="D116" s="4">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E116" s="4">
-        <v>2204</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="117">
@@ -2909,16 +2918,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>512</v>
+        <v>1978</v>
       </c>
       <c r="C117" s="4">
-        <v>1735</v>
+        <v>1487</v>
       </c>
       <c r="D117" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E117" s="4">
-        <v>2172</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="118">
@@ -2926,16 +2935,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1626</v>
+        <v>1308</v>
       </c>
       <c r="C118" s="4">
-        <v>581</v>
+        <v>1511</v>
       </c>
       <c r="D118" s="4">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E118" s="4">
-        <v>2168</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="119">
@@ -2943,16 +2952,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1987</v>
+        <v>1131</v>
       </c>
       <c r="C119" s="4">
-        <v>719</v>
+        <v>1484</v>
       </c>
       <c r="D119" s="4">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E119" s="4">
-        <v>2160</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="120">
@@ -2960,16 +2969,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1582</v>
+        <v>512</v>
       </c>
       <c r="C120" s="4">
-        <v>1410</v>
+        <v>1735</v>
       </c>
       <c r="D120" s="4">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E120" s="4">
-        <v>2134</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="121">
@@ -2977,16 +2986,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>2049</v>
+        <v>1626</v>
       </c>
       <c r="C121" s="4">
-        <v>1481</v>
+        <v>581</v>
       </c>
       <c r="D121" s="4">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E121" s="4">
-        <v>2092</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="122">
@@ -2994,16 +3003,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1185</v>
+        <v>1987</v>
       </c>
       <c r="C122" s="4">
-        <v>1737</v>
+        <v>719</v>
       </c>
       <c r="D122" s="4">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E122" s="4">
-        <v>2050</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="123">
@@ -3011,16 +3020,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1694</v>
+        <v>1582</v>
       </c>
       <c r="C123" s="4">
-        <v>1546</v>
+        <v>1410</v>
       </c>
       <c r="D123" s="4">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E123" s="4">
-        <v>2010</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="124">
@@ -3028,16 +3037,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1388</v>
+        <v>2049</v>
       </c>
       <c r="C124" s="4">
-        <v>1911</v>
+        <v>1481</v>
       </c>
       <c r="D124" s="4">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E124" s="4">
-        <v>1982</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="125">
@@ -3045,16 +3054,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1362</v>
+        <v>1185</v>
       </c>
       <c r="C125" s="4">
-        <v>710</v>
+        <v>1738</v>
       </c>
       <c r="D125" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E125" s="4">
-        <v>1969</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="126">
@@ -3062,16 +3071,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1753</v>
+        <v>1694</v>
       </c>
       <c r="C126" s="4">
-        <v>774</v>
+        <v>1546</v>
       </c>
       <c r="D126" s="4">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E126" s="4">
-        <v>1964</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="127">
@@ -3079,16 +3088,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>2018</v>
+        <v>1388</v>
       </c>
       <c r="C127" s="4">
-        <v>1722</v>
+        <v>1911</v>
       </c>
       <c r="D127" s="4">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E127" s="4">
-        <v>1924</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="128">
@@ -3096,16 +3105,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>2411</v>
+        <v>1362</v>
       </c>
       <c r="C128" s="4">
-        <v>1801</v>
+        <v>710</v>
       </c>
       <c r="D128" s="4">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E128" s="4">
-        <v>1903</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="129">
@@ -3113,16 +3122,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1826</v>
+        <v>1753</v>
       </c>
       <c r="C129" s="4">
-        <v>1841</v>
+        <v>774</v>
       </c>
       <c r="D129" s="4">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E129" s="4">
-        <v>1865</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="130">
@@ -3130,16 +3139,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1805</v>
+        <v>2018</v>
       </c>
       <c r="C130" s="4">
-        <v>2021</v>
+        <v>1723</v>
       </c>
       <c r="D130" s="4">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E130" s="4">
-        <v>1820</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="131">
@@ -3147,16 +3156,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1685</v>
+        <v>2411</v>
       </c>
       <c r="C131" s="4">
-        <v>2131</v>
+        <v>1803</v>
       </c>
       <c r="D131" s="4">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E131" s="4">
-        <v>1790</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="132">
@@ -3164,16 +3173,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1645</v>
+        <v>1826</v>
       </c>
       <c r="C132" s="4">
-        <v>710</v>
+        <v>1841</v>
       </c>
       <c r="D132" s="4">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E132" s="4">
-        <v>1785</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="133">
@@ -3181,16 +3190,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2114</v>
+        <v>1805</v>
       </c>
       <c r="C133" s="4">
-        <v>874</v>
+        <v>2022</v>
       </c>
       <c r="D133" s="4">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E133" s="4">
-        <v>1778</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="134">
@@ -3198,16 +3207,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2145</v>
+        <v>1685</v>
       </c>
       <c r="C134" s="4">
-        <v>1961</v>
+        <v>2131</v>
       </c>
       <c r="D134" s="4">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E134" s="4">
-        <v>1746</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="135">
@@ -3215,16 +3224,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1945</v>
+        <v>1645</v>
       </c>
       <c r="C135" s="4">
-        <v>1838</v>
+        <v>710</v>
       </c>
       <c r="D135" s="4">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E135" s="4">
-        <v>1726</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="136">
@@ -3232,16 +3241,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>2191</v>
+        <v>2114</v>
       </c>
       <c r="C136" s="4">
-        <v>2021</v>
+        <v>874</v>
       </c>
       <c r="D136" s="4">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E136" s="4">
-        <v>1698</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="137">
@@ -3249,16 +3258,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1863</v>
+        <v>2145</v>
       </c>
       <c r="C137" s="4">
-        <v>2281</v>
+        <v>1961</v>
       </c>
       <c r="D137" s="4">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E137" s="4">
-        <v>1668</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="138">
@@ -3266,16 +3275,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1291</v>
+        <v>1945</v>
       </c>
       <c r="C138" s="4">
-        <v>2330</v>
+        <v>1838</v>
       </c>
       <c r="D138" s="4">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E138" s="4">
-        <v>1642</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="139">
@@ -3283,16 +3292,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1820</v>
+        <v>2191</v>
       </c>
       <c r="C139" s="4">
-        <v>819</v>
+        <v>2021</v>
       </c>
       <c r="D139" s="4">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E139" s="4">
-        <v>1634</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="140">
@@ -3300,16 +3309,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2486</v>
+        <v>1863</v>
       </c>
       <c r="C140" s="4">
-        <v>967</v>
+        <v>2282</v>
       </c>
       <c r="D140" s="4">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E140" s="4">
-        <v>1629</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="141">
@@ -3317,16 +3326,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2082</v>
+        <v>1291</v>
       </c>
       <c r="C141" s="4">
-        <v>1943</v>
+        <v>2330</v>
       </c>
       <c r="D141" s="4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E141" s="4">
-        <v>1606</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="142">
@@ -3334,16 +3343,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>2191</v>
+        <v>1820</v>
       </c>
       <c r="C142" s="4">
-        <v>2087</v>
+        <v>819</v>
       </c>
       <c r="D142" s="4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E142" s="4">
-        <v>1588</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="143">
@@ -3351,16 +3360,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1816</v>
+        <v>2486</v>
       </c>
       <c r="C143" s="4">
-        <v>2240</v>
+        <v>967</v>
       </c>
       <c r="D143" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E143" s="4">
-        <v>1568</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="144">
@@ -3368,16 +3377,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1991</v>
+        <v>2082</v>
       </c>
       <c r="C144" s="4">
-        <v>2457</v>
+        <v>1943</v>
       </c>
       <c r="D144" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E144" s="4">
-        <v>1552</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="145">
@@ -3385,16 +3394,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1846</v>
+        <v>2191</v>
       </c>
       <c r="C145" s="4">
-        <v>2485</v>
+        <v>2087</v>
       </c>
       <c r="D145" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E145" s="4">
-        <v>1510</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="146">
@@ -3402,16 +3411,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1909</v>
+        <v>1816</v>
       </c>
       <c r="C146" s="4">
-        <v>862</v>
+        <v>2240</v>
       </c>
       <c r="D146" s="4">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E146" s="4">
-        <v>1503</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="147">
@@ -3419,16 +3428,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2467</v>
+        <v>1991</v>
       </c>
       <c r="C147" s="4">
-        <v>994</v>
+        <v>2458</v>
       </c>
       <c r="D147" s="4">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E147" s="4">
-        <v>1499</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="148">
@@ -3436,16 +3445,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>2007</v>
+        <v>1846</v>
       </c>
       <c r="C148" s="4">
-        <v>2142</v>
+        <v>2486</v>
       </c>
       <c r="D148" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E148" s="4">
-        <v>1479</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="149">
@@ -3453,16 +3462,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>2059</v>
+        <v>1909</v>
       </c>
       <c r="C149" s="4">
-        <v>2163</v>
+        <v>862</v>
       </c>
       <c r="D149" s="4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E149" s="4">
-        <v>1461</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="150">
@@ -3470,16 +3479,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1449</v>
+        <v>2467</v>
       </c>
       <c r="C150" s="4">
-        <v>2567</v>
+        <v>994</v>
       </c>
       <c r="D150" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E150" s="4">
-        <v>1441</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="151">
@@ -3487,16 +3496,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1367</v>
+        <v>2007</v>
       </c>
       <c r="C151" s="4">
-        <v>2814</v>
+        <v>2142</v>
       </c>
       <c r="D151" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E151" s="4">
-        <v>1420</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="152">
@@ -3504,16 +3513,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1563</v>
+        <v>2059</v>
       </c>
       <c r="C152" s="4">
-        <v>2539</v>
+        <v>2163</v>
       </c>
       <c r="D152" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E152" s="4">
-        <v>1398</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="153">
@@ -3521,16 +3530,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1330</v>
+        <v>1449</v>
       </c>
       <c r="C153" s="4">
-        <v>767</v>
+        <v>2567</v>
       </c>
       <c r="D153" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E153" s="4">
-        <v>1396</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="154">
@@ -3538,16 +3547,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1419</v>
+        <v>1367</v>
       </c>
       <c r="C154" s="4">
-        <v>587</v>
+        <v>2814</v>
       </c>
       <c r="D154" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E154" s="4">
-        <v>1395</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="155">
@@ -3555,16 +3564,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>2102</v>
+        <v>1563</v>
       </c>
       <c r="C155" s="4">
-        <v>1362</v>
+        <v>2539</v>
       </c>
       <c r="D155" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E155" s="4">
-        <v>1392</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="156">
@@ -3572,16 +3581,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1639</v>
+        <v>1330</v>
       </c>
       <c r="C156" s="4">
-        <v>2035</v>
+        <v>767</v>
       </c>
       <c r="D156" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E156" s="4">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="157">
@@ -3589,16 +3598,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1862</v>
+        <v>1419</v>
       </c>
       <c r="C157" s="4">
-        <v>2074</v>
+        <v>587</v>
       </c>
       <c r="D157" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E157" s="4">
-        <v>1373</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="158">
@@ -3606,16 +3615,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1196</v>
+        <v>2102</v>
       </c>
       <c r="C158" s="4">
-        <v>2330</v>
+        <v>1362</v>
       </c>
       <c r="D158" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E158" s="4">
-        <v>1343</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="159">
@@ -3623,16 +3632,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1349</v>
+        <v>1639</v>
       </c>
       <c r="C159" s="4">
-        <v>2538</v>
+        <v>2035</v>
       </c>
       <c r="D159" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E159" s="4">
-        <v>1325</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="160">
@@ -3640,16 +3649,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1605</v>
+        <v>1862</v>
       </c>
       <c r="C160" s="4">
-        <v>1049</v>
+        <v>2075</v>
       </c>
       <c r="D160" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E160" s="4">
-        <v>1322</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="161">
@@ -3657,16 +3666,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1720</v>
+        <v>1196</v>
       </c>
       <c r="C161" s="4">
-        <v>939</v>
+        <v>2329</v>
       </c>
       <c r="D161" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E161" s="4">
-        <v>1318</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="162">
@@ -3674,16 +3683,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1649</v>
+        <v>1349</v>
       </c>
       <c r="C162" s="4">
-        <v>1972</v>
+        <v>2539</v>
       </c>
       <c r="D162" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E162" s="4">
-        <v>1303</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="163">
@@ -3691,16 +3700,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1024</v>
+        <v>1605</v>
       </c>
       <c r="C163" s="4">
-        <v>1968</v>
+        <v>1049</v>
       </c>
       <c r="D163" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E163" s="4">
-        <v>1290</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="164">
@@ -3708,16 +3717,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C164" s="4">
-        <v>1906</v>
+        <v>939</v>
       </c>
       <c r="D164" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>1271</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="165">
@@ -3725,16 +3734,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>854</v>
+        <v>1649</v>
       </c>
       <c r="C165" s="4">
-        <v>2092</v>
+        <v>1972</v>
       </c>
       <c r="D165" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E165" s="4">
-        <v>1251</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="166">
@@ -3742,16 +3751,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>805</v>
+        <v>1024</v>
       </c>
       <c r="C166" s="4">
-        <v>2043</v>
+        <v>1968</v>
       </c>
       <c r="D166" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E166" s="4">
-        <v>1223</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="167">
@@ -3759,16 +3768,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1412</v>
+        <v>1724</v>
       </c>
       <c r="C167" s="4">
-        <v>701</v>
+        <v>1906</v>
       </c>
       <c r="D167" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E167" s="4">
-        <v>1220</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="168">
@@ -3776,16 +3785,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1549</v>
+        <v>854</v>
       </c>
       <c r="C168" s="4">
-        <v>768</v>
+        <v>2092</v>
       </c>
       <c r="D168" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E168" s="4">
-        <v>1212</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="169">
@@ -3793,16 +3802,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1655</v>
+        <v>805</v>
       </c>
       <c r="C169" s="4">
-        <v>1629</v>
+        <v>2043</v>
       </c>
       <c r="D169" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" s="4">
-        <v>1197</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="170">
@@ -3810,16 +3819,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1335</v>
+        <v>1412</v>
       </c>
       <c r="C170" s="4">
-        <v>1788</v>
+        <v>701</v>
       </c>
       <c r="D170" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>1175</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="171">
@@ -3827,16 +3836,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1002</v>
+        <v>1549</v>
       </c>
       <c r="C171" s="4">
-        <v>1721</v>
+        <v>768</v>
       </c>
       <c r="D171" s="4">
         <v>1</v>
       </c>
       <c r="E171" s="4">
-        <v>1168</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="172">
@@ -3844,16 +3853,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>751</v>
+        <v>1655</v>
       </c>
       <c r="C172" s="4">
-        <v>1598</v>
+        <v>1629</v>
       </c>
       <c r="D172" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E172" s="4">
-        <v>1154</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="173">
@@ -3861,16 +3870,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>983</v>
+        <v>1335</v>
       </c>
       <c r="C173" s="4">
-        <v>1697</v>
+        <v>1788</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E173" s="4">
-        <v>1118</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="174">
@@ -3878,16 +3887,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1444</v>
+        <v>1002</v>
       </c>
       <c r="C174" s="4">
-        <v>552</v>
+        <v>1721</v>
       </c>
       <c r="D174" s="4">
         <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>1109</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="175">
@@ -3895,16 +3904,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1429</v>
+        <v>751</v>
       </c>
       <c r="C175" s="4">
-        <v>687</v>
+        <v>1598</v>
       </c>
       <c r="D175" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>1104</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="176">
@@ -3912,16 +3921,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1768</v>
+        <v>983</v>
       </c>
       <c r="C176" s="4">
-        <v>1449</v>
+        <v>1697</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>1092</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="177">
@@ -3929,16 +3938,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1310</v>
+        <v>1444</v>
       </c>
       <c r="C177" s="4">
-        <v>1438</v>
+        <v>552</v>
       </c>
       <c r="D177" s="4">
         <v>1</v>
       </c>
       <c r="E177" s="4">
-        <v>1064</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="178">
@@ -3946,16 +3955,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1011</v>
+        <v>1429</v>
       </c>
       <c r="C178" s="4">
-        <v>1459</v>
+        <v>687</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" s="4">
-        <v>1053</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="179">
@@ -3963,16 +3972,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>676</v>
+        <v>1768</v>
       </c>
       <c r="C179" s="4">
-        <v>1558</v>
+        <v>1449</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>1029</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="180">
@@ -3980,16 +3989,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>938</v>
+        <v>1310</v>
       </c>
       <c r="C180" s="4">
-        <v>1662</v>
+        <v>1438</v>
       </c>
       <c r="D180" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="4">
-        <v>1006</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="181">
@@ -3997,16 +4006,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>921</v>
+        <v>1011</v>
       </c>
       <c r="C181" s="4">
-        <v>435</v>
+        <v>1459</v>
       </c>
       <c r="D181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>996</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="182">
@@ -4014,16 +4023,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1370</v>
+        <v>676</v>
       </c>
       <c r="C182" s="4">
-        <v>487</v>
+        <v>1558</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>992</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="183">
@@ -4031,16 +4040,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1289</v>
+        <v>938</v>
       </c>
       <c r="C183" s="4">
-        <v>1323</v>
+        <v>1662</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>966</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="184">
@@ -4048,16 +4057,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>1190</v>
+        <v>921</v>
       </c>
       <c r="C184" s="4">
-        <v>1347</v>
+        <v>435</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>960</v>
+        <v>996</v>
       </c>
     </row>
     <row r="185">
@@ -4065,16 +4074,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>888</v>
+        <v>1370</v>
       </c>
       <c r="C185" s="4">
-        <v>1443</v>
+        <v>487</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>939</v>
+        <v>992</v>
       </c>
     </row>
     <row r="186">
@@ -4082,16 +4091,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>626</v>
+        <v>1289</v>
       </c>
       <c r="C186" s="4">
-        <v>1272</v>
+        <v>1323</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>921</v>
+        <v>966</v>
       </c>
     </row>
     <row r="187">
@@ -4099,16 +4108,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>674</v>
+        <v>1190</v>
       </c>
       <c r="C187" s="4">
-        <v>1513</v>
+        <v>1347</v>
       </c>
       <c r="D187" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" s="4">
-        <v>898</v>
+        <v>960</v>
       </c>
     </row>
     <row r="188">
@@ -4116,16 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="C188" s="4">
-        <v>333</v>
+        <v>1443</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>886</v>
+        <v>939</v>
       </c>
     </row>
     <row r="189">
@@ -4133,16 +4142,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1185</v>
+        <v>626</v>
       </c>
       <c r="C189" s="4">
-        <v>449</v>
+        <v>1272</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>877</v>
+        <v>921</v>
       </c>
     </row>
     <row r="190">
@@ -4150,16 +4159,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>1076</v>
+        <v>674</v>
       </c>
       <c r="C190" s="4">
-        <v>1117</v>
+        <v>1513</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>859</v>
+        <v>898</v>
       </c>
     </row>
     <row r="191">
@@ -4167,16 +4176,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>784</v>
+        <v>916</v>
       </c>
       <c r="C191" s="4">
-        <v>1024</v>
+        <v>333</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>827</v>
+        <v>886</v>
       </c>
     </row>
     <row r="192">
@@ -4184,16 +4193,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>488</v>
+        <v>1185</v>
       </c>
       <c r="C192" s="4">
-        <v>1003</v>
+        <v>449</v>
       </c>
       <c r="D192" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>794</v>
+        <v>877</v>
       </c>
     </row>
     <row r="193">
@@ -4201,16 +4210,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>176</v>
+        <v>1076</v>
       </c>
       <c r="C193" s="4">
-        <v>1368</v>
+        <v>1117</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>766</v>
+        <v>859</v>
       </c>
     </row>
     <row r="194">
@@ -4218,16 +4227,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="C194" s="4">
-        <v>370</v>
+        <v>1024</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>754</v>
+        <v>827</v>
       </c>
     </row>
     <row r="195">
@@ -4235,16 +4244,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C195" s="4">
-        <v>262</v>
+        <v>1003</v>
       </c>
       <c r="D195" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="4">
-        <v>744</v>
+        <v>794</v>
       </c>
     </row>
     <row r="196">
@@ -4252,16 +4261,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>1107</v>
+        <v>176</v>
       </c>
       <c r="C196" s="4">
-        <v>340</v>
+        <v>1368</v>
       </c>
       <c r="D196" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E196" s="4">
-        <v>737</v>
+        <v>766</v>
       </c>
     </row>
     <row r="197">
@@ -4269,16 +4278,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C197" s="4">
-        <v>747</v>
+        <v>370</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>728</v>
+        <v>754</v>
       </c>
     </row>
     <row r="198">
@@ -4286,16 +4295,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>738</v>
+        <v>497</v>
       </c>
       <c r="C198" s="4">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="199">
@@ -4303,16 +4312,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>423</v>
+        <v>1107</v>
       </c>
       <c r="C199" s="4">
-        <v>839</v>
+        <v>340</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>702</v>
+        <v>737</v>
       </c>
     </row>
     <row r="200">
@@ -4320,16 +4329,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="C200" s="4">
-        <v>963</v>
+        <v>747</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>691</v>
+        <v>728</v>
       </c>
     </row>
     <row r="201">
@@ -4337,16 +4346,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="C201" s="4">
-        <v>1058</v>
+        <v>867</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>661</v>
+        <v>716</v>
       </c>
     </row>
     <row r="202">
@@ -4354,16 +4363,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="C202" s="4">
-        <v>195</v>
+        <v>839</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>659</v>
+        <v>702</v>
       </c>
     </row>
     <row r="203">
@@ -4371,16 +4380,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>853</v>
+        <v>677</v>
       </c>
       <c r="C203" s="4">
-        <v>288</v>
+        <v>963</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>652</v>
+        <v>691</v>
       </c>
     </row>
     <row r="204">
@@ -4388,16 +4397,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="C204" s="4">
-        <v>706</v>
+        <v>1058</v>
       </c>
       <c r="D204" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="205">
@@ -4405,16 +4414,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>691</v>
+        <v>530</v>
       </c>
       <c r="C205" s="4">
-        <v>756</v>
+        <v>195</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>615</v>
+        <v>659</v>
       </c>
     </row>
     <row r="206">
@@ -4422,16 +4431,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>470</v>
+        <v>853</v>
       </c>
       <c r="C206" s="4">
-        <v>713</v>
+        <v>288</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>597</v>
+        <v>652</v>
       </c>
     </row>
     <row r="207">
@@ -4439,16 +4448,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>301</v>
+        <v>622</v>
       </c>
       <c r="C207" s="4">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D207" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" s="4">
-        <v>577</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208">
@@ -4456,16 +4465,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>281</v>
+        <v>691</v>
       </c>
       <c r="C208" s="4">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="209">
@@ -4473,16 +4482,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C209" s="4">
-        <v>117</v>
+        <v>713</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>547</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210">
@@ -4490,16 +4499,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>492</v>
+        <v>301</v>
       </c>
       <c r="C210" s="4">
-        <v>213</v>
+        <v>681</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="211">
@@ -4507,16 +4516,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="C211" s="4">
-        <v>538</v>
+        <v>769</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212">
@@ -4524,16 +4533,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>639</v>
+        <v>404</v>
       </c>
       <c r="C212" s="4">
-        <v>605</v>
+        <v>117</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>507</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213">
@@ -4541,16 +4550,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C213" s="4">
-        <v>677</v>
+        <v>213</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214">
@@ -4558,16 +4567,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="C214" s="4">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>452</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215">
@@ -4575,16 +4584,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>184</v>
+        <v>639</v>
       </c>
       <c r="C215" s="4">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>430</v>
+        <v>507</v>
       </c>
     </row>
     <row r="216">
@@ -4592,16 +4601,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>155</v>
+        <v>502</v>
       </c>
       <c r="C216" s="4">
-        <v>172</v>
+        <v>677</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217">
@@ -4609,16 +4618,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>586</v>
+        <v>408</v>
       </c>
       <c r="C217" s="4">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218">
@@ -4626,16 +4635,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>414</v>
+        <v>184</v>
       </c>
       <c r="C218" s="4">
-        <v>450</v>
+        <v>688</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>399</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219">
@@ -4643,16 +4652,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>561</v>
+        <v>155</v>
       </c>
       <c r="C219" s="4">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220">
@@ -4660,16 +4669,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="C220" s="4">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>354</v>
+        <v>420</v>
       </c>
     </row>
     <row r="221">
@@ -4677,16 +4686,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C221" s="4">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>342</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -4694,16 +4703,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>312</v>
+        <v>561</v>
       </c>
       <c r="C222" s="4">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>306</v>
+        <v>378</v>
       </c>
     </row>
     <row r="223">
@@ -4711,16 +4720,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="C223" s="4">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224">
@@ -4728,16 +4737,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>571</v>
+        <v>426</v>
       </c>
       <c r="C224" s="4">
-        <v>254</v>
+        <v>435</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>289</v>
+        <v>342</v>
       </c>
     </row>
     <row r="225">
@@ -4745,16 +4754,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="C225" s="4">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226">
@@ -4762,16 +4771,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="C226" s="4">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>253</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227">
@@ -4779,16 +4788,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>269</v>
+        <v>571</v>
       </c>
       <c r="C227" s="4">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>242</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228">
@@ -4796,16 +4805,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="C228" s="4">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>213</v>
+        <v>269</v>
       </c>
     </row>
     <row r="229">
@@ -4813,16 +4822,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="C229" s="4">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>179</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230">
@@ -4830,16 +4839,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="C230" s="4">
-        <v>120</v>
+        <v>439</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>172</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231">
@@ -4847,16 +4856,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C231" s="4">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="232">
@@ -4864,16 +4873,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="C232" s="4">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
@@ -4881,16 +4890,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C233" s="4">
-        <v>541</v>
+        <v>120</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234">
@@ -4898,16 +4907,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="C234" s="4">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>117</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235">
@@ -4915,16 +4924,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="C235" s="4">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236">
@@ -4932,16 +4941,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C236" s="4">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="237">
@@ -4949,16 +4958,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C237" s="4">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238">
@@ -4966,16 +4975,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C238" s="4">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="239">
@@ -4983,16 +4992,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C239" s="4">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="240">
@@ -5000,16 +5009,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C240" s="4">
-        <v>327</v>
+        <v>112</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241">
@@ -5017,16 +5026,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="C241" s="4">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242">
@@ -5034,16 +5043,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C242" s="4">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243">
@@ -5051,16 +5060,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="C243" s="4">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244">
@@ -5068,16 +5077,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C244" s="4">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245">
@@ -5085,16 +5094,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C245" s="4">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="246">
@@ -5102,16 +5111,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="C246" s="4">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247">
@@ -5119,16 +5128,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="C247" s="4">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248">
@@ -5136,16 +5145,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="C248" s="4">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
@@ -5153,16 +5162,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C249" s="4">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250">
@@ -5170,16 +5179,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="C250" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
@@ -5187,16 +5196,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C251" s="4">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
@@ -5204,16 +5213,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C252" s="4">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
@@ -5221,16 +5230,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C253" s="4">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
@@ -5238,16 +5247,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C254" s="4">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
@@ -5255,16 +5264,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C255" s="4">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
@@ -5272,55 +5281,61 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C256" s="4">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
-      <c r="E256" s="4"/>
+      <c r="E256" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C257" s="4">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
-      <c r="E257" s="4"/>
+      <c r="E257" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C258" s="4">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
-      <c r="E258" s="4"/>
+      <c r="E258" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C259" s="4">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
@@ -5332,10 +5347,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C260" s="4">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5347,10 +5362,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C261" s="4">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5362,10 +5377,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C262" s="4">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5377,10 +5392,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C263" s="4">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5392,10 +5407,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C264" s="4">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5407,10 +5422,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C265" s="4">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5422,10 +5437,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C266" s="4">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5437,10 +5452,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C267" s="4">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5452,10 +5467,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C268" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5467,10 +5482,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C269" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5482,10 +5497,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270" s="4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5497,10 +5512,14 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>1</v>
-      </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C271" s="4">
+        <v>15</v>
+      </c>
+      <c r="D271" s="4">
+        <v>0</v>
+      </c>
       <c r="E271" s="4"/>
     </row>
     <row r="272">
@@ -5511,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5523,10 +5542,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C273" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5538,7 +5557,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -5551,8 +5570,12 @@
       <c r="B275" s="4">
         <v>0</v>
       </c>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="C275" s="4">
+        <v>5</v>
+      </c>
+      <c r="D275" s="4">
+        <v>0</v>
+      </c>
       <c r="E275" s="4"/>
     </row>
     <row r="276">
@@ -5586,15 +5609,52 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+      <c r="C279" s="4">
         <v>1</v>
       </c>
-      <c r="C278" s="4">
+      <c r="D279" s="4">
+        <v>0</v>
+      </c>
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="4">
         <v>1</v>
       </c>
-      <c r="D278" s="4">
-        <v>0</v>
-      </c>
-      <c r="E278" s="4"/>
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4">
+        <v>0</v>
+      </c>
+      <c r="E281" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+  <si>
+    <t>12/7/2020</t>
+  </si>
   <si>
     <t>12/6/2020</t>
   </si>
@@ -946,24 +949,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -971,12 +974,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5543</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="3">
@@ -984,12 +987,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5516</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="4">
@@ -997,16 +1000,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C4" s="4">
-        <v>813</v>
+        <v>676</v>
       </c>
       <c r="D4" s="4">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4">
-        <v>5467</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="5">
@@ -1014,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C5" s="4">
-        <v>2039</v>
+        <v>1822</v>
       </c>
       <c r="D5" s="4">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="E5" s="4">
-        <v>5410</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="6">
@@ -1031,16 +1034,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C6" s="4">
-        <v>3423</v>
+        <v>2923</v>
       </c>
       <c r="D6" s="4">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="E6" s="4">
-        <v>5366</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="7">
@@ -1048,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C7" s="4">
-        <v>5282</v>
+        <v>4537</v>
       </c>
       <c r="D7" s="4">
-        <v>692</v>
+        <v>571</v>
       </c>
       <c r="E7" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C8" s="4">
-        <v>6724</v>
+        <v>5646</v>
       </c>
       <c r="D8" s="4">
-        <v>891</v>
+        <v>694</v>
       </c>
       <c r="E8" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="9">
@@ -1082,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C9" s="4">
-        <v>2303</v>
+        <v>6785</v>
       </c>
       <c r="D9" s="4">
-        <v>289</v>
+        <v>893</v>
       </c>
       <c r="E9" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="10">
@@ -1099,16 +1102,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C10" s="4">
-        <v>2559</v>
+        <v>2308</v>
       </c>
       <c r="D10" s="4">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E10" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="11">
@@ -1116,16 +1119,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C11" s="4">
-        <v>3308</v>
+        <v>2560</v>
       </c>
       <c r="D11" s="4">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="E11" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="12">
@@ -1133,16 +1136,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C12" s="4">
-        <v>634</v>
+        <v>3312</v>
       </c>
       <c r="D12" s="4">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="E12" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="13">
@@ -1150,16 +1153,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C13" s="4">
-        <v>3809</v>
+        <v>633</v>
       </c>
       <c r="D13" s="4">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="14">
@@ -1167,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C14" s="4">
-        <v>4039</v>
+        <v>3808</v>
       </c>
       <c r="D14" s="4">
-        <v>575</v>
+        <v>522</v>
       </c>
       <c r="E14" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="15">
@@ -1184,16 +1187,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C15" s="4">
-        <v>4946</v>
+        <v>4045</v>
       </c>
       <c r="D15" s="4">
-        <v>748</v>
+        <v>575</v>
       </c>
       <c r="E15" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="16">
@@ -1201,16 +1204,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C16" s="4">
-        <v>1452</v>
+        <v>4950</v>
       </c>
       <c r="D16" s="4">
-        <v>228</v>
+        <v>748</v>
       </c>
       <c r="E16" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="17">
@@ -1218,16 +1221,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C17" s="4">
-        <v>1779</v>
+        <v>1453</v>
       </c>
       <c r="D17" s="4">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E17" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="18">
@@ -1235,16 +1238,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C18" s="4">
-        <v>3307</v>
+        <v>1780</v>
       </c>
       <c r="D18" s="4">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="E18" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="19">
@@ -1252,16 +1255,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C19" s="4">
-        <v>3424</v>
+        <v>3306</v>
       </c>
       <c r="D19" s="4">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E19" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="20">
@@ -1269,16 +1272,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C20" s="4">
-        <v>3486</v>
+        <v>3424</v>
       </c>
       <c r="D20" s="4">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E20" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="21">
@@ -1286,16 +1289,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C21" s="4">
-        <v>4052</v>
+        <v>3485</v>
       </c>
       <c r="D21" s="4">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="E21" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="22">
@@ -1303,16 +1306,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C22" s="4">
-        <v>4646</v>
+        <v>4053</v>
       </c>
       <c r="D22" s="4">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="E22" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="23">
@@ -1320,16 +1323,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C23" s="4">
-        <v>1516</v>
+        <v>4644</v>
       </c>
       <c r="D23" s="4">
-        <v>185</v>
+        <v>609</v>
       </c>
       <c r="E23" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="24">
@@ -1337,16 +1340,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C24" s="4">
-        <v>1785</v>
+        <v>1516</v>
       </c>
       <c r="D24" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E24" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="25">
@@ -1354,16 +1357,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C25" s="4">
-        <v>3433</v>
+        <v>1785</v>
       </c>
       <c r="D25" s="4">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="E25" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="26">
@@ -1371,16 +1374,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C26" s="4">
-        <v>3224</v>
+        <v>3436</v>
       </c>
       <c r="D26" s="4">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="E26" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="27">
@@ -1388,16 +1391,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C27" s="4">
-        <v>3030</v>
+        <v>3225</v>
       </c>
       <c r="D27" s="4">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="E27" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="28">
@@ -1405,16 +1408,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C28" s="4">
-        <v>3385</v>
+        <v>3034</v>
       </c>
       <c r="D28" s="4">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E28" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="29">
@@ -1422,16 +1425,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C29" s="4">
-        <v>4075</v>
+        <v>3387</v>
       </c>
       <c r="D29" s="4">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="E29" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="30">
@@ -1439,16 +1442,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C30" s="4">
-        <v>1376</v>
+        <v>4076</v>
       </c>
       <c r="D30" s="4">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="E30" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="31">
@@ -1456,16 +1459,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C31" s="4">
-        <v>1490</v>
+        <v>1376</v>
       </c>
       <c r="D31" s="4">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E31" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="32">
@@ -1473,16 +1476,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C32" s="4">
-        <v>2411</v>
+        <v>1490</v>
       </c>
       <c r="D32" s="4">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="E32" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="33">
@@ -1490,16 +1493,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C33" s="4">
-        <v>2581</v>
+        <v>2412</v>
       </c>
       <c r="D33" s="4">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E33" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="34">
@@ -1507,16 +1510,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C34" s="4">
-        <v>2610</v>
+        <v>2582</v>
       </c>
       <c r="D34" s="4">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E34" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="35">
@@ -1524,16 +1527,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C35" s="4">
-        <v>2651</v>
+        <v>2612</v>
       </c>
       <c r="D35" s="4">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="E35" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="36">
@@ -1541,16 +1544,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C36" s="4">
-        <v>3108</v>
+        <v>2655</v>
       </c>
       <c r="D36" s="4">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="E36" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="37">
@@ -1558,16 +1561,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C37" s="4">
-        <v>940</v>
+        <v>3113</v>
       </c>
       <c r="D37" s="4">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="E37" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="38">
@@ -1575,16 +1578,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C38" s="4">
-        <v>1063</v>
+        <v>940</v>
       </c>
       <c r="D38" s="4">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="39">
@@ -1592,16 +1595,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C39" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D39" s="4">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="40">
@@ -1609,16 +1612,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C40" s="4">
-        <v>1982</v>
+        <v>2253</v>
       </c>
       <c r="D40" s="4">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E40" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="41">
@@ -1626,16 +1629,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C41" s="4">
-        <v>2439</v>
+        <v>1982</v>
       </c>
       <c r="D41" s="4">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E41" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="42">
@@ -1643,16 +1646,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C42" s="4">
-        <v>2423</v>
+        <v>2439</v>
       </c>
       <c r="D42" s="4">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E42" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="43">
@@ -1660,16 +1663,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C43" s="4">
-        <v>2986</v>
+        <v>2424</v>
       </c>
       <c r="D43" s="4">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="E43" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="44">
@@ -1677,16 +1680,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C44" s="4">
-        <v>908</v>
+        <v>2986</v>
       </c>
       <c r="D44" s="4">
-        <v>96</v>
+        <v>357</v>
       </c>
       <c r="E44" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="45">
@@ -1694,16 +1697,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C45" s="4">
-        <v>1070</v>
+        <v>908</v>
       </c>
       <c r="D45" s="4">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E45" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="46">
@@ -1711,16 +1714,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C46" s="4">
-        <v>2203</v>
+        <v>1070</v>
       </c>
       <c r="D46" s="4">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="47">
@@ -1728,16 +1731,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C47" s="4">
-        <v>2140</v>
+        <v>2203</v>
       </c>
       <c r="D47" s="4">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E47" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="48">
@@ -1745,16 +1748,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C48" s="4">
-        <v>2458</v>
+        <v>2140</v>
       </c>
       <c r="D48" s="4">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E48" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="49">
@@ -1762,16 +1765,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C49" s="4">
         <v>2458</v>
       </c>
       <c r="D49" s="4">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="E49" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="50">
@@ -1779,16 +1782,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C50" s="4">
-        <v>2798</v>
+        <v>2458</v>
       </c>
       <c r="D50" s="4">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="E50" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="51">
@@ -1796,16 +1799,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C51" s="4">
-        <v>849</v>
+        <v>2799</v>
       </c>
       <c r="D51" s="4">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="E51" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="52">
@@ -1813,16 +1816,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C52" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D52" s="4">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E52" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="53">
@@ -1830,16 +1833,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C53" s="4">
-        <v>2055</v>
+        <v>951</v>
       </c>
       <c r="D53" s="4">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E53" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="54">
@@ -1847,16 +1850,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C54" s="4">
-        <v>2106</v>
+        <v>2055</v>
       </c>
       <c r="D54" s="4">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="E54" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="55">
@@ -1864,16 +1867,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C55" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D55" s="4">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="E55" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="56">
@@ -1881,16 +1884,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C56" s="4">
-        <v>2385</v>
+        <v>2131</v>
       </c>
       <c r="D56" s="4">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="E56" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="57">
@@ -1898,16 +1901,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C57" s="4">
-        <v>2682</v>
+        <v>2385</v>
       </c>
       <c r="D57" s="4">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E57" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="58">
@@ -1915,16 +1918,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C58" s="4">
-        <v>902</v>
+        <v>2682</v>
       </c>
       <c r="D58" s="4">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="E58" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="59">
@@ -1932,16 +1935,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C59" s="4">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="D59" s="4">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E59" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="60">
@@ -1949,16 +1952,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C60" s="4">
-        <v>1814</v>
+        <v>939</v>
       </c>
       <c r="D60" s="4">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="61">
@@ -1966,16 +1969,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C61" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D61" s="4">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E61" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="62">
@@ -1983,16 +1986,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C62" s="4">
-        <v>1927</v>
+        <v>2005</v>
       </c>
       <c r="D62" s="4">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E62" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="63">
@@ -2000,16 +2003,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C63" s="4">
-        <v>2067</v>
+        <v>1927</v>
       </c>
       <c r="D63" s="4">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E63" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="64">
@@ -2017,16 +2020,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C64" s="4">
-        <v>2472</v>
+        <v>2067</v>
       </c>
       <c r="D64" s="4">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E64" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="65">
@@ -2034,16 +2037,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C65" s="4">
-        <v>820</v>
+        <v>2472</v>
       </c>
       <c r="D65" s="4">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="E65" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="66">
@@ -2051,16 +2054,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C66" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D66" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E66" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="67">
@@ -2068,16 +2071,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C67" s="4">
-        <v>1837</v>
+        <v>982</v>
       </c>
       <c r="D67" s="4">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="E67" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="68">
@@ -2085,16 +2088,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C68" s="4">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="D68" s="4">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E68" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="69">
@@ -2102,16 +2105,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C69" s="4">
-        <v>1834</v>
+        <v>1820</v>
       </c>
       <c r="D69" s="4">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E69" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="70">
@@ -2119,16 +2122,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C70" s="4">
-        <v>1809</v>
+        <v>1834</v>
       </c>
       <c r="D70" s="4">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E70" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="71">
@@ -2136,16 +2139,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C71" s="4">
-        <v>2119</v>
+        <v>1808</v>
       </c>
       <c r="D71" s="4">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="72">
@@ -2153,16 +2156,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C72" s="4">
-        <v>640</v>
+        <v>2119</v>
       </c>
       <c r="D72" s="4">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="E72" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="73">
@@ -2170,16 +2173,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C73" s="4">
-        <v>762</v>
+        <v>640</v>
       </c>
       <c r="D73" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E73" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="74">
@@ -2187,16 +2190,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C74" s="4">
-        <v>1227</v>
+        <v>762</v>
       </c>
       <c r="D74" s="4">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="E74" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="75">
@@ -2204,16 +2207,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C75" s="4">
-        <v>1490</v>
+        <v>1227</v>
       </c>
       <c r="D75" s="4">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E75" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="76">
@@ -2221,16 +2224,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C76" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D76" s="4">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E76" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="77">
@@ -2238,16 +2241,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C77" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D77" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E77" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="78">
@@ -2255,16 +2258,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C78" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D78" s="4">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E78" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="79">
@@ -2272,16 +2275,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C79" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D79" s="4">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="E79" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="80">
@@ -2289,16 +2292,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C80" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D80" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E80" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="81">
@@ -2306,16 +2309,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C81" s="4">
-        <v>1306</v>
+        <v>665</v>
       </c>
       <c r="D81" s="4">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E81" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="82">
@@ -2323,16 +2326,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C82" s="4">
-        <v>1281</v>
+        <v>1306</v>
       </c>
       <c r="D82" s="4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E82" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="83">
@@ -2340,16 +2343,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C83" s="4">
-        <v>1410</v>
+        <v>1282</v>
       </c>
       <c r="D83" s="4">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E83" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="84">
@@ -2357,16 +2360,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C84" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D84" s="4">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E84" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="85">
@@ -2374,16 +2377,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C85" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D85" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E85" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="86">
@@ -2391,16 +2394,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C86" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D86" s="4">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E86" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="87">
@@ -2408,16 +2411,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C87" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D87" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E87" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="88">
@@ -2425,16 +2428,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C88" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D88" s="4">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E88" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="89">
@@ -2442,16 +2445,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C89" s="4">
-        <v>1411</v>
+        <v>1267</v>
       </c>
       <c r="D89" s="4">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E89" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="90">
@@ -2459,16 +2462,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C90" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D90" s="4">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E90" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="91">
@@ -2476,16 +2479,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C91" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D91" s="4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E91" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="92">
@@ -2493,16 +2496,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C92" s="4">
-        <v>720</v>
+        <v>1888</v>
       </c>
       <c r="D92" s="4">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="E92" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="93">
@@ -2510,16 +2513,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C93" s="4">
-        <v>612</v>
+        <v>720</v>
       </c>
       <c r="D93" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E93" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="94">
@@ -2527,16 +2530,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C94" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D94" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="95">
@@ -2544,16 +2547,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C95" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D95" s="4">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E95" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="96">
@@ -2561,16 +2564,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C96" s="4">
-        <v>1535</v>
+        <v>1259</v>
       </c>
       <c r="D96" s="4">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E96" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="97">
@@ -2578,16 +2581,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C97" s="4">
-        <v>1736</v>
+        <v>1535</v>
       </c>
       <c r="D97" s="4">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E97" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="98">
@@ -2595,16 +2598,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C98" s="4">
-        <v>1634</v>
+        <v>1736</v>
       </c>
       <c r="D98" s="4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E98" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="99">
@@ -2612,16 +2615,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C99" s="4">
-        <v>1812</v>
+        <v>1635</v>
       </c>
       <c r="D99" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E99" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="100">
@@ -2629,16 +2632,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C100" s="4">
-        <v>638</v>
+        <v>1812</v>
       </c>
       <c r="D100" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E100" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="101">
@@ -2646,16 +2649,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C101" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D101" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E101" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="102">
@@ -2663,16 +2666,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C102" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D102" s="4">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E102" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="103">
@@ -2680,16 +2683,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C103" s="4">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="D103" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E103" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="104">
@@ -2697,16 +2700,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C104" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D104" s="4">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E104" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="105">
@@ -2714,16 +2717,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C105" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D105" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E105" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="106">
@@ -2731,16 +2734,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C106" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D106" s="4">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E106" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="107">
@@ -2748,16 +2751,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C107" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D107" s="4">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="E107" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="108">
@@ -2765,16 +2768,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C108" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D108" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E108" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="109">
@@ -2782,16 +2785,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C109" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D109" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E109" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="110">
@@ -2799,16 +2802,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C110" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D110" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E110" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="111">
@@ -2816,16 +2819,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C111" s="4">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D111" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E111" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="112">
@@ -2833,16 +2836,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C112" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D112" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E112" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="113">
@@ -2850,16 +2853,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C113" s="4">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D113" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E113" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="114">
@@ -2867,16 +2870,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C114" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D114" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E114" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="115">
@@ -2884,16 +2887,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C115" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D115" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E115" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="116">
@@ -2901,16 +2904,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C116" s="4">
-        <v>1554</v>
+        <v>763</v>
       </c>
       <c r="D116" s="4">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E116" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="117">
@@ -2918,16 +2921,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C117" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D117" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E117" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="118">
@@ -2935,16 +2938,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C118" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D118" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E118" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="119">
@@ -2952,16 +2955,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C119" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D119" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E119" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="120">
@@ -2969,16 +2972,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C120" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D120" s="4">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E120" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="121">
@@ -2986,16 +2989,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C121" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D121" s="4">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E121" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="122">
@@ -3003,16 +3006,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C122" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D122" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E122" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="123">
@@ -3020,16 +3023,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C123" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D123" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E123" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="124">
@@ -3037,16 +3040,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C124" s="4">
-        <v>1481</v>
+        <v>1410</v>
       </c>
       <c r="D124" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E124" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="125">
@@ -3054,16 +3057,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C125" s="4">
-        <v>1738</v>
+        <v>1481</v>
       </c>
       <c r="D125" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E125" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="126">
@@ -3071,16 +3074,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C126" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D126" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E126" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="127">
@@ -3088,16 +3091,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C127" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D127" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E127" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="128">
@@ -3105,16 +3108,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C128" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D128" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E128" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="129">
@@ -3122,16 +3125,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C129" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D129" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E129" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="130">
@@ -3139,16 +3142,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C130" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D130" s="4">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E130" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="131">
@@ -3156,16 +3159,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C131" s="4">
-        <v>1803</v>
+        <v>1723</v>
       </c>
       <c r="D131" s="4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E131" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="132">
@@ -3173,16 +3176,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C132" s="4">
-        <v>1841</v>
+        <v>1803</v>
       </c>
       <c r="D132" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E132" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="133">
@@ -3190,16 +3193,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C133" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D133" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E133" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="134">
@@ -3207,16 +3210,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C134" s="4">
-        <v>2131</v>
+        <v>2021</v>
       </c>
       <c r="D134" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E134" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="135">
@@ -3224,16 +3227,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C135" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D135" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E135" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="136">
@@ -3241,16 +3244,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C136" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D136" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E136" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="137">
@@ -3258,16 +3261,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C137" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D137" s="4">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E137" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="138">
@@ -3275,16 +3278,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C138" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D138" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E138" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="139">
@@ -3292,16 +3295,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C139" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D139" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E139" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="140">
@@ -3309,16 +3312,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C140" s="4">
-        <v>2282</v>
+        <v>2021</v>
       </c>
       <c r="D140" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E140" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="141">
@@ -3326,16 +3329,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C141" s="4">
-        <v>2330</v>
+        <v>2282</v>
       </c>
       <c r="D141" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E141" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="142">
@@ -3343,16 +3346,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C142" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D142" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E142" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="143">
@@ -3360,16 +3363,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C143" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D143" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="144">
@@ -3377,16 +3380,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C144" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D144" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E144" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="145">
@@ -3394,16 +3397,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C145" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D145" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E145" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="146">
@@ -3411,16 +3414,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C146" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D146" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E146" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="147">
@@ -3428,16 +3431,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C147" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D147" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E147" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="148">
@@ -3445,16 +3448,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C148" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D148" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E148" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="149">
@@ -3462,16 +3465,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C149" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D149" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E149" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="150">
@@ -3479,16 +3482,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C150" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D150" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E150" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="151">
@@ -3496,16 +3499,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C151" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D151" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E151" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="152">
@@ -3513,16 +3516,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C152" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D152" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="153">
@@ -3530,16 +3533,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C153" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D153" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E153" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="154">
@@ -3547,16 +3550,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C154" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D154" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E154" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="155">
@@ -3564,16 +3567,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C155" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D155" s="4">
         <v>22</v>
       </c>
       <c r="E155" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="156">
@@ -3581,16 +3584,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C156" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D156" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E156" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="157">
@@ -3598,16 +3601,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C157" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D157" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E157" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="158">
@@ -3615,16 +3618,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C158" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D158" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E158" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="159">
@@ -3632,16 +3635,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C159" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D159" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E159" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="160">
@@ -3649,16 +3652,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C160" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D160" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E160" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="161">
@@ -3666,16 +3669,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C161" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D161" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E161" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="162">
@@ -3683,16 +3686,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C162" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D162" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E162" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="163">
@@ -3700,16 +3703,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C163" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D163" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E163" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="164">
@@ -3717,16 +3720,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C164" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D164" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="165">
@@ -3734,16 +3737,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C165" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D165" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E165" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="166">
@@ -3751,16 +3754,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C166" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D166" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E166" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="167">
@@ -3768,16 +3771,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C167" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D167" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E167" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="168">
@@ -3785,16 +3788,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C168" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D168" s="4">
         <v>10</v>
       </c>
       <c r="E168" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="169">
@@ -3802,16 +3805,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C169" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D169" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E169" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="170">
@@ -3819,16 +3822,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C170" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D170" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E170" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="171">
@@ -3836,16 +3839,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C171" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D171" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="172">
@@ -3853,16 +3856,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C172" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D172" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="173">
@@ -3870,16 +3873,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C173" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D173" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="174">
@@ -3887,16 +3890,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C174" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D174" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E174" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="175">
@@ -3904,16 +3907,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C175" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D175" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="176">
@@ -3921,16 +3924,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C176" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="177">
@@ -3938,16 +3941,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C177" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D177" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="178">
@@ -3955,16 +3958,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C178" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D178" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="179">
@@ -3972,16 +3975,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C179" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D179" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="180">
@@ -3989,16 +3992,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C180" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="181">
@@ -4006,16 +4009,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C181" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D181" s="4">
         <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182">
@@ -4023,16 +4026,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C182" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="183">
@@ -4040,16 +4043,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C183" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="184">
@@ -4057,16 +4060,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C184" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="185">
@@ -4074,16 +4077,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C185" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="186">
@@ -4091,16 +4094,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C186" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="187">
@@ -4108,16 +4111,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C187" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D187" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="188">
@@ -4125,16 +4128,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C188" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D188" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="189">
@@ -4142,16 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C189" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="190">
@@ -4159,16 +4162,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C190" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="191">
@@ -4176,16 +4179,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C191" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="192">
@@ -4193,16 +4196,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C192" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="193">
@@ -4210,16 +4213,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C193" s="4">
-        <v>1117</v>
+        <v>449</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="194">
@@ -4227,16 +4230,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C194" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="195">
@@ -4244,16 +4247,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C195" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D195" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="196">
@@ -4261,16 +4264,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C196" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D196" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="197">
@@ -4278,16 +4281,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C197" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D197" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E197" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="198">
@@ -4295,16 +4298,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C198" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199">
@@ -4312,16 +4315,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C199" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="200">
@@ -4329,16 +4332,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C200" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="201">
@@ -4346,16 +4349,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C201" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="202">
@@ -4363,16 +4366,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C202" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203">
@@ -4380,16 +4383,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C203" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204">
@@ -4397,16 +4400,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C204" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205">
@@ -4414,16 +4417,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C205" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="206">
@@ -4431,16 +4434,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C206" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="207">
@@ -4448,16 +4451,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C207" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D207" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="208">
@@ -4465,16 +4468,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C208" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D208" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="209">
@@ -4482,16 +4485,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C209" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="210">
@@ -4499,16 +4502,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C210" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211">
@@ -4516,16 +4519,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C211" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="212">
@@ -4533,16 +4536,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C212" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213">
@@ -4550,16 +4553,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C213" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214">
@@ -4567,16 +4570,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C214" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215">
@@ -4584,16 +4587,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C215" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="216">
@@ -4601,16 +4604,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C216" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="217">
@@ -4618,16 +4621,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C217" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="218">
@@ -4635,16 +4638,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C218" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219">
@@ -4652,16 +4655,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C219" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="220">
@@ -4669,16 +4672,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C220" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221">
@@ -4686,16 +4689,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C221" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222">
@@ -4703,16 +4706,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C222" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -4720,16 +4723,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C223" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="224">
@@ -4737,16 +4740,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C224" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225">
@@ -4754,16 +4757,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C225" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="226">
@@ -4771,16 +4774,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C226" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227">
@@ -4788,16 +4791,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C227" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228">
@@ -4805,16 +4808,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C228" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229">
@@ -4822,16 +4825,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C229" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230">
@@ -4839,16 +4842,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C230" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="231">
@@ -4856,16 +4859,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C231" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232">
@@ -4873,16 +4876,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C232" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233">
@@ -4890,16 +4893,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C233" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234">
@@ -4907,16 +4910,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C234" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235">
@@ -4924,16 +4927,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C235" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236">
@@ -4941,16 +4944,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C236" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237">
@@ -4958,16 +4961,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C237" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="238">
@@ -4975,16 +4978,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C238" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239">
@@ -4992,16 +4995,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C239" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="240">
@@ -5009,16 +5012,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C240" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241">
@@ -5026,16 +5029,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C241" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242">
@@ -5043,16 +5046,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C242" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243">
@@ -5060,16 +5063,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C243" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244">
@@ -5077,16 +5080,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C244" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="245">
@@ -5094,16 +5097,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C245" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246">
@@ -5111,16 +5114,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C246" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="247">
@@ -5128,16 +5131,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C247" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248">
@@ -5145,16 +5148,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C248" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249">
@@ -5162,16 +5165,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C249" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5182,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C250" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251">
@@ -5196,16 +5199,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C251" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
@@ -5213,16 +5216,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C252" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
@@ -5230,16 +5233,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C253" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254">
@@ -5247,16 +5250,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C254" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
@@ -5264,16 +5267,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C255" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
@@ -5281,16 +5284,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C256" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -5298,16 +5301,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C257" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -5315,7 +5318,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C258" s="4">
         <v>198</v>
@@ -5324,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -5332,25 +5335,27 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C259" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
-      <c r="E259" s="4"/>
+      <c r="E259" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C260" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
@@ -5362,10 +5367,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C261" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5377,10 +5382,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C262" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5392,10 +5397,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C263" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5407,10 +5412,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C264" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5422,10 +5427,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C265" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5437,10 +5442,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C266" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5452,10 +5457,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C267" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5467,10 +5472,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C268" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5482,10 +5487,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C269" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5497,10 +5502,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C270" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5515,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5527,10 +5532,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C272" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5542,10 +5547,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C273" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5557,10 +5562,14 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>1</v>
-      </c>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C274" s="4">
+        <v>5</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0</v>
+      </c>
       <c r="E274" s="4"/>
     </row>
     <row r="275">
@@ -5568,14 +5577,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>0</v>
-      </c>
-      <c r="C275" s="4">
-        <v>5</v>
-      </c>
-      <c r="D275" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276">
@@ -5586,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="C276" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5600,8 +5605,12 @@
       <c r="B277" s="4">
         <v>0</v>
       </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4">
+        <v>0</v>
+      </c>
       <c r="E277" s="4"/>
     </row>
     <row r="278">
@@ -5622,12 +5631,8 @@
       <c r="B279" s="4">
         <v>0</v>
       </c>
-      <c r="C279" s="4">
-        <v>1</v>
-      </c>
-      <c r="D279" s="4">
-        <v>0</v>
-      </c>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280">
@@ -5637,8 +5642,12 @@
       <c r="B280" s="4">
         <v>0</v>
       </c>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4">
+        <v>0</v>
+      </c>
       <c r="E280" s="4"/>
     </row>
     <row r="281">
@@ -5646,15 +5655,26 @@
         <v>279</v>
       </c>
       <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282" s="4">
         <v>1</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C282" s="4">
         <v>1</v>
       </c>
-      <c r="D281" s="4">
-        <v>0</v>
-      </c>
-      <c r="E281" s="4"/>
+      <c r="D282" s="4">
+        <v>0</v>
+      </c>
+      <c r="E282" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+  <si>
+    <t>12/8/2020</t>
+  </si>
   <si>
     <t>12/7/2020</t>
   </si>
@@ -949,24 +952,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E283"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2">
@@ -974,12 +977,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5560</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="3">
@@ -987,12 +990,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5543</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="4">
@@ -1000,16 +1003,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C4" s="4">
-        <v>676</v>
+        <v>355</v>
       </c>
       <c r="D4" s="4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4">
-        <v>5516</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="5">
@@ -1017,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C5" s="4">
-        <v>1822</v>
+        <v>1214</v>
       </c>
       <c r="D5" s="4">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4">
-        <v>5467</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="6">
@@ -1034,16 +1037,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C6" s="4">
-        <v>2923</v>
+        <v>2858</v>
       </c>
       <c r="D6" s="4">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="E6" s="4">
-        <v>5410</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1054,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C7" s="4">
-        <v>4537</v>
+        <v>4344</v>
       </c>
       <c r="D7" s="4">
-        <v>571</v>
+        <v>474</v>
       </c>
       <c r="E7" s="4">
-        <v>5366</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="8">
@@ -1068,16 +1071,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C8" s="4">
-        <v>5646</v>
+        <v>5168</v>
       </c>
       <c r="D8" s="4">
-        <v>694</v>
+        <v>594</v>
       </c>
       <c r="E8" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="9">
@@ -1085,16 +1088,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C9" s="4">
-        <v>6785</v>
+        <v>5797</v>
       </c>
       <c r="D9" s="4">
-        <v>893</v>
+        <v>717</v>
       </c>
       <c r="E9" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="10">
@@ -1102,16 +1105,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C10" s="4">
-        <v>2308</v>
+        <v>6815</v>
       </c>
       <c r="D10" s="4">
-        <v>289</v>
+        <v>904</v>
       </c>
       <c r="E10" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="11">
@@ -1119,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C11" s="4">
-        <v>2560</v>
+        <v>2311</v>
       </c>
       <c r="D11" s="4">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="E11" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="12">
@@ -1136,16 +1139,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C12" s="4">
-        <v>3312</v>
+        <v>2567</v>
       </c>
       <c r="D12" s="4">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="E12" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="13">
@@ -1153,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C13" s="4">
-        <v>633</v>
+        <v>3321</v>
       </c>
       <c r="D13" s="4">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="E13" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="14">
@@ -1170,16 +1173,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C14" s="4">
-        <v>3808</v>
+        <v>631</v>
       </c>
       <c r="D14" s="4">
-        <v>522</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="15">
@@ -1187,16 +1190,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C15" s="4">
-        <v>4045</v>
+        <v>3823</v>
       </c>
       <c r="D15" s="4">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="E15" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="16">
@@ -1204,16 +1207,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C16" s="4">
-        <v>4950</v>
+        <v>4050</v>
       </c>
       <c r="D16" s="4">
-        <v>748</v>
+        <v>578</v>
       </c>
       <c r="E16" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="17">
@@ -1221,16 +1224,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C17" s="4">
-        <v>1453</v>
+        <v>4957</v>
       </c>
       <c r="D17" s="4">
-        <v>230</v>
+        <v>751</v>
       </c>
       <c r="E17" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="18">
@@ -1238,16 +1241,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C18" s="4">
-        <v>1780</v>
+        <v>1455</v>
       </c>
       <c r="D18" s="4">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E18" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="19">
@@ -1255,16 +1258,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C19" s="4">
-        <v>3306</v>
+        <v>1781</v>
       </c>
       <c r="D19" s="4">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="E19" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="20">
@@ -1272,16 +1275,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C20" s="4">
-        <v>3424</v>
+        <v>3307</v>
       </c>
       <c r="D20" s="4">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E20" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="21">
@@ -1289,16 +1292,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C21" s="4">
-        <v>3485</v>
+        <v>3427</v>
       </c>
       <c r="D21" s="4">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E21" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="22">
@@ -1306,16 +1309,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C22" s="4">
-        <v>4053</v>
+        <v>3487</v>
       </c>
       <c r="D22" s="4">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="E22" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="23">
@@ -1323,16 +1326,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C23" s="4">
-        <v>4644</v>
+        <v>4053</v>
       </c>
       <c r="D23" s="4">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="E23" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="24">
@@ -1340,16 +1343,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C24" s="4">
-        <v>1516</v>
+        <v>4645</v>
       </c>
       <c r="D24" s="4">
-        <v>185</v>
+        <v>611</v>
       </c>
       <c r="E24" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="25">
@@ -1357,16 +1360,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C25" s="4">
-        <v>1785</v>
+        <v>1516</v>
       </c>
       <c r="D25" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E25" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="26">
@@ -1374,16 +1377,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C26" s="4">
-        <v>3436</v>
+        <v>1789</v>
       </c>
       <c r="D26" s="4">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="E26" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="27">
@@ -1391,16 +1394,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C27" s="4">
-        <v>3225</v>
+        <v>3436</v>
       </c>
       <c r="D27" s="4">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="E27" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="28">
@@ -1408,16 +1411,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C28" s="4">
-        <v>3034</v>
+        <v>3225</v>
       </c>
       <c r="D28" s="4">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="E28" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="29">
@@ -1425,16 +1428,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C29" s="4">
-        <v>3387</v>
+        <v>3034</v>
       </c>
       <c r="D29" s="4">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E29" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="30">
@@ -1442,16 +1445,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C30" s="4">
-        <v>4076</v>
+        <v>3387</v>
       </c>
       <c r="D30" s="4">
-        <v>475</v>
+        <v>364</v>
       </c>
       <c r="E30" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="31">
@@ -1459,16 +1462,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C31" s="4">
-        <v>1376</v>
+        <v>4076</v>
       </c>
       <c r="D31" s="4">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="E31" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="32">
@@ -1476,16 +1479,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C32" s="4">
-        <v>1490</v>
+        <v>1376</v>
       </c>
       <c r="D32" s="4">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E32" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="33">
@@ -1493,16 +1496,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C33" s="4">
-        <v>2412</v>
+        <v>1490</v>
       </c>
       <c r="D33" s="4">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="34">
@@ -1510,16 +1513,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C34" s="4">
-        <v>2582</v>
+        <v>2412</v>
       </c>
       <c r="D34" s="4">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E34" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="35">
@@ -1527,16 +1530,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C35" s="4">
-        <v>2612</v>
+        <v>2583</v>
       </c>
       <c r="D35" s="4">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E35" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="36">
@@ -1544,16 +1547,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C36" s="4">
-        <v>2655</v>
+        <v>2612</v>
       </c>
       <c r="D36" s="4">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="E36" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="37">
@@ -1561,16 +1564,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C37" s="4">
-        <v>3113</v>
+        <v>2656</v>
       </c>
       <c r="D37" s="4">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="E37" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="38">
@@ -1578,16 +1581,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C38" s="4">
-        <v>940</v>
+        <v>3113</v>
       </c>
       <c r="D38" s="4">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="E38" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="39">
@@ -1595,16 +1598,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C39" s="4">
-        <v>1063</v>
+        <v>940</v>
       </c>
       <c r="D39" s="4">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="40">
@@ -1612,16 +1615,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C40" s="4">
-        <v>2253</v>
+        <v>1063</v>
       </c>
       <c r="D40" s="4">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="41">
@@ -1629,16 +1632,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C41" s="4">
-        <v>1982</v>
+        <v>2253</v>
       </c>
       <c r="D41" s="4">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E41" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="42">
@@ -1646,16 +1649,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C42" s="4">
-        <v>2439</v>
+        <v>1982</v>
       </c>
       <c r="D42" s="4">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E42" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="43">
@@ -1663,16 +1666,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C43" s="4">
-        <v>2424</v>
+        <v>2439</v>
       </c>
       <c r="D43" s="4">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E43" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="44">
@@ -1680,16 +1683,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C44" s="4">
-        <v>2986</v>
+        <v>2424</v>
       </c>
       <c r="D44" s="4">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="E44" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="45">
@@ -1697,16 +1700,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C45" s="4">
-        <v>908</v>
+        <v>2986</v>
       </c>
       <c r="D45" s="4">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="E45" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="46">
@@ -1714,16 +1717,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C46" s="4">
-        <v>1070</v>
+        <v>908</v>
       </c>
       <c r="D46" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="47">
@@ -1731,16 +1734,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C47" s="4">
-        <v>2203</v>
+        <v>1070</v>
       </c>
       <c r="D47" s="4">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="48">
@@ -1748,16 +1751,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C48" s="4">
-        <v>2140</v>
+        <v>2203</v>
       </c>
       <c r="D48" s="4">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E48" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="49">
@@ -1765,16 +1768,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C49" s="4">
-        <v>2458</v>
+        <v>2141</v>
       </c>
       <c r="D49" s="4">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E49" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="50">
@@ -1782,16 +1785,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C50" s="4">
         <v>2458</v>
       </c>
       <c r="D50" s="4">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="E50" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="51">
@@ -1799,16 +1802,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C51" s="4">
-        <v>2799</v>
+        <v>2458</v>
       </c>
       <c r="D51" s="4">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E51" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="52">
@@ -1816,16 +1819,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C52" s="4">
-        <v>849</v>
+        <v>2799</v>
       </c>
       <c r="D52" s="4">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="E52" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="53">
@@ -1833,16 +1836,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C53" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D53" s="4">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E53" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="54">
@@ -1850,16 +1853,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C54" s="4">
-        <v>2055</v>
+        <v>951</v>
       </c>
       <c r="D54" s="4">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E54" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="55">
@@ -1867,16 +1870,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C55" s="4">
-        <v>2105</v>
+        <v>2055</v>
       </c>
       <c r="D55" s="4">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="56">
@@ -1884,16 +1887,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C56" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D56" s="4">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="E56" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="57">
@@ -1901,16 +1904,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C57" s="4">
-        <v>2385</v>
+        <v>2131</v>
       </c>
       <c r="D57" s="4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E57" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="58">
@@ -1918,16 +1921,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C58" s="4">
-        <v>2682</v>
+        <v>2385</v>
       </c>
       <c r="D58" s="4">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E58" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="59">
@@ -1935,16 +1938,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C59" s="4">
-        <v>902</v>
+        <v>2682</v>
       </c>
       <c r="D59" s="4">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="E59" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="60">
@@ -1952,16 +1955,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C60" s="4">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="D60" s="4">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E60" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="61">
@@ -1969,16 +1972,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C61" s="4">
-        <v>1814</v>
+        <v>939</v>
       </c>
       <c r="D61" s="4">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="62">
@@ -1986,16 +1989,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C62" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D62" s="4">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E62" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="63">
@@ -2003,16 +2006,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C63" s="4">
-        <v>1927</v>
+        <v>2005</v>
       </c>
       <c r="D63" s="4">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E63" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="64">
@@ -2020,16 +2023,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C64" s="4">
-        <v>2067</v>
+        <v>1927</v>
       </c>
       <c r="D64" s="4">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E64" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="65">
@@ -2037,16 +2040,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C65" s="4">
-        <v>2472</v>
+        <v>2067</v>
       </c>
       <c r="D65" s="4">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E65" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="66">
@@ -2054,16 +2057,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C66" s="4">
-        <v>820</v>
+        <v>2472</v>
       </c>
       <c r="D66" s="4">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="E66" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="67">
@@ -2071,16 +2074,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C67" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D67" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E67" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="68">
@@ -2088,16 +2091,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C68" s="4">
-        <v>1837</v>
+        <v>982</v>
       </c>
       <c r="D68" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E68" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="69">
@@ -2105,16 +2108,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C69" s="4">
-        <v>1820</v>
+        <v>1838</v>
       </c>
       <c r="D69" s="4">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E69" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="70">
@@ -2122,16 +2125,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C70" s="4">
-        <v>1834</v>
+        <v>1820</v>
       </c>
       <c r="D70" s="4">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E70" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="71">
@@ -2139,16 +2142,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C71" s="4">
-        <v>1808</v>
+        <v>1835</v>
       </c>
       <c r="D71" s="4">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E71" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="72">
@@ -2156,16 +2159,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C72" s="4">
-        <v>2119</v>
+        <v>1809</v>
       </c>
       <c r="D72" s="4">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E72" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="73">
@@ -2173,16 +2176,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C73" s="4">
-        <v>640</v>
+        <v>2119</v>
       </c>
       <c r="D73" s="4">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="E73" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="74">
@@ -2190,16 +2193,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C74" s="4">
-        <v>762</v>
+        <v>640</v>
       </c>
       <c r="D74" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E74" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="75">
@@ -2207,16 +2210,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C75" s="4">
-        <v>1227</v>
+        <v>763</v>
       </c>
       <c r="D75" s="4">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="E75" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="76">
@@ -2224,16 +2227,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C76" s="4">
-        <v>1490</v>
+        <v>1227</v>
       </c>
       <c r="D76" s="4">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E76" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="77">
@@ -2241,16 +2244,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C77" s="4">
-        <v>1467</v>
+        <v>1491</v>
       </c>
       <c r="D77" s="4">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E77" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="78">
@@ -2258,16 +2261,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C78" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D78" s="4">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E78" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="79">
@@ -2275,16 +2278,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C79" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D79" s="4">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E79" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="80">
@@ -2292,16 +2295,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C80" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D80" s="4">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="E80" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="81">
@@ -2309,16 +2312,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C81" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D81" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E81" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="82">
@@ -2326,16 +2329,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C82" s="4">
-        <v>1306</v>
+        <v>665</v>
       </c>
       <c r="D82" s="4">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E82" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="83">
@@ -2343,16 +2346,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C83" s="4">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="D83" s="4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E83" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="84">
@@ -2360,16 +2363,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C84" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D84" s="4">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E84" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="85">
@@ -2377,16 +2380,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C85" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D85" s="4">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E85" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="86">
@@ -2394,16 +2397,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C86" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D86" s="4">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E86" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="87">
@@ -2411,16 +2414,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C87" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D87" s="4">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E87" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="88">
@@ -2428,16 +2431,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C88" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D88" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E88" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="89">
@@ -2445,16 +2448,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C89" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D89" s="4">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E89" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="90">
@@ -2462,16 +2465,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C90" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D90" s="4">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E90" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="91">
@@ -2479,16 +2482,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C91" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D91" s="4">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E91" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="92">
@@ -2496,16 +2499,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C92" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D92" s="4">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E92" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="93">
@@ -2513,16 +2516,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C93" s="4">
-        <v>720</v>
+        <v>1888</v>
       </c>
       <c r="D93" s="4">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E93" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="94">
@@ -2530,16 +2533,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C94" s="4">
-        <v>612</v>
+        <v>720</v>
       </c>
       <c r="D94" s="4">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E94" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="95">
@@ -2547,16 +2550,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C95" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D95" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="96">
@@ -2564,16 +2567,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C96" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D96" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E96" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="97">
@@ -2581,16 +2584,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C97" s="4">
-        <v>1535</v>
+        <v>1259</v>
       </c>
       <c r="D97" s="4">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E97" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="98">
@@ -2598,16 +2601,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C98" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D98" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E98" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="99">
@@ -2615,16 +2618,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C99" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D99" s="4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E99" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="100">
@@ -2632,16 +2635,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C100" s="4">
-        <v>1812</v>
+        <v>1635</v>
       </c>
       <c r="D100" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E100" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="101">
@@ -2649,16 +2652,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C101" s="4">
-        <v>638</v>
+        <v>1812</v>
       </c>
       <c r="D101" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E101" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="102">
@@ -2666,16 +2669,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C102" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D102" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E102" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="103">
@@ -2683,16 +2686,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C103" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D103" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E103" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="104">
@@ -2700,16 +2703,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C104" s="4">
-        <v>1700</v>
+        <v>1550</v>
       </c>
       <c r="D104" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E104" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="105">
@@ -2717,16 +2720,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C105" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D105" s="4">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E105" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="106">
@@ -2734,16 +2737,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C106" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D106" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E106" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="107">
@@ -2751,16 +2754,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C107" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D107" s="4">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E107" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="108">
@@ -2768,16 +2771,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C108" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D108" s="4">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="E108" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="109">
@@ -2785,16 +2788,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C109" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D109" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E109" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="110">
@@ -2802,16 +2805,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C110" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D110" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E110" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="111">
@@ -2819,16 +2822,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C111" s="4">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="D111" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E111" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="112">
@@ -2836,16 +2839,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C112" s="4">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D112" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E112" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="113">
@@ -2853,16 +2856,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C113" s="4">
-        <v>1978</v>
+        <v>1731</v>
       </c>
       <c r="D113" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E113" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="114">
@@ -2870,16 +2873,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C114" s="4">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D114" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E114" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="115">
@@ -2887,16 +2890,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C115" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D115" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E115" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="116">
@@ -2904,16 +2907,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C116" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D116" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E116" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="117">
@@ -2921,16 +2924,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C117" s="4">
-        <v>1554</v>
+        <v>763</v>
       </c>
       <c r="D117" s="4">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E117" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="118">
@@ -2938,16 +2941,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C118" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D118" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E118" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="119">
@@ -2955,16 +2958,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C119" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D119" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E119" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="120">
@@ -2972,16 +2975,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C120" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D120" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E120" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="121">
@@ -2989,16 +2992,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C121" s="4">
-        <v>1735</v>
+        <v>1484</v>
       </c>
       <c r="D121" s="4">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E121" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="122">
@@ -3006,16 +3009,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C122" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D122" s="4">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E122" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="123">
@@ -3023,16 +3026,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C123" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D123" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E123" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="124">
@@ -3040,16 +3043,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C124" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D124" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E124" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="125">
@@ -3057,16 +3060,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C125" s="4">
-        <v>1481</v>
+        <v>1410</v>
       </c>
       <c r="D125" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E125" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="126">
@@ -3074,16 +3077,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C126" s="4">
-        <v>1738</v>
+        <v>1481</v>
       </c>
       <c r="D126" s="4">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E126" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="127">
@@ -3091,16 +3094,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C127" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D127" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E127" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="128">
@@ -3108,16 +3111,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C128" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D128" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E128" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="129">
@@ -3125,16 +3128,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C129" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D129" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E129" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="130">
@@ -3142,16 +3145,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C130" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D130" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E130" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="131">
@@ -3159,16 +3162,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C131" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D131" s="4">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E131" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="132">
@@ -3176,16 +3179,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C132" s="4">
-        <v>1803</v>
+        <v>1723</v>
       </c>
       <c r="D132" s="4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E132" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="133">
@@ -3193,16 +3196,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C133" s="4">
-        <v>1841</v>
+        <v>1803</v>
       </c>
       <c r="D133" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E133" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="134">
@@ -3210,16 +3213,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C134" s="4">
-        <v>2021</v>
+        <v>1841</v>
       </c>
       <c r="D134" s="4">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E134" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="135">
@@ -3227,16 +3230,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C135" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D135" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E135" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="136">
@@ -3244,16 +3247,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C136" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D136" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E136" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="137">
@@ -3261,16 +3264,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C137" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D137" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E137" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="138">
@@ -3278,16 +3281,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C138" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D138" s="4">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E138" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="139">
@@ -3295,16 +3298,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C139" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D139" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E139" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="140">
@@ -3312,16 +3315,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C140" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D140" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E140" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="141">
@@ -3329,16 +3332,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C141" s="4">
-        <v>2282</v>
+        <v>2021</v>
       </c>
       <c r="D141" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E141" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="142">
@@ -3346,16 +3349,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C142" s="4">
-        <v>2330</v>
+        <v>2283</v>
       </c>
       <c r="D142" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E142" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="143">
@@ -3363,16 +3366,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C143" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D143" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E143" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="144">
@@ -3380,16 +3383,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C144" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D144" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="145">
@@ -3397,16 +3400,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C145" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D145" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E145" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="146">
@@ -3414,16 +3417,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C146" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D146" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E146" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="147">
@@ -3431,16 +3434,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C147" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D147" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E147" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="148">
@@ -3448,16 +3451,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C148" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D148" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E148" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="149">
@@ -3465,16 +3468,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C149" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D149" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E149" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="150">
@@ -3482,16 +3485,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C150" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D150" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E150" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="151">
@@ -3499,16 +3502,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C151" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D151" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E151" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="152">
@@ -3516,16 +3519,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C152" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D152" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E152" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="153">
@@ -3533,16 +3536,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C153" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D153" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E153" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="154">
@@ -3550,16 +3553,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C154" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D154" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E154" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="155">
@@ -3567,16 +3570,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C155" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D155" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E155" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="156">
@@ -3584,16 +3587,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C156" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D156" s="4">
         <v>22</v>
       </c>
       <c r="E156" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="157">
@@ -3601,16 +3604,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C157" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D157" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E157" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="158">
@@ -3618,16 +3621,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C158" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D158" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="159">
@@ -3635,16 +3638,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C159" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D159" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E159" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="160">
@@ -3652,16 +3655,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C160" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D160" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E160" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="161">
@@ -3669,16 +3672,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C161" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D161" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E161" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="162">
@@ -3686,16 +3689,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C162" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D162" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E162" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="163">
@@ -3703,16 +3706,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C163" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D163" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E163" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="164">
@@ -3720,16 +3723,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C164" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E164" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="165">
@@ -3737,16 +3740,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C165" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D165" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="166">
@@ -3754,16 +3757,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C166" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D166" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E166" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="167">
@@ -3771,16 +3774,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C167" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D167" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E167" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="168">
@@ -3788,16 +3791,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C168" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D168" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E168" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="169">
@@ -3805,16 +3808,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C169" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D169" s="4">
         <v>10</v>
       </c>
       <c r="E169" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="170">
@@ -3822,16 +3825,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C170" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D170" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E170" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="171">
@@ -3839,16 +3842,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C171" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D171" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E171" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="172">
@@ -3856,16 +3859,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C172" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D172" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="173">
@@ -3873,16 +3876,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C173" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D173" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="174">
@@ -3890,16 +3893,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C174" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D174" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="175">
@@ -3907,16 +3910,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C175" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E175" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="176">
@@ -3924,16 +3927,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C176" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="177">
@@ -3941,16 +3944,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C177" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="178">
@@ -3958,16 +3961,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C178" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="179">
@@ -3975,16 +3978,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C179" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D179" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="180">
@@ -3992,16 +3995,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C180" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D180" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E180" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="181">
@@ -4009,16 +4012,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C181" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="182">
@@ -4026,16 +4029,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C182" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D182" s="4">
         <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="183">
@@ -4043,16 +4046,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C183" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="184">
@@ -4060,16 +4063,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C184" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="185">
@@ -4077,16 +4080,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C185" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="186">
@@ -4094,16 +4097,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C186" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="187">
@@ -4111,16 +4114,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C187" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="188">
@@ -4128,16 +4131,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C188" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D188" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="189">
@@ -4145,16 +4148,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C189" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D189" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="190">
@@ -4162,16 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C190" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191">
@@ -4179,16 +4182,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C191" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="192">
@@ -4196,16 +4199,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C192" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="193">
@@ -4213,16 +4216,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C193" s="4">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="194">
@@ -4230,16 +4233,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C194" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="195">
@@ -4247,16 +4250,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C195" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="196">
@@ -4264,16 +4267,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C196" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D196" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="197">
@@ -4281,16 +4284,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C197" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D197" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="198">
@@ -4298,16 +4301,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C198" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D198" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="199">
@@ -4315,16 +4318,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C199" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="200">
@@ -4332,16 +4335,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C200" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="201">
@@ -4349,16 +4352,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C201" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="202">
@@ -4366,16 +4369,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C202" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="203">
@@ -4383,16 +4386,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C203" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204">
@@ -4400,16 +4403,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C204" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205">
@@ -4417,16 +4420,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C205" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="206">
@@ -4434,16 +4437,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C206" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="207">
@@ -4451,16 +4454,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C207" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208">
@@ -4468,16 +4471,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C208" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D208" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="209">
@@ -4485,16 +4488,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C209" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D209" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="210">
@@ -4502,16 +4505,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C210" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211">
@@ -4519,16 +4522,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C211" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="212">
@@ -4536,16 +4539,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C212" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213">
@@ -4553,16 +4556,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C213" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214">
@@ -4570,16 +4573,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C214" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215">
@@ -4587,16 +4590,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C215" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216">
@@ -4604,16 +4607,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C216" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217">
@@ -4621,16 +4624,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C217" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="218">
@@ -4638,16 +4641,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C218" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="219">
@@ -4655,16 +4658,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C219" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220">
@@ -4672,16 +4675,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C220" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="221">
@@ -4689,16 +4692,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C221" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222">
@@ -4706,16 +4709,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C222" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223">
@@ -4723,16 +4726,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C223" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -4740,16 +4743,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C224" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225">
@@ -4757,16 +4760,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C225" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226">
@@ -4774,16 +4777,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C226" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="227">
@@ -4791,16 +4794,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C227" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228">
@@ -4808,16 +4811,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C228" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229">
@@ -4825,16 +4828,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C229" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230">
@@ -4842,16 +4845,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C230" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231">
@@ -4859,16 +4862,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C231" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232">
@@ -4876,16 +4879,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C232" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233">
@@ -4893,16 +4896,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C233" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234">
@@ -4910,16 +4913,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C234" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235">
@@ -4927,16 +4930,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C235" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236">
@@ -4944,16 +4947,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C236" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="237">
@@ -4961,16 +4964,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C237" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="238">
@@ -4978,16 +4981,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C238" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="239">
@@ -4995,16 +4998,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C239" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240">
@@ -5012,16 +5015,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C240" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241">
@@ -5029,16 +5032,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C241" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242">
@@ -5046,16 +5049,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C242" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243">
@@ -5063,16 +5066,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C243" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244">
@@ -5080,16 +5083,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C244" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245">
@@ -5097,16 +5100,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C245" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246">
@@ -5114,16 +5117,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C246" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="247">
@@ -5131,16 +5134,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C247" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248">
@@ -5148,16 +5151,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C248" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249">
@@ -5165,16 +5168,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C249" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250">
@@ -5182,16 +5185,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C250" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -5199,16 +5202,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C251" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252">
@@ -5216,16 +5219,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C252" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
@@ -5233,16 +5236,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C253" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
@@ -5250,16 +5253,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C254" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255">
@@ -5267,16 +5270,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C255" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
@@ -5284,16 +5287,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C256" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
@@ -5301,16 +5304,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C257" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -5318,16 +5321,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C258" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -5335,7 +5338,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C259" s="4">
         <v>198</v>
@@ -5344,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -5352,25 +5355,27 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C260" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
-      <c r="E260" s="4"/>
+      <c r="E260" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C261" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
@@ -5382,10 +5387,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C262" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5397,10 +5402,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C263" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5412,10 +5417,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C264" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5427,10 +5432,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C265" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5442,10 +5447,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C266" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5457,10 +5462,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C267" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5472,10 +5477,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C268" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5487,10 +5492,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C269" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5502,10 +5507,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C270" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5517,10 +5522,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C271" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5535,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5547,10 +5552,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C273" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5562,10 +5567,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C274" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5577,10 +5582,14 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>1</v>
-      </c>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C275" s="4">
+        <v>5</v>
+      </c>
+      <c r="D275" s="4">
+        <v>0</v>
+      </c>
       <c r="E275" s="4"/>
     </row>
     <row r="276">
@@ -5588,14 +5597,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>0</v>
-      </c>
-      <c r="C276" s="4">
-        <v>5</v>
-      </c>
-      <c r="D276" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277">
@@ -5606,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277" s="4">
         <v>0</v>
@@ -5620,8 +5625,12 @@
       <c r="B278" s="4">
         <v>0</v>
       </c>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4">
+        <v>0</v>
+      </c>
       <c r="E278" s="4"/>
     </row>
     <row r="279">
@@ -5642,12 +5651,8 @@
       <c r="B280" s="4">
         <v>0</v>
       </c>
-      <c r="C280" s="4">
-        <v>1</v>
-      </c>
-      <c r="D280" s="4">
-        <v>0</v>
-      </c>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281">
@@ -5657,8 +5662,12 @@
       <c r="B281" s="4">
         <v>0</v>
       </c>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4">
+        <v>0</v>
+      </c>
       <c r="E281" s="4"/>
     </row>
     <row r="282">
@@ -5666,15 +5675,26 @@
         <v>280</v>
       </c>
       <c r="B282" s="4">
+        <v>0</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" s="4">
         <v>1</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C283" s="4">
         <v>1</v>
       </c>
-      <c r="D282" s="4">
-        <v>0</v>
-      </c>
-      <c r="E282" s="4"/>
+      <c r="D283" s="4">
+        <v>0</v>
+      </c>
+      <c r="E283" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+  <si>
+    <t>12/9/2020</t>
+  </si>
   <si>
     <t>12/8/2020</t>
   </si>
@@ -952,24 +955,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E284"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2">
@@ -977,12 +980,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5605</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="3">
@@ -990,12 +993,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5560</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="4">
@@ -1003,16 +1006,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C4" s="4">
+        <v>1032</v>
+      </c>
+      <c r="D4" s="4">
         <v>355</v>
       </c>
-      <c r="D4" s="4">
-        <v>105</v>
-      </c>
       <c r="E4" s="4">
-        <v>5543</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="5">
@@ -1020,16 +1023,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C5" s="4">
-        <v>1214</v>
+        <v>993</v>
       </c>
       <c r="D5" s="4">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="E5" s="4">
-        <v>5516</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="6">
@@ -1037,16 +1040,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C6" s="4">
-        <v>2858</v>
+        <v>2017</v>
       </c>
       <c r="D6" s="4">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="E6" s="4">
-        <v>5467</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C7" s="4">
-        <v>4344</v>
+        <v>4415</v>
       </c>
       <c r="D7" s="4">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="E7" s="4">
-        <v>5410</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="8">
@@ -1071,16 +1074,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C8" s="4">
-        <v>5168</v>
+        <v>5008</v>
       </c>
       <c r="D8" s="4">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="E8" s="4">
-        <v>5366</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="9">
@@ -1088,16 +1091,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C9" s="4">
-        <v>5797</v>
+        <v>5381</v>
       </c>
       <c r="D9" s="4">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="E9" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="10">
@@ -1105,16 +1108,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C10" s="4">
-        <v>6815</v>
+        <v>6020</v>
       </c>
       <c r="D10" s="4">
-        <v>904</v>
+        <v>731</v>
       </c>
       <c r="E10" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="11">
@@ -1122,16 +1125,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C11" s="4">
-        <v>2311</v>
+        <v>6981</v>
       </c>
       <c r="D11" s="4">
-        <v>294</v>
+        <v>935</v>
       </c>
       <c r="E11" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="12">
@@ -1139,16 +1142,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C12" s="4">
-        <v>2567</v>
+        <v>2329</v>
       </c>
       <c r="D12" s="4">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E12" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="13">
@@ -1156,16 +1159,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C13" s="4">
-        <v>3321</v>
+        <v>2584</v>
       </c>
       <c r="D13" s="4">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="E13" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="14">
@@ -1173,16 +1176,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C14" s="4">
-        <v>631</v>
+        <v>3337</v>
       </c>
       <c r="D14" s="4">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="E14" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="15">
@@ -1190,16 +1193,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C15" s="4">
-        <v>3823</v>
+        <v>640</v>
       </c>
       <c r="D15" s="4">
-        <v>526</v>
+        <v>105</v>
       </c>
       <c r="E15" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="16">
@@ -1207,16 +1210,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C16" s="4">
-        <v>4050</v>
+        <v>3841</v>
       </c>
       <c r="D16" s="4">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="E16" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="17">
@@ -1224,16 +1227,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C17" s="4">
-        <v>4957</v>
+        <v>4074</v>
       </c>
       <c r="D17" s="4">
-        <v>751</v>
+        <v>582</v>
       </c>
       <c r="E17" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="18">
@@ -1241,16 +1244,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C18" s="4">
-        <v>1455</v>
+        <v>4990</v>
       </c>
       <c r="D18" s="4">
-        <v>232</v>
+        <v>755</v>
       </c>
       <c r="E18" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="19">
@@ -1258,16 +1261,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C19" s="4">
-        <v>1781</v>
+        <v>1457</v>
       </c>
       <c r="D19" s="4">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E19" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="20">
@@ -1275,16 +1278,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C20" s="4">
-        <v>3307</v>
+        <v>1783</v>
       </c>
       <c r="D20" s="4">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="E20" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="21">
@@ -1292,16 +1295,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C21" s="4">
-        <v>3427</v>
+        <v>3315</v>
       </c>
       <c r="D21" s="4">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E21" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="22">
@@ -1309,16 +1312,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C22" s="4">
-        <v>3487</v>
+        <v>3430</v>
       </c>
       <c r="D22" s="4">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E22" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="23">
@@ -1326,16 +1329,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C23" s="4">
-        <v>4053</v>
+        <v>3489</v>
       </c>
       <c r="D23" s="4">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="E23" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="24">
@@ -1343,16 +1346,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C24" s="4">
-        <v>4645</v>
+        <v>4057</v>
       </c>
       <c r="D24" s="4">
-        <v>611</v>
+        <v>483</v>
       </c>
       <c r="E24" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="25">
@@ -1360,16 +1363,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C25" s="4">
-        <v>1516</v>
+        <v>4647</v>
       </c>
       <c r="D25" s="4">
-        <v>185</v>
+        <v>615</v>
       </c>
       <c r="E25" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="26">
@@ -1377,16 +1380,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C26" s="4">
-        <v>1789</v>
+        <v>1519</v>
       </c>
       <c r="D26" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E26" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="27">
@@ -1394,16 +1397,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C27" s="4">
-        <v>3436</v>
+        <v>1791</v>
       </c>
       <c r="D27" s="4">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="E27" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="28">
@@ -1411,16 +1414,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C28" s="4">
-        <v>3225</v>
+        <v>3437</v>
       </c>
       <c r="D28" s="4">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="E28" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="29">
@@ -1428,16 +1431,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C29" s="4">
-        <v>3034</v>
+        <v>3226</v>
       </c>
       <c r="D29" s="4">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="E29" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="30">
@@ -1445,16 +1448,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C30" s="4">
-        <v>3387</v>
+        <v>3034</v>
       </c>
       <c r="D30" s="4">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E30" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="31">
@@ -1462,16 +1465,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C31" s="4">
-        <v>4076</v>
+        <v>3389</v>
       </c>
       <c r="D31" s="4">
-        <v>475</v>
+        <v>365</v>
       </c>
       <c r="E31" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="32">
@@ -1479,16 +1482,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C32" s="4">
-        <v>1376</v>
+        <v>4075</v>
       </c>
       <c r="D32" s="4">
-        <v>136</v>
+        <v>477</v>
       </c>
       <c r="E32" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="33">
@@ -1496,16 +1499,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C33" s="4">
-        <v>1490</v>
+        <v>1376</v>
       </c>
       <c r="D33" s="4">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E33" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="34">
@@ -1513,16 +1516,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C34" s="4">
-        <v>2412</v>
+        <v>1491</v>
       </c>
       <c r="D34" s="4">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="E34" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="35">
@@ -1530,16 +1533,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C35" s="4">
-        <v>2583</v>
+        <v>2411</v>
       </c>
       <c r="D35" s="4">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E35" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="36">
@@ -1547,16 +1550,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C36" s="4">
-        <v>2612</v>
+        <v>2583</v>
       </c>
       <c r="D36" s="4">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E36" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="37">
@@ -1564,16 +1567,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C37" s="4">
-        <v>2656</v>
+        <v>2612</v>
       </c>
       <c r="D37" s="4">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="E37" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="38">
@@ -1581,16 +1584,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C38" s="4">
-        <v>3113</v>
+        <v>2657</v>
       </c>
       <c r="D38" s="4">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="E38" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="39">
@@ -1598,16 +1601,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C39" s="4">
-        <v>940</v>
+        <v>3115</v>
       </c>
       <c r="D39" s="4">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="E39" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="40">
@@ -1615,16 +1618,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C40" s="4">
-        <v>1063</v>
+        <v>940</v>
       </c>
       <c r="D40" s="4">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E40" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="41">
@@ -1632,16 +1635,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C41" s="4">
-        <v>2253</v>
+        <v>1064</v>
       </c>
       <c r="D41" s="4">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="42">
@@ -1649,16 +1652,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C42" s="4">
-        <v>1982</v>
+        <v>2253</v>
       </c>
       <c r="D42" s="4">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E42" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="43">
@@ -1666,16 +1669,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C43" s="4">
-        <v>2439</v>
+        <v>1982</v>
       </c>
       <c r="D43" s="4">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E43" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="44">
@@ -1683,16 +1686,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C44" s="4">
-        <v>2424</v>
+        <v>2440</v>
       </c>
       <c r="D44" s="4">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E44" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="45">
@@ -1700,16 +1703,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C45" s="4">
-        <v>2986</v>
+        <v>2424</v>
       </c>
       <c r="D45" s="4">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="E45" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="46">
@@ -1717,16 +1720,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C46" s="4">
-        <v>908</v>
+        <v>2986</v>
       </c>
       <c r="D46" s="4">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="E46" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="47">
@@ -1734,16 +1737,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C47" s="4">
-        <v>1070</v>
+        <v>908</v>
       </c>
       <c r="D47" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="48">
@@ -1751,16 +1754,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C48" s="4">
-        <v>2203</v>
+        <v>1070</v>
       </c>
       <c r="D48" s="4">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="E48" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="49">
@@ -1768,16 +1771,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C49" s="4">
-        <v>2141</v>
+        <v>2203</v>
       </c>
       <c r="D49" s="4">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E49" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="50">
@@ -1785,16 +1788,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C50" s="4">
-        <v>2458</v>
+        <v>2140</v>
       </c>
       <c r="D50" s="4">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E50" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="51">
@@ -1802,16 +1805,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C51" s="4">
         <v>2458</v>
       </c>
       <c r="D51" s="4">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="E51" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="52">
@@ -1819,16 +1822,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C52" s="4">
-        <v>2799</v>
+        <v>2458</v>
       </c>
       <c r="D52" s="4">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E52" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="53">
@@ -1836,16 +1839,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C53" s="4">
-        <v>849</v>
+        <v>2799</v>
       </c>
       <c r="D53" s="4">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="E53" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="54">
@@ -1853,16 +1856,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C54" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D54" s="4">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E54" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="55">
@@ -1870,16 +1873,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C55" s="4">
-        <v>2055</v>
+        <v>951</v>
       </c>
       <c r="D55" s="4">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E55" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="56">
@@ -1887,16 +1890,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C56" s="4">
-        <v>2105</v>
+        <v>2055</v>
       </c>
       <c r="D56" s="4">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="E56" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="57">
@@ -1904,16 +1907,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C57" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D57" s="4">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="E57" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="58">
@@ -1921,16 +1924,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C58" s="4">
-        <v>2385</v>
+        <v>2131</v>
       </c>
       <c r="D58" s="4">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="E58" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="59">
@@ -1938,16 +1941,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C59" s="4">
-        <v>2682</v>
+        <v>2383</v>
       </c>
       <c r="D59" s="4">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E59" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="60">
@@ -1955,16 +1958,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C60" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D60" s="4">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="E60" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="61">
@@ -1972,16 +1975,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C61" s="4">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="D61" s="4">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E61" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="62">
@@ -1989,16 +1992,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C62" s="4">
-        <v>1814</v>
+        <v>939</v>
       </c>
       <c r="D62" s="4">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="E62" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="63">
@@ -2006,16 +2009,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C63" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D63" s="4">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E63" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="64">
@@ -2023,16 +2026,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C64" s="4">
-        <v>1927</v>
+        <v>2005</v>
       </c>
       <c r="D64" s="4">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E64" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="65">
@@ -2040,16 +2043,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="4">
-        <v>2067</v>
+        <v>1928</v>
       </c>
       <c r="D65" s="4">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E65" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="66">
@@ -2057,16 +2060,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C66" s="4">
-        <v>2472</v>
+        <v>2068</v>
       </c>
       <c r="D66" s="4">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="E66" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="67">
@@ -2074,16 +2077,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C67" s="4">
-        <v>820</v>
+        <v>2473</v>
       </c>
       <c r="D67" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E67" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="68">
@@ -2091,16 +2094,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C68" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D68" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E68" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="69">
@@ -2108,16 +2111,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C69" s="4">
-        <v>1838</v>
+        <v>982</v>
       </c>
       <c r="D69" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E69" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="70">
@@ -2125,16 +2128,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C70" s="4">
-        <v>1820</v>
+        <v>1838</v>
       </c>
       <c r="D70" s="4">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E70" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="71">
@@ -2142,16 +2145,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C71" s="4">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="D71" s="4">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="72">
@@ -2159,16 +2162,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C72" s="4">
-        <v>1809</v>
+        <v>1835</v>
       </c>
       <c r="D72" s="4">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E72" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="73">
@@ -2176,16 +2179,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C73" s="4">
-        <v>2119</v>
+        <v>1810</v>
       </c>
       <c r="D73" s="4">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="E73" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="74">
@@ -2193,16 +2196,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C74" s="4">
-        <v>640</v>
+        <v>2119</v>
       </c>
       <c r="D74" s="4">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="E74" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="75">
@@ -2210,16 +2213,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C75" s="4">
-        <v>763</v>
+        <v>640</v>
       </c>
       <c r="D75" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E75" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="76">
@@ -2227,16 +2230,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C76" s="4">
-        <v>1227</v>
+        <v>765</v>
       </c>
       <c r="D76" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E76" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="77">
@@ -2244,16 +2247,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C77" s="4">
-        <v>1491</v>
+        <v>1227</v>
       </c>
       <c r="D77" s="4">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E77" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="78">
@@ -2261,16 +2264,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C78" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D78" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E78" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="79">
@@ -2278,16 +2281,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C79" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D79" s="4">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E79" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="80">
@@ -2295,16 +2298,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C80" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D80" s="4">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E80" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="81">
@@ -2312,16 +2315,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C81" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D81" s="4">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="E81" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="82">
@@ -2329,16 +2332,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C82" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D82" s="4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E82" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="83">
@@ -2346,16 +2349,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C83" s="4">
-        <v>1306</v>
+        <v>665</v>
       </c>
       <c r="D83" s="4">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E83" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="84">
@@ -2363,16 +2366,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C84" s="4">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="D84" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E84" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="85">
@@ -2380,16 +2383,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C85" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D85" s="4">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E85" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="86">
@@ -2397,16 +2400,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C86" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D86" s="4">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E86" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="87">
@@ -2414,16 +2417,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C87" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D87" s="4">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E87" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="88">
@@ -2431,16 +2434,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C88" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D88" s="4">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E88" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="89">
@@ -2448,16 +2451,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C89" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D89" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E89" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="90">
@@ -2465,16 +2468,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C90" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D90" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E90" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="91">
@@ -2482,16 +2485,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C91" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D91" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E91" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="92">
@@ -2499,16 +2502,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C92" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D92" s="4">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E92" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="93">
@@ -2516,16 +2519,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C93" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D93" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E93" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="94">
@@ -2533,16 +2536,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C94" s="4">
-        <v>720</v>
+        <v>1888</v>
       </c>
       <c r="D94" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E94" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="95">
@@ -2550,16 +2553,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C95" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D95" s="4">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E95" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="96">
@@ -2567,16 +2570,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C96" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D96" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E96" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="97">
@@ -2584,16 +2587,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C97" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D97" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E97" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="98">
@@ -2601,16 +2604,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C98" s="4">
-        <v>1537</v>
+        <v>1259</v>
       </c>
       <c r="D98" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E98" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="99">
@@ -2618,16 +2621,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C99" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D99" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E99" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="100">
@@ -2635,16 +2638,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C100" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D100" s="4">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E100" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="101">
@@ -2652,16 +2655,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C101" s="4">
-        <v>1812</v>
+        <v>1635</v>
       </c>
       <c r="D101" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E101" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="102">
@@ -2669,16 +2672,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C102" s="4">
-        <v>638</v>
+        <v>1812</v>
       </c>
       <c r="D102" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E102" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="103">
@@ -2686,16 +2689,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C103" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D103" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E103" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="104">
@@ -2703,16 +2706,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C104" s="4">
-        <v>1550</v>
+        <v>840</v>
       </c>
       <c r="D104" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="105">
@@ -2720,16 +2723,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C105" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D105" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E105" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="106">
@@ -2737,16 +2740,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C106" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D106" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="107">
@@ -2754,16 +2757,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C107" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D107" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E107" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="108">
@@ -2771,16 +2774,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C108" s="4">
-        <v>2193</v>
+        <v>2034</v>
       </c>
       <c r="D108" s="4">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E108" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="109">
@@ -2788,16 +2791,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C109" s="4">
-        <v>784</v>
+        <v>2194</v>
       </c>
       <c r="D109" s="4">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="E109" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="110">
@@ -2805,16 +2808,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C110" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D110" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E110" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="111">
@@ -2822,16 +2825,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C111" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D111" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E111" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="112">
@@ -2839,16 +2842,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C112" s="4">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="D112" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E112" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="113">
@@ -2856,16 +2859,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C113" s="4">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D113" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E113" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="114">
@@ -2873,16 +2876,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C114" s="4">
-        <v>1978</v>
+        <v>1734</v>
       </c>
       <c r="D114" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E114" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="115">
@@ -2890,16 +2893,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C115" s="4">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="D115" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E115" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="116">
@@ -2907,16 +2910,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C116" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D116" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E116" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="117">
@@ -2924,16 +2927,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C117" s="4">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="D117" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E117" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="118">
@@ -2941,16 +2944,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C118" s="4">
-        <v>1554</v>
+        <v>762</v>
       </c>
       <c r="D118" s="4">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E118" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="119">
@@ -2958,16 +2961,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C119" s="4">
-        <v>1487</v>
+        <v>1554</v>
       </c>
       <c r="D119" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E119" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="120">
@@ -2975,16 +2978,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C120" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D120" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E120" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="121">
@@ -2992,16 +2995,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C121" s="4">
-        <v>1484</v>
+        <v>1511</v>
       </c>
       <c r="D121" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E121" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="122">
@@ -3009,16 +3012,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C122" s="4">
-        <v>1735</v>
+        <v>1485</v>
       </c>
       <c r="D122" s="4">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E122" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="123">
@@ -3026,16 +3029,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C123" s="4">
-        <v>581</v>
+        <v>1737</v>
       </c>
       <c r="D123" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E123" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="124">
@@ -3043,16 +3046,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C124" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D124" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E124" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="125">
@@ -3060,16 +3063,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C125" s="4">
-        <v>1410</v>
+        <v>719</v>
       </c>
       <c r="D125" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E125" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="126">
@@ -3077,16 +3080,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C126" s="4">
-        <v>1481</v>
+        <v>1411</v>
       </c>
       <c r="D126" s="4">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E126" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="127">
@@ -3094,16 +3097,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C127" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D127" s="4">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E127" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="128">
@@ -3111,16 +3114,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C128" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D128" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="129">
@@ -3128,16 +3131,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C129" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D129" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E129" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="130">
@@ -3145,16 +3148,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C130" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D130" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E130" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="131">
@@ -3162,16 +3165,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C131" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D131" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E131" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="132">
@@ -3179,16 +3182,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C132" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D132" s="4">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E132" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="133">
@@ -3196,16 +3199,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C133" s="4">
-        <v>1803</v>
+        <v>1723</v>
       </c>
       <c r="D133" s="4">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E133" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="134">
@@ -3213,16 +3216,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C134" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D134" s="4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E134" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="135">
@@ -3230,16 +3233,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C135" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D135" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E135" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="136">
@@ -3247,16 +3250,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C136" s="4">
-        <v>2130</v>
+        <v>2022</v>
       </c>
       <c r="D136" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E136" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="137">
@@ -3264,16 +3267,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C137" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D137" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E137" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="138">
@@ -3281,16 +3284,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C138" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D138" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E138" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="139">
@@ -3298,16 +3301,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C139" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D139" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E139" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="140">
@@ -3315,16 +3318,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C140" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D140" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E140" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="141">
@@ -3332,16 +3335,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C141" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D141" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E141" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="142">
@@ -3349,16 +3352,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C142" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D142" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E142" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="143">
@@ -3366,16 +3369,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C143" s="4">
-        <v>2330</v>
+        <v>2283</v>
       </c>
       <c r="D143" s="4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E143" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="144">
@@ -3383,16 +3386,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C144" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D144" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E144" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="145">
@@ -3400,16 +3403,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C145" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D145" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E145" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="146">
@@ -3417,16 +3420,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C146" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D146" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E146" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="147">
@@ -3434,16 +3437,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C147" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D147" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E147" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="148">
@@ -3451,16 +3454,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C148" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D148" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E148" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="149">
@@ -3468,16 +3471,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C149" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D149" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E149" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="150">
@@ -3485,16 +3488,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C150" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D150" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E150" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="151">
@@ -3502,16 +3505,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C151" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D151" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E151" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="152">
@@ -3519,16 +3522,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C152" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D152" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E152" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="153">
@@ -3536,16 +3539,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C153" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D153" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E153" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="154">
@@ -3553,16 +3556,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C154" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D154" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E154" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="155">
@@ -3570,16 +3573,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C155" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D155" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E155" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="156">
@@ -3587,16 +3590,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C156" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D156" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E156" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="157">
@@ -3604,16 +3607,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C157" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D157" s="4">
         <v>22</v>
       </c>
       <c r="E157" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="158">
@@ -3621,16 +3624,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C158" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D158" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E158" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="159">
@@ -3638,16 +3641,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C159" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D159" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E159" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="160">
@@ -3655,16 +3658,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C160" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D160" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E160" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="161">
@@ -3672,16 +3675,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C161" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D161" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E161" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="162">
@@ -3689,16 +3692,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C162" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D162" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E162" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="163">
@@ -3706,16 +3709,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C163" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D163" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E163" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="164">
@@ -3723,16 +3726,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C164" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D164" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E164" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="165">
@@ -3740,16 +3743,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C165" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D165" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E165" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="166">
@@ -3757,16 +3760,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C166" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="167">
@@ -3774,16 +3777,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C167" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D167" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E167" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="168">
@@ -3791,16 +3794,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C168" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D168" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E168" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="169">
@@ -3808,16 +3811,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C169" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D169" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E169" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="170">
@@ -3825,16 +3828,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C170" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D170" s="4">
         <v>10</v>
       </c>
       <c r="E170" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="171">
@@ -3842,16 +3845,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C171" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D171" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E171" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="172">
@@ -3859,16 +3862,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C172" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D172" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E172" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="173">
@@ -3876,16 +3879,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C173" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="174">
@@ -3893,16 +3896,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C174" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D174" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="175">
@@ -3910,16 +3913,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C175" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D175" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E175" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="176">
@@ -3927,16 +3930,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C176" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D176" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E176" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="177">
@@ -3944,16 +3947,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C177" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D177" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="178">
@@ -3961,16 +3964,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C178" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="179">
@@ -3978,16 +3981,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C179" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D179" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="180">
@@ -3995,16 +3998,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C180" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="181">
@@ -4012,16 +4015,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C181" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D181" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="182">
@@ -4029,16 +4032,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C182" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D182" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="183">
@@ -4046,16 +4049,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C183" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D183" s="4">
         <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="184">
@@ -4063,16 +4066,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C184" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="185">
@@ -4080,16 +4083,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C185" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="186">
@@ -4097,16 +4100,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C186" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187">
@@ -4114,16 +4117,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C187" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="188">
@@ -4131,16 +4134,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C188" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="189">
@@ -4148,16 +4151,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C189" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D189" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="190">
@@ -4165,16 +4168,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C190" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D190" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="191">
@@ -4182,16 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C191" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="192">
@@ -4199,16 +4202,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C192" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="193">
@@ -4216,16 +4219,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C193" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="194">
@@ -4233,16 +4236,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C194" s="4">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="195">
@@ -4250,16 +4253,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C195" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="196">
@@ -4267,16 +4270,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C196" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="197">
@@ -4284,16 +4287,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C197" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D197" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198">
@@ -4301,16 +4304,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C198" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D198" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="199">
@@ -4318,16 +4321,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C199" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D199" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E199" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="200">
@@ -4335,16 +4338,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C200" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="201">
@@ -4352,16 +4355,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C201" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="202">
@@ -4369,16 +4372,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C202" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="203">
@@ -4386,16 +4389,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C203" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="204">
@@ -4403,16 +4406,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C204" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="205">
@@ -4420,16 +4423,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C205" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="206">
@@ -4437,16 +4440,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C206" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207">
@@ -4454,16 +4457,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C207" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="208">
@@ -4471,16 +4474,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C208" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="209">
@@ -4488,16 +4491,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C209" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D209" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="210">
@@ -4505,16 +4508,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C210" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D210" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="211">
@@ -4522,16 +4525,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C211" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212">
@@ -4539,16 +4542,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C212" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213">
@@ -4556,16 +4559,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C213" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="214">
@@ -4573,16 +4576,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C214" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215">
@@ -4590,16 +4593,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C215" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216">
@@ -4607,16 +4610,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C216" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="217">
@@ -4624,16 +4627,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C217" s="4">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218">
@@ -4641,16 +4644,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C218" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="219">
@@ -4658,16 +4661,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C219" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220">
@@ -4675,16 +4678,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C220" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221">
@@ -4692,16 +4695,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C221" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="222">
@@ -4709,16 +4712,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C222" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223">
@@ -4726,16 +4729,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C223" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224">
@@ -4743,16 +4746,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C224" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -4760,16 +4763,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C225" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="226">
@@ -4777,16 +4780,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C226" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227">
@@ -4794,16 +4797,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C227" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="228">
@@ -4811,16 +4814,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C228" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229">
@@ -4828,16 +4831,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C229" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230">
@@ -4845,16 +4848,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C230" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231">
@@ -4862,16 +4865,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C231" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232">
@@ -4879,16 +4882,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C232" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233">
@@ -4896,16 +4899,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C233" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234">
@@ -4913,16 +4916,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C234" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235">
@@ -4930,16 +4933,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C235" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236">
@@ -4947,16 +4950,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C236" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237">
@@ -4964,16 +4967,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C237" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="238">
@@ -4981,16 +4984,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C238" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="239">
@@ -4998,16 +5001,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C239" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="240">
@@ -5015,16 +5018,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C240" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241">
@@ -5032,16 +5035,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C241" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="242">
@@ -5049,16 +5052,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C242" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243">
@@ -5066,16 +5069,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C243" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244">
@@ -5083,16 +5086,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C244" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245">
@@ -5100,16 +5103,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C245" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246">
@@ -5117,16 +5120,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C246" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247">
@@ -5134,16 +5137,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C247" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248">
@@ -5151,16 +5154,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C248" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249">
@@ -5168,16 +5171,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C249" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250">
@@ -5185,16 +5188,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C250" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251">
@@ -5202,16 +5205,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C251" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -5219,16 +5222,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C252" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5239,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C253" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254">
@@ -5253,16 +5256,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C254" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
@@ -5270,16 +5273,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C255" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
@@ -5287,16 +5290,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C256" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -5304,16 +5307,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C257" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258">
@@ -5321,16 +5324,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C258" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
@@ -5338,16 +5341,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C259" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -5355,7 +5358,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C260" s="4">
         <v>198</v>
@@ -5364,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -5372,25 +5375,27 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C261" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
       </c>
-      <c r="E261" s="4"/>
+      <c r="E261" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C262" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5402,10 +5407,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C263" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5417,10 +5422,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C264" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5432,10 +5437,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C265" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5447,10 +5452,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C266" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5462,10 +5467,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C267" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5477,10 +5482,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C268" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5492,10 +5497,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C269" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5507,10 +5512,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C270" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5522,10 +5527,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C271" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5537,10 +5542,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C272" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5555,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5567,10 +5572,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C274" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5582,10 +5587,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C275" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5597,10 +5602,14 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>1</v>
-      </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C276" s="4">
+        <v>5</v>
+      </c>
+      <c r="D276" s="4">
+        <v>0</v>
+      </c>
       <c r="E276" s="4"/>
     </row>
     <row r="277">
@@ -5608,14 +5617,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>0</v>
-      </c>
-      <c r="C277" s="4">
-        <v>5</v>
-      </c>
-      <c r="D277" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278">
@@ -5626,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278" s="4">
         <v>0</v>
@@ -5640,8 +5645,12 @@
       <c r="B279" s="4">
         <v>0</v>
       </c>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4">
+        <v>0</v>
+      </c>
       <c r="E279" s="4"/>
     </row>
     <row r="280">
@@ -5662,12 +5671,8 @@
       <c r="B281" s="4">
         <v>0</v>
       </c>
-      <c r="C281" s="4">
-        <v>1</v>
-      </c>
-      <c r="D281" s="4">
-        <v>0</v>
-      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282">
@@ -5677,8 +5682,12 @@
       <c r="B282" s="4">
         <v>0</v>
       </c>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="C282" s="4">
+        <v>1</v>
+      </c>
+      <c r="D282" s="4">
+        <v>0</v>
+      </c>
       <c r="E282" s="4"/>
     </row>
     <row r="283">
@@ -5686,15 +5695,26 @@
         <v>281</v>
       </c>
       <c r="B283" s="4">
+        <v>0</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284" s="4">
         <v>1</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C284" s="4">
         <v>1</v>
       </c>
-      <c r="D283" s="4">
-        <v>0</v>
-      </c>
-      <c r="E283" s="4"/>
+      <c r="D284" s="4">
+        <v>0</v>
+      </c>
+      <c r="E284" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+  <si>
+    <t>12/10/2020</t>
+  </si>
   <si>
     <t>12/9/2020</t>
   </si>
@@ -955,24 +958,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E285"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2">
@@ -980,12 +983,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>6495</v>
+        <v>5556</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
-        <v>5661</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="3">
@@ -993,12 +996,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5605</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="4">
@@ -1006,16 +1009,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C4" s="4">
-        <v>1032</v>
+        <v>827</v>
       </c>
       <c r="D4" s="4">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="E4" s="4">
-        <v>5560</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="5">
@@ -1023,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C5" s="4">
-        <v>993</v>
+        <v>3047</v>
       </c>
       <c r="D5" s="4">
-        <v>227</v>
+        <v>602</v>
       </c>
       <c r="E5" s="4">
-        <v>5543</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="6">
@@ -1040,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C6" s="4">
-        <v>2017</v>
+        <v>1365</v>
       </c>
       <c r="D6" s="4">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E6" s="4">
-        <v>5516</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1060,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C7" s="4">
-        <v>4415</v>
+        <v>2620</v>
       </c>
       <c r="D7" s="4">
-        <v>536</v>
+        <v>329</v>
       </c>
       <c r="E7" s="4">
-        <v>5467</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="8">
@@ -1074,16 +1077,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C8" s="4">
-        <v>5008</v>
+        <v>4891</v>
       </c>
       <c r="D8" s="4">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="E8" s="4">
-        <v>5410</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="9">
@@ -1091,16 +1094,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C9" s="4">
-        <v>5381</v>
+        <v>5090</v>
       </c>
       <c r="D9" s="4">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="E9" s="4">
-        <v>5366</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="10">
@@ -1108,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C10" s="4">
-        <v>6020</v>
+        <v>5419</v>
       </c>
       <c r="D10" s="4">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="E10" s="4">
-        <v>5284</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="11">
@@ -1125,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C11" s="4">
-        <v>6981</v>
+        <v>6112</v>
       </c>
       <c r="D11" s="4">
-        <v>935</v>
+        <v>758</v>
       </c>
       <c r="E11" s="4">
-        <v>5261</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="12">
@@ -1142,16 +1145,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C12" s="4">
-        <v>2329</v>
+        <v>7072</v>
       </c>
       <c r="D12" s="4">
-        <v>295</v>
+        <v>955</v>
       </c>
       <c r="E12" s="4">
-        <v>5240</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="13">
@@ -1159,16 +1162,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C13" s="4">
-        <v>2584</v>
+        <v>2342</v>
       </c>
       <c r="D13" s="4">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="E13" s="4">
-        <v>5219</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="14">
@@ -1176,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C14" s="4">
-        <v>3337</v>
+        <v>2599</v>
       </c>
       <c r="D14" s="4">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="E14" s="4">
-        <v>5210</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1196,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C15" s="4">
-        <v>640</v>
+        <v>3339</v>
       </c>
       <c r="D15" s="4">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="E15" s="4">
-        <v>5181</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="16">
@@ -1210,16 +1213,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C16" s="4">
-        <v>3841</v>
+        <v>641</v>
       </c>
       <c r="D16" s="4">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="E16" s="4">
-        <v>5138</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="17">
@@ -1227,16 +1230,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C17" s="4">
-        <v>4074</v>
+        <v>3843</v>
       </c>
       <c r="D17" s="4">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="E17" s="4">
-        <v>5074</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="18">
@@ -1244,16 +1247,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C18" s="4">
-        <v>4990</v>
+        <v>4086</v>
       </c>
       <c r="D18" s="4">
-        <v>755</v>
+        <v>590</v>
       </c>
       <c r="E18" s="4">
-        <v>5039</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="19">
@@ -1261,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C19" s="4">
-        <v>1457</v>
+        <v>4997</v>
       </c>
       <c r="D19" s="4">
-        <v>232</v>
+        <v>764</v>
       </c>
       <c r="E19" s="4">
-        <v>5034</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="20">
@@ -1278,16 +1281,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C20" s="4">
-        <v>1783</v>
+        <v>1457</v>
       </c>
       <c r="D20" s="4">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E20" s="4">
-        <v>5005</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="21">
@@ -1295,16 +1298,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C21" s="4">
-        <v>3315</v>
+        <v>1789</v>
       </c>
       <c r="D21" s="4">
-        <v>409</v>
+        <v>248</v>
       </c>
       <c r="E21" s="4">
-        <v>4979</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="22">
@@ -1312,16 +1315,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C22" s="4">
-        <v>3430</v>
+        <v>3317</v>
       </c>
       <c r="D22" s="4">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E22" s="4">
-        <v>4936</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="23">
@@ -1329,16 +1332,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C23" s="4">
-        <v>3489</v>
+        <v>3433</v>
       </c>
       <c r="D23" s="4">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="E23" s="4">
-        <v>4898</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="24">
@@ -1346,16 +1349,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C24" s="4">
-        <v>4057</v>
+        <v>3492</v>
       </c>
       <c r="D24" s="4">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="E24" s="4">
-        <v>4852</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="25">
@@ -1363,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C25" s="4">
-        <v>4647</v>
+        <v>4063</v>
       </c>
       <c r="D25" s="4">
-        <v>615</v>
+        <v>484</v>
       </c>
       <c r="E25" s="4">
-        <v>4814</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="26">
@@ -1380,16 +1383,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C26" s="4">
-        <v>1519</v>
+        <v>4649</v>
       </c>
       <c r="D26" s="4">
-        <v>185</v>
+        <v>619</v>
       </c>
       <c r="E26" s="4">
-        <v>4806</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="27">
@@ -1397,16 +1400,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C27" s="4">
-        <v>1791</v>
+        <v>1519</v>
       </c>
       <c r="D27" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E27" s="4">
-        <v>4756</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="28">
@@ -1414,16 +1417,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C28" s="4">
-        <v>3437</v>
+        <v>1792</v>
       </c>
       <c r="D28" s="4">
-        <v>402</v>
+        <v>181</v>
       </c>
       <c r="E28" s="4">
-        <v>4720</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="29">
@@ -1431,16 +1434,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C29" s="4">
-        <v>3226</v>
+        <v>3437</v>
       </c>
       <c r="D29" s="4">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="E29" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="30">
@@ -1448,16 +1451,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C30" s="4">
-        <v>3034</v>
+        <v>3225</v>
       </c>
       <c r="D30" s="4">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="E30" s="4">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="31">
@@ -1465,16 +1468,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C31" s="4">
-        <v>3389</v>
+        <v>3033</v>
       </c>
       <c r="D31" s="4">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E31" s="4">
-        <v>4660</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="32">
@@ -1482,16 +1485,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C32" s="4">
-        <v>4075</v>
+        <v>3391</v>
       </c>
       <c r="D32" s="4">
-        <v>477</v>
+        <v>367</v>
       </c>
       <c r="E32" s="4">
-        <v>4615</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="33">
@@ -1499,16 +1502,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C33" s="4">
-        <v>1376</v>
+        <v>4075</v>
       </c>
       <c r="D33" s="4">
-        <v>136</v>
+        <v>476</v>
       </c>
       <c r="E33" s="4">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="34">
@@ -1516,16 +1519,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C34" s="4">
-        <v>1491</v>
+        <v>1377</v>
       </c>
       <c r="D34" s="4">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E34" s="4">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="35">
@@ -1533,16 +1536,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C35" s="4">
-        <v>2411</v>
+        <v>1493</v>
       </c>
       <c r="D35" s="4">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="E35" s="4">
-        <v>4582</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="36">
@@ -1550,16 +1553,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C36" s="4">
-        <v>2583</v>
+        <v>2412</v>
       </c>
       <c r="D36" s="4">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E36" s="4">
-        <v>4548</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="37">
@@ -1567,16 +1570,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C37" s="4">
-        <v>2612</v>
+        <v>2584</v>
       </c>
       <c r="D37" s="4">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E37" s="4">
-        <v>4507</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="38">
@@ -1584,16 +1587,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C38" s="4">
-        <v>2657</v>
+        <v>2613</v>
       </c>
       <c r="D38" s="4">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="E38" s="4">
-        <v>4457</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="39">
@@ -1601,16 +1604,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C39" s="4">
-        <v>3115</v>
+        <v>2655</v>
       </c>
       <c r="D39" s="4">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="E39" s="4">
-        <v>4390</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="40">
@@ -1618,16 +1621,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C40" s="4">
-        <v>940</v>
+        <v>3118</v>
       </c>
       <c r="D40" s="4">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="E40" s="4">
-        <v>4383</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="41">
@@ -1635,16 +1638,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C41" s="4">
-        <v>1064</v>
+        <v>940</v>
       </c>
       <c r="D41" s="4">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4">
-        <v>4378</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="42">
@@ -1652,16 +1655,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C42" s="4">
-        <v>2253</v>
+        <v>1064</v>
       </c>
       <c r="D42" s="4">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4">
-        <v>4332</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="43">
@@ -1669,16 +1672,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C43" s="4">
-        <v>1982</v>
+        <v>2252</v>
       </c>
       <c r="D43" s="4">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E43" s="4">
-        <v>4283</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="44">
@@ -1686,16 +1689,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C44" s="4">
-        <v>2440</v>
+        <v>1981</v>
       </c>
       <c r="D44" s="4">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E44" s="4">
-        <v>4245</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="45">
@@ -1703,16 +1706,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C45" s="4">
-        <v>2424</v>
+        <v>2441</v>
       </c>
       <c r="D45" s="4">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E45" s="4">
-        <v>4211</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="46">
@@ -1720,16 +1723,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C46" s="4">
-        <v>2986</v>
+        <v>2424</v>
       </c>
       <c r="D46" s="4">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="E46" s="4">
-        <v>4170</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="47">
@@ -1737,16 +1740,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C47" s="4">
-        <v>908</v>
+        <v>2985</v>
       </c>
       <c r="D47" s="4">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="E47" s="4">
-        <v>4157</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="48">
@@ -1754,16 +1757,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C48" s="4">
-        <v>1070</v>
+        <v>908</v>
       </c>
       <c r="D48" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E48" s="4">
-        <v>4144</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="49">
@@ -1771,16 +1774,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C49" s="4">
-        <v>2203</v>
+        <v>1069</v>
       </c>
       <c r="D49" s="4">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="E49" s="4">
-        <v>4114</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="50">
@@ -1788,16 +1791,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C50" s="4">
-        <v>2140</v>
+        <v>2202</v>
       </c>
       <c r="D50" s="4">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E50" s="4">
-        <v>4082</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="51">
@@ -1805,16 +1808,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C51" s="4">
-        <v>2458</v>
+        <v>2140</v>
       </c>
       <c r="D51" s="4">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="E51" s="4">
-        <v>4032</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="52">
@@ -1822,16 +1825,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C52" s="4">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D52" s="4">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="E52" s="4">
-        <v>3992</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="53">
@@ -1839,16 +1842,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C53" s="4">
-        <v>2799</v>
+        <v>2458</v>
       </c>
       <c r="D53" s="4">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="E53" s="4">
-        <v>3939</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="54">
@@ -1856,16 +1859,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C54" s="4">
-        <v>849</v>
+        <v>2799</v>
       </c>
       <c r="D54" s="4">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E54" s="4">
-        <v>3934</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="55">
@@ -1873,16 +1876,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C55" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D55" s="4">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E55" s="4">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="56">
@@ -1890,16 +1893,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C56" s="4">
-        <v>2055</v>
+        <v>951</v>
       </c>
       <c r="D56" s="4">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E56" s="4">
-        <v>3910</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="57">
@@ -1907,16 +1910,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C57" s="4">
-        <v>2105</v>
+        <v>2055</v>
       </c>
       <c r="D57" s="4">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="E57" s="4">
-        <v>3874</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="58">
@@ -1924,16 +1927,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C58" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D58" s="4">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="E58" s="4">
-        <v>3856</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="59">
@@ -1941,16 +1944,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C59" s="4">
-        <v>2383</v>
+        <v>2131</v>
       </c>
       <c r="D59" s="4">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="E59" s="4">
-        <v>3816</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="60">
@@ -1958,16 +1961,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C60" s="4">
-        <v>2683</v>
+        <v>2383</v>
       </c>
       <c r="D60" s="4">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="E60" s="4">
-        <v>3773</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="61">
@@ -1975,16 +1978,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C61" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D61" s="4">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="E61" s="4">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="62">
@@ -1992,16 +1995,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C62" s="4">
-        <v>939</v>
+        <v>901</v>
       </c>
       <c r="D62" s="4">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E62" s="4">
-        <v>3765</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="63">
@@ -2009,16 +2012,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C63" s="4">
-        <v>1814</v>
+        <v>939</v>
       </c>
       <c r="D63" s="4">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="E63" s="4">
-        <v>3747</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="64">
@@ -2026,16 +2029,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C64" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D64" s="4">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E64" s="4">
-        <v>3722</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="65">
@@ -2043,16 +2046,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C65" s="4">
-        <v>1928</v>
+        <v>2005</v>
       </c>
       <c r="D65" s="4">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="E65" s="4">
-        <v>3693</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="66">
@@ -2060,16 +2063,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C66" s="4">
-        <v>2068</v>
+        <v>1926</v>
       </c>
       <c r="D66" s="4">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E66" s="4">
-        <v>3670</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="67">
@@ -2077,16 +2080,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C67" s="4">
-        <v>2473</v>
+        <v>2070</v>
       </c>
       <c r="D67" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="E67" s="4">
-        <v>3637</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="68">
@@ -2094,16 +2097,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C68" s="4">
-        <v>820</v>
+        <v>2474</v>
       </c>
       <c r="D68" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E68" s="4">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="69">
@@ -2111,16 +2114,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C69" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D69" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E69" s="4">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="70">
@@ -2128,16 +2131,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C70" s="4">
-        <v>1838</v>
+        <v>982</v>
       </c>
       <c r="D70" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E70" s="4">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="71">
@@ -2145,16 +2148,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C71" s="4">
-        <v>1820</v>
+        <v>1838</v>
       </c>
       <c r="D71" s="4">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E71" s="4">
-        <v>3579</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="72">
@@ -2162,16 +2165,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C72" s="4">
-        <v>1835</v>
+        <v>1821</v>
       </c>
       <c r="D72" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E72" s="4">
-        <v>3532</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="73">
@@ -2179,16 +2182,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C73" s="4">
-        <v>1810</v>
+        <v>1838</v>
       </c>
       <c r="D73" s="4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E73" s="4">
-        <v>3494</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="74">
@@ -2196,16 +2199,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C74" s="4">
-        <v>2119</v>
+        <v>1815</v>
       </c>
       <c r="D74" s="4">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="E74" s="4">
-        <v>3445</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="75">
@@ -2213,16 +2216,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C75" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D75" s="4">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="E75" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="76">
@@ -2230,16 +2233,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C76" s="4">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="D76" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E76" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="77">
@@ -2247,16 +2250,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C77" s="4">
-        <v>1227</v>
+        <v>765</v>
       </c>
       <c r="D77" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E77" s="4">
-        <v>3409</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="78">
@@ -2264,16 +2267,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C78" s="4">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="D78" s="4">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E78" s="4">
-        <v>3379</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="79">
@@ -2281,16 +2284,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C79" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D79" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E79" s="4">
-        <v>3338</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="80">
@@ -2298,16 +2301,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C80" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D80" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E80" s="4">
-        <v>3286</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="81">
@@ -2315,16 +2318,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C81" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D81" s="4">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E81" s="4">
-        <v>3247</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="82">
@@ -2332,16 +2335,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C82" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D82" s="4">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E82" s="4">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="83">
@@ -2349,16 +2352,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C83" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D83" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E83" s="4">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="84">
@@ -2366,16 +2369,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C84" s="4">
-        <v>1306</v>
+        <v>665</v>
       </c>
       <c r="D84" s="4">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="E84" s="4">
-        <v>3207</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="85">
@@ -2383,16 +2386,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C85" s="4">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="D85" s="4">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E85" s="4">
-        <v>3180</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="86">
@@ -2400,16 +2403,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C86" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D86" s="4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E86" s="4">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="87">
@@ -2417,16 +2420,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C87" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D87" s="4">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E87" s="4">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="88">
@@ -2434,16 +2437,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C88" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D88" s="4">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E88" s="4">
-        <v>3060</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="89">
@@ -2451,16 +2454,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C89" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D89" s="4">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E89" s="4">
-        <v>3052</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="90">
@@ -2468,16 +2471,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C90" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D90" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E90" s="4">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="91">
@@ -2485,16 +2488,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C91" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D91" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E91" s="4">
-        <v>3023</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="92">
@@ -2502,16 +2505,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C92" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D92" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E92" s="4">
-        <v>2990</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="93">
@@ -2519,16 +2522,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C93" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D93" s="4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E93" s="4">
-        <v>2958</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="94">
@@ -2536,16 +2539,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C94" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D94" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E94" s="4">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="95">
@@ -2553,16 +2556,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C95" s="4">
-        <v>721</v>
+        <v>1887</v>
       </c>
       <c r="D95" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E95" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="96">
@@ -2570,16 +2573,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C96" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D96" s="4">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E96" s="4">
-        <v>2890</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="97">
@@ -2587,16 +2590,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C97" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D97" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97" s="4">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="98">
@@ -2604,16 +2607,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C98" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D98" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E98" s="4">
-        <v>2839</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="99">
@@ -2621,16 +2624,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C99" s="4">
-        <v>1537</v>
+        <v>1259</v>
       </c>
       <c r="D99" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E99" s="4">
-        <v>2803</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="100">
@@ -2638,16 +2641,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C100" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D100" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E100" s="4">
-        <v>2779</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="101">
@@ -2655,16 +2658,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C101" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D101" s="4">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E101" s="4">
-        <v>2741</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="102">
@@ -2672,16 +2675,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C102" s="4">
-        <v>1812</v>
+        <v>1635</v>
       </c>
       <c r="D102" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E102" s="4">
-        <v>2702</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="103">
@@ -2689,16 +2692,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C103" s="4">
-        <v>638</v>
+        <v>1812</v>
       </c>
       <c r="D103" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E103" s="4">
-        <v>2692</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="104">
@@ -2706,16 +2709,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C104" s="4">
-        <v>840</v>
+        <v>638</v>
       </c>
       <c r="D104" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E104" s="4">
-        <v>2683</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="105">
@@ -2723,16 +2726,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C105" s="4">
-        <v>1551</v>
+        <v>840</v>
       </c>
       <c r="D105" s="4">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E105" s="4">
-        <v>2652</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="106">
@@ -2740,16 +2743,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C106" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D106" s="4">
         <v>81</v>
       </c>
       <c r="E106" s="4">
-        <v>2630</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="107">
@@ -2757,16 +2760,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C107" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D107" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E107" s="4">
-        <v>2606</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="108">
@@ -2774,16 +2777,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C108" s="4">
-        <v>2034</v>
+        <v>1756</v>
       </c>
       <c r="D108" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E108" s="4">
-        <v>2570</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="109">
@@ -2791,16 +2794,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C109" s="4">
-        <v>2194</v>
+        <v>2034</v>
       </c>
       <c r="D109" s="4">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E109" s="4">
-        <v>2535</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="110">
@@ -2808,16 +2811,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C110" s="4">
-        <v>784</v>
+        <v>2194</v>
       </c>
       <c r="D110" s="4">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="E110" s="4">
-        <v>2531</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="111">
@@ -2825,16 +2828,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C111" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D111" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E111" s="4">
-        <v>2521</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="112">
@@ -2842,16 +2845,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C112" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D112" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E112" s="4">
-        <v>2494</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="113">
@@ -2859,16 +2862,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C113" s="4">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="D113" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E113" s="4">
-        <v>2465</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="114">
@@ -2876,16 +2879,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C114" s="4">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D114" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E114" s="4">
-        <v>2431</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="115">
@@ -2893,16 +2896,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C115" s="4">
-        <v>1979</v>
+        <v>1734</v>
       </c>
       <c r="D115" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E115" s="4">
-        <v>2396</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="116">
@@ -2910,16 +2913,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C116" s="4">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="D116" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E116" s="4">
-        <v>2348</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="117">
@@ -2927,16 +2930,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C117" s="4">
-        <v>629</v>
+        <v>2000</v>
       </c>
       <c r="D117" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E117" s="4">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="118">
@@ -2944,16 +2947,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C118" s="4">
-        <v>762</v>
+        <v>629</v>
       </c>
       <c r="D118" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E118" s="4">
-        <v>2343</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="119">
@@ -2961,16 +2964,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C119" s="4">
-        <v>1554</v>
+        <v>762</v>
       </c>
       <c r="D119" s="4">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E119" s="4">
-        <v>2313</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="120">
@@ -2978,16 +2981,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C120" s="4">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="D120" s="4">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E120" s="4">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="121">
@@ -2995,16 +2998,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C121" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D121" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E121" s="4">
-        <v>2249</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="122">
@@ -3012,16 +3015,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C122" s="4">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="D122" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E122" s="4">
-        <v>2204</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="123">
@@ -3029,16 +3032,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C123" s="4">
-        <v>1737</v>
+        <v>1485</v>
       </c>
       <c r="D123" s="4">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E123" s="4">
-        <v>2172</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="124">
@@ -3046,16 +3049,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C124" s="4">
-        <v>581</v>
+        <v>1737</v>
       </c>
       <c r="D124" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E124" s="4">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="125">
@@ -3063,16 +3066,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C125" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D125" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E125" s="4">
-        <v>2160</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="126">
@@ -3080,16 +3083,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C126" s="4">
-        <v>1411</v>
+        <v>719</v>
       </c>
       <c r="D126" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E126" s="4">
-        <v>2134</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="127">
@@ -3097,16 +3100,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C127" s="4">
-        <v>1482</v>
+        <v>1411</v>
       </c>
       <c r="D127" s="4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E127" s="4">
-        <v>2092</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="128">
@@ -3114,16 +3117,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C128" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D128" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E128" s="4">
-        <v>2050</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="129">
@@ -3131,16 +3134,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C129" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D129" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E129" s="4">
-        <v>2010</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="130">
@@ -3148,16 +3151,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C130" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D130" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E130" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="131">
@@ -3165,16 +3168,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C131" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D131" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E131" s="4">
-        <v>1969</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="132">
@@ -3182,16 +3185,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C132" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D132" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E132" s="4">
-        <v>1964</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="133">
@@ -3199,16 +3202,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C133" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D133" s="4">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E133" s="4">
-        <v>1924</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="134">
@@ -3216,16 +3219,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C134" s="4">
-        <v>1804</v>
+        <v>1723</v>
       </c>
       <c r="D134" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E134" s="4">
-        <v>1903</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="135">
@@ -3233,16 +3236,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C135" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D135" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E135" s="4">
-        <v>1865</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="136">
@@ -3250,16 +3253,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C136" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D136" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E136" s="4">
-        <v>1820</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="137">
@@ -3267,16 +3270,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C137" s="4">
-        <v>2130</v>
+        <v>2022</v>
       </c>
       <c r="D137" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E137" s="4">
-        <v>1790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="138">
@@ -3284,16 +3287,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C138" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D138" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E138" s="4">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="139">
@@ -3301,16 +3304,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C139" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D139" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E139" s="4">
-        <v>1778</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="140">
@@ -3318,16 +3321,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C140" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D140" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E140" s="4">
-        <v>1746</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="141">
@@ -3335,16 +3338,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C141" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D141" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E141" s="4">
-        <v>1726</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="142">
@@ -3352,16 +3355,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C142" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D142" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E142" s="4">
-        <v>1698</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="143">
@@ -3369,16 +3372,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C143" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D143" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E143" s="4">
-        <v>1668</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="144">
@@ -3386,16 +3389,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C144" s="4">
-        <v>2330</v>
+        <v>2283</v>
       </c>
       <c r="D144" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E144" s="4">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="145">
@@ -3403,16 +3406,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C145" s="4">
-        <v>819</v>
+        <v>2330</v>
       </c>
       <c r="D145" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E145" s="4">
-        <v>1634</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="146">
@@ -3420,16 +3423,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C146" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D146" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146" s="4">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="147">
@@ -3437,16 +3440,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C147" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D147" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E147" s="4">
-        <v>1606</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="148">
@@ -3454,16 +3457,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C148" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D148" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E148" s="4">
-        <v>1588</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="149">
@@ -3471,16 +3474,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C149" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D149" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E149" s="4">
-        <v>1568</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="150">
@@ -3488,16 +3491,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C150" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D150" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E150" s="4">
-        <v>1552</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="151">
@@ -3505,16 +3508,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C151" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D151" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E151" s="4">
-        <v>1510</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="152">
@@ -3522,16 +3525,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C152" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D152" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E152" s="4">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="153">
@@ -3539,16 +3542,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C153" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D153" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E153" s="4">
-        <v>1499</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="154">
@@ -3556,16 +3559,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C154" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D154" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E154" s="4">
-        <v>1479</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="155">
@@ -3573,16 +3576,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C155" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D155" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E155" s="4">
-        <v>1461</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="156">
@@ -3590,16 +3593,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C156" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D156" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E156" s="4">
-        <v>1441</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="157">
@@ -3607,16 +3610,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C157" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D157" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E157" s="4">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="158">
@@ -3624,16 +3627,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C158" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D158" s="4">
         <v>22</v>
       </c>
       <c r="E158" s="4">
-        <v>1398</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="159">
@@ -3641,16 +3644,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C159" s="4">
-        <v>767</v>
+        <v>2538</v>
       </c>
       <c r="D159" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E159" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="160">
@@ -3658,16 +3661,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C160" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D160" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E160" s="4">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="161">
@@ -3675,16 +3678,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C161" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D161" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161" s="4">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="162">
@@ -3692,16 +3695,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C162" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D162" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E162" s="4">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="163">
@@ -3709,16 +3712,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C163" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D163" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E163" s="4">
-        <v>1373</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="164">
@@ -3726,16 +3729,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C164" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D164" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E164" s="4">
-        <v>1343</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="165">
@@ -3743,16 +3746,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C165" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D165" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E165" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="166">
@@ -3760,16 +3763,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C166" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E166" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="167">
@@ -3777,16 +3780,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C167" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D167" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="168">
@@ -3794,16 +3797,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C168" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D168" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E168" s="4">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="169">
@@ -3811,16 +3814,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C169" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D169" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E169" s="4">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="170">
@@ -3828,16 +3831,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C170" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D170" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170" s="4">
-        <v>1271</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="171">
@@ -3845,16 +3848,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C171" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D171" s="4">
         <v>10</v>
       </c>
       <c r="E171" s="4">
-        <v>1251</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="172">
@@ -3862,16 +3865,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C172" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D172" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E172" s="4">
-        <v>1223</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="173">
@@ -3879,16 +3882,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C173" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E173" s="4">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="174">
@@ -3896,16 +3899,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C174" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D174" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="175">
@@ -3913,16 +3916,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C175" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D175" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E175" s="4">
-        <v>1197</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="176">
@@ -3930,16 +3933,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C176" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D176" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E176" s="4">
-        <v>1175</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="177">
@@ -3947,16 +3950,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C177" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D177" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E177" s="4">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="178">
@@ -3964,16 +3967,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C178" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D178" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="4">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="179">
@@ -3981,16 +3984,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C179" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>1118</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="180">
@@ -3998,16 +4001,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C180" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>1109</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="181">
@@ -4015,16 +4018,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C181" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D181" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="182">
@@ -4032,16 +4035,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C182" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E182" s="4">
-        <v>1092</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="183">
@@ -4049,16 +4052,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C183" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>1064</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="184">
@@ -4066,16 +4069,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C184" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D184" s="4">
         <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="185">
@@ -4083,16 +4086,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C185" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D185" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" s="4">
-        <v>1029</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="186">
@@ -4100,16 +4103,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C186" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>1006</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="187">
@@ -4117,16 +4120,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C187" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
       <c r="E187" s="4">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="188">
@@ -4134,16 +4137,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C188" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
       </c>
       <c r="E188" s="4">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="189">
@@ -4151,16 +4154,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C189" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>966</v>
+        <v>992</v>
       </c>
     </row>
     <row r="190">
@@ -4168,16 +4171,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C190" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D190" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="191">
@@ -4185,16 +4188,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C191" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D191" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="4">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="192">
@@ -4202,16 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C192" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>921</v>
+        <v>939</v>
       </c>
     </row>
     <row r="193">
@@ -4219,16 +4222,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C193" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>898</v>
+        <v>921</v>
       </c>
     </row>
     <row r="194">
@@ -4236,16 +4239,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C194" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="195">
@@ -4253,16 +4256,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C195" s="4">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="196">
@@ -4270,16 +4273,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C196" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>859</v>
+        <v>877</v>
       </c>
     </row>
     <row r="197">
@@ -4287,16 +4290,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C197" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="198">
@@ -4304,16 +4307,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C198" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D198" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>794</v>
+        <v>827</v>
       </c>
     </row>
     <row r="199">
@@ -4321,16 +4324,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C199" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D199" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="200">
@@ -4338,16 +4341,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C200" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D200" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E200" s="4">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="201">
@@ -4355,16 +4358,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C201" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="202">
@@ -4372,16 +4375,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C202" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="203">
@@ -4389,16 +4392,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C203" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="204">
@@ -4406,16 +4409,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C204" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="205">
@@ -4423,16 +4426,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C205" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="206">
@@ -4440,16 +4443,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C206" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="207">
@@ -4457,16 +4460,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C207" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="208">
@@ -4474,16 +4477,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C208" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209">
@@ -4491,16 +4494,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C209" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="210">
@@ -4508,16 +4511,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C210" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D210" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211">
@@ -4525,16 +4528,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C211" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D211" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="4">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212">
@@ -4542,16 +4545,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C212" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213">
@@ -4559,16 +4562,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C213" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214">
@@ -4576,16 +4579,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C214" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="215">
@@ -4593,16 +4596,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C215" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216">
@@ -4610,16 +4613,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C216" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217">
@@ -4627,16 +4630,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C217" s="4">
-        <v>537</v>
+        <v>213</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218">
@@ -4644,16 +4647,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C218" s="4">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219">
@@ -4661,16 +4664,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C219" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220">
@@ -4678,16 +4681,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C220" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="221">
@@ -4695,16 +4698,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C221" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222">
@@ -4712,16 +4715,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C222" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="223">
@@ -4729,16 +4732,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C223" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224">
@@ -4746,16 +4749,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C224" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225">
@@ -4763,16 +4766,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C225" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -4780,16 +4783,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C226" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227">
@@ -4797,16 +4800,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C227" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228">
@@ -4814,16 +4817,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C228" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229">
@@ -4831,16 +4834,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C229" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230">
@@ -4848,16 +4851,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C230" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231">
@@ -4865,16 +4868,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C231" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232">
@@ -4882,16 +4885,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C232" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233">
@@ -4899,16 +4902,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C233" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234">
@@ -4916,16 +4919,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C234" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235">
@@ -4933,16 +4936,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C235" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="236">
@@ -4950,16 +4953,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C236" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="237">
@@ -4967,16 +4970,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C237" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238">
@@ -4984,16 +4987,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C238" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="239">
@@ -5001,16 +5004,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C239" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240">
@@ -5018,16 +5021,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C240" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="241">
@@ -5035,16 +5038,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C241" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242">
@@ -5052,16 +5055,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C242" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243">
@@ -5069,16 +5072,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C243" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="244">
@@ -5086,16 +5089,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C244" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245">
@@ -5103,16 +5106,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C245" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246">
@@ -5120,16 +5123,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C246" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247">
@@ -5137,16 +5140,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C247" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248">
@@ -5154,16 +5157,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C248" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="249">
@@ -5171,16 +5174,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C249" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250">
@@ -5188,16 +5191,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C250" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -5205,16 +5208,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C251" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252">
@@ -5222,16 +5225,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C252" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
@@ -5239,16 +5242,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C253" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254">
@@ -5256,16 +5259,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C254" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
@@ -5273,16 +5276,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C255" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
@@ -5290,16 +5293,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C256" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
@@ -5307,16 +5310,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C257" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -5324,16 +5327,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C258" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
@@ -5341,16 +5344,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C259" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -5358,16 +5361,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C260" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -5375,7 +5378,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C261" s="4">
         <v>198</v>
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -5392,25 +5395,27 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C262" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
       </c>
-      <c r="E262" s="4"/>
+      <c r="E262" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C263" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5422,10 +5427,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C264" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5437,10 +5442,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C265" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5452,10 +5457,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C266" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5467,10 +5472,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C267" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5482,10 +5487,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C268" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5497,10 +5502,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C269" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5512,10 +5517,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C270" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5527,10 +5532,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C271" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5542,10 +5547,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C272" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5557,10 +5562,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C273" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5575,7 +5580,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5587,10 +5592,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C275" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5602,10 +5607,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C276" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5617,10 +5622,14 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>1</v>
-      </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C277" s="4">
+        <v>5</v>
+      </c>
+      <c r="D277" s="4">
+        <v>0</v>
+      </c>
       <c r="E277" s="4"/>
     </row>
     <row r="278">
@@ -5628,14 +5637,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
-        <v>0</v>
-      </c>
-      <c r="C278" s="4">
-        <v>5</v>
-      </c>
-      <c r="D278" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279">
@@ -5646,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="C279" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279" s="4">
         <v>0</v>
@@ -5660,8 +5665,12 @@
       <c r="B280" s="4">
         <v>0</v>
       </c>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4">
+        <v>0</v>
+      </c>
       <c r="E280" s="4"/>
     </row>
     <row r="281">
@@ -5682,12 +5691,8 @@
       <c r="B282" s="4">
         <v>0</v>
       </c>
-      <c r="C282" s="4">
-        <v>1</v>
-      </c>
-      <c r="D282" s="4">
-        <v>0</v>
-      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283">
@@ -5697,8 +5702,12 @@
       <c r="B283" s="4">
         <v>0</v>
       </c>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+      <c r="D283" s="4">
+        <v>0</v>
+      </c>
       <c r="E283" s="4"/>
     </row>
     <row r="284">
@@ -5706,15 +5715,26 @@
         <v>282</v>
       </c>
       <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" s="4">
         <v>1</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C285" s="4">
         <v>1</v>
       </c>
-      <c r="D284" s="4">
-        <v>0</v>
-      </c>
-      <c r="E284" s="4"/>
+      <c r="D285" s="4">
+        <v>0</v>
+      </c>
+      <c r="E285" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+  <si>
+    <t>12/13/2020</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
   <si>
     <t>12/10/2020</t>
   </si>
@@ -876,7 +885,7 @@
     <t>Antigen Positive Cases by Specimen Date</t>
   </si>
   <si>
-    <t>NC Deaths</t>
+    <t>Deaths by Date of Death</t>
   </si>
   <si>
     <t>Date</t>
@@ -958,24 +967,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E288"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -983,42 +992,38 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5556</v>
+        <v>6819</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>5714</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6495</v>
+        <v>6153</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>5661</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>4670</v>
+        <v>7540</v>
       </c>
       <c r="C4" s="4">
-        <v>827</v>
+        <v>1063</v>
       </c>
       <c r="D4" s="4">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E4" s="4">
-        <v>5605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1026,16 +1031,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4372</v>
+        <v>5556</v>
       </c>
       <c r="C5" s="4">
-        <v>3047</v>
+        <v>2582</v>
       </c>
       <c r="D5" s="4">
-        <v>602</v>
+        <v>497</v>
       </c>
       <c r="E5" s="4">
-        <v>5560</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1043,16 +1048,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>6438</v>
+        <v>6495</v>
       </c>
       <c r="C6" s="4">
-        <v>1365</v>
+        <v>4180</v>
       </c>
       <c r="D6" s="4">
-        <v>281</v>
+        <v>635</v>
       </c>
       <c r="E6" s="4">
-        <v>5543</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1065,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>6018</v>
+        <v>4670</v>
       </c>
       <c r="C7" s="4">
-        <v>2620</v>
+        <v>5458</v>
       </c>
       <c r="D7" s="4">
-        <v>329</v>
+        <v>662</v>
       </c>
       <c r="E7" s="4">
-        <v>5516</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1077,16 +1082,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>5303</v>
+        <v>4372</v>
       </c>
       <c r="C8" s="4">
-        <v>4891</v>
+        <v>6668</v>
       </c>
       <c r="D8" s="4">
-        <v>601</v>
+        <v>907</v>
       </c>
       <c r="E8" s="4">
-        <v>5467</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1094,16 +1099,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>5637</v>
+        <v>6438</v>
       </c>
       <c r="C9" s="4">
-        <v>5090</v>
+        <v>2036</v>
       </c>
       <c r="D9" s="4">
-        <v>583</v>
+        <v>301</v>
       </c>
       <c r="E9" s="4">
-        <v>5410</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1111,16 +1116,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4199</v>
+        <v>6018</v>
       </c>
       <c r="C10" s="4">
-        <v>5419</v>
+        <v>2885</v>
       </c>
       <c r="D10" s="4">
-        <v>640</v>
+        <v>364</v>
       </c>
       <c r="E10" s="4">
-        <v>5366</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1128,16 +1133,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2883</v>
+        <v>5303</v>
       </c>
       <c r="C11" s="4">
-        <v>6112</v>
+        <v>5112</v>
       </c>
       <c r="D11" s="4">
-        <v>758</v>
+        <v>665</v>
       </c>
       <c r="E11" s="4">
-        <v>5284</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1145,16 +1150,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2734</v>
+        <v>5637</v>
       </c>
       <c r="C12" s="4">
-        <v>7072</v>
+        <v>5323</v>
       </c>
       <c r="D12" s="4">
-        <v>955</v>
+        <v>620</v>
       </c>
       <c r="E12" s="4">
-        <v>5261</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1162,16 +1167,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3820</v>
+        <v>4199</v>
       </c>
       <c r="C13" s="4">
-        <v>2342</v>
+        <v>5577</v>
       </c>
       <c r="D13" s="4">
-        <v>296</v>
+        <v>684</v>
       </c>
       <c r="E13" s="4">
-        <v>5240</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -1179,16 +1184,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3444</v>
+        <v>2883</v>
       </c>
       <c r="C14" s="4">
-        <v>2599</v>
+        <v>6245</v>
       </c>
       <c r="D14" s="4">
-        <v>350</v>
+        <v>802</v>
       </c>
       <c r="E14" s="4">
-        <v>5219</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1196,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3834</v>
+        <v>2734</v>
       </c>
       <c r="C15" s="4">
-        <v>3339</v>
+        <v>7173</v>
       </c>
       <c r="D15" s="4">
-        <v>449</v>
+        <v>975</v>
       </c>
       <c r="E15" s="4">
-        <v>5210</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1213,16 +1218,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4174</v>
+        <v>3820</v>
       </c>
       <c r="C16" s="4">
-        <v>641</v>
+        <v>2355</v>
       </c>
       <c r="D16" s="4">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="E16" s="4">
-        <v>5181</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1230,16 +1235,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>4212</v>
+        <v>3444</v>
       </c>
       <c r="C17" s="4">
-        <v>3843</v>
+        <v>2634</v>
       </c>
       <c r="D17" s="4">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="E17" s="4">
-        <v>5138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1247,16 +1252,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3100</v>
+        <v>3834</v>
       </c>
       <c r="C18" s="4">
-        <v>4086</v>
+        <v>3363</v>
       </c>
       <c r="D18" s="4">
-        <v>590</v>
+        <v>452</v>
       </c>
       <c r="E18" s="4">
-        <v>5074</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1264,16 +1269,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>2419</v>
+        <v>4174</v>
       </c>
       <c r="C19" s="4">
-        <v>4997</v>
+        <v>646</v>
       </c>
       <c r="D19" s="4">
-        <v>764</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4">
-        <v>5039</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1281,16 +1286,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>4514</v>
+        <v>4212</v>
       </c>
       <c r="C20" s="4">
-        <v>1457</v>
+        <v>3877</v>
       </c>
       <c r="D20" s="4">
-        <v>234</v>
+        <v>553</v>
       </c>
       <c r="E20" s="4">
-        <v>5034</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -1298,16 +1303,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3415</v>
+        <v>3100</v>
       </c>
       <c r="C21" s="4">
-        <v>1789</v>
+        <v>4113</v>
       </c>
       <c r="D21" s="4">
-        <v>248</v>
+        <v>601</v>
       </c>
       <c r="E21" s="4">
-        <v>5005</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1315,16 +1320,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>3688</v>
+        <v>2419</v>
       </c>
       <c r="C22" s="4">
-        <v>3317</v>
+        <v>5015</v>
       </c>
       <c r="D22" s="4">
-        <v>413</v>
+        <v>772</v>
       </c>
       <c r="E22" s="4">
-        <v>4979</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1332,16 +1337,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>4296</v>
+        <v>4514</v>
       </c>
       <c r="C23" s="4">
-        <v>3433</v>
+        <v>1457</v>
       </c>
       <c r="D23" s="4">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="E23" s="4">
-        <v>4936</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -1349,16 +1354,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3367</v>
+        <v>3415</v>
       </c>
       <c r="C24" s="4">
-        <v>3492</v>
+        <v>1793</v>
       </c>
       <c r="D24" s="4">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="E24" s="4">
-        <v>4898</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1371,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>3288</v>
+        <v>3688</v>
       </c>
       <c r="C25" s="4">
-        <v>4063</v>
+        <v>3321</v>
       </c>
       <c r="D25" s="4">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="E25" s="4">
-        <v>4852</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1383,16 +1388,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1972</v>
+        <v>4296</v>
       </c>
       <c r="C26" s="4">
-        <v>4649</v>
+        <v>3437</v>
       </c>
       <c r="D26" s="4">
-        <v>619</v>
+        <v>425</v>
       </c>
       <c r="E26" s="4">
-        <v>4814</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1400,16 +1405,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3117</v>
+        <v>3367</v>
       </c>
       <c r="C27" s="4">
-        <v>1519</v>
+        <v>3496</v>
       </c>
       <c r="D27" s="4">
-        <v>185</v>
+        <v>446</v>
       </c>
       <c r="E27" s="4">
-        <v>4806</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1417,16 +1422,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>3885</v>
+        <v>3288</v>
       </c>
       <c r="C28" s="4">
-        <v>1792</v>
+        <v>4072</v>
       </c>
       <c r="D28" s="4">
-        <v>181</v>
+        <v>487</v>
       </c>
       <c r="E28" s="4">
-        <v>4756</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1434,16 +1439,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1779</v>
+        <v>1972</v>
       </c>
       <c r="C29" s="4">
-        <v>3437</v>
+        <v>4652</v>
       </c>
       <c r="D29" s="4">
-        <v>402</v>
+        <v>619</v>
       </c>
       <c r="E29" s="4">
-        <v>4720</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -1451,16 +1456,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2893</v>
+        <v>3117</v>
       </c>
       <c r="C30" s="4">
-        <v>3225</v>
+        <v>1519</v>
       </c>
       <c r="D30" s="4">
-        <v>440</v>
+        <v>186</v>
       </c>
       <c r="E30" s="4">
-        <v>4706</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1468,16 +1473,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>3119</v>
+        <v>3885</v>
       </c>
       <c r="C31" s="4">
-        <v>3033</v>
+        <v>1792</v>
       </c>
       <c r="D31" s="4">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="E31" s="4">
-        <v>4698</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -1485,16 +1490,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>2582</v>
+        <v>1779</v>
       </c>
       <c r="C32" s="4">
-        <v>3391</v>
+        <v>3436</v>
       </c>
       <c r="D32" s="4">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="E32" s="4">
-        <v>4660</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -1502,16 +1507,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>1521</v>
+        <v>2893</v>
       </c>
       <c r="C33" s="4">
-        <v>4075</v>
+        <v>3227</v>
       </c>
       <c r="D33" s="4">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="E33" s="4">
-        <v>4615</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -1519,16 +1524,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2094</v>
+        <v>3119</v>
       </c>
       <c r="C34" s="4">
-        <v>1377</v>
+        <v>3036</v>
       </c>
       <c r="D34" s="4">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="E34" s="4">
-        <v>4607</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1536,16 +1541,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2676</v>
+        <v>2582</v>
       </c>
       <c r="C35" s="4">
-        <v>1493</v>
+        <v>3391</v>
       </c>
       <c r="D35" s="4">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="E35" s="4">
-        <v>4605</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1553,16 +1558,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2908</v>
+        <v>1521</v>
       </c>
       <c r="C36" s="4">
-        <v>2412</v>
+        <v>4075</v>
       </c>
       <c r="D36" s="4">
-        <v>279</v>
+        <v>475</v>
       </c>
       <c r="E36" s="4">
-        <v>4582</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -1570,16 +1575,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2859</v>
+        <v>2094</v>
       </c>
       <c r="C37" s="4">
-        <v>2584</v>
+        <v>1384</v>
       </c>
       <c r="D37" s="4">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="E37" s="4">
-        <v>4548</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -1587,16 +1592,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2425</v>
+        <v>2676</v>
       </c>
       <c r="C38" s="4">
-        <v>2613</v>
+        <v>1494</v>
       </c>
       <c r="D38" s="4">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="E38" s="4">
-        <v>4507</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
@@ -1604,16 +1609,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2349</v>
+        <v>2908</v>
       </c>
       <c r="C39" s="4">
-        <v>2655</v>
+        <v>2413</v>
       </c>
       <c r="D39" s="4">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E39" s="4">
-        <v>4457</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -1621,16 +1626,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>1336</v>
+        <v>2859</v>
       </c>
       <c r="C40" s="4">
-        <v>3118</v>
+        <v>2585</v>
       </c>
       <c r="D40" s="4">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="E40" s="4">
-        <v>4390</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -1638,16 +1643,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2057</v>
+        <v>2425</v>
       </c>
       <c r="C41" s="4">
-        <v>940</v>
+        <v>2612</v>
       </c>
       <c r="D41" s="4">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="E41" s="4">
-        <v>4383</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -1655,16 +1660,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2805</v>
+        <v>2349</v>
       </c>
       <c r="C42" s="4">
-        <v>1064</v>
+        <v>2657</v>
       </c>
       <c r="D42" s="4">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="E42" s="4">
-        <v>4378</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -1672,16 +1677,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2809</v>
+        <v>1336</v>
       </c>
       <c r="C43" s="4">
-        <v>2252</v>
+        <v>3121</v>
       </c>
       <c r="D43" s="4">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="E43" s="4">
-        <v>4332</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -1689,16 +1694,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2885</v>
+        <v>2057</v>
       </c>
       <c r="C44" s="4">
-        <v>1981</v>
+        <v>941</v>
       </c>
       <c r="D44" s="4">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4">
-        <v>4283</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1706,16 +1711,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2253</v>
+        <v>2805</v>
       </c>
       <c r="C45" s="4">
-        <v>2441</v>
+        <v>1064</v>
       </c>
       <c r="D45" s="4">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4">
-        <v>4245</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -1723,16 +1728,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2141</v>
+        <v>2809</v>
       </c>
       <c r="C46" s="4">
-        <v>2424</v>
+        <v>2252</v>
       </c>
       <c r="D46" s="4">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="E46" s="4">
-        <v>4211</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -1740,16 +1745,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>1643</v>
+        <v>2885</v>
       </c>
       <c r="C47" s="4">
-        <v>2985</v>
+        <v>1984</v>
       </c>
       <c r="D47" s="4">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="E47" s="4">
-        <v>4170</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -1757,16 +1762,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>1807</v>
+        <v>2253</v>
       </c>
       <c r="C48" s="4">
-        <v>908</v>
+        <v>2442</v>
       </c>
       <c r="D48" s="4">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="E48" s="4">
-        <v>4157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -1774,16 +1779,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2584</v>
+        <v>2141</v>
       </c>
       <c r="C49" s="4">
-        <v>1069</v>
+        <v>2423</v>
       </c>
       <c r="D49" s="4">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="E49" s="4">
-        <v>4144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -1791,16 +1796,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2716</v>
+        <v>1643</v>
       </c>
       <c r="C50" s="4">
-        <v>2202</v>
+        <v>2982</v>
       </c>
       <c r="D50" s="4">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="E50" s="4">
-        <v>4114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -1808,16 +1813,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2400</v>
+        <v>1807</v>
       </c>
       <c r="C51" s="4">
-        <v>2140</v>
+        <v>909</v>
       </c>
       <c r="D51" s="4">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="E51" s="4">
-        <v>4082</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -1825,16 +1830,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1842</v>
+        <v>2584</v>
       </c>
       <c r="C52" s="4">
-        <v>2457</v>
+        <v>1068</v>
       </c>
       <c r="D52" s="4">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="E52" s="4">
-        <v>4032</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -1842,16 +1847,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1578</v>
+        <v>2716</v>
       </c>
       <c r="C53" s="4">
-        <v>2458</v>
+        <v>2203</v>
       </c>
       <c r="D53" s="4">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E53" s="4">
-        <v>3992</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1859,16 +1864,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>1144</v>
+        <v>2400</v>
       </c>
       <c r="C54" s="4">
-        <v>2799</v>
+        <v>2136</v>
       </c>
       <c r="D54" s="4">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="E54" s="4">
-        <v>3939</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -1876,16 +1881,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2303</v>
+        <v>1842</v>
       </c>
       <c r="C55" s="4">
-        <v>849</v>
+        <v>2457</v>
       </c>
       <c r="D55" s="4">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="E55" s="4">
-        <v>3934</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -1893,16 +1898,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2102</v>
+        <v>1578</v>
       </c>
       <c r="C56" s="4">
-        <v>951</v>
+        <v>2458</v>
       </c>
       <c r="D56" s="4">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="E56" s="4">
-        <v>3929</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -1910,16 +1915,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2684</v>
+        <v>1144</v>
       </c>
       <c r="C57" s="4">
-        <v>2055</v>
+        <v>2800</v>
       </c>
       <c r="D57" s="4">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="E57" s="4">
-        <v>3910</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -1927,16 +1932,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>2532</v>
+        <v>2303</v>
       </c>
       <c r="C58" s="4">
-        <v>2105</v>
+        <v>849</v>
       </c>
       <c r="D58" s="4">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="E58" s="4">
-        <v>3874</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -1944,16 +1949,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1926</v>
+        <v>2102</v>
       </c>
       <c r="C59" s="4">
-        <v>2131</v>
+        <v>951</v>
       </c>
       <c r="D59" s="4">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="E59" s="4">
-        <v>3856</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -1961,16 +1966,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1734</v>
+        <v>2684</v>
       </c>
       <c r="C60" s="4">
-        <v>2383</v>
+        <v>2054</v>
       </c>
       <c r="D60" s="4">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="E60" s="4">
-        <v>3816</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
@@ -1978,16 +1983,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>1276</v>
+        <v>2532</v>
       </c>
       <c r="C61" s="4">
-        <v>2683</v>
+        <v>2105</v>
       </c>
       <c r="D61" s="4">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="E61" s="4">
-        <v>3773</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -1995,16 +2000,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1719</v>
+        <v>1926</v>
       </c>
       <c r="C62" s="4">
-        <v>901</v>
+        <v>2131</v>
       </c>
       <c r="D62" s="4">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="E62" s="4">
-        <v>3770</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -2012,16 +2017,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2321</v>
+        <v>1734</v>
       </c>
       <c r="C63" s="4">
-        <v>939</v>
+        <v>2383</v>
       </c>
       <c r="D63" s="4">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="E63" s="4">
-        <v>3765</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -2029,16 +2034,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>2034</v>
+        <v>1276</v>
       </c>
       <c r="C64" s="4">
-        <v>1814</v>
+        <v>2683</v>
       </c>
       <c r="D64" s="4">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="E64" s="4">
-        <v>3747</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2046,16 +2051,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>2428</v>
+        <v>1719</v>
       </c>
       <c r="C65" s="4">
-        <v>2005</v>
+        <v>902</v>
       </c>
       <c r="D65" s="4">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="E65" s="4">
-        <v>3722</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -2063,16 +2068,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1711</v>
+        <v>2321</v>
       </c>
       <c r="C66" s="4">
-        <v>1926</v>
+        <v>939</v>
       </c>
       <c r="D66" s="4">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="E66" s="4">
-        <v>3693</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -2080,16 +2085,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1504</v>
+        <v>2034</v>
       </c>
       <c r="C67" s="4">
-        <v>2070</v>
+        <v>1814</v>
       </c>
       <c r="D67" s="4">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="E67" s="4">
-        <v>3670</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -2097,16 +2102,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2258</v>
+        <v>2428</v>
       </c>
       <c r="C68" s="4">
-        <v>2474</v>
+        <v>2005</v>
       </c>
       <c r="D68" s="4">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="E68" s="4">
-        <v>3637</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -2114,16 +2119,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>610</v>
+        <v>1711</v>
       </c>
       <c r="C69" s="4">
-        <v>820</v>
+        <v>1926</v>
       </c>
       <c r="D69" s="4">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="E69" s="4">
-        <v>3634</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -2131,16 +2136,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>2202</v>
+        <v>1504</v>
       </c>
       <c r="C70" s="4">
-        <v>982</v>
+        <v>2070</v>
       </c>
       <c r="D70" s="4">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="E70" s="4">
-        <v>3629</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -2148,16 +2153,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1775</v>
+        <v>2258</v>
       </c>
       <c r="C71" s="4">
-        <v>1838</v>
+        <v>2473</v>
       </c>
       <c r="D71" s="4">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="E71" s="4">
-        <v>3608</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -2165,16 +2170,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>2277</v>
+        <v>610</v>
       </c>
       <c r="C72" s="4">
-        <v>1821</v>
+        <v>820</v>
       </c>
       <c r="D72" s="4">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="E72" s="4">
-        <v>3579</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -2182,16 +2187,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1495</v>
+        <v>2202</v>
       </c>
       <c r="C73" s="4">
-        <v>1838</v>
+        <v>982</v>
       </c>
       <c r="D73" s="4">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="E73" s="4">
-        <v>3532</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -2199,16 +2204,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>889</v>
+        <v>1775</v>
       </c>
       <c r="C74" s="4">
-        <v>1815</v>
+        <v>1837</v>
       </c>
       <c r="D74" s="4">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E74" s="4">
-        <v>3494</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -2216,16 +2221,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>868</v>
+        <v>2277</v>
       </c>
       <c r="C75" s="4">
-        <v>2116</v>
+        <v>1821</v>
       </c>
       <c r="D75" s="4">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="E75" s="4">
-        <v>3445</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2233,16 +2238,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1290</v>
+        <v>1495</v>
       </c>
       <c r="C76" s="4">
-        <v>640</v>
+        <v>1838</v>
       </c>
       <c r="D76" s="4">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="E76" s="4">
-        <v>3441</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -2250,16 +2255,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1759</v>
+        <v>889</v>
       </c>
       <c r="C77" s="4">
-        <v>765</v>
+        <v>1815</v>
       </c>
       <c r="D77" s="4">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="E77" s="4">
-        <v>3440</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -2267,16 +2272,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1693</v>
+        <v>868</v>
       </c>
       <c r="C78" s="4">
-        <v>1228</v>
+        <v>2116</v>
       </c>
       <c r="D78" s="4">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="E78" s="4">
-        <v>3409</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -2284,16 +2289,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1836</v>
+        <v>1290</v>
       </c>
       <c r="C79" s="4">
-        <v>1490</v>
+        <v>640</v>
       </c>
       <c r="D79" s="4">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E79" s="4">
-        <v>3379</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
@@ -2301,16 +2306,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1101</v>
+        <v>1759</v>
       </c>
       <c r="C80" s="4">
-        <v>1467</v>
+        <v>765</v>
       </c>
       <c r="D80" s="4">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E80" s="4">
-        <v>3338</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -2318,16 +2323,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1312</v>
+        <v>1693</v>
       </c>
       <c r="C81" s="4">
-        <v>1523</v>
+        <v>1229</v>
       </c>
       <c r="D81" s="4">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E81" s="4">
-        <v>3286</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -2335,16 +2340,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>800</v>
+        <v>1836</v>
       </c>
       <c r="C82" s="4">
-        <v>1727</v>
+        <v>1490</v>
       </c>
       <c r="D82" s="4">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E82" s="4">
-        <v>3247</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -2352,16 +2357,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1335</v>
+        <v>1101</v>
       </c>
       <c r="C83" s="4">
-        <v>573</v>
+        <v>1467</v>
       </c>
       <c r="D83" s="4">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E83" s="4">
-        <v>3243</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -2369,16 +2374,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1239</v>
+        <v>1312</v>
       </c>
       <c r="C84" s="4">
-        <v>665</v>
+        <v>1523</v>
       </c>
       <c r="D84" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E84" s="4">
-        <v>3235</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -2386,16 +2391,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1504</v>
+        <v>800</v>
       </c>
       <c r="C85" s="4">
-        <v>1306</v>
+        <v>1727</v>
       </c>
       <c r="D85" s="4">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E85" s="4">
-        <v>3207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -2403,16 +2408,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1632</v>
+        <v>1335</v>
       </c>
       <c r="C86" s="4">
-        <v>1282</v>
+        <v>573</v>
       </c>
       <c r="D86" s="4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E86" s="4">
-        <v>3180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -2420,16 +2425,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C87" s="4">
-        <v>1411</v>
+        <v>665</v>
       </c>
       <c r="D87" s="4">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E87" s="4">
-        <v>3149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -2437,16 +2442,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1210</v>
+        <v>1504</v>
       </c>
       <c r="C88" s="4">
-        <v>1496</v>
+        <v>1307</v>
       </c>
       <c r="D88" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4">
-        <v>3111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -2454,16 +2459,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>948</v>
+        <v>1632</v>
       </c>
       <c r="C89" s="4">
-        <v>1726</v>
+        <v>1282</v>
       </c>
       <c r="D89" s="4">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E89" s="4">
-        <v>3060</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -2471,16 +2476,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="C90" s="4">
-        <v>605</v>
+        <v>1411</v>
       </c>
       <c r="D90" s="4">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E90" s="4">
-        <v>3052</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -2488,16 +2493,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1478</v>
+        <v>1210</v>
       </c>
       <c r="C91" s="4">
-        <v>668</v>
+        <v>1496</v>
       </c>
       <c r="D91" s="4">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E91" s="4">
-        <v>3047</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -2505,16 +2510,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1610</v>
+        <v>948</v>
       </c>
       <c r="C92" s="4">
-        <v>1267</v>
+        <v>1726</v>
       </c>
       <c r="D92" s="4">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4">
-        <v>3023</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -2522,16 +2527,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1307</v>
+        <v>1220</v>
       </c>
       <c r="C93" s="4">
-        <v>1412</v>
+        <v>605</v>
       </c>
       <c r="D93" s="4">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E93" s="4">
-        <v>2990</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2539,16 +2544,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>969</v>
+        <v>1478</v>
       </c>
       <c r="C94" s="4">
-        <v>1529</v>
+        <v>668</v>
       </c>
       <c r="D94" s="4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E94" s="4">
-        <v>2958</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -2556,16 +2561,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>833</v>
+        <v>1610</v>
       </c>
       <c r="C95" s="4">
-        <v>1887</v>
+        <v>1267</v>
       </c>
       <c r="D95" s="4">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E95" s="4">
-        <v>2909</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -2573,16 +2578,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1039</v>
+        <v>1307</v>
       </c>
       <c r="C96" s="4">
-        <v>721</v>
+        <v>1412</v>
       </c>
       <c r="D96" s="4">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="E96" s="4">
-        <v>2897</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2590,16 +2595,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1099</v>
+        <v>969</v>
       </c>
       <c r="C97" s="4">
-        <v>612</v>
+        <v>1529</v>
       </c>
       <c r="D97" s="4">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="E97" s="4">
-        <v>2890</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -2607,16 +2612,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1586</v>
+        <v>833</v>
       </c>
       <c r="C98" s="4">
-        <v>652</v>
+        <v>1888</v>
       </c>
       <c r="D98" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="E98" s="4">
-        <v>2889</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -2624,16 +2629,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>2121</v>
+        <v>1039</v>
       </c>
       <c r="C99" s="4">
-        <v>1259</v>
+        <v>721</v>
       </c>
       <c r="D99" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E99" s="4">
-        <v>2839</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -2641,16 +2646,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1716</v>
+        <v>1099</v>
       </c>
       <c r="C100" s="4">
-        <v>1537</v>
+        <v>612</v>
       </c>
       <c r="D100" s="4">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E100" s="4">
-        <v>2803</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -2658,16 +2663,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1216</v>
+        <v>1586</v>
       </c>
       <c r="C101" s="4">
-        <v>1736</v>
+        <v>652</v>
       </c>
       <c r="D101" s="4">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E101" s="4">
-        <v>2779</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -2675,16 +2680,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>2209</v>
+        <v>2121</v>
       </c>
       <c r="C102" s="4">
-        <v>1635</v>
+        <v>1259</v>
       </c>
       <c r="D102" s="4">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E102" s="4">
-        <v>2741</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
@@ -2692,16 +2697,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1287</v>
+        <v>1716</v>
       </c>
       <c r="C103" s="4">
-        <v>1812</v>
+        <v>1537</v>
       </c>
       <c r="D103" s="4">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E103" s="4">
-        <v>2702</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
@@ -2709,16 +2714,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1952</v>
+        <v>1216</v>
       </c>
       <c r="C104" s="4">
-        <v>638</v>
+        <v>1736</v>
       </c>
       <c r="D104" s="4">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E104" s="4">
-        <v>2692</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
@@ -2726,16 +2731,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1723</v>
+        <v>2209</v>
       </c>
       <c r="C105" s="4">
-        <v>840</v>
+        <v>1635</v>
       </c>
       <c r="D105" s="4">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E105" s="4">
-        <v>2683</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -2743,16 +2748,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1479</v>
+        <v>1287</v>
       </c>
       <c r="C106" s="4">
-        <v>1551</v>
+        <v>1811</v>
       </c>
       <c r="D106" s="4">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E106" s="4">
-        <v>2652</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
@@ -2760,16 +2765,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>2177</v>
+        <v>1952</v>
       </c>
       <c r="C107" s="4">
-        <v>1700</v>
+        <v>638</v>
       </c>
       <c r="D107" s="4">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E107" s="4">
-        <v>2630</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
@@ -2777,16 +2782,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1342</v>
+        <v>1723</v>
       </c>
       <c r="C108" s="4">
-        <v>1756</v>
+        <v>839</v>
       </c>
       <c r="D108" s="4">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E108" s="4">
-        <v>2606</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
@@ -2794,16 +2799,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1446</v>
+        <v>1479</v>
       </c>
       <c r="C109" s="4">
-        <v>2034</v>
+        <v>1551</v>
       </c>
       <c r="D109" s="4">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E109" s="4">
-        <v>2570</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2811,16 +2816,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1389</v>
+        <v>2177</v>
       </c>
       <c r="C110" s="4">
-        <v>2194</v>
+        <v>1700</v>
       </c>
       <c r="D110" s="4">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E110" s="4">
-        <v>2535</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -2828,16 +2833,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1490</v>
+        <v>1342</v>
       </c>
       <c r="C111" s="4">
-        <v>784</v>
+        <v>1756</v>
       </c>
       <c r="D111" s="4">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E111" s="4">
-        <v>2531</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
@@ -2845,16 +2850,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1781</v>
+        <v>1446</v>
       </c>
       <c r="C112" s="4">
-        <v>852</v>
+        <v>2033</v>
       </c>
       <c r="D112" s="4">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E112" s="4">
-        <v>2521</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -2862,16 +2867,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>2075</v>
+        <v>1389</v>
       </c>
       <c r="C113" s="4">
-        <v>1766</v>
+        <v>2193</v>
       </c>
       <c r="D113" s="4">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E113" s="4">
-        <v>2494</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
@@ -2879,16 +2884,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>2050</v>
+        <v>1490</v>
       </c>
       <c r="C114" s="4">
-        <v>1730</v>
+        <v>784</v>
       </c>
       <c r="D114" s="4">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E114" s="4">
-        <v>2465</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -2896,16 +2901,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1218</v>
+        <v>1781</v>
       </c>
       <c r="C115" s="4">
-        <v>1734</v>
+        <v>852</v>
       </c>
       <c r="D115" s="4">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E115" s="4">
-        <v>2431</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
@@ -2913,16 +2918,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1336</v>
+        <v>2075</v>
       </c>
       <c r="C116" s="4">
-        <v>1979</v>
+        <v>1766</v>
       </c>
       <c r="D116" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E116" s="4">
-        <v>2396</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
@@ -2930,16 +2935,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>431</v>
+        <v>2050</v>
       </c>
       <c r="C117" s="4">
-        <v>2000</v>
+        <v>1730</v>
       </c>
       <c r="D117" s="4">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E117" s="4">
-        <v>2348</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -2947,16 +2952,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1400</v>
+        <v>1218</v>
       </c>
       <c r="C118" s="4">
-        <v>629</v>
+        <v>1734</v>
       </c>
       <c r="D118" s="4">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E118" s="4">
-        <v>2347</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
@@ -2964,16 +2969,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1662</v>
+        <v>1336</v>
       </c>
       <c r="C119" s="4">
-        <v>762</v>
+        <v>1979</v>
       </c>
       <c r="D119" s="4">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E119" s="4">
-        <v>2343</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
@@ -2981,16 +2986,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1210</v>
+        <v>431</v>
       </c>
       <c r="C120" s="4">
-        <v>1553</v>
+        <v>1998</v>
       </c>
       <c r="D120" s="4">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E120" s="4">
-        <v>2313</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -2998,16 +3003,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1978</v>
+        <v>1400</v>
       </c>
       <c r="C121" s="4">
-        <v>1487</v>
+        <v>629</v>
       </c>
       <c r="D121" s="4">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E121" s="4">
-        <v>2287</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
@@ -3015,16 +3020,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1308</v>
+        <v>1662</v>
       </c>
       <c r="C122" s="4">
-        <v>1511</v>
+        <v>762</v>
       </c>
       <c r="D122" s="4">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E122" s="4">
-        <v>2249</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
@@ -3032,16 +3037,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="C123" s="4">
-        <v>1485</v>
+        <v>1553</v>
       </c>
       <c r="D123" s="4">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E123" s="4">
-        <v>2204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -3049,16 +3054,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>512</v>
+        <v>1978</v>
       </c>
       <c r="C124" s="4">
-        <v>1737</v>
+        <v>1487</v>
       </c>
       <c r="D124" s="4">
         <v>78</v>
       </c>
       <c r="E124" s="4">
-        <v>2172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
@@ -3066,16 +3071,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1626</v>
+        <v>1308</v>
       </c>
       <c r="C125" s="4">
-        <v>581</v>
+        <v>1511</v>
       </c>
       <c r="D125" s="4">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E125" s="4">
-        <v>2168</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -3083,16 +3088,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1987</v>
+        <v>1131</v>
       </c>
       <c r="C126" s="4">
-        <v>719</v>
+        <v>1485</v>
       </c>
       <c r="D126" s="4">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E126" s="4">
-        <v>2160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -3100,16 +3105,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1582</v>
+        <v>512</v>
       </c>
       <c r="C127" s="4">
-        <v>1411</v>
+        <v>1737</v>
       </c>
       <c r="D127" s="4">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E127" s="4">
-        <v>2134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -3117,16 +3122,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>2049</v>
+        <v>1626</v>
       </c>
       <c r="C128" s="4">
-        <v>1482</v>
+        <v>581</v>
       </c>
       <c r="D128" s="4">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E128" s="4">
-        <v>2092</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
@@ -3134,16 +3139,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1185</v>
+        <v>1987</v>
       </c>
       <c r="C129" s="4">
-        <v>1738</v>
+        <v>719</v>
       </c>
       <c r="D129" s="4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E129" s="4">
-        <v>2050</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
@@ -3151,16 +3156,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1694</v>
+        <v>1582</v>
       </c>
       <c r="C130" s="4">
-        <v>1546</v>
+        <v>1411</v>
       </c>
       <c r="D130" s="4">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E130" s="4">
-        <v>2010</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131">
@@ -3168,16 +3173,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1388</v>
+        <v>2049</v>
       </c>
       <c r="C131" s="4">
-        <v>1911</v>
+        <v>1482</v>
       </c>
       <c r="D131" s="4">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E131" s="4">
-        <v>1982</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
@@ -3185,16 +3190,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1362</v>
+        <v>1185</v>
       </c>
       <c r="C132" s="4">
-        <v>710</v>
+        <v>1738</v>
       </c>
       <c r="D132" s="4">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E132" s="4">
-        <v>1969</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
@@ -3202,16 +3207,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1753</v>
+        <v>1694</v>
       </c>
       <c r="C133" s="4">
-        <v>774</v>
+        <v>1546</v>
       </c>
       <c r="D133" s="4">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E133" s="4">
-        <v>1964</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -3219,16 +3224,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2018</v>
+        <v>1388</v>
       </c>
       <c r="C134" s="4">
-        <v>1723</v>
+        <v>1911</v>
       </c>
       <c r="D134" s="4">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E134" s="4">
-        <v>1924</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -3236,16 +3241,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>2411</v>
+        <v>1362</v>
       </c>
       <c r="C135" s="4">
-        <v>1804</v>
+        <v>710</v>
       </c>
       <c r="D135" s="4">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E135" s="4">
-        <v>1903</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -3253,16 +3258,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1826</v>
+        <v>1753</v>
       </c>
       <c r="C136" s="4">
-        <v>1841</v>
+        <v>774</v>
       </c>
       <c r="D136" s="4">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E136" s="4">
-        <v>1865</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
@@ -3270,16 +3275,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1805</v>
+        <v>2018</v>
       </c>
       <c r="C137" s="4">
-        <v>2022</v>
+        <v>1723</v>
       </c>
       <c r="D137" s="4">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E137" s="4">
-        <v>1820</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -3287,16 +3292,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1685</v>
+        <v>2411</v>
       </c>
       <c r="C138" s="4">
-        <v>2131</v>
+        <v>1804</v>
       </c>
       <c r="D138" s="4">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E138" s="4">
-        <v>1790</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -3304,16 +3309,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1645</v>
+        <v>1826</v>
       </c>
       <c r="C139" s="4">
-        <v>710</v>
+        <v>1841</v>
       </c>
       <c r="D139" s="4">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E139" s="4">
-        <v>1785</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
@@ -3321,16 +3326,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2114</v>
+        <v>1805</v>
       </c>
       <c r="C140" s="4">
-        <v>874</v>
+        <v>2022</v>
       </c>
       <c r="D140" s="4">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E140" s="4">
-        <v>1778</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141">
@@ -3338,16 +3343,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2145</v>
+        <v>1685</v>
       </c>
       <c r="C141" s="4">
-        <v>1961</v>
+        <v>2131</v>
       </c>
       <c r="D141" s="4">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E141" s="4">
-        <v>1746</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -3355,16 +3360,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1945</v>
+        <v>1645</v>
       </c>
       <c r="C142" s="4">
-        <v>1838</v>
+        <v>710</v>
       </c>
       <c r="D142" s="4">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E142" s="4">
-        <v>1726</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
@@ -3372,16 +3377,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>2191</v>
+        <v>2114</v>
       </c>
       <c r="C143" s="4">
-        <v>2021</v>
+        <v>874</v>
       </c>
       <c r="D143" s="4">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E143" s="4">
-        <v>1698</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -3389,16 +3394,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1863</v>
+        <v>2145</v>
       </c>
       <c r="C144" s="4">
-        <v>2283</v>
+        <v>1961</v>
       </c>
       <c r="D144" s="4">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E144" s="4">
-        <v>1668</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -3406,16 +3411,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1291</v>
+        <v>1945</v>
       </c>
       <c r="C145" s="4">
-        <v>2330</v>
+        <v>1838</v>
       </c>
       <c r="D145" s="4">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E145" s="4">
-        <v>1642</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -3423,16 +3428,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1820</v>
+        <v>2191</v>
       </c>
       <c r="C146" s="4">
-        <v>819</v>
+        <v>2021</v>
       </c>
       <c r="D146" s="4">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E146" s="4">
-        <v>1634</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
@@ -3440,16 +3445,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2486</v>
+        <v>1863</v>
       </c>
       <c r="C147" s="4">
-        <v>967</v>
+        <v>2283</v>
       </c>
       <c r="D147" s="4">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E147" s="4">
-        <v>1629</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
@@ -3457,16 +3462,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>2082</v>
+        <v>1291</v>
       </c>
       <c r="C148" s="4">
-        <v>1943</v>
+        <v>2331</v>
       </c>
       <c r="D148" s="4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E148" s="4">
-        <v>1606</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -3474,16 +3479,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>2191</v>
+        <v>1820</v>
       </c>
       <c r="C149" s="4">
-        <v>2087</v>
+        <v>819</v>
       </c>
       <c r="D149" s="4">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E149" s="4">
-        <v>1588</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -3491,16 +3496,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1816</v>
+        <v>2486</v>
       </c>
       <c r="C150" s="4">
-        <v>2240</v>
+        <v>967</v>
       </c>
       <c r="D150" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E150" s="4">
-        <v>1568</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151">
@@ -3508,16 +3513,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1991</v>
+        <v>2082</v>
       </c>
       <c r="C151" s="4">
-        <v>2458</v>
+        <v>1943</v>
       </c>
       <c r="D151" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E151" s="4">
-        <v>1552</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
@@ -3525,16 +3530,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1846</v>
+        <v>2191</v>
       </c>
       <c r="C152" s="4">
-        <v>2486</v>
+        <v>2087</v>
       </c>
       <c r="D152" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E152" s="4">
-        <v>1510</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
@@ -3542,16 +3547,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1909</v>
+        <v>1816</v>
       </c>
       <c r="C153" s="4">
-        <v>862</v>
+        <v>2240</v>
       </c>
       <c r="D153" s="4">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E153" s="4">
-        <v>1503</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -3559,16 +3564,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2467</v>
+        <v>1991</v>
       </c>
       <c r="C154" s="4">
-        <v>994</v>
+        <v>2458</v>
       </c>
       <c r="D154" s="4">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E154" s="4">
-        <v>1499</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
@@ -3576,16 +3581,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>2007</v>
+        <v>1846</v>
       </c>
       <c r="C155" s="4">
-        <v>2142</v>
+        <v>2486</v>
       </c>
       <c r="D155" s="4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E155" s="4">
-        <v>1479</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -3593,16 +3598,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>2059</v>
+        <v>1909</v>
       </c>
       <c r="C156" s="4">
-        <v>2163</v>
+        <v>862</v>
       </c>
       <c r="D156" s="4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E156" s="4">
-        <v>1461</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
@@ -3610,16 +3615,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1449</v>
+        <v>2467</v>
       </c>
       <c r="C157" s="4">
-        <v>2567</v>
+        <v>994</v>
       </c>
       <c r="D157" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E157" s="4">
-        <v>1441</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -3627,16 +3632,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1367</v>
+        <v>2007</v>
       </c>
       <c r="C158" s="4">
-        <v>2814</v>
+        <v>2142</v>
       </c>
       <c r="D158" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E158" s="4">
-        <v>1420</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
@@ -3644,16 +3649,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1563</v>
+        <v>2059</v>
       </c>
       <c r="C159" s="4">
-        <v>2538</v>
+        <v>2163</v>
       </c>
       <c r="D159" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E159" s="4">
-        <v>1398</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
@@ -3661,16 +3666,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1330</v>
+        <v>1449</v>
       </c>
       <c r="C160" s="4">
-        <v>767</v>
+        <v>2567</v>
       </c>
       <c r="D160" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E160" s="4">
-        <v>1396</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
@@ -3678,16 +3683,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1419</v>
+        <v>1367</v>
       </c>
       <c r="C161" s="4">
-        <v>587</v>
+        <v>2814</v>
       </c>
       <c r="D161" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E161" s="4">
-        <v>1395</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -3695,16 +3700,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>2102</v>
+        <v>1563</v>
       </c>
       <c r="C162" s="4">
-        <v>1362</v>
+        <v>2539</v>
       </c>
       <c r="D162" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E162" s="4">
-        <v>1392</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -3712,16 +3717,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1639</v>
+        <v>1330</v>
       </c>
       <c r="C163" s="4">
-        <v>2035</v>
+        <v>767</v>
       </c>
       <c r="D163" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E163" s="4">
-        <v>1391</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164">
@@ -3729,16 +3734,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1862</v>
+        <v>1419</v>
       </c>
       <c r="C164" s="4">
-        <v>2075</v>
+        <v>587</v>
       </c>
       <c r="D164" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E164" s="4">
-        <v>1373</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -3746,16 +3751,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1196</v>
+        <v>2102</v>
       </c>
       <c r="C165" s="4">
-        <v>2329</v>
+        <v>1362</v>
       </c>
       <c r="D165" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E165" s="4">
-        <v>1343</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -3763,16 +3768,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1349</v>
+        <v>1639</v>
       </c>
       <c r="C166" s="4">
-        <v>2539</v>
+        <v>2035</v>
       </c>
       <c r="D166" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E166" s="4">
-        <v>1325</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -3780,16 +3785,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1605</v>
+        <v>1862</v>
       </c>
       <c r="C167" s="4">
-        <v>1049</v>
+        <v>2075</v>
       </c>
       <c r="D167" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E167" s="4">
-        <v>1322</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
@@ -3797,16 +3802,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1720</v>
+        <v>1196</v>
       </c>
       <c r="C168" s="4">
-        <v>939</v>
+        <v>2329</v>
       </c>
       <c r="D168" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E168" s="4">
-        <v>1318</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
@@ -3814,16 +3819,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1649</v>
+        <v>1349</v>
       </c>
       <c r="C169" s="4">
-        <v>1972</v>
+        <v>2539</v>
       </c>
       <c r="D169" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E169" s="4">
-        <v>1303</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -3831,16 +3836,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1024</v>
+        <v>1605</v>
       </c>
       <c r="C170" s="4">
-        <v>1968</v>
+        <v>1049</v>
       </c>
       <c r="D170" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>1290</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -3848,16 +3853,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C171" s="4">
-        <v>1906</v>
+        <v>939</v>
       </c>
       <c r="D171" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>1271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -3865,16 +3870,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>854</v>
+        <v>1649</v>
       </c>
       <c r="C172" s="4">
-        <v>2092</v>
+        <v>1972</v>
       </c>
       <c r="D172" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E172" s="4">
-        <v>1251</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -3882,16 +3887,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>805</v>
+        <v>1024</v>
       </c>
       <c r="C173" s="4">
-        <v>2043</v>
+        <v>1968</v>
       </c>
       <c r="D173" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E173" s="4">
-        <v>1223</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174">
@@ -3899,16 +3904,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1412</v>
+        <v>1724</v>
       </c>
       <c r="C174" s="4">
-        <v>701</v>
+        <v>1906</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E174" s="4">
-        <v>1220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -3916,16 +3921,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1549</v>
+        <v>854</v>
       </c>
       <c r="C175" s="4">
-        <v>768</v>
+        <v>2092</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E175" s="4">
-        <v>1212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -3933,16 +3938,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1655</v>
+        <v>805</v>
       </c>
       <c r="C176" s="4">
-        <v>1629</v>
+        <v>2043</v>
       </c>
       <c r="D176" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" s="4">
-        <v>1197</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -3950,16 +3955,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1335</v>
+        <v>1412</v>
       </c>
       <c r="C177" s="4">
-        <v>1788</v>
+        <v>701</v>
       </c>
       <c r="D177" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>1175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
@@ -3967,16 +3972,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1002</v>
+        <v>1549</v>
       </c>
       <c r="C178" s="4">
-        <v>1721</v>
+        <v>768</v>
       </c>
       <c r="D178" s="4">
         <v>1</v>
       </c>
       <c r="E178" s="4">
-        <v>1168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -3984,16 +3989,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>751</v>
+        <v>1655</v>
       </c>
       <c r="C179" s="4">
-        <v>1598</v>
+        <v>1629</v>
       </c>
       <c r="D179" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E179" s="4">
-        <v>1154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180">
@@ -4001,16 +4006,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>983</v>
+        <v>1335</v>
       </c>
       <c r="C180" s="4">
-        <v>1697</v>
+        <v>1788</v>
       </c>
       <c r="D180" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E180" s="4">
-        <v>1118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
@@ -4018,16 +4023,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1444</v>
+        <v>1002</v>
       </c>
       <c r="C181" s="4">
-        <v>552</v>
+        <v>1721</v>
       </c>
       <c r="D181" s="4">
         <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>1109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
@@ -4035,16 +4040,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1429</v>
+        <v>751</v>
       </c>
       <c r="C182" s="4">
-        <v>687</v>
+        <v>1597</v>
       </c>
       <c r="D182" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>1104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -4052,16 +4057,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1768</v>
+        <v>983</v>
       </c>
       <c r="C183" s="4">
-        <v>1449</v>
+        <v>1696</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>1092</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -4069,16 +4074,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>1310</v>
+        <v>1444</v>
       </c>
       <c r="C184" s="4">
-        <v>1438</v>
+        <v>552</v>
       </c>
       <c r="D184" s="4">
         <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>1064</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
@@ -4086,16 +4091,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1011</v>
+        <v>1429</v>
       </c>
       <c r="C185" s="4">
-        <v>1459</v>
+        <v>687</v>
       </c>
       <c r="D185" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" s="4">
-        <v>1053</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
@@ -4103,16 +4108,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>676</v>
+        <v>1768</v>
       </c>
       <c r="C186" s="4">
-        <v>1558</v>
+        <v>1449</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>1029</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -4120,16 +4125,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>938</v>
+        <v>1310</v>
       </c>
       <c r="C187" s="4">
-        <v>1662</v>
+        <v>1438</v>
       </c>
       <c r="D187" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" s="4">
-        <v>1006</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -4137,16 +4142,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>921</v>
+        <v>1011</v>
       </c>
       <c r="C188" s="4">
-        <v>435</v>
+        <v>1459</v>
       </c>
       <c r="D188" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" s="4">
-        <v>996</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189">
@@ -4154,16 +4159,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1370</v>
+        <v>676</v>
       </c>
       <c r="C189" s="4">
-        <v>487</v>
+        <v>1558</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>992</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
@@ -4171,16 +4176,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>1289</v>
+        <v>938</v>
       </c>
       <c r="C190" s="4">
-        <v>1323</v>
+        <v>1662</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>966</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
@@ -4188,16 +4193,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>1190</v>
+        <v>921</v>
       </c>
       <c r="C191" s="4">
-        <v>1347</v>
+        <v>435</v>
       </c>
       <c r="D191" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>960</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -4205,16 +4210,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>888</v>
+        <v>1370</v>
       </c>
       <c r="C192" s="4">
-        <v>1443</v>
+        <v>487</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>939</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -4222,16 +4227,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>626</v>
+        <v>1289</v>
       </c>
       <c r="C193" s="4">
-        <v>1272</v>
+        <v>1323</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>921</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -4239,16 +4244,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>674</v>
+        <v>1190</v>
       </c>
       <c r="C194" s="4">
-        <v>1513</v>
+        <v>1347</v>
       </c>
       <c r="D194" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" s="4">
-        <v>898</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -4256,16 +4261,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="C195" s="4">
-        <v>333</v>
+        <v>1443</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>886</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -4273,16 +4278,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>1185</v>
+        <v>626</v>
       </c>
       <c r="C196" s="4">
-        <v>448</v>
+        <v>1272</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>877</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
@@ -4290,16 +4295,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>1076</v>
+        <v>674</v>
       </c>
       <c r="C197" s="4">
-        <v>1117</v>
+        <v>1513</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>859</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198">
@@ -4307,16 +4312,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>784</v>
+        <v>916</v>
       </c>
       <c r="C198" s="4">
-        <v>1024</v>
+        <v>333</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>827</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199">
@@ -4324,16 +4329,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>488</v>
+        <v>1185</v>
       </c>
       <c r="C199" s="4">
-        <v>1003</v>
+        <v>448</v>
       </c>
       <c r="D199" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>794</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -4341,16 +4346,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>176</v>
+        <v>1076</v>
       </c>
       <c r="C200" s="4">
-        <v>1368</v>
+        <v>1117</v>
       </c>
       <c r="D200" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>766</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -4358,16 +4363,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="C201" s="4">
-        <v>370</v>
+        <v>1023</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>754</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
@@ -4375,16 +4380,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C202" s="4">
-        <v>262</v>
+        <v>1003</v>
       </c>
       <c r="D202" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" s="4">
-        <v>744</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
@@ -4392,16 +4397,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>1107</v>
+        <v>176</v>
       </c>
       <c r="C203" s="4">
-        <v>340</v>
+        <v>1368</v>
       </c>
       <c r="D203" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E203" s="4">
-        <v>737</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204">
@@ -4409,16 +4414,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C204" s="4">
-        <v>747</v>
+        <v>370</v>
       </c>
       <c r="D204" s="4">
         <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>728</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -4426,16 +4431,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>738</v>
+        <v>497</v>
       </c>
       <c r="C205" s="4">
-        <v>867</v>
+        <v>262</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>716</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206">
@@ -4443,16 +4448,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>423</v>
+        <v>1107</v>
       </c>
       <c r="C206" s="4">
-        <v>839</v>
+        <v>340</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>702</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
@@ -4460,16 +4465,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="C207" s="4">
-        <v>963</v>
+        <v>747</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>691</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -4477,16 +4482,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="C208" s="4">
-        <v>1058</v>
+        <v>867</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>661</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -4494,16 +4499,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="C209" s="4">
-        <v>195</v>
+        <v>839</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>659</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
@@ -4511,16 +4516,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>853</v>
+        <v>677</v>
       </c>
       <c r="C210" s="4">
-        <v>288</v>
+        <v>963</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>652</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211">
@@ -4528,16 +4533,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="C211" s="4">
-        <v>706</v>
+        <v>1058</v>
       </c>
       <c r="D211" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>641</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -4545,16 +4550,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>691</v>
+        <v>530</v>
       </c>
       <c r="C212" s="4">
-        <v>756</v>
+        <v>195</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>615</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
@@ -4562,16 +4567,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>470</v>
+        <v>853</v>
       </c>
       <c r="C213" s="4">
-        <v>713</v>
+        <v>288</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>597</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
@@ -4579,16 +4584,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>301</v>
+        <v>622</v>
       </c>
       <c r="C214" s="4">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D214" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" s="4">
-        <v>577</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -4596,16 +4601,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>281</v>
+        <v>691</v>
       </c>
       <c r="C215" s="4">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>550</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -4613,16 +4618,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C216" s="4">
-        <v>117</v>
+        <v>713</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>547</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -4630,16 +4635,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>492</v>
+        <v>301</v>
       </c>
       <c r="C217" s="4">
-        <v>213</v>
+        <v>681</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>544</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -4647,16 +4652,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="C218" s="4">
-        <v>537</v>
+        <v>769</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>527</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -4664,16 +4669,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>639</v>
+        <v>404</v>
       </c>
       <c r="C219" s="4">
-        <v>605</v>
+        <v>117</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>507</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
@@ -4681,16 +4686,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C220" s="4">
-        <v>677</v>
+        <v>213</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>477</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221">
@@ -4698,16 +4703,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="C221" s="4">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>452</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
@@ -4715,16 +4720,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>184</v>
+        <v>639</v>
       </c>
       <c r="C222" s="4">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>430</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
@@ -4732,16 +4737,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>155</v>
+        <v>502</v>
       </c>
       <c r="C223" s="4">
-        <v>172</v>
+        <v>677</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>422</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -4749,16 +4754,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>586</v>
+        <v>408</v>
       </c>
       <c r="C224" s="4">
-        <v>182</v>
+        <v>552</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>420</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225">
@@ -4766,16 +4771,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>414</v>
+        <v>184</v>
       </c>
       <c r="C225" s="4">
-        <v>450</v>
+        <v>688</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>399</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -4783,16 +4788,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>561</v>
+        <v>155</v>
       </c>
       <c r="C226" s="4">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>378</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227">
@@ -4800,16 +4805,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="C227" s="4">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>354</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -4817,16 +4822,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C228" s="4">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>342</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229">
@@ -4834,16 +4839,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>312</v>
+        <v>561</v>
       </c>
       <c r="C229" s="4">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -4851,16 +4856,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="C230" s="4">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231">
@@ -4868,16 +4873,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>571</v>
+        <v>426</v>
       </c>
       <c r="C231" s="4">
-        <v>254</v>
+        <v>435</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>289</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
@@ -4885,16 +4890,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="C232" s="4">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>269</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -4902,16 +4907,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="C233" s="4">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>253</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234">
@@ -4919,16 +4924,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>269</v>
+        <v>571</v>
       </c>
       <c r="C234" s="4">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>242</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
@@ -4936,16 +4941,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="C235" s="4">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
@@ -4953,16 +4958,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="C236" s="4">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237">
@@ -4970,16 +4975,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="C237" s="4">
-        <v>120</v>
+        <v>439</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>172</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -4987,16 +4992,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C238" s="4">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239">
@@ -5004,16 +5009,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="C239" s="4">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
@@ -5021,16 +5026,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C240" s="4">
-        <v>541</v>
+        <v>120</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
@@ -5038,16 +5043,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="C241" s="4">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242">
@@ -5055,16 +5060,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="C242" s="4">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -5072,16 +5077,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C243" s="4">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244">
@@ -5089,16 +5094,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C244" s="4">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245">
@@ -5106,16 +5111,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C245" s="4">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
@@ -5123,16 +5128,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C246" s="4">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247">
@@ -5140,16 +5145,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C247" s="4">
-        <v>327</v>
+        <v>112</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -5157,16 +5162,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="C248" s="4">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
@@ -5174,16 +5179,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C249" s="4">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -5191,16 +5196,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="C250" s="4">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -5208,16 +5213,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C251" s="4">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
@@ -5225,16 +5230,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C252" s="4">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
@@ -5242,16 +5247,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="C253" s="4">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -5259,16 +5264,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="C254" s="4">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
@@ -5276,16 +5281,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="C255" s="4">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5298,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C256" s="4">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
@@ -5310,16 +5315,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="C257" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -5327,16 +5332,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C258" s="4">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
@@ -5344,16 +5349,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C259" s="4">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -5361,16 +5366,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C260" s="4">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -5378,16 +5383,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="C261" s="4">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
       </c>
       <c r="E261" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262">
@@ -5395,10 +5400,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C262" s="4">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
@@ -5412,70 +5417,78 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C263" s="4">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
       </c>
-      <c r="E263" s="4"/>
+      <c r="E263" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C264" s="4">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
       </c>
-      <c r="E264" s="4"/>
+      <c r="E264" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C265" s="4">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
       </c>
-      <c r="E265" s="4"/>
+      <c r="E265" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C266" s="4">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
       </c>
-      <c r="E266" s="4"/>
+      <c r="E266" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C267" s="4">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5487,25 +5500,27 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C268" s="4">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
       </c>
-      <c r="E268" s="4"/>
+      <c r="E268" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C269" s="4">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5517,10 +5532,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C270" s="4">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5532,10 +5547,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C271" s="4">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5547,10 +5562,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C272" s="4">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5562,10 +5577,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C273" s="4">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5577,10 +5592,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C274" s="4">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5592,10 +5607,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C275" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5607,10 +5622,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C276" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5622,10 +5637,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" s="4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D277" s="4">
         <v>0</v>
@@ -5637,11 +5652,17 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
+        <v>4</v>
+      </c>
+      <c r="C278" s="4">
+        <v>15</v>
+      </c>
+      <c r="D278" s="4">
+        <v>0</v>
+      </c>
+      <c r="E278" s="4">
         <v>1</v>
       </c>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
@@ -5651,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="C279" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D279" s="4">
         <v>0</v>
@@ -5663,10 +5684,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C280" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280" s="4">
         <v>0</v>
@@ -5678,7 +5699,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -5691,8 +5712,12 @@
       <c r="B282" s="4">
         <v>0</v>
       </c>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="C282" s="4">
+        <v>5</v>
+      </c>
+      <c r="D282" s="4">
+        <v>0</v>
+      </c>
       <c r="E282" s="4"/>
     </row>
     <row r="283">
@@ -5726,15 +5751,52 @@
         <v>283</v>
       </c>
       <c r="B285" s="4">
+        <v>0</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+      <c r="C286" s="4">
         <v>1</v>
       </c>
-      <c r="C285" s="4">
+      <c r="D286" s="4">
+        <v>0</v>
+      </c>
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" s="4">
         <v>1</v>
       </c>
-      <c r="D285" s="4">
-        <v>0</v>
-      </c>
-      <c r="E285" s="4"/>
+      <c r="C288" s="4">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0</v>
+      </c>
+      <c r="E288" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+  <si>
+    <t>12/14/2020</t>
+  </si>
   <si>
     <t>12/13/2020</t>
   </si>
@@ -967,24 +970,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E289"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>6819</v>
+        <v>4770</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1003,27 +1006,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6153</v>
+        <v>6819</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>7540</v>
+        <v>6153</v>
       </c>
       <c r="C4" s="4">
-        <v>1063</v>
+        <v>565</v>
       </c>
       <c r="D4" s="4">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1031,16 +1036,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>5556</v>
+        <v>7540</v>
       </c>
       <c r="C5" s="4">
-        <v>2582</v>
+        <v>2265</v>
       </c>
       <c r="D5" s="4">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="E5" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1048,16 +1053,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>6495</v>
+        <v>5556</v>
       </c>
       <c r="C6" s="4">
-        <v>4180</v>
+        <v>4167</v>
       </c>
       <c r="D6" s="4">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="E6" s="4">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1065,16 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C7" s="4">
-        <v>5458</v>
+        <v>4921</v>
       </c>
       <c r="D7" s="4">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E7" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1082,16 +1087,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C8" s="4">
-        <v>6668</v>
+        <v>5617</v>
       </c>
       <c r="D8" s="4">
-        <v>907</v>
+        <v>670</v>
       </c>
       <c r="E8" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1099,16 +1104,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C9" s="4">
-        <v>2036</v>
+        <v>6697</v>
       </c>
       <c r="D9" s="4">
-        <v>301</v>
+        <v>911</v>
       </c>
       <c r="E9" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1116,16 +1121,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C10" s="4">
-        <v>2885</v>
+        <v>2038</v>
       </c>
       <c r="D10" s="4">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="E10" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1133,16 +1138,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C11" s="4">
-        <v>5112</v>
+        <v>2891</v>
       </c>
       <c r="D11" s="4">
-        <v>665</v>
+        <v>367</v>
       </c>
       <c r="E11" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1150,16 +1155,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C12" s="4">
-        <v>5323</v>
+        <v>5113</v>
       </c>
       <c r="D12" s="4">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="E12" s="4">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1167,16 +1172,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C13" s="4">
-        <v>5577</v>
+        <v>5322</v>
       </c>
       <c r="D13" s="4">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="E13" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1184,16 +1189,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C14" s="4">
-        <v>6245</v>
+        <v>5576</v>
       </c>
       <c r="D14" s="4">
-        <v>802</v>
+        <v>682</v>
       </c>
       <c r="E14" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1201,16 +1206,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C15" s="4">
-        <v>7173</v>
+        <v>6242</v>
       </c>
       <c r="D15" s="4">
-        <v>975</v>
+        <v>802</v>
       </c>
       <c r="E15" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1218,16 +1223,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C16" s="4">
-        <v>2355</v>
+        <v>7175</v>
       </c>
       <c r="D16" s="4">
-        <v>302</v>
+        <v>972</v>
       </c>
       <c r="E16" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1235,16 +1240,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C17" s="4">
-        <v>2634</v>
+        <v>2355</v>
       </c>
       <c r="D17" s="4">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="E17" s="4">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1252,16 +1257,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C18" s="4">
-        <v>3363</v>
+        <v>2634</v>
       </c>
       <c r="D18" s="4">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="E18" s="4">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1269,16 +1274,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C19" s="4">
-        <v>646</v>
+        <v>3363</v>
       </c>
       <c r="D19" s="4">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -1286,16 +1291,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C20" s="4">
-        <v>3877</v>
+        <v>646</v>
       </c>
       <c r="D20" s="4">
-        <v>553</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1303,16 +1308,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C21" s="4">
-        <v>4113</v>
+        <v>3877</v>
       </c>
       <c r="D21" s="4">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="E21" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -1320,16 +1325,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C22" s="4">
-        <v>5015</v>
+        <v>4113</v>
       </c>
       <c r="D22" s="4">
-        <v>772</v>
+        <v>602</v>
       </c>
       <c r="E22" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1337,16 +1342,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C23" s="4">
-        <v>1457</v>
+        <v>5015</v>
       </c>
       <c r="D23" s="4">
-        <v>234</v>
+        <v>771</v>
       </c>
       <c r="E23" s="4">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1354,16 +1359,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C24" s="4">
-        <v>1793</v>
+        <v>1458</v>
       </c>
       <c r="D24" s="4">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E24" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1371,16 +1376,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C25" s="4">
-        <v>3321</v>
+        <v>1793</v>
       </c>
       <c r="D25" s="4">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1388,16 +1393,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C26" s="4">
-        <v>3437</v>
+        <v>3326</v>
       </c>
       <c r="D26" s="4">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E26" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -1405,16 +1410,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C27" s="4">
-        <v>3496</v>
+        <v>3438</v>
       </c>
       <c r="D27" s="4">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="E27" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1422,16 +1427,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C28" s="4">
-        <v>4072</v>
+        <v>3496</v>
       </c>
       <c r="D28" s="4">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="E28" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1439,16 +1444,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C29" s="4">
-        <v>4652</v>
+        <v>4072</v>
       </c>
       <c r="D29" s="4">
-        <v>619</v>
+        <v>487</v>
       </c>
       <c r="E29" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -1456,16 +1461,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C30" s="4">
-        <v>1519</v>
+        <v>4652</v>
       </c>
       <c r="D30" s="4">
-        <v>186</v>
+        <v>620</v>
       </c>
       <c r="E30" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1473,16 +1478,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C31" s="4">
-        <v>1792</v>
+        <v>1519</v>
       </c>
       <c r="D31" s="4">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E31" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1490,16 +1495,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C32" s="4">
-        <v>3436</v>
+        <v>1792</v>
       </c>
       <c r="D32" s="4">
-        <v>401</v>
+        <v>180</v>
       </c>
       <c r="E32" s="4">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1507,16 +1512,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C33" s="4">
-        <v>3227</v>
+        <v>3437</v>
       </c>
       <c r="D33" s="4">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="E33" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1524,16 +1529,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C34" s="4">
-        <v>3036</v>
+        <v>3227</v>
       </c>
       <c r="D34" s="4">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="E34" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1541,16 +1546,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C35" s="4">
-        <v>3391</v>
+        <v>3039</v>
       </c>
       <c r="D35" s="4">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E35" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -1558,16 +1563,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C36" s="4">
-        <v>4075</v>
+        <v>3391</v>
       </c>
       <c r="D36" s="4">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="E36" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -1575,16 +1580,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C37" s="4">
-        <v>1384</v>
+        <v>4075</v>
       </c>
       <c r="D37" s="4">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="E37" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -1592,16 +1597,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C38" s="4">
-        <v>1494</v>
+        <v>1384</v>
       </c>
       <c r="D38" s="4">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E38" s="4">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -1609,16 +1614,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C39" s="4">
-        <v>2413</v>
+        <v>1494</v>
       </c>
       <c r="D39" s="4">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="E39" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1626,16 +1631,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C40" s="4">
-        <v>2585</v>
+        <v>2413</v>
       </c>
       <c r="D40" s="4">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E40" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -1643,16 +1648,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C41" s="4">
-        <v>2612</v>
+        <v>2585</v>
       </c>
       <c r="D41" s="4">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E41" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -1660,16 +1665,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C42" s="4">
-        <v>2657</v>
+        <v>2612</v>
       </c>
       <c r="D42" s="4">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E42" s="4">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -1677,16 +1682,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C43" s="4">
-        <v>3121</v>
+        <v>2657</v>
       </c>
       <c r="D43" s="4">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="E43" s="4">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -1694,16 +1699,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C44" s="4">
-        <v>941</v>
+        <v>3121</v>
       </c>
       <c r="D44" s="4">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="E44" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
@@ -1711,16 +1716,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C45" s="4">
-        <v>1064</v>
+        <v>941</v>
       </c>
       <c r="D45" s="4">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E45" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -1728,16 +1733,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C46" s="4">
-        <v>2252</v>
+        <v>1065</v>
       </c>
       <c r="D46" s="4">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -1745,16 +1750,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C47" s="4">
-        <v>1984</v>
+        <v>2252</v>
       </c>
       <c r="D47" s="4">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="E47" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -1762,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C48" s="4">
-        <v>2442</v>
+        <v>1984</v>
       </c>
       <c r="D48" s="4">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E48" s="4">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -1779,16 +1784,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C49" s="4">
-        <v>2423</v>
+        <v>2442</v>
       </c>
       <c r="D49" s="4">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E49" s="4">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -1796,16 +1801,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C50" s="4">
-        <v>2982</v>
+        <v>2424</v>
       </c>
       <c r="D50" s="4">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="E50" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1813,16 +1818,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C51" s="4">
-        <v>909</v>
+        <v>2982</v>
       </c>
       <c r="D51" s="4">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E51" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -1830,16 +1835,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C52" s="4">
-        <v>1068</v>
+        <v>909</v>
       </c>
       <c r="D52" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E52" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -1847,16 +1852,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C53" s="4">
-        <v>2203</v>
+        <v>1068</v>
       </c>
       <c r="D53" s="4">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E53" s="4">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -1864,16 +1869,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C54" s="4">
-        <v>2136</v>
+        <v>2203</v>
       </c>
       <c r="D54" s="4">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E54" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1881,16 +1886,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C55" s="4">
-        <v>2457</v>
+        <v>2136</v>
       </c>
       <c r="D55" s="4">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E55" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -1898,13 +1903,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C56" s="4">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D56" s="4">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="E56" s="4">
         <v>32</v>
@@ -1915,16 +1920,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C57" s="4">
-        <v>2800</v>
+        <v>2458</v>
       </c>
       <c r="D57" s="4">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E57" s="4">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -1932,16 +1937,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C58" s="4">
-        <v>849</v>
+        <v>2800</v>
       </c>
       <c r="D58" s="4">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="E58" s="4">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -1949,16 +1954,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C59" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D59" s="4">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E59" s="4">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -1966,16 +1971,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C60" s="4">
-        <v>2054</v>
+        <v>951</v>
       </c>
       <c r="D60" s="4">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="E60" s="4">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -1983,16 +1988,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C61" s="4">
-        <v>2105</v>
+        <v>2054</v>
       </c>
       <c r="D61" s="4">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="E61" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -2000,16 +2005,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C62" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D62" s="4">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="E62" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -2017,16 +2022,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C63" s="4">
-        <v>2383</v>
+        <v>2131</v>
       </c>
       <c r="D63" s="4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E63" s="4">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -2034,16 +2039,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C64" s="4">
-        <v>2683</v>
+        <v>2383</v>
       </c>
       <c r="D64" s="4">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E64" s="4">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -2051,16 +2056,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C65" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D65" s="4">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E65" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -2068,16 +2073,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C66" s="4">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="D66" s="4">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E66" s="4">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -2085,16 +2090,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C67" s="4">
-        <v>1814</v>
+        <v>938</v>
       </c>
       <c r="D67" s="4">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E67" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -2102,16 +2107,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C68" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D68" s="4">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -2119,13 +2124,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C69" s="4">
-        <v>1926</v>
+        <v>2005</v>
       </c>
       <c r="D69" s="4">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E69" s="4">
         <v>25</v>
@@ -2136,13 +2141,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C70" s="4">
-        <v>2070</v>
+        <v>1926</v>
       </c>
       <c r="D70" s="4">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E70" s="4">
         <v>25</v>
@@ -2153,16 +2158,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C71" s="4">
-        <v>2473</v>
+        <v>2070</v>
       </c>
       <c r="D71" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="E71" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -2170,16 +2175,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C72" s="4">
-        <v>820</v>
+        <v>2473</v>
       </c>
       <c r="D72" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E72" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -2187,16 +2192,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C73" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D73" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E73" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -2204,16 +2209,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C74" s="4">
-        <v>1837</v>
+        <v>982</v>
       </c>
       <c r="D74" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E74" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -2221,16 +2226,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C75" s="4">
-        <v>1821</v>
+        <v>1837</v>
       </c>
       <c r="D75" s="4">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E75" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2238,16 +2243,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C76" s="4">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="D76" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E76" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2255,16 +2260,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C77" s="4">
-        <v>1815</v>
+        <v>1838</v>
       </c>
       <c r="D77" s="4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E77" s="4">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -2272,16 +2277,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C78" s="4">
-        <v>2116</v>
+        <v>1815</v>
       </c>
       <c r="D78" s="4">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="E78" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -2289,16 +2294,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C79" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D79" s="4">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="E79" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -2306,16 +2311,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C80" s="4">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="D80" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E80" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -2323,16 +2328,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C81" s="4">
-        <v>1229</v>
+        <v>765</v>
       </c>
       <c r="D81" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E81" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -2340,13 +2345,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C82" s="4">
-        <v>1490</v>
+        <v>1229</v>
       </c>
       <c r="D82" s="4">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E82" s="4">
         <v>25</v>
@@ -2357,16 +2362,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C83" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D83" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E83" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
@@ -2374,16 +2379,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C84" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D84" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E84" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -2391,13 +2396,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C85" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D85" s="4">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E85" s="4">
         <v>26</v>
@@ -2408,13 +2413,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C86" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D86" s="4">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E86" s="4">
         <v>26</v>
@@ -2425,16 +2430,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C87" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D87" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E87" s="4">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -2442,16 +2447,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C88" s="4">
-        <v>1307</v>
+        <v>665</v>
       </c>
       <c r="D88" s="4">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E88" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -2459,16 +2464,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C89" s="4">
-        <v>1282</v>
+        <v>1307</v>
       </c>
       <c r="D89" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E89" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -2476,16 +2481,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C90" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D90" s="4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E90" s="4">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2493,16 +2498,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C91" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D91" s="4">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E91" s="4">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -2510,16 +2515,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C92" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D92" s="4">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E92" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
@@ -2527,16 +2532,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C93" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D93" s="4">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E93" s="4">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -2544,16 +2549,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C94" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D94" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E94" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -2561,16 +2566,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C95" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D95" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E95" s="4">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -2578,16 +2583,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C96" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D96" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E96" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -2595,16 +2600,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C97" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D97" s="4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E97" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -2612,16 +2617,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C98" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D98" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E98" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -2629,16 +2634,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C99" s="4">
-        <v>721</v>
+        <v>1888</v>
       </c>
       <c r="D99" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E99" s="4">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -2646,16 +2651,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C100" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D100" s="4">
+        <v>40</v>
+      </c>
+      <c r="E100" s="4">
         <v>29</v>
-      </c>
-      <c r="E100" s="4">
-        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -2663,16 +2668,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C101" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D101" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E101" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
@@ -2680,16 +2685,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C102" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D102" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E102" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
@@ -2697,16 +2702,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C103" s="4">
-        <v>1537</v>
+        <v>1258</v>
       </c>
       <c r="D103" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E103" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
@@ -2714,16 +2719,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C104" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D104" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E104" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -2731,16 +2736,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C105" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D105" s="4">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E105" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
@@ -2748,16 +2753,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C106" s="4">
-        <v>1811</v>
+        <v>1635</v>
       </c>
       <c r="D106" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E106" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
@@ -2765,16 +2770,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C107" s="4">
-        <v>638</v>
+        <v>1811</v>
       </c>
       <c r="D107" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E107" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
@@ -2782,16 +2787,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C108" s="4">
-        <v>839</v>
+        <v>638</v>
       </c>
       <c r="D108" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E108" s="4">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
@@ -2799,16 +2804,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C109" s="4">
-        <v>1551</v>
+        <v>839</v>
       </c>
       <c r="D109" s="4">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E109" s="4">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
@@ -2816,16 +2821,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C110" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D110" s="4">
         <v>81</v>
       </c>
       <c r="E110" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -2833,16 +2838,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C111" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D111" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E111" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -2850,16 +2855,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C112" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D112" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E112" s="4">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -2867,16 +2872,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C113" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D113" s="4">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E113" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
@@ -2884,16 +2889,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C114" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D114" s="4">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="E114" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -2901,16 +2906,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C115" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D115" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E115" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
@@ -2918,13 +2923,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C116" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D116" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E116" s="4">
         <v>27</v>
@@ -2935,16 +2940,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C117" s="4">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="D117" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E117" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
@@ -2952,16 +2957,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C118" s="4">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D118" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E118" s="4">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -2969,16 +2974,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C119" s="4">
-        <v>1979</v>
+        <v>1734</v>
       </c>
       <c r="D119" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E119" s="4">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -2986,16 +2991,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C120" s="4">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="D120" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E120" s="4">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
@@ -3003,16 +3008,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C121" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D121" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E121" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -3020,16 +3025,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C122" s="4">
-        <v>762</v>
+        <v>629</v>
       </c>
       <c r="D122" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E122" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
@@ -3037,16 +3042,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C123" s="4">
-        <v>1553</v>
+        <v>762</v>
       </c>
       <c r="D123" s="4">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E123" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -3054,16 +3059,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C124" s="4">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="D124" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E124" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
@@ -3071,16 +3076,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C125" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D125" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E125" s="4">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
@@ -3088,16 +3093,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C126" s="4">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="D126" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E126" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -3105,16 +3110,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C127" s="4">
-        <v>1737</v>
+        <v>1485</v>
       </c>
       <c r="D127" s="4">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E127" s="4">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
@@ -3122,16 +3127,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C128" s="4">
-        <v>581</v>
+        <v>1737</v>
       </c>
       <c r="D128" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E128" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -3139,16 +3144,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C129" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D129" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E129" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
@@ -3156,16 +3161,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C130" s="4">
-        <v>1411</v>
+        <v>719</v>
       </c>
       <c r="D130" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E130" s="4">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
@@ -3173,16 +3178,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C131" s="4">
-        <v>1482</v>
+        <v>1411</v>
       </c>
       <c r="D131" s="4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E131" s="4">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
@@ -3190,16 +3195,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C132" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D132" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E132" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
@@ -3207,16 +3212,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C133" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D133" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E133" s="4">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
@@ -3224,16 +3229,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C134" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D134" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E134" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -3241,13 +3246,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C135" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D135" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E135" s="4">
         <v>24</v>
@@ -3258,16 +3263,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C136" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D136" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E136" s="4">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
@@ -3275,16 +3280,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C137" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D137" s="4">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E137" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
@@ -3292,16 +3297,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C138" s="4">
-        <v>1804</v>
+        <v>1723</v>
       </c>
       <c r="D138" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E138" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
@@ -3309,16 +3314,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C139" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D139" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E139" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -3326,13 +3331,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C140" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D140" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E140" s="4">
         <v>25</v>
@@ -3343,16 +3348,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C141" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D141" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E141" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
@@ -3360,16 +3365,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C142" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D142" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E142" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -3377,16 +3382,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C143" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D143" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E143" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
@@ -3394,16 +3399,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C144" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D144" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E144" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -3411,16 +3416,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C145" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D145" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E145" s="4">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
@@ -3428,16 +3433,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C146" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D146" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E146" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -3445,16 +3450,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C147" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D147" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E147" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
@@ -3462,16 +3467,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C148" s="4">
-        <v>2331</v>
+        <v>2283</v>
       </c>
       <c r="D148" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E148" s="4">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
@@ -3479,16 +3484,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C149" s="4">
-        <v>819</v>
+        <v>2331</v>
       </c>
       <c r="D149" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E149" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
@@ -3496,16 +3501,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C150" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D150" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E150" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
@@ -3513,16 +3518,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C151" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D151" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E151" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
@@ -3530,16 +3535,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C152" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D152" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E152" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
@@ -3547,16 +3552,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C153" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D153" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E153" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
@@ -3564,16 +3569,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C154" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D154" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E154" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -3581,16 +3586,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C155" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D155" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E155" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156">
@@ -3598,16 +3603,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C156" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D156" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E156" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -3615,16 +3620,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C157" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D157" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E157" s="4">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
@@ -3632,16 +3637,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C158" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D158" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E158" s="4">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159">
@@ -3649,16 +3654,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C159" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D159" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E159" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160">
@@ -3666,16 +3671,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C160" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D160" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E160" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -3683,16 +3688,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C161" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D161" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E161" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -3700,16 +3705,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C162" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D162" s="4">
         <v>22</v>
       </c>
       <c r="E162" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -3717,13 +3722,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C163" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D163" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E163" s="4">
         <v>19</v>
@@ -3734,16 +3739,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C164" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D164" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E164" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165">
@@ -3751,16 +3756,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C165" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D165" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -3768,16 +3773,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C166" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D166" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E166" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
@@ -3785,13 +3790,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C167" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D167" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E167" s="4">
         <v>10</v>
@@ -3802,16 +3807,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C168" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D168" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E168" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -3819,16 +3824,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C169" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D169" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E169" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -3836,16 +3841,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C170" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D170" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E170" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -3853,13 +3858,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C171" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="4">
         <v>12</v>
@@ -3870,16 +3875,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C172" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D172" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -3887,16 +3892,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C173" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D173" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E173" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
@@ -3904,16 +3909,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C174" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D174" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E174" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175">
@@ -3921,16 +3926,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C175" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D175" s="4">
         <v>10</v>
       </c>
       <c r="E175" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -3938,16 +3943,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C176" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D176" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E176" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -3955,16 +3960,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C177" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D177" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E177" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -3972,16 +3977,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C178" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179">
@@ -3989,16 +3994,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C179" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D179" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E179" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
@@ -4006,16 +4011,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C180" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D180" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
@@ -4023,16 +4028,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C181" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E181" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -4040,16 +4045,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C182" s="4">
-        <v>1597</v>
+        <v>1721</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
@@ -4057,16 +4062,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C183" s="4">
-        <v>1696</v>
+        <v>1598</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -4074,16 +4079,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C184" s="4">
-        <v>552</v>
+        <v>1696</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -4091,16 +4096,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C185" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D185" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
@@ -4108,16 +4113,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C186" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D186" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E186" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
@@ -4125,13 +4130,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C187" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D187" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" s="4">
         <v>12</v>
@@ -4142,10 +4147,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C188" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D188" s="4">
         <v>1</v>
@@ -4159,16 +4164,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C189" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D189" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -4176,16 +4181,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C190" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
       </c>
       <c r="E190" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -4193,16 +4198,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C191" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192">
@@ -4210,16 +4215,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C192" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -4227,16 +4232,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C193" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
@@ -4244,16 +4249,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C194" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D194" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -4261,16 +4266,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C195" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D195" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="4">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -4278,16 +4283,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C196" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
@@ -4295,16 +4300,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C197" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -4312,16 +4317,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C198" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199">
@@ -4329,16 +4334,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C199" s="4">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
@@ -4346,16 +4351,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C200" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201">
@@ -4363,16 +4368,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C201" s="4">
-        <v>1023</v>
+        <v>1117</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -4380,16 +4385,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C202" s="4">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="D202" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
@@ -4397,16 +4402,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C203" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D203" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204">
@@ -4414,16 +4419,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C204" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D204" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E204" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205">
@@ -4431,16 +4436,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C205" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D205" s="4">
         <v>0</v>
       </c>
       <c r="E205" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -4448,16 +4453,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C206" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -4465,16 +4470,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C207" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208">
@@ -4482,16 +4487,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C208" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
@@ -4499,16 +4504,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C209" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210">
@@ -4516,16 +4521,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C210" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
@@ -4533,16 +4538,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C211" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212">
@@ -4550,16 +4555,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C212" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213">
@@ -4567,16 +4572,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C213" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214">
@@ -4584,16 +4589,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C214" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D214" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
@@ -4601,16 +4606,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C215" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D215" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
@@ -4618,16 +4623,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C216" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D216" s="4">
         <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -4635,16 +4640,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C217" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -4652,16 +4657,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C218" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -4669,16 +4674,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C219" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -4686,16 +4691,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C220" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221">
@@ -4703,16 +4708,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C221" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -4720,10 +4725,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C222" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
@@ -4737,16 +4742,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C223" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
@@ -4754,16 +4759,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C224" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225">
@@ -4771,16 +4776,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C225" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226">
@@ -4788,16 +4793,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C226" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
@@ -4805,16 +4810,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C227" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
@@ -4822,16 +4827,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C228" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
@@ -4839,16 +4844,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C229" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230">
@@ -4856,16 +4861,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C230" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
@@ -4873,16 +4878,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C231" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
@@ -4890,10 +4895,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C232" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
@@ -4907,16 +4912,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C233" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -4924,16 +4929,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C234" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235">
@@ -4941,16 +4946,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C235" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="236">
@@ -4958,16 +4963,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C236" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
@@ -4975,16 +4980,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C237" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238">
@@ -4992,16 +4997,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C238" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
@@ -5009,16 +5014,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C239" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240">
@@ -5026,16 +5031,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C240" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -5043,16 +5048,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C241" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
@@ -5060,16 +5065,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C242" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
@@ -5077,16 +5082,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C243" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -5094,16 +5099,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C244" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245">
@@ -5111,16 +5116,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C245" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246">
@@ -5128,16 +5133,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C246" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -5145,16 +5150,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C247" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248">
@@ -5162,16 +5167,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C248" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -5179,16 +5184,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C249" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
@@ -5196,16 +5201,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C250" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -5213,16 +5218,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C251" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -5230,10 +5235,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C252" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
@@ -5247,16 +5252,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C253" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254">
@@ -5264,16 +5269,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C254" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -5281,16 +5286,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C255" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
@@ -5298,10 +5303,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C256" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
@@ -5315,16 +5320,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C257" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
@@ -5332,16 +5337,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C258" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -5349,16 +5354,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C259" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
@@ -5366,16 +5371,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C260" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -5383,16 +5388,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C261" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
       </c>
       <c r="E261" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -5400,16 +5405,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C262" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
       </c>
       <c r="E262" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
@@ -5417,10 +5422,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C263" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
@@ -5434,10 +5439,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C264" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5451,7 +5456,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C265" s="4">
         <v>198</v>
@@ -5468,10 +5473,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C266" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
@@ -5485,57 +5490,59 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C267" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
       </c>
-      <c r="E267" s="4"/>
+      <c r="E267" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C268" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
       </c>
-      <c r="E268" s="4">
-        <v>1</v>
-      </c>
+      <c r="E268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C269" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
       </c>
-      <c r="E269" s="4"/>
+      <c r="E269" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C270" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
@@ -5547,10 +5554,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C271" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5562,10 +5569,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C272" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5577,10 +5584,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C273" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5592,10 +5599,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C274" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5607,10 +5614,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C275" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5622,10 +5629,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C276" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5637,10 +5644,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C277" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D277" s="4">
         <v>0</v>
@@ -5655,39 +5662,39 @@
         <v>4</v>
       </c>
       <c r="C278" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D278" s="4">
         <v>0</v>
       </c>
-      <c r="E278" s="4">
-        <v>1</v>
-      </c>
+      <c r="E278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C279" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D279" s="4">
         <v>0</v>
       </c>
-      <c r="E279" s="4"/>
+      <c r="E279" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D280" s="4">
         <v>0</v>
@@ -5699,10 +5706,14 @@
         <v>279</v>
       </c>
       <c r="B281" s="4">
-        <v>1</v>
-      </c>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C281" s="4">
+        <v>5</v>
+      </c>
+      <c r="D281" s="4">
+        <v>0</v>
+      </c>
       <c r="E281" s="4"/>
     </row>
     <row r="282">
@@ -5710,14 +5721,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="4">
-        <v>0</v>
-      </c>
-      <c r="C282" s="4">
-        <v>5</v>
-      </c>
-      <c r="D282" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283">
@@ -5728,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="C283" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D283" s="4">
         <v>0</v>
@@ -5742,8 +5749,12 @@
       <c r="B284" s="4">
         <v>0</v>
       </c>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+      <c r="D284" s="4">
+        <v>0</v>
+      </c>
       <c r="E284" s="4"/>
     </row>
     <row r="285">
@@ -5764,12 +5775,8 @@
       <c r="B286" s="4">
         <v>0</v>
       </c>
-      <c r="C286" s="4">
-        <v>1</v>
-      </c>
-      <c r="D286" s="4">
-        <v>0</v>
-      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287">
@@ -5779,8 +5786,12 @@
       <c r="B287" s="4">
         <v>0</v>
       </c>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="C287" s="4">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4">
+        <v>0</v>
+      </c>
       <c r="E287" s="4"/>
     </row>
     <row r="288">
@@ -5788,15 +5799,26 @@
         <v>286</v>
       </c>
       <c r="B288" s="4">
+        <v>0</v>
+      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B289" s="4">
         <v>1</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C289" s="4">
         <v>1</v>
       </c>
-      <c r="D288" s="4">
-        <v>0</v>
-      </c>
-      <c r="E288" s="4"/>
+      <c r="D289" s="4">
+        <v>0</v>
+      </c>
+      <c r="E289" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+  <si>
+    <t>12/15/2020</t>
+  </si>
   <si>
     <t>12/14/2020</t>
   </si>
@@ -970,24 +973,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E290"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>4770</v>
+        <v>5236</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1006,26 +1009,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>6819</v>
+        <v>4770</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>6153</v>
+        <v>6819</v>
       </c>
       <c r="C4" s="4">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="D4" s="4">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="E4" s="4">
         <v>4</v>
@@ -1036,16 +1037,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>7540</v>
+        <v>6153</v>
       </c>
       <c r="C5" s="4">
-        <v>2265</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="4">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>5556</v>
+        <v>7540</v>
       </c>
       <c r="C6" s="4">
-        <v>4167</v>
+        <v>4222</v>
       </c>
       <c r="D6" s="4">
-        <v>594</v>
+        <v>510</v>
       </c>
       <c r="E6" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1070,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>6495</v>
+        <v>5556</v>
       </c>
       <c r="C7" s="4">
-        <v>4921</v>
+        <v>5082</v>
       </c>
       <c r="D7" s="4">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="E7" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1087,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C8" s="4">
-        <v>5617</v>
+        <v>5222</v>
       </c>
       <c r="D8" s="4">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E8" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1104,13 +1105,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C9" s="4">
-        <v>6697</v>
+        <v>5692</v>
       </c>
       <c r="D9" s="4">
-        <v>911</v>
+        <v>677</v>
       </c>
       <c r="E9" s="4">
         <v>32</v>
@@ -1121,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C10" s="4">
-        <v>2038</v>
+        <v>6732</v>
       </c>
       <c r="D10" s="4">
-        <v>304</v>
+        <v>933</v>
       </c>
       <c r="E10" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1138,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C11" s="4">
-        <v>2891</v>
+        <v>2043</v>
       </c>
       <c r="D11" s="4">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="E11" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1155,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C12" s="4">
-        <v>5113</v>
+        <v>2896</v>
       </c>
       <c r="D12" s="4">
-        <v>667</v>
+        <v>367</v>
       </c>
       <c r="E12" s="4">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1172,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C13" s="4">
-        <v>5322</v>
+        <v>5120</v>
       </c>
       <c r="D13" s="4">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="E13" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1189,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C14" s="4">
-        <v>5576</v>
+        <v>5326</v>
       </c>
       <c r="D14" s="4">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="E14" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1206,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C15" s="4">
-        <v>6242</v>
+        <v>5585</v>
       </c>
       <c r="D15" s="4">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="E15" s="4">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1223,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C16" s="4">
-        <v>7175</v>
+        <v>6248</v>
       </c>
       <c r="D16" s="4">
-        <v>972</v>
+        <v>805</v>
       </c>
       <c r="E16" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1240,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C17" s="4">
-        <v>2355</v>
+        <v>7179</v>
       </c>
       <c r="D17" s="4">
-        <v>302</v>
+        <v>978</v>
       </c>
       <c r="E17" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1257,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C18" s="4">
-        <v>2634</v>
+        <v>2355</v>
       </c>
       <c r="D18" s="4">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="E18" s="4">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1274,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C19" s="4">
-        <v>3363</v>
+        <v>2636</v>
       </c>
       <c r="D19" s="4">
-        <v>452</v>
+        <v>354</v>
       </c>
       <c r="E19" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1291,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C20" s="4">
-        <v>646</v>
+        <v>3362</v>
       </c>
       <c r="D20" s="4">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1308,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C21" s="4">
-        <v>3877</v>
+        <v>646</v>
       </c>
       <c r="D21" s="4">
-        <v>554</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1325,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C22" s="4">
-        <v>4113</v>
+        <v>3877</v>
       </c>
       <c r="D22" s="4">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="E22" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -1342,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C23" s="4">
-        <v>5015</v>
+        <v>4118</v>
       </c>
       <c r="D23" s="4">
-        <v>771</v>
+        <v>603</v>
       </c>
       <c r="E23" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1359,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C24" s="4">
-        <v>1458</v>
+        <v>5016</v>
       </c>
       <c r="D24" s="4">
-        <v>233</v>
+        <v>776</v>
       </c>
       <c r="E24" s="4">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1376,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C25" s="4">
-        <v>1793</v>
+        <v>1458</v>
       </c>
       <c r="D25" s="4">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E25" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1393,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C26" s="4">
-        <v>3326</v>
+        <v>1794</v>
       </c>
       <c r="D26" s="4">
-        <v>420</v>
+        <v>246</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -1410,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C27" s="4">
-        <v>3438</v>
+        <v>3331</v>
       </c>
       <c r="D27" s="4">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E27" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -1427,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C28" s="4">
-        <v>3496</v>
+        <v>3439</v>
       </c>
       <c r="D28" s="4">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="E28" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -1444,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C29" s="4">
-        <v>4072</v>
+        <v>3497</v>
       </c>
       <c r="D29" s="4">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="E29" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1461,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C30" s="4">
-        <v>4652</v>
+        <v>4075</v>
       </c>
       <c r="D30" s="4">
-        <v>620</v>
+        <v>490</v>
       </c>
       <c r="E30" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -1478,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C31" s="4">
-        <v>1519</v>
+        <v>4656</v>
       </c>
       <c r="D31" s="4">
-        <v>186</v>
+        <v>621</v>
       </c>
       <c r="E31" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1495,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C32" s="4">
-        <v>1792</v>
+        <v>1520</v>
       </c>
       <c r="D32" s="4">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E32" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1512,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C33" s="4">
-        <v>3437</v>
+        <v>1792</v>
       </c>
       <c r="D33" s="4">
-        <v>401</v>
+        <v>180</v>
       </c>
       <c r="E33" s="4">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C34" s="4">
-        <v>3227</v>
+        <v>3440</v>
       </c>
       <c r="D34" s="4">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="E34" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -1546,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C35" s="4">
-        <v>3039</v>
+        <v>3230</v>
       </c>
       <c r="D35" s="4">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="E35" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -1563,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C36" s="4">
-        <v>3391</v>
+        <v>3039</v>
       </c>
       <c r="D36" s="4">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E36" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -1580,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C37" s="4">
-        <v>4075</v>
+        <v>3392</v>
       </c>
       <c r="D37" s="4">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="E37" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1597,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C38" s="4">
-        <v>1384</v>
+        <v>4075</v>
       </c>
       <c r="D38" s="4">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E38" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -1614,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C39" s="4">
-        <v>1494</v>
+        <v>1384</v>
       </c>
       <c r="D39" s="4">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E39" s="4">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -1631,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C40" s="4">
-        <v>2413</v>
+        <v>1494</v>
       </c>
       <c r="D40" s="4">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="E40" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -1648,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C41" s="4">
-        <v>2585</v>
+        <v>2413</v>
       </c>
       <c r="D41" s="4">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E41" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -1665,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C42" s="4">
-        <v>2612</v>
+        <v>2586</v>
       </c>
       <c r="D42" s="4">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E42" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -1682,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C43" s="4">
-        <v>2657</v>
+        <v>2612</v>
       </c>
       <c r="D43" s="4">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E43" s="4">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -1699,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C44" s="4">
-        <v>3121</v>
+        <v>2657</v>
       </c>
       <c r="D44" s="4">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="E44" s="4">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -1716,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C45" s="4">
-        <v>941</v>
+        <v>3121</v>
       </c>
       <c r="D45" s="4">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="E45" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
@@ -1733,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C46" s="4">
-        <v>1065</v>
+        <v>941</v>
       </c>
       <c r="D46" s="4">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E46" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -1750,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C47" s="4">
-        <v>2252</v>
+        <v>1065</v>
       </c>
       <c r="D47" s="4">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -1767,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C48" s="4">
-        <v>1984</v>
+        <v>2252</v>
       </c>
       <c r="D48" s="4">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="E48" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -1784,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C49" s="4">
-        <v>2442</v>
+        <v>1984</v>
       </c>
       <c r="D49" s="4">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E49" s="4">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
@@ -1801,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C50" s="4">
-        <v>2424</v>
+        <v>2442</v>
       </c>
       <c r="D50" s="4">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E50" s="4">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -1818,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C51" s="4">
-        <v>2982</v>
+        <v>2426</v>
       </c>
       <c r="D51" s="4">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="E51" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -1835,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C52" s="4">
-        <v>909</v>
+        <v>2984</v>
       </c>
       <c r="D52" s="4">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E52" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -1852,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C53" s="4">
-        <v>1068</v>
+        <v>909</v>
       </c>
       <c r="D53" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E53" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -1869,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C54" s="4">
-        <v>2203</v>
+        <v>1070</v>
       </c>
       <c r="D54" s="4">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E54" s="4">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -1886,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C55" s="4">
-        <v>2136</v>
+        <v>2204</v>
       </c>
       <c r="D55" s="4">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E55" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -1903,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C56" s="4">
-        <v>2457</v>
+        <v>2137</v>
       </c>
       <c r="D56" s="4">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E56" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -1920,13 +1921,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C57" s="4">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D57" s="4">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="E57" s="4">
         <v>32</v>
@@ -1937,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C58" s="4">
-        <v>2800</v>
+        <v>2458</v>
       </c>
       <c r="D58" s="4">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E58" s="4">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -1954,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C59" s="4">
-        <v>849</v>
+        <v>2800</v>
       </c>
       <c r="D59" s="4">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="E59" s="4">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -1971,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C60" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D60" s="4">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E60" s="4">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1988,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C61" s="4">
-        <v>2054</v>
+        <v>951</v>
       </c>
       <c r="D61" s="4">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="E61" s="4">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -2005,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C62" s="4">
-        <v>2105</v>
+        <v>2054</v>
       </c>
       <c r="D62" s="4">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="E62" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -2022,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C63" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D63" s="4">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E63" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -2039,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C64" s="4">
-        <v>2383</v>
+        <v>2131</v>
       </c>
       <c r="D64" s="4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E64" s="4">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2056,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C65" s="4">
-        <v>2683</v>
+        <v>2383</v>
       </c>
       <c r="D65" s="4">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E65" s="4">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -2073,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C66" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D66" s="4">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E66" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -2090,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C67" s="4">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="D67" s="4">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E67" s="4">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2107,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C68" s="4">
-        <v>1814</v>
+        <v>938</v>
       </c>
       <c r="D68" s="4">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E68" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -2124,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C69" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D69" s="4">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E69" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -2141,13 +2142,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C70" s="4">
-        <v>1926</v>
+        <v>2005</v>
       </c>
       <c r="D70" s="4">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E70" s="4">
         <v>25</v>
@@ -2158,13 +2159,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C71" s="4">
-        <v>2070</v>
+        <v>1926</v>
       </c>
       <c r="D71" s="4">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E71" s="4">
         <v>25</v>
@@ -2175,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C72" s="4">
-        <v>2473</v>
+        <v>2070</v>
       </c>
       <c r="D72" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="E72" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -2192,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C73" s="4">
-        <v>820</v>
+        <v>2473</v>
       </c>
       <c r="D73" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E73" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -2209,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C74" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D74" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E74" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -2226,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C75" s="4">
-        <v>1837</v>
+        <v>982</v>
       </c>
       <c r="D75" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E75" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2243,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C76" s="4">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="D76" s="4">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E76" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -2260,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C77" s="4">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="D77" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E77" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2277,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C78" s="4">
-        <v>1815</v>
+        <v>1838</v>
       </c>
       <c r="D78" s="4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E78" s="4">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2294,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C79" s="4">
-        <v>2116</v>
+        <v>1815</v>
       </c>
       <c r="D79" s="4">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="E79" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -2311,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C80" s="4">
-        <v>640</v>
+        <v>2116</v>
       </c>
       <c r="D80" s="4">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="E80" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -2328,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C81" s="4">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="D81" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E81" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
@@ -2345,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C82" s="4">
-        <v>1229</v>
+        <v>765</v>
       </c>
       <c r="D82" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E82" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -2362,13 +2363,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C83" s="4">
-        <v>1490</v>
+        <v>1229</v>
       </c>
       <c r="D83" s="4">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E83" s="4">
         <v>25</v>
@@ -2379,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C84" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D84" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E84" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -2396,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C85" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D85" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E85" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -2413,13 +2414,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C86" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D86" s="4">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E86" s="4">
         <v>26</v>
@@ -2430,13 +2431,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C87" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D87" s="4">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E87" s="4">
         <v>26</v>
@@ -2447,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C88" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D88" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E88" s="4">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
@@ -2464,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C89" s="4">
-        <v>1307</v>
+        <v>665</v>
       </c>
       <c r="D89" s="4">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E89" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -2481,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C90" s="4">
-        <v>1282</v>
+        <v>1307</v>
       </c>
       <c r="D90" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E90" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -2498,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C91" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D91" s="4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E91" s="4">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -2515,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C92" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D92" s="4">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E92" s="4">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -2532,16 +2533,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C93" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D93" s="4">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E93" s="4">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -2549,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C94" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D94" s="4">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E94" s="4">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -2566,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C95" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D95" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E95" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2583,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C96" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D96" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E96" s="4">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2600,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C97" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D97" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E97" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -2617,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C98" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D98" s="4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E98" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -2634,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C99" s="4">
-        <v>1888</v>
+        <v>1529</v>
       </c>
       <c r="D99" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E99" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -2651,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C100" s="4">
-        <v>721</v>
+        <v>1888</v>
       </c>
       <c r="D100" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E100" s="4">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
@@ -2668,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C101" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D101" s="4">
+        <v>40</v>
+      </c>
+      <c r="E101" s="4">
         <v>29</v>
-      </c>
-      <c r="E101" s="4">
-        <v>27</v>
       </c>
     </row>
     <row r="102">
@@ -2685,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C102" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D102" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E102" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
@@ -2702,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C103" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D103" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E103" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
@@ -2719,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C104" s="4">
-        <v>1537</v>
+        <v>1258</v>
       </c>
       <c r="D104" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E104" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
@@ -2736,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C105" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D105" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E105" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -2753,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C106" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D106" s="4">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E106" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107">
@@ -2770,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C107" s="4">
-        <v>1811</v>
+        <v>1635</v>
       </c>
       <c r="D107" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E107" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -2787,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C108" s="4">
-        <v>638</v>
+        <v>1811</v>
       </c>
       <c r="D108" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E108" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
@@ -2804,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C109" s="4">
-        <v>839</v>
+        <v>638</v>
       </c>
       <c r="D109" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E109" s="4">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
@@ -2821,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C110" s="4">
-        <v>1551</v>
+        <v>839</v>
       </c>
       <c r="D110" s="4">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E110" s="4">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111">
@@ -2838,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C111" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D111" s="4">
         <v>81</v>
       </c>
       <c r="E111" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -2855,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C112" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D112" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E112" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
@@ -2872,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C113" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D113" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E113" s="4">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -2889,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C114" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D114" s="4">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E114" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
@@ -2906,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C115" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D115" s="4">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="E115" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
@@ -2923,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C116" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D116" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E116" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
@@ -2940,13 +2941,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C117" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D117" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E117" s="4">
         <v>27</v>
@@ -2957,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C118" s="4">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="D118" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -2974,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C119" s="4">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D119" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E119" s="4">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -2991,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C120" s="4">
-        <v>1979</v>
+        <v>1734</v>
       </c>
       <c r="D120" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E120" s="4">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
@@ -3008,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C121" s="4">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="D121" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E121" s="4">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122">
@@ -3025,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C122" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D122" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E122" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -3042,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C123" s="4">
-        <v>762</v>
+        <v>629</v>
       </c>
       <c r="D123" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E123" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -3059,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C124" s="4">
-        <v>1553</v>
+        <v>762</v>
       </c>
       <c r="D124" s="4">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E124" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -3076,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C125" s="4">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="D125" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E125" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
@@ -3093,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C126" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D126" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E126" s="4">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
@@ -3110,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C127" s="4">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="D127" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E127" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -3127,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C128" s="4">
-        <v>1737</v>
+        <v>1485</v>
       </c>
       <c r="D128" s="4">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E128" s="4">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
@@ -3144,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C129" s="4">
-        <v>581</v>
+        <v>1737</v>
       </c>
       <c r="D129" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E129" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -3161,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C130" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D130" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E130" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
@@ -3178,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C131" s="4">
-        <v>1411</v>
+        <v>719</v>
       </c>
       <c r="D131" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E131" s="4">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
@@ -3195,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C132" s="4">
-        <v>1482</v>
+        <v>1411</v>
       </c>
       <c r="D132" s="4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E132" s="4">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133">
@@ -3212,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C133" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D133" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E133" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
@@ -3229,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C134" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D134" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E134" s="4">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
@@ -3246,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C135" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D135" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E135" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -3263,13 +3264,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C136" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D136" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E136" s="4">
         <v>24</v>
@@ -3280,16 +3281,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C137" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D137" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E137" s="4">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -3297,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C138" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D138" s="4">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E138" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -3314,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C139" s="4">
-        <v>1804</v>
+        <v>1723</v>
       </c>
       <c r="D139" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E139" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
@@ -3331,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C140" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D140" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E140" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -3348,13 +3349,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C141" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D141" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E141" s="4">
         <v>25</v>
@@ -3365,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C142" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D142" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E142" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143">
@@ -3382,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C143" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D143" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E143" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -3399,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C144" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D144" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E144" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
@@ -3416,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C145" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D145" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E145" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
@@ -3433,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C146" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D146" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E146" s="4">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
@@ -3450,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C147" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D147" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E147" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
@@ -3467,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C148" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D148" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E148" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
@@ -3484,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C149" s="4">
-        <v>2331</v>
+        <v>2283</v>
       </c>
       <c r="D149" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E149" s="4">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150">
@@ -3501,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C150" s="4">
-        <v>819</v>
+        <v>2331</v>
       </c>
       <c r="D150" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E150" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
@@ -3518,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C151" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D151" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -3535,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C152" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D152" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E152" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -3552,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C153" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D153" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E153" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -3569,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C154" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D154" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E154" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
@@ -3586,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C155" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D155" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E155" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
@@ -3603,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C156" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D156" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E156" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
@@ -3620,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C157" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D157" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E157" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -3637,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C158" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D158" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
@@ -3654,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C159" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D159" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E159" s="4">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -3671,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C160" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D160" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E160" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
@@ -3688,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C161" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D161" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E161" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
@@ -3705,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C162" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D162" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E162" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
@@ -3722,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C163" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D163" s="4">
         <v>22</v>
       </c>
       <c r="E163" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -3739,13 +3740,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C164" s="4">
-        <v>767</v>
+        <v>2539</v>
       </c>
       <c r="D164" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E164" s="4">
         <v>19</v>
@@ -3756,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C165" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D165" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E165" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
@@ -3773,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C166" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D166" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E166" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -3790,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C167" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D167" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E167" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
@@ -3807,13 +3808,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C168" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D168" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E168" s="4">
         <v>10</v>
@@ -3824,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C169" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D169" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E169" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -3841,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C170" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D170" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E170" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
@@ -3858,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C171" s="4">
-        <v>1049</v>
+        <v>2539</v>
       </c>
       <c r="D171" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E171" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172">
@@ -3875,13 +3876,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C172" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D172" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="4">
         <v>12</v>
@@ -3892,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C173" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D173" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -3909,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C174" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D174" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E174" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -3926,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C175" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D175" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E175" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176">
@@ -3943,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C176" s="4">
-        <v>2092</v>
+        <v>1906</v>
       </c>
       <c r="D176" s="4">
         <v>10</v>
       </c>
       <c r="E176" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -3960,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C177" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D177" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E177" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -3977,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C178" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D178" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E178" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
@@ -3994,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C179" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D179" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
@@ -4011,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C180" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D180" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E180" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -4028,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C181" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D181" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -4045,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C182" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D182" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E182" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -4062,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C183" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -4079,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C184" s="4">
-        <v>1696</v>
+        <v>1598</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
       </c>
       <c r="E184" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
@@ -4096,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C185" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D185" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -4113,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C186" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D186" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
@@ -4130,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C187" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D187" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E187" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188">
@@ -4147,13 +4148,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C188" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D188" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" s="4">
         <v>12</v>
@@ -4164,10 +4165,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C189" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D189" s="4">
         <v>1</v>
@@ -4181,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C190" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D190" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -4198,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C191" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
       </c>
       <c r="E191" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -4215,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C192" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
@@ -4232,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C193" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -4249,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C194" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
@@ -4266,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C195" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D195" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -4283,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C196" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D196" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" s="4">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -4300,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C197" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
       </c>
       <c r="E197" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
@@ -4317,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C198" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
@@ -4334,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C199" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
@@ -4351,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C200" s="4">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
@@ -4368,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C201" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
@@ -4385,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C202" s="4">
-        <v>1023</v>
+        <v>1117</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
@@ -4402,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C203" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D203" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204">
@@ -4419,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C204" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D204" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205">
@@ -4436,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C205" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D205" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E205" s="4">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206">
@@ -4453,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C206" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D206" s="4">
         <v>0</v>
       </c>
       <c r="E206" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -4470,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C207" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -4487,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C208" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
@@ -4504,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C209" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
@@ -4521,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C210" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -4538,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C211" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -4555,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C212" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213">
@@ -4572,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C213" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -4589,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C214" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
@@ -4606,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C215" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D215" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
@@ -4623,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C216" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D216" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
@@ -4640,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C217" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D217" s="4">
         <v>0</v>
       </c>
       <c r="E217" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
@@ -4657,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C218" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -4674,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C219" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -4691,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C220" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -4708,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C221" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
@@ -4725,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C222" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4742,10 +4743,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C223" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
@@ -4759,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C224" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
@@ -4776,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C225" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226">
@@ -4793,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C226" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227">
@@ -4810,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C227" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
@@ -4827,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C228" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
@@ -4844,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C229" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
@@ -4861,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C230" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231">
@@ -4878,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C231" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -4895,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C232" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233">
@@ -4912,10 +4913,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C233" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
@@ -4929,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C234" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
@@ -4946,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C235" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236">
@@ -4963,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C236" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237">
@@ -4980,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C237" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238">
@@ -4997,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C238" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239">
@@ -5014,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C239" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240">
@@ -5031,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C240" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
@@ -5048,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C241" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -5065,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C242" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
@@ -5082,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C243" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
@@ -5099,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C244" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -5116,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C245" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246">
@@ -5133,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C246" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247">
@@ -5150,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C247" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -5167,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C248" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249">
@@ -5184,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C249" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -5201,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C250" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
@@ -5218,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C251" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -5235,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C252" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -5252,10 +5253,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C253" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
@@ -5269,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C254" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
@@ -5286,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C255" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -5303,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C256" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
@@ -5320,10 +5321,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C257" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
@@ -5337,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C258" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259">
@@ -5354,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C259" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -5371,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C260" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C261" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
       </c>
       <c r="E261" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -5405,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C262" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
       </c>
       <c r="E262" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -5422,16 +5423,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C263" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
       </c>
       <c r="E263" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
@@ -5439,10 +5440,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C264" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
@@ -5456,10 +5457,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C265" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
@@ -5473,7 +5474,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C266" s="4">
         <v>198</v>
@@ -5490,10 +5491,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C267" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D267" s="4">
         <v>0</v>
@@ -5507,57 +5508,59 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C268" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
       </c>
-      <c r="E268" s="4"/>
+      <c r="E268" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C269" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
       </c>
-      <c r="E269" s="4">
-        <v>1</v>
-      </c>
+      <c r="E269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C270" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
       </c>
-      <c r="E270" s="4"/>
+      <c r="E270" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C271" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5569,10 +5572,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C272" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5584,10 +5587,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C273" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5599,10 +5602,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C274" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5614,10 +5617,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C275" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5629,10 +5632,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C276" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5644,10 +5647,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C277" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D277" s="4">
         <v>0</v>
@@ -5659,10 +5662,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C278" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D278" s="4">
         <v>0</v>
@@ -5677,39 +5680,39 @@
         <v>4</v>
       </c>
       <c r="C279" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D279" s="4">
         <v>0</v>
       </c>
-      <c r="E279" s="4">
-        <v>1</v>
-      </c>
+      <c r="E279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C280" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D280" s="4">
         <v>0</v>
       </c>
-      <c r="E280" s="4"/>
+      <c r="E280" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C281" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D281" s="4">
         <v>0</v>
@@ -5721,10 +5724,14 @@
         <v>280</v>
       </c>
       <c r="B282" s="4">
-        <v>1</v>
-      </c>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C282" s="4">
+        <v>5</v>
+      </c>
+      <c r="D282" s="4">
+        <v>0</v>
+      </c>
       <c r="E282" s="4"/>
     </row>
     <row r="283">
@@ -5732,14 +5739,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="4">
-        <v>0</v>
-      </c>
-      <c r="C283" s="4">
-        <v>5</v>
-      </c>
-      <c r="D283" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284">
@@ -5750,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D284" s="4">
         <v>0</v>
@@ -5764,8 +5767,12 @@
       <c r="B285" s="4">
         <v>0</v>
       </c>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+      <c r="D285" s="4">
+        <v>0</v>
+      </c>
       <c r="E285" s="4"/>
     </row>
     <row r="286">
@@ -5786,12 +5793,8 @@
       <c r="B287" s="4">
         <v>0</v>
       </c>
-      <c r="C287" s="4">
-        <v>1</v>
-      </c>
-      <c r="D287" s="4">
-        <v>0</v>
-      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288">
@@ -5801,8 +5804,12 @@
       <c r="B288" s="4">
         <v>0</v>
       </c>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="C288" s="4">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0</v>
+      </c>
       <c r="E288" s="4"/>
     </row>
     <row r="289">
@@ -5810,15 +5817,26 @@
         <v>287</v>
       </c>
       <c r="B289" s="4">
+        <v>0</v>
+      </c>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290" s="4">
         <v>1</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C290" s="4">
         <v>1</v>
       </c>
-      <c r="D289" s="4">
-        <v>0</v>
-      </c>
-      <c r="E289" s="4"/>
+      <c r="D290" s="4">
+        <v>0</v>
+      </c>
+      <c r="E290" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+  <si>
+    <t>12/16/2020</t>
+  </si>
   <si>
     <t>12/15/2020</t>
   </si>
@@ -891,7 +894,7 @@
     <t>Antigen Positive Cases by Specimen Date</t>
   </si>
   <si>
-    <t>Deaths by Date of Death</t>
+    <t>NC Deaths</t>
   </si>
   <si>
     <t>Date</t>
@@ -973,24 +976,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E291"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2">
@@ -998,38 +1001,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5236</v>
+        <v>5273</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>5979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4770</v>
+        <v>5236</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>5881</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>6819</v>
+        <v>4770</v>
       </c>
       <c r="C4" s="4">
-        <v>542</v>
+        <v>1180</v>
       </c>
       <c r="D4" s="4">
-        <v>320</v>
+        <v>518</v>
       </c>
       <c r="E4" s="4">
-        <v>4</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="5">
@@ -1037,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>6153</v>
+        <v>6819</v>
       </c>
       <c r="C5" s="4">
-        <v>1264</v>
+        <v>1171</v>
       </c>
       <c r="D5" s="4">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1061,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>7540</v>
+        <v>6153</v>
       </c>
       <c r="C6" s="4">
-        <v>4222</v>
+        <v>2196</v>
       </c>
       <c r="D6" s="4">
-        <v>510</v>
+        <v>386</v>
       </c>
       <c r="E6" s="4">
-        <v>10</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5556</v>
+        <v>7540</v>
       </c>
       <c r="C7" s="4">
-        <v>5082</v>
+        <v>4977</v>
       </c>
       <c r="D7" s="4">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E7" s="4">
-        <v>25</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="8">
@@ -1088,16 +1095,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>6495</v>
+        <v>5556</v>
       </c>
       <c r="C8" s="4">
-        <v>5222</v>
+        <v>5265</v>
       </c>
       <c r="D8" s="4">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="E8" s="4">
-        <v>33</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="9">
@@ -1105,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C9" s="4">
-        <v>5692</v>
+        <v>5347</v>
       </c>
       <c r="D9" s="4">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="E9" s="4">
-        <v>32</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="10">
@@ -1122,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C10" s="4">
-        <v>6732</v>
+        <v>5787</v>
       </c>
       <c r="D10" s="4">
-        <v>933</v>
+        <v>713</v>
       </c>
       <c r="E10" s="4">
-        <v>35</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="11">
@@ -1139,16 +1146,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C11" s="4">
-        <v>2043</v>
+        <v>6802</v>
       </c>
       <c r="D11" s="4">
-        <v>311</v>
+        <v>962</v>
       </c>
       <c r="E11" s="4">
-        <v>31</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="12">
@@ -1156,16 +1163,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C12" s="4">
-        <v>2896</v>
+        <v>2055</v>
       </c>
       <c r="D12" s="4">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E12" s="4">
-        <v>29</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="13">
@@ -1173,16 +1180,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C13" s="4">
-        <v>5120</v>
+        <v>2909</v>
       </c>
       <c r="D13" s="4">
-        <v>669</v>
+        <v>378</v>
       </c>
       <c r="E13" s="4">
-        <v>34</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="14">
@@ -1190,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C14" s="4">
-        <v>5326</v>
+        <v>5139</v>
       </c>
       <c r="D14" s="4">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="E14" s="4">
-        <v>30</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="15">
@@ -1207,16 +1214,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C15" s="4">
-        <v>5585</v>
+        <v>5355</v>
       </c>
       <c r="D15" s="4">
-        <v>686</v>
+        <v>633</v>
       </c>
       <c r="E15" s="4">
-        <v>28</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="16">
@@ -1224,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C16" s="4">
-        <v>6248</v>
+        <v>5618</v>
       </c>
       <c r="D16" s="4">
-        <v>805</v>
+        <v>691</v>
       </c>
       <c r="E16" s="4">
-        <v>34</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="17">
@@ -1241,16 +1248,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C17" s="4">
-        <v>7179</v>
+        <v>6257</v>
       </c>
       <c r="D17" s="4">
-        <v>978</v>
+        <v>813</v>
       </c>
       <c r="E17" s="4">
-        <v>28</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="18">
@@ -1258,16 +1265,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C18" s="4">
-        <v>2355</v>
+        <v>7195</v>
       </c>
       <c r="D18" s="4">
-        <v>303</v>
+        <v>993</v>
       </c>
       <c r="E18" s="4">
-        <v>30</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="19">
@@ -1275,16 +1282,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C19" s="4">
-        <v>2636</v>
+        <v>2358</v>
       </c>
       <c r="D19" s="4">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="E19" s="4">
-        <v>38</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="20">
@@ -1292,16 +1299,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C20" s="4">
-        <v>3362</v>
+        <v>2634</v>
       </c>
       <c r="D20" s="4">
-        <v>454</v>
+        <v>356</v>
       </c>
       <c r="E20" s="4">
-        <v>35</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="21">
@@ -1309,16 +1316,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C21" s="4">
-        <v>646</v>
+        <v>3366</v>
       </c>
       <c r="D21" s="4">
-        <v>108</v>
+        <v>453</v>
       </c>
       <c r="E21" s="4">
-        <v>28</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="22">
@@ -1326,16 +1333,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C22" s="4">
-        <v>3877</v>
+        <v>647</v>
       </c>
       <c r="D22" s="4">
-        <v>563</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4">
-        <v>31</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="23">
@@ -1343,16 +1350,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C23" s="4">
-        <v>4118</v>
+        <v>3881</v>
       </c>
       <c r="D23" s="4">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="E23" s="4">
-        <v>24</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="24">
@@ -1360,16 +1367,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C24" s="4">
-        <v>5016</v>
+        <v>4119</v>
       </c>
       <c r="D24" s="4">
-        <v>776</v>
+        <v>603</v>
       </c>
       <c r="E24" s="4">
-        <v>26</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="25">
@@ -1377,16 +1384,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C25" s="4">
-        <v>1458</v>
+        <v>5017</v>
       </c>
       <c r="D25" s="4">
-        <v>234</v>
+        <v>775</v>
       </c>
       <c r="E25" s="4">
-        <v>44</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="26">
@@ -1394,16 +1401,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C26" s="4">
-        <v>1794</v>
+        <v>1466</v>
       </c>
       <c r="D26" s="4">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E26" s="4">
-        <v>36</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="27">
@@ -1411,16 +1418,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C27" s="4">
-        <v>3331</v>
+        <v>1794</v>
       </c>
       <c r="D27" s="4">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="E27" s="4">
-        <v>35</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="28">
@@ -1428,16 +1435,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C28" s="4">
-        <v>3439</v>
+        <v>3331</v>
       </c>
       <c r="D28" s="4">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E28" s="4">
-        <v>33</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="29">
@@ -1445,16 +1452,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C29" s="4">
-        <v>3497</v>
+        <v>3439</v>
       </c>
       <c r="D29" s="4">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="E29" s="4">
-        <v>29</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="30">
@@ -1462,16 +1469,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C30" s="4">
-        <v>4075</v>
+        <v>3497</v>
       </c>
       <c r="D30" s="4">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="E30" s="4">
-        <v>35</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="31">
@@ -1479,16 +1486,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C31" s="4">
-        <v>4656</v>
+        <v>4076</v>
       </c>
       <c r="D31" s="4">
-        <v>621</v>
+        <v>492</v>
       </c>
       <c r="E31" s="4">
-        <v>30</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="32">
@@ -1496,16 +1503,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C32" s="4">
-        <v>1520</v>
+        <v>4669</v>
       </c>
       <c r="D32" s="4">
-        <v>186</v>
+        <v>623</v>
       </c>
       <c r="E32" s="4">
-        <v>31</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="33">
@@ -1513,16 +1520,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C33" s="4">
-        <v>1792</v>
+        <v>1520</v>
       </c>
       <c r="D33" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E33" s="4">
-        <v>28</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="34">
@@ -1530,16 +1537,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C34" s="4">
-        <v>3440</v>
+        <v>1792</v>
       </c>
       <c r="D34" s="4">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="E34" s="4">
-        <v>36</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="35">
@@ -1547,16 +1554,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C35" s="4">
-        <v>3230</v>
+        <v>3442</v>
       </c>
       <c r="D35" s="4">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="E35" s="4">
-        <v>31</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="36">
@@ -1564,16 +1571,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C36" s="4">
-        <v>3039</v>
+        <v>3230</v>
       </c>
       <c r="D36" s="4">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="E36" s="4">
-        <v>33</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="37">
@@ -1581,16 +1588,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C37" s="4">
-        <v>3392</v>
+        <v>3039</v>
       </c>
       <c r="D37" s="4">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E37" s="4">
-        <v>26</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="38">
@@ -1598,16 +1605,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C38" s="4">
-        <v>4075</v>
+        <v>3393</v>
       </c>
       <c r="D38" s="4">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="E38" s="4">
-        <v>32</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="39">
@@ -1615,16 +1622,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C39" s="4">
-        <v>1384</v>
+        <v>4075</v>
       </c>
       <c r="D39" s="4">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="E39" s="4">
-        <v>35</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="40">
@@ -1632,16 +1639,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C40" s="4">
-        <v>1494</v>
+        <v>1384</v>
       </c>
       <c r="D40" s="4">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E40" s="4">
-        <v>26</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="41">
@@ -1649,16 +1656,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C41" s="4">
-        <v>2413</v>
+        <v>1494</v>
       </c>
       <c r="D41" s="4">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="42">
@@ -1666,16 +1673,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C42" s="4">
-        <v>2586</v>
+        <v>2413</v>
       </c>
       <c r="D42" s="4">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E42" s="4">
-        <v>28</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="43">
@@ -1683,16 +1690,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C43" s="4">
-        <v>2612</v>
+        <v>2585</v>
       </c>
       <c r="D43" s="4">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E43" s="4">
-        <v>29</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="44">
@@ -1700,16 +1707,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C44" s="4">
-        <v>2657</v>
+        <v>2613</v>
       </c>
       <c r="D44" s="4">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="E44" s="4">
-        <v>24</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="45">
@@ -1717,16 +1724,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C45" s="4">
-        <v>3121</v>
+        <v>2657</v>
       </c>
       <c r="D45" s="4">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="E45" s="4">
-        <v>39</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="46">
@@ -1734,16 +1741,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C46" s="4">
-        <v>941</v>
+        <v>3121</v>
       </c>
       <c r="D46" s="4">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="E46" s="4">
-        <v>41</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="47">
@@ -1751,16 +1758,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C47" s="4">
-        <v>1065</v>
+        <v>941</v>
       </c>
       <c r="D47" s="4">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="48">
@@ -1768,16 +1775,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C48" s="4">
-        <v>2252</v>
+        <v>1065</v>
       </c>
       <c r="D48" s="4">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4">
-        <v>34</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="49">
@@ -1785,16 +1792,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C49" s="4">
-        <v>1984</v>
+        <v>2252</v>
       </c>
       <c r="D49" s="4">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="E49" s="4">
-        <v>37</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="50">
@@ -1802,16 +1809,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C50" s="4">
-        <v>2442</v>
+        <v>1984</v>
       </c>
       <c r="D50" s="4">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E50" s="4">
-        <v>47</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="51">
@@ -1819,16 +1826,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C51" s="4">
-        <v>2426</v>
+        <v>2442</v>
       </c>
       <c r="D51" s="4">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E51" s="4">
-        <v>27</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="52">
@@ -1836,16 +1843,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C52" s="4">
-        <v>2984</v>
+        <v>2426</v>
       </c>
       <c r="D52" s="4">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="E52" s="4">
-        <v>28</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="53">
@@ -1853,16 +1860,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C53" s="4">
-        <v>909</v>
+        <v>2985</v>
       </c>
       <c r="D53" s="4">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E53" s="4">
-        <v>32</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="54">
@@ -1870,16 +1877,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C54" s="4">
-        <v>1070</v>
+        <v>910</v>
       </c>
       <c r="D54" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E54" s="4">
-        <v>35</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="55">
@@ -1887,16 +1894,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C55" s="4">
-        <v>2204</v>
+        <v>1070</v>
       </c>
       <c r="D55" s="4">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E55" s="4">
-        <v>21</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="56">
@@ -1904,16 +1911,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C56" s="4">
-        <v>2137</v>
+        <v>2204</v>
       </c>
       <c r="D56" s="4">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E56" s="4">
-        <v>28</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="57">
@@ -1921,16 +1928,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C57" s="4">
-        <v>2456</v>
+        <v>2138</v>
       </c>
       <c r="D57" s="4">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E57" s="4">
-        <v>32</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="58">
@@ -1938,16 +1945,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C58" s="4">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="D58" s="4">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="E58" s="4">
-        <v>32</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="59">
@@ -1955,16 +1962,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C59" s="4">
-        <v>2800</v>
+        <v>2458</v>
       </c>
       <c r="D59" s="4">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E59" s="4">
-        <v>41</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="60">
@@ -1972,16 +1979,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C60" s="4">
-        <v>849</v>
+        <v>2801</v>
       </c>
       <c r="D60" s="4">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E60" s="4">
-        <v>18</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="61">
@@ -1989,16 +1996,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C61" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D61" s="4">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E61" s="4">
-        <v>34</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="62">
@@ -2006,16 +2013,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C62" s="4">
-        <v>2054</v>
+        <v>951</v>
       </c>
       <c r="D62" s="4">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="E62" s="4">
-        <v>25</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="63">
@@ -2023,16 +2030,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C63" s="4">
-        <v>2105</v>
+        <v>2054</v>
       </c>
       <c r="D63" s="4">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="E63" s="4">
-        <v>22</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="64">
@@ -2040,16 +2047,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C64" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D64" s="4">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E64" s="4">
-        <v>23</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="65">
@@ -2057,16 +2064,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C65" s="4">
-        <v>2383</v>
+        <v>2131</v>
       </c>
       <c r="D65" s="4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E65" s="4">
-        <v>32</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="66">
@@ -2074,16 +2081,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C66" s="4">
-        <v>2683</v>
+        <v>2383</v>
       </c>
       <c r="D66" s="4">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E66" s="4">
-        <v>23</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="67">
@@ -2091,16 +2098,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C67" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D67" s="4">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E67" s="4">
-        <v>20</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="68">
@@ -2108,16 +2115,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C68" s="4">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="D68" s="4">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E68" s="4">
-        <v>28</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="69">
@@ -2125,16 +2132,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C69" s="4">
-        <v>1814</v>
+        <v>938</v>
       </c>
       <c r="D69" s="4">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E69" s="4">
-        <v>23</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="70">
@@ -2142,16 +2149,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C70" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D70" s="4">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E70" s="4">
-        <v>25</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="71">
@@ -2159,16 +2166,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C71" s="4">
-        <v>1926</v>
+        <v>2005</v>
       </c>
       <c r="D71" s="4">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E71" s="4">
-        <v>25</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="72">
@@ -2176,16 +2183,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C72" s="4">
-        <v>2070</v>
+        <v>1926</v>
       </c>
       <c r="D72" s="4">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E72" s="4">
-        <v>25</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="73">
@@ -2193,16 +2200,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C73" s="4">
-        <v>2473</v>
+        <v>2070</v>
       </c>
       <c r="D73" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="E73" s="4">
-        <v>23</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="74">
@@ -2210,16 +2217,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C74" s="4">
-        <v>820</v>
+        <v>2473</v>
       </c>
       <c r="D74" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E74" s="4">
-        <v>26</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="75">
@@ -2227,16 +2234,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C75" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D75" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E75" s="4">
-        <v>25</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="76">
@@ -2244,16 +2251,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C76" s="4">
-        <v>1838</v>
+        <v>982</v>
       </c>
       <c r="D76" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E76" s="4">
-        <v>18</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="77">
@@ -2261,16 +2268,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C77" s="4">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="D77" s="4">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E77" s="4">
-        <v>16</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="78">
@@ -2278,16 +2285,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C78" s="4">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="D78" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E78" s="4">
-        <v>18</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="79">
@@ -2295,16 +2302,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C79" s="4">
-        <v>1815</v>
+        <v>1838</v>
       </c>
       <c r="D79" s="4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E79" s="4">
-        <v>29</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="80">
@@ -2312,16 +2319,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C80" s="4">
-        <v>2116</v>
+        <v>1815</v>
       </c>
       <c r="D80" s="4">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="E80" s="4">
-        <v>30</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="81">
@@ -2329,16 +2336,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C81" s="4">
-        <v>640</v>
+        <v>2117</v>
       </c>
       <c r="D81" s="4">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="E81" s="4">
-        <v>28</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="82">
@@ -2346,16 +2353,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C82" s="4">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="D82" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E82" s="4">
-        <v>23</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="83">
@@ -2363,16 +2370,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C83" s="4">
-        <v>1229</v>
+        <v>765</v>
       </c>
       <c r="D83" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E83" s="4">
-        <v>25</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="84">
@@ -2380,16 +2387,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C84" s="4">
-        <v>1490</v>
+        <v>1229</v>
       </c>
       <c r="D84" s="4">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E84" s="4">
-        <v>25</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="85">
@@ -2397,16 +2404,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C85" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D85" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E85" s="4">
-        <v>22</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="86">
@@ -2414,16 +2421,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C86" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D86" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E86" s="4">
-        <v>26</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="87">
@@ -2431,16 +2438,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C87" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D87" s="4">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E87" s="4">
-        <v>26</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="88">
@@ -2448,16 +2455,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C88" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D88" s="4">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E88" s="4">
-        <v>26</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="89">
@@ -2465,16 +2472,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C89" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D89" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E89" s="4">
-        <v>17</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="90">
@@ -2482,16 +2489,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C90" s="4">
-        <v>1307</v>
+        <v>665</v>
       </c>
       <c r="D90" s="4">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E90" s="4">
-        <v>21</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="91">
@@ -2499,16 +2506,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C91" s="4">
-        <v>1282</v>
+        <v>1307</v>
       </c>
       <c r="D91" s="4">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E91" s="4">
-        <v>26</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="92">
@@ -2516,16 +2523,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C92" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D92" s="4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E92" s="4">
-        <v>34</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="93">
@@ -2533,16 +2540,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C93" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D93" s="4">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E93" s="4">
-        <v>22</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="94">
@@ -2550,16 +2557,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C94" s="4">
-        <v>1726</v>
+        <v>1496</v>
       </c>
       <c r="D94" s="4">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E94" s="4">
-        <v>38</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="95">
@@ -2567,16 +2574,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C95" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D95" s="4">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E95" s="4">
-        <v>23</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="96">
@@ -2584,16 +2591,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C96" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D96" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E96" s="4">
-        <v>18</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="97">
@@ -2601,16 +2608,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C97" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D97" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E97" s="4">
-        <v>25</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="98">
@@ -2618,16 +2625,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C98" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D98" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E98" s="4">
-        <v>32</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="99">
@@ -2635,16 +2642,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C99" s="4">
-        <v>1529</v>
+        <v>1412</v>
       </c>
       <c r="D99" s="4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E99" s="4">
-        <v>21</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="100">
@@ -2652,16 +2659,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C100" s="4">
-        <v>1888</v>
+        <v>1528</v>
       </c>
       <c r="D100" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E100" s="4">
-        <v>24</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="101">
@@ -2669,16 +2676,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C101" s="4">
-        <v>721</v>
+        <v>1888</v>
       </c>
       <c r="D101" s="4">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E101" s="4">
-        <v>29</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="102">
@@ -2686,16 +2693,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C102" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D102" s="4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E102" s="4">
-        <v>27</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="103">
@@ -2703,16 +2710,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C103" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D103" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E103" s="4">
-        <v>24</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="104">
@@ -2720,16 +2727,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C104" s="4">
-        <v>1258</v>
+        <v>652</v>
       </c>
       <c r="D104" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E104" s="4">
-        <v>22</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="105">
@@ -2737,16 +2744,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C105" s="4">
-        <v>1537</v>
+        <v>1259</v>
       </c>
       <c r="D105" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E105" s="4">
-        <v>24</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="106">
@@ -2754,16 +2761,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C106" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D106" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E106" s="4">
-        <v>36</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="107">
@@ -2771,16 +2778,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C107" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D107" s="4">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E107" s="4">
-        <v>30</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="108">
@@ -2788,16 +2795,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C108" s="4">
-        <v>1811</v>
+        <v>1635</v>
       </c>
       <c r="D108" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E108" s="4">
-        <v>26</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="109">
@@ -2805,16 +2812,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C109" s="4">
-        <v>638</v>
+        <v>1811</v>
       </c>
       <c r="D109" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E109" s="4">
-        <v>25</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="110">
@@ -2822,16 +2829,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C110" s="4">
-        <v>839</v>
+        <v>638</v>
       </c>
       <c r="D110" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E110" s="4">
-        <v>36</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="111">
@@ -2839,16 +2846,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C111" s="4">
-        <v>1551</v>
+        <v>839</v>
       </c>
       <c r="D111" s="4">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E111" s="4">
-        <v>26</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="112">
@@ -2856,16 +2863,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C112" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D112" s="4">
         <v>81</v>
       </c>
       <c r="E112" s="4">
-        <v>24</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="113">
@@ -2873,16 +2880,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C113" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D113" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E113" s="4">
-        <v>21</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="114">
@@ -2890,16 +2897,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C114" s="4">
-        <v>2033</v>
+        <v>1756</v>
       </c>
       <c r="D114" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E114" s="4">
-        <v>29</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="115">
@@ -2907,16 +2914,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C115" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D115" s="4">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E115" s="4">
-        <v>23</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="116">
@@ -2924,16 +2931,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C116" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D116" s="4">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="E116" s="4">
-        <v>28</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="117">
@@ -2941,16 +2948,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C117" s="4">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="D117" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E117" s="4">
-        <v>27</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="118">
@@ -2958,16 +2965,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C118" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D118" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E118" s="4">
-        <v>27</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="119">
@@ -2975,16 +2982,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C119" s="4">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="D119" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" s="4">
-        <v>15</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="120">
@@ -2992,16 +2999,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C120" s="4">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D120" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E120" s="4">
-        <v>26</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="121">
@@ -3009,16 +3016,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C121" s="4">
-        <v>1979</v>
+        <v>1734</v>
       </c>
       <c r="D121" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E121" s="4">
-        <v>37</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="122">
@@ -3026,16 +3033,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C122" s="4">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="D122" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E122" s="4">
-        <v>32</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="123">
@@ -3043,16 +3050,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C123" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D123" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E123" s="4">
-        <v>29</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="124">
@@ -3060,16 +3067,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C124" s="4">
-        <v>762</v>
+        <v>629</v>
       </c>
       <c r="D124" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E124" s="4">
-        <v>26</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="125">
@@ -3077,16 +3084,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C125" s="4">
-        <v>1553</v>
+        <v>762</v>
       </c>
       <c r="D125" s="4">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E125" s="4">
-        <v>16</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="126">
@@ -3094,16 +3101,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C126" s="4">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="D126" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E126" s="4">
-        <v>22</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="127">
@@ -3111,16 +3118,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C127" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D127" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E127" s="4">
-        <v>32</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="128">
@@ -3128,16 +3135,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C128" s="4">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="D128" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E128" s="4">
-        <v>29</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="129">
@@ -3145,16 +3152,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C129" s="4">
-        <v>1737</v>
+        <v>1485</v>
       </c>
       <c r="D129" s="4">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E129" s="4">
-        <v>33</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="130">
@@ -3162,16 +3169,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C130" s="4">
-        <v>581</v>
+        <v>1736</v>
       </c>
       <c r="D130" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E130" s="4">
-        <v>35</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="131">
@@ -3179,16 +3186,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C131" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D131" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E131" s="4">
-        <v>22</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="132">
@@ -3196,16 +3203,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C132" s="4">
-        <v>1411</v>
+        <v>719</v>
       </c>
       <c r="D132" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E132" s="4">
-        <v>37</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="133">
@@ -3213,16 +3220,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C133" s="4">
-        <v>1482</v>
+        <v>1411</v>
       </c>
       <c r="D133" s="4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E133" s="4">
-        <v>23</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="134">
@@ -3230,16 +3237,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C134" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D134" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E134" s="4">
-        <v>24</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="135">
@@ -3247,16 +3254,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C135" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D135" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135" s="4">
-        <v>33</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="136">
@@ -3264,16 +3271,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C136" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D136" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E136" s="4">
-        <v>24</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="137">
@@ -3281,16 +3288,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C137" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D137" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E137" s="4">
-        <v>24</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="138">
@@ -3298,16 +3305,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C138" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D138" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E138" s="4">
-        <v>40</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="139">
@@ -3315,16 +3322,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C139" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D139" s="4">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E139" s="4">
-        <v>30</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="140">
@@ -3332,16 +3339,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C140" s="4">
-        <v>1804</v>
+        <v>1723</v>
       </c>
       <c r="D140" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E140" s="4">
-        <v>32</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="141">
@@ -3349,16 +3356,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C141" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D141" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E141" s="4">
-        <v>25</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="142">
@@ -3366,16 +3373,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C142" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D142" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E142" s="4">
-        <v>25</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="143">
@@ -3383,16 +3390,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C143" s="4">
-        <v>2131</v>
+        <v>2022</v>
       </c>
       <c r="D143" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E143" s="4">
-        <v>32</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="144">
@@ -3400,16 +3407,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C144" s="4">
-        <v>710</v>
+        <v>2131</v>
       </c>
       <c r="D144" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E144" s="4">
-        <v>21</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="145">
@@ -3417,16 +3424,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C145" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D145" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E145" s="4">
-        <v>23</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="146">
@@ -3434,16 +3441,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C146" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D146" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E146" s="4">
-        <v>22</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="147">
@@ -3451,16 +3458,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C147" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D147" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E147" s="4">
-        <v>29</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="148">
@@ -3468,16 +3475,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C148" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D148" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E148" s="4">
-        <v>27</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="149">
@@ -3485,16 +3492,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C149" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D149" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E149" s="4">
-        <v>24</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="150">
@@ -3502,16 +3509,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C150" s="4">
-        <v>2331</v>
+        <v>2283</v>
       </c>
       <c r="D150" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E150" s="4">
-        <v>30</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="151">
@@ -3519,16 +3526,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C151" s="4">
-        <v>819</v>
+        <v>2331</v>
       </c>
       <c r="D151" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E151" s="4">
-        <v>20</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="152">
@@ -3536,16 +3543,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C152" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D152" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E152" s="4">
-        <v>17</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="153">
@@ -3553,16 +3560,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C153" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D153" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E153" s="4">
-        <v>23</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="154">
@@ -3570,16 +3577,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C154" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D154" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E154" s="4">
-        <v>22</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="155">
@@ -3587,16 +3594,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C155" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D155" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E155" s="4">
-        <v>16</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="156">
@@ -3604,16 +3611,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C156" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D156" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E156" s="4">
-        <v>25</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="157">
@@ -3621,16 +3628,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C157" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D157" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E157" s="4">
-        <v>13</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="158">
@@ -3638,16 +3645,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C158" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D158" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E158" s="4">
-        <v>26</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="159">
@@ -3655,16 +3662,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C159" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D159" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E159" s="4">
-        <v>17</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="160">
@@ -3672,16 +3679,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C160" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D160" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E160" s="4">
-        <v>24</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="161">
@@ -3689,16 +3696,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C161" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D161" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E161" s="4">
-        <v>12</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="162">
@@ -3706,16 +3713,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C162" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D162" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E162" s="4">
-        <v>16</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="163">
@@ -3723,16 +3730,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C163" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D163" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E163" s="4">
-        <v>14</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="164">
@@ -3740,16 +3747,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C164" s="4">
-        <v>2539</v>
+        <v>2814</v>
       </c>
       <c r="D164" s="4">
         <v>22</v>
       </c>
       <c r="E164" s="4">
-        <v>19</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="165">
@@ -3757,16 +3764,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C165" s="4">
-        <v>767</v>
+        <v>2538</v>
       </c>
       <c r="D165" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E165" s="4">
-        <v>19</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="166">
@@ -3774,16 +3781,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C166" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D166" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E166" s="4">
-        <v>17</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="167">
@@ -3791,16 +3798,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C167" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D167" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E167" s="4">
-        <v>12</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="168">
@@ -3808,16 +3815,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C168" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D168" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E168" s="4">
-        <v>10</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="169">
@@ -3825,16 +3832,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C169" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D169" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E169" s="4">
-        <v>10</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="170">
@@ -3842,16 +3849,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C170" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D170" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E170" s="4">
-        <v>22</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="171">
@@ -3859,16 +3866,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C171" s="4">
-        <v>2539</v>
+        <v>2329</v>
       </c>
       <c r="D171" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E171" s="4">
-        <v>17</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="172">
@@ -3876,16 +3883,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C172" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D172" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E172" s="4">
-        <v>12</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="173">
@@ -3893,16 +3900,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C173" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>12</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="174">
@@ -3910,16 +3917,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C174" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D174" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>15</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="175">
@@ -3927,16 +3934,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C175" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D175" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E175" s="4">
-        <v>17</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="176">
@@ -3944,16 +3951,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C176" s="4">
-        <v>1906</v>
+        <v>1968</v>
       </c>
       <c r="D176" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E176" s="4">
-        <v>12</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="177">
@@ -3961,16 +3968,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C177" s="4">
-        <v>2092</v>
+        <v>1905</v>
       </c>
       <c r="D177" s="4">
         <v>10</v>
       </c>
       <c r="E177" s="4">
-        <v>18</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="178">
@@ -3978,16 +3985,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C178" s="4">
-        <v>2043</v>
+        <v>2092</v>
       </c>
       <c r="D178" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E178" s="4">
-        <v>9</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="179">
@@ -3995,16 +4002,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C179" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D179" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E179" s="4">
-        <v>19</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="180">
@@ -4012,16 +4019,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C180" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>12</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="181">
@@ -4029,16 +4036,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C181" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D181" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>17</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="182">
@@ -4046,16 +4053,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C182" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D182" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E182" s="4">
-        <v>15</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="183">
@@ -4063,16 +4070,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C183" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183" s="4">
-        <v>13</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="184">
@@ -4080,16 +4087,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>751</v>
+        <v>1002</v>
       </c>
       <c r="C184" s="4">
-        <v>1598</v>
+        <v>1721</v>
       </c>
       <c r="D184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>9</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="185">
@@ -4097,16 +4104,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>983</v>
+        <v>751</v>
       </c>
       <c r="C185" s="4">
-        <v>1697</v>
+        <v>1598</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
       </c>
       <c r="E185" s="4">
-        <v>8</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="186">
@@ -4114,16 +4121,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>1444</v>
+        <v>983</v>
       </c>
       <c r="C186" s="4">
-        <v>552</v>
+        <v>1697</v>
       </c>
       <c r="D186" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" s="4">
-        <v>23</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="187">
@@ -4131,16 +4138,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="C187" s="4">
-        <v>687</v>
+        <v>552</v>
       </c>
       <c r="D187" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" s="4">
-        <v>21</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="188">
@@ -4148,16 +4155,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>1768</v>
+        <v>1429</v>
       </c>
       <c r="C188" s="4">
-        <v>1449</v>
+        <v>687</v>
       </c>
       <c r="D188" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E188" s="4">
-        <v>12</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="189">
@@ -4165,16 +4172,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>1310</v>
+        <v>1768</v>
       </c>
       <c r="C189" s="4">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="D189" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" s="4">
-        <v>12</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="190">
@@ -4182,16 +4189,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>1011</v>
+        <v>1310</v>
       </c>
       <c r="C190" s="4">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="D190" s="4">
         <v>1</v>
       </c>
       <c r="E190" s="4">
-        <v>12</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191">
@@ -4199,16 +4206,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>676</v>
+        <v>1011</v>
       </c>
       <c r="C191" s="4">
-        <v>1558</v>
+        <v>1459</v>
       </c>
       <c r="D191" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="4">
-        <v>13</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="192">
@@ -4216,16 +4223,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>938</v>
+        <v>676</v>
       </c>
       <c r="C192" s="4">
-        <v>1662</v>
+        <v>1558</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
       </c>
       <c r="E192" s="4">
-        <v>21</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="193">
@@ -4233,16 +4240,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="C193" s="4">
-        <v>435</v>
+        <v>1662</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
       </c>
       <c r="E193" s="4">
-        <v>13</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="194">
@@ -4250,16 +4257,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>1370</v>
+        <v>921</v>
       </c>
       <c r="C194" s="4">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
       </c>
       <c r="E194" s="4">
-        <v>17</v>
+        <v>996</v>
       </c>
     </row>
     <row r="195">
@@ -4267,16 +4274,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="C195" s="4">
-        <v>1323</v>
+        <v>487</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
       </c>
       <c r="E195" s="4">
-        <v>20</v>
+        <v>992</v>
       </c>
     </row>
     <row r="196">
@@ -4284,16 +4291,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="C196" s="4">
-        <v>1347</v>
+        <v>1323</v>
       </c>
       <c r="D196" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" s="4">
-        <v>10</v>
+        <v>966</v>
       </c>
     </row>
     <row r="197">
@@ -4301,16 +4308,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>888</v>
+        <v>1190</v>
       </c>
       <c r="C197" s="4">
-        <v>1443</v>
+        <v>1347</v>
       </c>
       <c r="D197" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="4">
-        <v>19</v>
+        <v>960</v>
       </c>
     </row>
     <row r="198">
@@ -4318,16 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="C198" s="4">
-        <v>1272</v>
+        <v>1443</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
       </c>
       <c r="E198" s="4">
-        <v>20</v>
+        <v>939</v>
       </c>
     </row>
     <row r="199">
@@ -4335,16 +4342,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="C199" s="4">
-        <v>1513</v>
+        <v>1272</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
       </c>
       <c r="E199" s="4">
-        <v>17</v>
+        <v>921</v>
       </c>
     </row>
     <row r="200">
@@ -4352,16 +4359,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>916</v>
+        <v>674</v>
       </c>
       <c r="C200" s="4">
-        <v>333</v>
+        <v>1513</v>
       </c>
       <c r="D200" s="4">
         <v>0</v>
       </c>
       <c r="E200" s="4">
-        <v>21</v>
+        <v>898</v>
       </c>
     </row>
     <row r="201">
@@ -4369,16 +4376,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>1185</v>
+        <v>916</v>
       </c>
       <c r="C201" s="4">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="D201" s="4">
         <v>0</v>
       </c>
       <c r="E201" s="4">
-        <v>19</v>
+        <v>886</v>
       </c>
     </row>
     <row r="202">
@@ -4386,16 +4393,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>1076</v>
+        <v>1185</v>
       </c>
       <c r="C202" s="4">
-        <v>1117</v>
+        <v>448</v>
       </c>
       <c r="D202" s="4">
         <v>0</v>
       </c>
       <c r="E202" s="4">
-        <v>20</v>
+        <v>877</v>
       </c>
     </row>
     <row r="203">
@@ -4403,16 +4410,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>784</v>
+        <v>1076</v>
       </c>
       <c r="C203" s="4">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
       </c>
       <c r="E203" s="4">
-        <v>19</v>
+        <v>859</v>
       </c>
     </row>
     <row r="204">
@@ -4420,16 +4427,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="C204" s="4">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="D204" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" s="4">
-        <v>25</v>
+        <v>827</v>
       </c>
     </row>
     <row r="205">
@@ -4437,16 +4444,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="C205" s="4">
-        <v>1368</v>
+        <v>1003</v>
       </c>
       <c r="D205" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" s="4">
-        <v>28</v>
+        <v>794</v>
       </c>
     </row>
     <row r="206">
@@ -4454,16 +4461,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>742</v>
+        <v>176</v>
       </c>
       <c r="C206" s="4">
-        <v>370</v>
+        <v>1368</v>
       </c>
       <c r="D206" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E206" s="4">
-        <v>32</v>
+        <v>766</v>
       </c>
     </row>
     <row r="207">
@@ -4471,16 +4478,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>497</v>
+        <v>742</v>
       </c>
       <c r="C207" s="4">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D207" s="4">
         <v>0</v>
       </c>
       <c r="E207" s="4">
-        <v>18</v>
+        <v>754</v>
       </c>
     </row>
     <row r="208">
@@ -4488,16 +4495,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>1107</v>
+        <v>497</v>
       </c>
       <c r="C208" s="4">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D208" s="4">
         <v>0</v>
       </c>
       <c r="E208" s="4">
-        <v>21</v>
+        <v>744</v>
       </c>
     </row>
     <row r="209">
@@ -4505,16 +4512,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>758</v>
+        <v>1107</v>
       </c>
       <c r="C209" s="4">
-        <v>747</v>
+        <v>340</v>
       </c>
       <c r="D209" s="4">
         <v>0</v>
       </c>
       <c r="E209" s="4">
-        <v>20</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210">
@@ -4522,16 +4529,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C210" s="4">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="D210" s="4">
         <v>0</v>
       </c>
       <c r="E210" s="4">
-        <v>18</v>
+        <v>728</v>
       </c>
     </row>
     <row r="211">
@@ -4539,16 +4546,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>423</v>
+        <v>738</v>
       </c>
       <c r="C211" s="4">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="D211" s="4">
         <v>0</v>
       </c>
       <c r="E211" s="4">
-        <v>15</v>
+        <v>716</v>
       </c>
     </row>
     <row r="212">
@@ -4556,16 +4563,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>677</v>
+        <v>423</v>
       </c>
       <c r="C212" s="4">
-        <v>963</v>
+        <v>839</v>
       </c>
       <c r="D212" s="4">
         <v>0</v>
       </c>
       <c r="E212" s="4">
-        <v>19</v>
+        <v>702</v>
       </c>
     </row>
     <row r="213">
@@ -4573,16 +4580,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>511</v>
+        <v>677</v>
       </c>
       <c r="C213" s="4">
-        <v>1058</v>
+        <v>963</v>
       </c>
       <c r="D213" s="4">
         <v>0</v>
       </c>
       <c r="E213" s="4">
-        <v>12</v>
+        <v>691</v>
       </c>
     </row>
     <row r="214">
@@ -4590,16 +4597,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C214" s="4">
-        <v>195</v>
+        <v>1058</v>
       </c>
       <c r="D214" s="4">
         <v>0</v>
       </c>
       <c r="E214" s="4">
-        <v>15</v>
+        <v>661</v>
       </c>
     </row>
     <row r="215">
@@ -4607,16 +4614,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>853</v>
+        <v>530</v>
       </c>
       <c r="C215" s="4">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="D215" s="4">
         <v>0</v>
       </c>
       <c r="E215" s="4">
-        <v>11</v>
+        <v>659</v>
       </c>
     </row>
     <row r="216">
@@ -4624,16 +4631,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>622</v>
+        <v>853</v>
       </c>
       <c r="C216" s="4">
-        <v>706</v>
+        <v>288</v>
       </c>
       <c r="D216" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" s="4">
-        <v>8</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217">
@@ -4641,16 +4648,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="C217" s="4">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="D217" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" s="4">
-        <v>13</v>
+        <v>641</v>
       </c>
     </row>
     <row r="218">
@@ -4658,16 +4665,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="C218" s="4">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="D218" s="4">
         <v>0</v>
       </c>
       <c r="E218" s="4">
-        <v>14</v>
+        <v>615</v>
       </c>
     </row>
     <row r="219">
@@ -4675,16 +4682,16 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C219" s="4">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D219" s="4">
         <v>0</v>
       </c>
       <c r="E219" s="4">
-        <v>18</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220">
@@ -4692,16 +4699,16 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C220" s="4">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="D220" s="4">
         <v>0</v>
       </c>
       <c r="E220" s="4">
-        <v>14</v>
+        <v>577</v>
       </c>
     </row>
     <row r="221">
@@ -4709,16 +4716,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="C221" s="4">
-        <v>117</v>
+        <v>769</v>
       </c>
       <c r="D221" s="4">
         <v>0</v>
       </c>
       <c r="E221" s="4">
-        <v>25</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222">
@@ -4726,16 +4733,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="C222" s="4">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="D222" s="4">
         <v>0</v>
       </c>
       <c r="E222" s="4">
-        <v>11</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223">
@@ -4743,16 +4750,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="C223" s="4">
-        <v>538</v>
+        <v>213</v>
       </c>
       <c r="D223" s="4">
         <v>0</v>
       </c>
       <c r="E223" s="4">
-        <v>19</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224">
@@ -4760,16 +4767,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="C224" s="4">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D224" s="4">
         <v>0</v>
       </c>
       <c r="E224" s="4">
-        <v>19</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225">
@@ -4777,16 +4784,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="C225" s="4">
-        <v>677</v>
+        <v>605</v>
       </c>
       <c r="D225" s="4">
         <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>12</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226">
@@ -4794,16 +4801,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C226" s="4">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="D226" s="4">
         <v>0</v>
       </c>
       <c r="E226" s="4">
-        <v>25</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227">
@@ -4811,16 +4818,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="C227" s="4">
-        <v>688</v>
+        <v>552</v>
       </c>
       <c r="D227" s="4">
         <v>0</v>
       </c>
       <c r="E227" s="4">
-        <v>18</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228">
@@ -4828,16 +4835,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C228" s="4">
-        <v>172</v>
+        <v>688</v>
       </c>
       <c r="D228" s="4">
         <v>0</v>
       </c>
       <c r="E228" s="4">
-        <v>19</v>
+        <v>430</v>
       </c>
     </row>
     <row r="229">
@@ -4845,16 +4852,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>586</v>
+        <v>155</v>
       </c>
       <c r="C229" s="4">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D229" s="4">
         <v>0</v>
       </c>
       <c r="E229" s="4">
-        <v>13</v>
+        <v>422</v>
       </c>
     </row>
     <row r="230">
@@ -4862,16 +4869,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="C230" s="4">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="D230" s="4">
         <v>0</v>
       </c>
       <c r="E230" s="4">
-        <v>17</v>
+        <v>420</v>
       </c>
     </row>
     <row r="231">
@@ -4879,16 +4886,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>561</v>
+        <v>414</v>
       </c>
       <c r="C231" s="4">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D231" s="4">
         <v>0</v>
       </c>
       <c r="E231" s="4">
-        <v>14</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -4896,16 +4903,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C232" s="4">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D232" s="4">
         <v>0</v>
       </c>
       <c r="E232" s="4">
-        <v>19</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233">
@@ -4913,16 +4920,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C233" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D233" s="4">
         <v>0</v>
       </c>
       <c r="E233" s="4">
-        <v>15</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234">
@@ -4930,16 +4937,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C234" s="4">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D234" s="4">
         <v>0</v>
       </c>
       <c r="E234" s="4">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="235">
@@ -4947,16 +4954,16 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="C235" s="4">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="D235" s="4">
         <v>0</v>
       </c>
       <c r="E235" s="4">
-        <v>24</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236">
@@ -4964,16 +4971,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="C236" s="4">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="D236" s="4">
         <v>0</v>
       </c>
       <c r="E236" s="4">
-        <v>21</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237">
@@ -4981,16 +4988,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C237" s="4">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="D237" s="4">
         <v>0</v>
       </c>
       <c r="E237" s="4">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238">
@@ -4998,16 +5005,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="C238" s="4">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="D238" s="4">
         <v>0</v>
       </c>
       <c r="E238" s="4">
-        <v>17</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239">
@@ -5015,16 +5022,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C239" s="4">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D239" s="4">
         <v>0</v>
       </c>
       <c r="E239" s="4">
-        <v>13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240">
@@ -5032,16 +5039,16 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C240" s="4">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D240" s="4">
         <v>0</v>
       </c>
       <c r="E240" s="4">
-        <v>20</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241">
@@ -5049,16 +5056,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="C241" s="4">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="D241" s="4">
         <v>0</v>
       </c>
       <c r="E241" s="4">
-        <v>18</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242">
@@ -5066,16 +5073,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="C242" s="4">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D242" s="4">
         <v>0</v>
       </c>
       <c r="E242" s="4">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243">
@@ -5083,16 +5090,16 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C243" s="4">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D243" s="4">
         <v>0</v>
       </c>
       <c r="E243" s="4">
-        <v>19</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244">
@@ -5100,16 +5107,16 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="C244" s="4">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="D244" s="4">
         <v>0</v>
       </c>
       <c r="E244" s="4">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="245">
@@ -5117,16 +5124,16 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="C245" s="4">
-        <v>541</v>
+        <v>258</v>
       </c>
       <c r="D245" s="4">
         <v>0</v>
       </c>
       <c r="E245" s="4">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="246">
@@ -5134,16 +5141,16 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="C246" s="4">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="D246" s="4">
         <v>0</v>
       </c>
       <c r="E246" s="4">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247">
@@ -5151,16 +5158,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C247" s="4">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="D247" s="4">
         <v>0</v>
       </c>
       <c r="E247" s="4">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248">
@@ -5168,16 +5175,16 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C248" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D248" s="4">
         <v>0</v>
       </c>
       <c r="E248" s="4">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="249">
@@ -5185,16 +5192,16 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C249" s="4">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D249" s="4">
         <v>0</v>
       </c>
       <c r="E249" s="4">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="250">
@@ -5202,16 +5209,16 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="C250" s="4">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D250" s="4">
         <v>0</v>
       </c>
       <c r="E250" s="4">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251">
@@ -5219,16 +5226,16 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="C251" s="4">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="D251" s="4">
         <v>0</v>
       </c>
       <c r="E251" s="4">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252">
@@ -5236,16 +5243,16 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C252" s="4">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D252" s="4">
         <v>0</v>
       </c>
       <c r="E252" s="4">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253">
@@ -5253,16 +5260,16 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C253" s="4">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D253" s="4">
         <v>0</v>
       </c>
       <c r="E253" s="4">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254">
@@ -5270,16 +5277,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="C254" s="4">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D254" s="4">
         <v>0</v>
       </c>
       <c r="E254" s="4">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="255">
@@ -5287,16 +5294,16 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C255" s="4">
-        <v>398</v>
+        <v>264</v>
       </c>
       <c r="D255" s="4">
         <v>0</v>
       </c>
       <c r="E255" s="4">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256">
@@ -5304,16 +5311,16 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C256" s="4">
-        <v>86</v>
+        <v>398</v>
       </c>
       <c r="D256" s="4">
         <v>0</v>
       </c>
       <c r="E256" s="4">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="257">
@@ -5321,16 +5328,16 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="C257" s="4">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D257" s="4">
         <v>0</v>
       </c>
       <c r="E257" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258">
@@ -5338,16 +5345,16 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C258" s="4">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D258" s="4">
         <v>0</v>
       </c>
       <c r="E258" s="4">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259">
@@ -5355,16 +5362,16 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C259" s="4">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D259" s="4">
         <v>0</v>
       </c>
       <c r="E259" s="4">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260">
@@ -5372,16 +5379,16 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C260" s="4">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D260" s="4">
         <v>0</v>
       </c>
       <c r="E260" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
@@ -5389,16 +5396,16 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C261" s="4">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D261" s="4">
         <v>0</v>
       </c>
       <c r="E261" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
@@ -5406,16 +5413,16 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C262" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D262" s="4">
         <v>0</v>
       </c>
       <c r="E262" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
@@ -5423,16 +5430,16 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C263" s="4">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D263" s="4">
         <v>0</v>
       </c>
       <c r="E263" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
@@ -5440,16 +5447,16 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C264" s="4">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D264" s="4">
         <v>0</v>
       </c>
       <c r="E264" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
@@ -5457,16 +5464,16 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C265" s="4">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D265" s="4">
         <v>0</v>
       </c>
       <c r="E265" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266">
@@ -5474,16 +5481,16 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C266" s="4">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D266" s="4">
         <v>0</v>
       </c>
       <c r="E266" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -5491,7 +5498,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C267" s="4">
         <v>198</v>
@@ -5500,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -5508,10 +5515,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C268" s="4">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D268" s="4">
         <v>0</v>
@@ -5525,10 +5532,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C269" s="4">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D269" s="4">
         <v>0</v>
@@ -5540,27 +5547,25 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C270" s="4">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="D270" s="4">
         <v>0</v>
       </c>
-      <c r="E270" s="4">
-        <v>1</v>
-      </c>
+      <c r="E270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C271" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D271" s="4">
         <v>0</v>
@@ -5572,10 +5577,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C272" s="4">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D272" s="4">
         <v>0</v>
@@ -5587,10 +5592,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C273" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D273" s="4">
         <v>0</v>
@@ -5602,10 +5607,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C274" s="4">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D274" s="4">
         <v>0</v>
@@ -5617,10 +5622,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C275" s="4">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D275" s="4">
         <v>0</v>
@@ -5632,10 +5637,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C276" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D276" s="4">
         <v>0</v>
@@ -5647,10 +5652,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C277" s="4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D277" s="4">
         <v>0</v>
@@ -5662,10 +5667,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C278" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D278" s="4">
         <v>0</v>
@@ -5677,10 +5682,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C279" s="4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D279" s="4">
         <v>0</v>
@@ -5695,24 +5700,22 @@
         <v>4</v>
       </c>
       <c r="C280" s="4">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D280" s="4">
         <v>0</v>
       </c>
-      <c r="E280" s="4">
-        <v>1</v>
-      </c>
+      <c r="E280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C281" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D281" s="4">
         <v>0</v>
@@ -5724,10 +5727,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C282" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D282" s="4">
         <v>0</v>
@@ -5739,10 +5742,14 @@
         <v>281</v>
       </c>
       <c r="B283" s="4">
-        <v>1</v>
-      </c>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C283" s="4">
+        <v>5</v>
+      </c>
+      <c r="D283" s="4">
+        <v>0</v>
+      </c>
       <c r="E283" s="4"/>
     </row>
     <row r="284">
@@ -5750,14 +5757,10 @@
         <v>282</v>
       </c>
       <c r="B284" s="4">
-        <v>0</v>
-      </c>
-      <c r="C284" s="4">
-        <v>5</v>
-      </c>
-      <c r="D284" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285">
@@ -5768,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D285" s="4">
         <v>0</v>
@@ -5782,8 +5785,12 @@
       <c r="B286" s="4">
         <v>0</v>
       </c>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="C286" s="4">
+        <v>1</v>
+      </c>
+      <c r="D286" s="4">
+        <v>0</v>
+      </c>
       <c r="E286" s="4"/>
     </row>
     <row r="287">
@@ -5804,12 +5811,8 @@
       <c r="B288" s="4">
         <v>0</v>
       </c>
-      <c r="C288" s="4">
-        <v>1</v>
-      </c>
-      <c r="D288" s="4">
-        <v>0</v>
-      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289">
@@ -5819,8 +5822,12 @@
       <c r="B289" s="4">
         <v>0</v>
       </c>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="C289" s="4">
+        <v>1</v>
+      </c>
+      <c r="D289" s="4">
+        <v>0</v>
+      </c>
       <c r="E289" s="4"/>
     </row>
     <row r="290">
@@ -5828,15 +5835,26 @@
         <v>288</v>
       </c>
       <c r="B290" s="4">
+        <v>0</v>
+      </c>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291" s="4">
         <v>1</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C291" s="4">
         <v>1</v>
       </c>
-      <c r="D290" s="4">
-        <v>0</v>
-      </c>
-      <c r="E290" s="4"/>
+      <c r="D291" s="4">
+        <v>0</v>
+      </c>
+      <c r="E291" s="4"/>
     </row>
   </sheetData>
 </worksheet>

--- a/nc_state_cases_deaths.xlsx
+++ b/nc_state_cases_deaths.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+  <si>
+    <t>12/17/2020</t>
+  </si>
   <si>
     <t>12/16/2020</t>
   </si>
@@ -894,7 +897,7 @@
     <t>Antigen Positive Cases by Specimen Date</t>
   </si>
   <si>
-    <t>NC Deaths</t>
+    <t>Deaths by Date of Death</t>
   </si>
   <si>
     <t>Date</t>
@@ -976,24 +979,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E292"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -1001,25 +1004,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5273</v>
+        <v>5786</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>5979</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>5236</v>
+        <v>5273</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>5881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1027,16 +1028,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>4770</v>
+        <v>5236</v>
       </c>
       <c r="C4" s="4">
-        <v>1180</v>
+        <v>919</v>
       </c>
       <c r="D4" s="4">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="E4" s="4">
-        <v>5855</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1044,16 +1045,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>6819</v>
+        <v>4770</v>
       </c>
       <c r="C5" s="4">
-        <v>1171</v>
+        <v>3391</v>
       </c>
       <c r="D5" s="4">
-        <v>404</v>
+        <v>895</v>
       </c>
       <c r="E5" s="4">
-        <v>5823</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1061,16 +1062,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>6153</v>
+        <v>6819</v>
       </c>
       <c r="C6" s="4">
-        <v>2196</v>
+        <v>1639</v>
       </c>
       <c r="D6" s="4">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="E6" s="4">
-        <v>5796</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1078,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>7540</v>
+        <v>6153</v>
       </c>
       <c r="C7" s="4">
-        <v>4977</v>
+        <v>2657</v>
       </c>
       <c r="D7" s="4">
-        <v>615</v>
+        <v>414</v>
       </c>
       <c r="E7" s="4">
-        <v>5752</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1095,16 +1096,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>5556</v>
+        <v>7540</v>
       </c>
       <c r="C8" s="4">
-        <v>5265</v>
+        <v>5164</v>
       </c>
       <c r="D8" s="4">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E8" s="4">
-        <v>5714</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1112,16 +1113,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>6495</v>
+        <v>5556</v>
       </c>
       <c r="C9" s="4">
-        <v>5347</v>
+        <v>5342</v>
       </c>
       <c r="D9" s="4">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="E9" s="4">
-        <v>5661</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1129,16 +1130,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4670</v>
+        <v>6495</v>
       </c>
       <c r="C10" s="4">
-        <v>5787</v>
+        <v>5444</v>
       </c>
       <c r="D10" s="4">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="E10" s="4">
-        <v>5605</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1146,16 +1147,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>4372</v>
+        <v>4670</v>
       </c>
       <c r="C11" s="4">
-        <v>6802</v>
+        <v>5831</v>
       </c>
       <c r="D11" s="4">
-        <v>962</v>
+        <v>717</v>
       </c>
       <c r="E11" s="4">
-        <v>5560</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1163,16 +1164,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>6438</v>
+        <v>4372</v>
       </c>
       <c r="C12" s="4">
-        <v>2055</v>
+        <v>6854</v>
       </c>
       <c r="D12" s="4">
-        <v>320</v>
+        <v>974</v>
       </c>
       <c r="E12" s="4">
-        <v>5543</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1180,16 +1181,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>6018</v>
+        <v>6438</v>
       </c>
       <c r="C13" s="4">
-        <v>2909</v>
+        <v>2057</v>
       </c>
       <c r="D13" s="4">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="E13" s="4">
-        <v>5516</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1197,16 +1198,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>5303</v>
+        <v>6018</v>
       </c>
       <c r="C14" s="4">
-        <v>5139</v>
+        <v>2914</v>
       </c>
       <c r="D14" s="4">
-        <v>693</v>
+        <v>379</v>
       </c>
       <c r="E14" s="4">
-        <v>5467</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1214,16 +1215,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>5637</v>
+        <v>5303</v>
       </c>
       <c r="C15" s="4">
-        <v>5355</v>
+        <v>5148</v>
       </c>
       <c r="D15" s="4">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="E15" s="4">
-        <v>5410</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1231,16 +1232,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4199</v>
+        <v>5637</v>
       </c>
       <c r="C16" s="4">
-        <v>5618</v>
+        <v>5371</v>
       </c>
       <c r="D16" s="4">
-        <v>691</v>
+        <v>637</v>
       </c>
       <c r="E16" s="4">
-        <v>5366</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1248,16 +1249,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2883</v>
+        <v>4199</v>
       </c>
       <c r="C17" s="4">
-        <v>6257</v>
+        <v>5644</v>
       </c>
       <c r="D17" s="4">
-        <v>813</v>
+        <v>693</v>
       </c>
       <c r="E17" s="4">
-        <v>5284</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1265,16 +1266,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>2734</v>
+        <v>2883</v>
       </c>
       <c r="C18" s="4">
-        <v>7195</v>
+        <v>6268</v>
       </c>
       <c r="D18" s="4">
-        <v>993</v>
+        <v>814</v>
       </c>
       <c r="E18" s="4">
-        <v>5261</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1282,16 +1283,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>3820</v>
+        <v>2734</v>
       </c>
       <c r="C19" s="4">
-        <v>2358</v>
+        <v>7196</v>
       </c>
       <c r="D19" s="4">
-        <v>304</v>
+        <v>1008</v>
       </c>
       <c r="E19" s="4">
-        <v>5240</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1299,16 +1300,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>3444</v>
+        <v>3820</v>
       </c>
       <c r="C20" s="4">
-        <v>2634</v>
+        <v>2357</v>
       </c>
       <c r="D20" s="4">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="E20" s="4">
-        <v>5219</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1316,16 +1317,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3834</v>
+        <v>3444</v>
       </c>
       <c r="C21" s="4">
-        <v>3366</v>
+        <v>2635</v>
       </c>
       <c r="D21" s="4">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="E21" s="4">
-        <v>5210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1333,16 +1334,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>4174</v>
+        <v>3834</v>
       </c>
       <c r="C22" s="4">
-        <v>647</v>
+        <v>3369</v>
       </c>
       <c r="D22" s="4">
-        <v>107</v>
+        <v>459</v>
       </c>
       <c r="E22" s="4">
-        <v>5181</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -1350,16 +1351,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>4212</v>
+        <v>4174</v>
       </c>
       <c r="C23" s="4">
-        <v>3881</v>
+        <v>647</v>
       </c>
       <c r="D23" s="4">
-        <v>564</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4">
-        <v>5138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1367,16 +1368,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3100</v>
+        <v>4212</v>
       </c>
       <c r="C24" s="4">
-        <v>4119</v>
+        <v>3884</v>
       </c>
       <c r="D24" s="4">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="E24" s="4">
-        <v>5074</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1384,16 +1385,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2419</v>
+        <v>3100</v>
       </c>
       <c r="C25" s="4">
-        <v>5017</v>
+        <v>4118</v>
       </c>
       <c r="D25" s="4">
-        <v>775</v>
+        <v>604</v>
       </c>
       <c r="E25" s="4">
-        <v>5039</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1401,16 +1402,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>4514</v>
+        <v>2419</v>
       </c>
       <c r="C26" s="4">
-        <v>1466</v>
+        <v>5021</v>
       </c>
       <c r="D26" s="4">
-        <v>238</v>
+        <v>774</v>
       </c>
       <c r="E26" s="4">
-        <v>5034</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -1418,16 +1419,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>3415</v>
+        <v>4514</v>
       </c>
       <c r="C27" s="4">
-        <v>1794</v>
+        <v>1464</v>
       </c>
       <c r="D27" s="4">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E27" s="4">
-        <v>5005</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1435,16 +1436,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>3688</v>
+        <v>3415</v>
       </c>
       <c r="C28" s="4">
-        <v>3331</v>
+        <v>1794</v>
       </c>
       <c r="D28" s="4">
-        <v>422</v>
+        <v>247</v>
       </c>
       <c r="E28" s="4">
-        <v>4979</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -1452,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>4296</v>
+        <v>3688</v>
       </c>
       <c r="C29" s="4">
-        <v>3439</v>
+        <v>3333</v>
       </c>
       <c r="D29" s="4">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E29" s="4">
-        <v>4936</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1469,16 +1470,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>3367</v>
+        <v>4296</v>
       </c>
       <c r="C30" s="4">
-        <v>3497</v>
+        <v>3440</v>
       </c>
       <c r="D30" s="4">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="E30" s="4">
-        <v>4898</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1486,16 +1487,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>3288</v>
+        <v>3367</v>
       </c>
       <c r="C31" s="4">
-        <v>4076</v>
+        <v>3495</v>
       </c>
       <c r="D31" s="4">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="E31" s="4">
-        <v>4852</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1503,16 +1504,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>1972</v>
+        <v>3288</v>
       </c>
       <c r="C32" s="4">
-        <v>4669</v>
+        <v>4078</v>
       </c>
       <c r="D32" s="4">
-        <v>623</v>
+        <v>495</v>
       </c>
       <c r="E32" s="4">
-        <v>4814</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1520,16 +1521,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>3117</v>
+        <v>1972</v>
       </c>
       <c r="C33" s="4">
-        <v>1520</v>
+        <v>4670</v>
       </c>
       <c r="D33" s="4">
-        <v>185</v>
+        <v>624</v>
       </c>
       <c r="E33" s="4">
-        <v>4806</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1537,16 +1538,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>3885</v>
+        <v>3117</v>
       </c>
       <c r="C34" s="4">
-        <v>1792</v>
+        <v>1519</v>
       </c>
       <c r="D34" s="4">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E34" s="4">
-        <v>4756</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1554,16 +1555,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>1779</v>
+        <v>3885</v>
       </c>
       <c r="C35" s="4">
-        <v>3442</v>
+        <v>1796</v>
       </c>
       <c r="D35" s="4">
-        <v>403</v>
+        <v>183</v>
       </c>
       <c r="E35" s="4">
-        <v>4720</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1571,16 +1572,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>2893</v>
+        <v>1779</v>
       </c>
       <c r="C36" s="4">
-        <v>3230</v>
+        <v>3443</v>
       </c>
       <c r="D36" s="4">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="E36" s="4">
-        <v>4706</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -1588,16 +1589,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>3119</v>
+        <v>2893</v>
       </c>
       <c r="C37" s="4">
-        <v>3039</v>
+        <v>3231</v>
       </c>
       <c r="D37" s="4">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="E37" s="4">
-        <v>4698</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -1605,16 +1606,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>2582</v>
+        <v>3119</v>
       </c>
       <c r="C38" s="4">
-        <v>3393</v>
+        <v>3038</v>
       </c>
       <c r="D38" s="4">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E38" s="4">
-        <v>4660</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -1622,16 +1623,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>1521</v>
+        <v>2582</v>
       </c>
       <c r="C39" s="4">
-        <v>4075</v>
+        <v>3393</v>
       </c>
       <c r="D39" s="4">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="E39" s="4">
-        <v>4615</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
@@ -1639,16 +1640,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2094</v>
+        <v>1521</v>
       </c>
       <c r="C40" s="4">
-        <v>1384</v>
+        <v>4077</v>
       </c>
       <c r="D40" s="4">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="E40" s="4">
-        <v>4607</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -1656,16 +1657,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>2676</v>
+        <v>2094</v>
       </c>
       <c r="C41" s="4">
-        <v>1494</v>
+        <v>1385</v>
       </c>
       <c r="D41" s="4">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E41" s="4">
-        <v>4605</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -1673,16 +1674,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>2908</v>
+        <v>2676</v>
       </c>
       <c r="C42" s="4">
-        <v>2413</v>
+        <v>1494</v>
       </c>
       <c r="D42" s="4">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="E42" s="4">
-        <v>4582</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1690,16 +1691,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>2859</v>
+        <v>2908</v>
       </c>
       <c r="C43" s="4">
-        <v>2585</v>
+        <v>2413</v>
       </c>
       <c r="D43" s="4">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E43" s="4">
-        <v>4548</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -1707,16 +1708,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>2425</v>
+        <v>2859</v>
       </c>
       <c r="C44" s="4">
-        <v>2613</v>
+        <v>2586</v>
       </c>
       <c r="D44" s="4">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="E44" s="4">
-        <v>4507</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1724,16 +1725,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>2349</v>
+        <v>2425</v>
       </c>
       <c r="C45" s="4">
-        <v>2657</v>
+        <v>2612</v>
       </c>
       <c r="D45" s="4">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="E45" s="4">
-        <v>4457</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -1741,16 +1742,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>1336</v>
+        <v>2349</v>
       </c>
       <c r="C46" s="4">
-        <v>3121</v>
+        <v>2657</v>
       </c>
       <c r="D46" s="4">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="E46" s="4">
-        <v>4390</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -1758,16 +1759,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>2057</v>
+        <v>1336</v>
       </c>
       <c r="C47" s="4">
-        <v>941</v>
+        <v>3120</v>
       </c>
       <c r="D47" s="4">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="E47" s="4">
-        <v>4383</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
@@ -1775,16 +1776,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>2805</v>
+        <v>2057</v>
       </c>
       <c r="C48" s="4">
-        <v>1065</v>
+        <v>941</v>
       </c>
       <c r="D48" s="4">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E48" s="4">
-        <v>4378</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -1792,16 +1793,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="C49" s="4">
-        <v>2252</v>
+        <v>1065</v>
       </c>
       <c r="D49" s="4">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4">
-        <v>4332</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -1809,16 +1810,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>2885</v>
+        <v>2809</v>
       </c>
       <c r="C50" s="4">
-        <v>1984</v>
+        <v>2251</v>
       </c>
       <c r="D50" s="4">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E50" s="4">
-        <v>4283</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -1826,16 +1827,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>2253</v>
+        <v>2885</v>
       </c>
       <c r="C51" s="4">
-        <v>2442</v>
+        <v>1984</v>
       </c>
       <c r="D51" s="4">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E51" s="4">
-        <v>4245</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -1843,16 +1844,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2141</v>
+        <v>2253</v>
       </c>
       <c r="C52" s="4">
-        <v>2426</v>
+        <v>2442</v>
       </c>
       <c r="D52" s="4">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E52" s="4">
-        <v>4211</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -1860,16 +1861,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>1643</v>
+        <v>2141</v>
       </c>
       <c r="C53" s="4">
-        <v>2985</v>
+        <v>2426</v>
       </c>
       <c r="D53" s="4">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="E53" s="4">
-        <v>4170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -1877,16 +1878,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>1807</v>
+        <v>1643</v>
       </c>
       <c r="C54" s="4">
-        <v>910</v>
+        <v>2985</v>
       </c>
       <c r="D54" s="4">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E54" s="4">
-        <v>4157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -1894,16 +1895,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>2584</v>
+        <v>1807</v>
       </c>
       <c r="C55" s="4">
-        <v>1070</v>
+        <v>910</v>
       </c>
       <c r="D55" s="4">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E55" s="4">
-        <v>4144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -1911,16 +1912,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>2716</v>
+        <v>2584</v>
       </c>
       <c r="C56" s="4">
-        <v>2204</v>
+        <v>1070</v>
       </c>
       <c r="D56" s="4">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E56" s="4">
-        <v>4114</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -1928,16 +1929,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>2400</v>
+        <v>2716</v>
       </c>
       <c r="C57" s="4">
-        <v>2138</v>
+        <v>2204</v>
       </c>
       <c r="D57" s="4">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E57" s="4">
-        <v>4082</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -1945,16 +1946,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>1842</v>
+        <v>2400</v>
       </c>
       <c r="C58" s="4">
-        <v>2455</v>
+        <v>2138</v>
       </c>
       <c r="D58" s="4">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E58" s="4">
-        <v>4032</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -1962,16 +1963,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>1578</v>
+        <v>1842</v>
       </c>
       <c r="C59" s="4">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="D59" s="4">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="E59" s="4">
-        <v>3992</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -1979,16 +1980,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1144</v>
+        <v>1578</v>
       </c>
       <c r="C60" s="4">
-        <v>2801</v>
+        <v>2458</v>
       </c>
       <c r="D60" s="4">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="E60" s="4">
-        <v>3939</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -1996,16 +1997,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>2303</v>
+        <v>1144</v>
       </c>
       <c r="C61" s="4">
-        <v>849</v>
+        <v>2801</v>
       </c>
       <c r="D61" s="4">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="E61" s="4">
-        <v>3934</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -2013,16 +2014,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>2102</v>
+        <v>2303</v>
       </c>
       <c r="C62" s="4">
-        <v>951</v>
+        <v>849</v>
       </c>
       <c r="D62" s="4">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E62" s="4">
-        <v>3929</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -2030,16 +2031,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>2684</v>
+        <v>2102</v>
       </c>
       <c r="C63" s="4">
-        <v>2054</v>
+        <v>951</v>
       </c>
       <c r="D63" s="4">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4">
-        <v>3910</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -2047,16 +2048,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>2532</v>
+        <v>2684</v>
       </c>
       <c r="C64" s="4">
-        <v>2105</v>
+        <v>2054</v>
       </c>
       <c r="D64" s="4">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="E64" s="4">
-        <v>3874</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -2064,16 +2065,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>1926</v>
+        <v>2532</v>
       </c>
       <c r="C65" s="4">
-        <v>2131</v>
+        <v>2105</v>
       </c>
       <c r="D65" s="4">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E65" s="4">
-        <v>3856</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -2081,16 +2082,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1734</v>
+        <v>1926</v>
       </c>
       <c r="C66" s="4">
-        <v>2383</v>
+        <v>2131</v>
       </c>
       <c r="D66" s="4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E66" s="4">
-        <v>3816</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -2098,16 +2099,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>1276</v>
+        <v>1734</v>
       </c>
       <c r="C67" s="4">
-        <v>2683</v>
+        <v>2383</v>
       </c>
       <c r="D67" s="4">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E67" s="4">
-        <v>3773</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -2115,16 +2116,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>1719</v>
+        <v>1276</v>
       </c>
       <c r="C68" s="4">
-        <v>902</v>
+        <v>2683</v>
       </c>
       <c r="D68" s="4">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E68" s="4">
-        <v>3770</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -2132,16 +2133,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>2321</v>
+        <v>1719</v>
       </c>
       <c r="C69" s="4">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="D69" s="4">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E69" s="4">
-        <v>3765</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -2149,16 +2150,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>2034</v>
+        <v>2321</v>
       </c>
       <c r="C70" s="4">
-        <v>1814</v>
+        <v>937</v>
       </c>
       <c r="D70" s="4">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E70" s="4">
-        <v>3747</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -2166,16 +2167,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>2428</v>
+        <v>2034</v>
       </c>
       <c r="C71" s="4">
-        <v>2005</v>
+        <v>1814</v>
       </c>
       <c r="D71" s="4">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E71" s="4">
-        <v>3722</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -2183,16 +2184,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>1711</v>
+        <v>2428</v>
       </c>
       <c r="C72" s="4">
-        <v>1926</v>
+        <v>2005</v>
       </c>
       <c r="D72" s="4">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E72" s="4">
-        <v>3693</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -2200,16 +2201,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>1504</v>
+        <v>1711</v>
       </c>
       <c r="C73" s="4">
-        <v>2070</v>
+        <v>1926</v>
       </c>
       <c r="D73" s="4">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E73" s="4">
-        <v>3670</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -2217,16 +2218,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>2258</v>
+        <v>1504</v>
       </c>
       <c r="C74" s="4">
-        <v>2473</v>
+        <v>2070</v>
       </c>
       <c r="D74" s="4">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="E74" s="4">
-        <v>3637</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -2234,16 +2235,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>610</v>
+        <v>2258</v>
       </c>
       <c r="C75" s="4">
-        <v>820</v>
+        <v>2473</v>
       </c>
       <c r="D75" s="4">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="E75" s="4">
-        <v>3634</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2251,16 +2252,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>2202</v>
+        <v>610</v>
       </c>
       <c r="C76" s="4">
-        <v>982</v>
+        <v>820</v>
       </c>
       <c r="D76" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E76" s="4">
-        <v>3629</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -2268,16 +2269,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>1775</v>
+        <v>2202</v>
       </c>
       <c r="C77" s="4">
-        <v>1838</v>
+        <v>982</v>
       </c>
       <c r="D77" s="4">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E77" s="4">
-        <v>3608</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
@@ -2285,16 +2286,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>2277</v>
+        <v>1775</v>
       </c>
       <c r="C78" s="4">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="D78" s="4">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E78" s="4">
-        <v>3579</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2302,16 +2303,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>1495</v>
+        <v>2277</v>
       </c>
       <c r="C79" s="4">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="D79" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E79" s="4">
-        <v>3532</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2319,16 +2320,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>889</v>
+        <v>1495</v>
       </c>
       <c r="C80" s="4">
-        <v>1815</v>
+        <v>1838</v>
       </c>
       <c r="D80" s="4">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E80" s="4">
-        <v>3494</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -2336,16 +2337,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="C81" s="4">
-        <v>2117</v>
+        <v>1815</v>
       </c>
       <c r="D81" s="4">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="E81" s="4">
-        <v>3445</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -2353,16 +2354,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>1290</v>
+        <v>868</v>
       </c>
       <c r="C82" s="4">
-        <v>640</v>
+        <v>2117</v>
       </c>
       <c r="D82" s="4">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="E82" s="4">
-        <v>3441</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
@@ -2370,16 +2371,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>1759</v>
+        <v>1290</v>
       </c>
       <c r="C83" s="4">
-        <v>765</v>
+        <v>640</v>
       </c>
       <c r="D83" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E83" s="4">
-        <v>3440</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -2387,16 +2388,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>1693</v>
+        <v>1759</v>
       </c>
       <c r="C84" s="4">
-        <v>1229</v>
+        <v>765</v>
       </c>
       <c r="D84" s="4">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E84" s="4">
-        <v>3409</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -2404,16 +2405,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>1836</v>
+        <v>1693</v>
       </c>
       <c r="C85" s="4">
-        <v>1490</v>
+        <v>1229</v>
       </c>
       <c r="D85" s="4">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E85" s="4">
-        <v>3379</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2421,16 +2422,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>1101</v>
+        <v>1836</v>
       </c>
       <c r="C86" s="4">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D86" s="4">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="E86" s="4">
-        <v>3338</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -2438,16 +2439,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>1312</v>
+        <v>1101</v>
       </c>
       <c r="C87" s="4">
-        <v>1523</v>
+        <v>1467</v>
       </c>
       <c r="D87" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E87" s="4">
-        <v>3286</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -2455,16 +2456,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>800</v>
+        <v>1312</v>
       </c>
       <c r="C88" s="4">
-        <v>1727</v>
+        <v>1523</v>
       </c>
       <c r="D88" s="4">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E88" s="4">
-        <v>3247</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
@@ -2472,16 +2473,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>1335</v>
+        <v>800</v>
       </c>
       <c r="C89" s="4">
-        <v>573</v>
+        <v>1727</v>
       </c>
       <c r="D89" s="4">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E89" s="4">
-        <v>3243</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -2489,16 +2490,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>1239</v>
+        <v>1335</v>
       </c>
       <c r="C90" s="4">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="D90" s="4">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E90" s="4">
-        <v>3235</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2506,16 +2507,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>1504</v>
+        <v>1239</v>
       </c>
       <c r="C91" s="4">
-        <v>1307</v>
+        <v>665</v>
       </c>
       <c r="D91" s="4">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="E91" s="4">
-        <v>3207</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -2523,16 +2524,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>1632</v>
+        <v>1504</v>
       </c>
       <c r="C92" s="4">
-        <v>1282</v>
+        <v>1307</v>
       </c>
       <c r="D92" s="4">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E92" s="4">
-        <v>3180</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -2540,16 +2541,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>1234</v>
+        <v>1632</v>
       </c>
       <c r="C93" s="4">
-        <v>1411</v>
+        <v>1282</v>
       </c>
       <c r="D93" s="4">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E93" s="4">
-        <v>3149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -2557,16 +2558,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="C94" s="4">
-        <v>1496</v>
+        <v>1411</v>
       </c>
       <c r="D94" s="4">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E94" s="4">
-        <v>3111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -2574,16 +2575,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>948</v>
+        <v>1210</v>
       </c>
       <c r="C95" s="4">
-        <v>1726</v>
+        <v>1497</v>
       </c>
       <c r="D95" s="4">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E95" s="4">
-        <v>3060</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -2591,16 +2592,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>1220</v>
+        <v>948</v>
       </c>
       <c r="C96" s="4">
-        <v>605</v>
+        <v>1726</v>
       </c>
       <c r="D96" s="4">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E96" s="4">
-        <v>3052</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -2608,16 +2609,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>1478</v>
+        <v>1220</v>
       </c>
       <c r="C97" s="4">
-        <v>668</v>
+        <v>605</v>
       </c>
       <c r="D97" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E97" s="4">
-        <v>3047</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -2625,16 +2626,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>1610</v>
+        <v>1478</v>
       </c>
       <c r="C98" s="4">
-        <v>1267</v>
+        <v>668</v>
       </c>
       <c r="D98" s="4">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E98" s="4">
-        <v>3023</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -2642,16 +2643,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>1307</v>
+        <v>1610</v>
       </c>
       <c r="C99" s="4">
-        <v>1412</v>
+        <v>1267</v>
       </c>
       <c r="D99" s="4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E99" s="4">
-        <v>2990</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
@@ -2659,16 +2660,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>969</v>
+        <v>1307</v>
       </c>
       <c r="C100" s="4">
-        <v>1528</v>
+        <v>1412</v>
       </c>
       <c r="D100" s="4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E100" s="4">
-        <v>2958</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -2676,16 +2677,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="C101" s="4">
-        <v>1888</v>
+        <v>1528</v>
       </c>
       <c r="D101" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E101" s="4">
-        <v>2909</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -2693,16 +2694,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="C102" s="4">
-        <v>721</v>
+        <v>1888</v>
       </c>
       <c r="D102" s="4">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="E102" s="4">
-        <v>2897</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
@@ -2710,16 +2711,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>1099</v>
+        <v>1039</v>
       </c>
       <c r="C103" s="4">
-        <v>612</v>
+        <v>721</v>
       </c>
       <c r="D103" s="4">
+        <v>39</v>
+      </c>
+      <c r="E103" s="4">
         <v>29</v>
-      </c>
-      <c r="E103" s="4">
-        <v>2890</v>
       </c>
     </row>
     <row r="104">
@@ -2727,16 +2728,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>1586</v>
+        <v>1099</v>
       </c>
       <c r="C104" s="4">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="D104" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104" s="4">
-        <v>2889</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
@@ -2744,16 +2745,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>2121</v>
+        <v>1586</v>
       </c>
       <c r="C105" s="4">
-        <v>1259</v>
+        <v>652</v>
       </c>
       <c r="D105" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E105" s="4">
-        <v>2839</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -2761,16 +2762,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>1716</v>
+        <v>2121</v>
       </c>
       <c r="C106" s="4">
-        <v>1537</v>
+        <v>1259</v>
       </c>
       <c r="D106" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E106" s="4">
-        <v>2803</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
@@ -2778,16 +2779,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>1216</v>
+        <v>1716</v>
       </c>
       <c r="C107" s="4">
-        <v>1736</v>
+        <v>1537</v>
       </c>
       <c r="D107" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E107" s="4">
-        <v>2779</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
@@ -2795,16 +2796,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>2209</v>
+        <v>1216</v>
       </c>
       <c r="C108" s="4">
-        <v>1635</v>
+        <v>1736</v>
       </c>
       <c r="D108" s="4">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E108" s="4">
-        <v>2741</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
@@ -2812,16 +2813,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>1287</v>
+        <v>2209</v>
       </c>
       <c r="C109" s="4">
-        <v>1811</v>
+        <v>1635</v>
       </c>
       <c r="D109" s="4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E109" s="4">
-        <v>2702</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -2829,16 +2830,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>1952</v>
+        <v>1287</v>
       </c>
       <c r="C110" s="4">
-        <v>638</v>
+        <v>1811</v>
       </c>
       <c r="D110" s="4">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E110" s="4">
-        <v>2692</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -2846,16 +2847,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>1723</v>
+        <v>1952</v>
       </c>
       <c r="C111" s="4">
-        <v>839</v>
+        <v>638</v>
       </c>
       <c r="D111" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E111" s="4">
-        <v>2683</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
@@ -2863,16 +2864,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>1479</v>
+        <v>1723</v>
       </c>
       <c r="C112" s="4">
-        <v>1551</v>
+        <v>839</v>
       </c>
       <c r="D112" s="4">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E112" s="4">
-        <v>2652</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -2880,16 +2881,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>2177</v>
+        <v>1479</v>
       </c>
       <c r="C113" s="4">
-        <v>1700</v>
+        <v>1551</v>
       </c>
       <c r="D113" s="4">
         <v>81</v>
       </c>
       <c r="E113" s="4">
-        <v>2630</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
@@ -2897,16 +2898,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>1342</v>
+        <v>2177</v>
       </c>
       <c r="C114" s="4">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="D114" s="4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E114" s="4">
-        <v>2606</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
@@ -2914,16 +2915,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>1446</v>
+        <v>1342</v>
       </c>
       <c r="C115" s="4">
-        <v>2033</v>
+        <v>1757</v>
       </c>
       <c r="D115" s="4">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E115" s="4">
-        <v>2570</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -2931,16 +2932,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>1389</v>
+        <v>1446</v>
       </c>
       <c r="C116" s="4">
-        <v>2193</v>
+        <v>2033</v>
       </c>
       <c r="D116" s="4">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E116" s="4">
-        <v>2535</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
@@ -2948,16 +2949,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>1490</v>
+        <v>1389</v>
       </c>
       <c r="C117" s="4">
-        <v>784</v>
+        <v>2193</v>
       </c>
       <c r="D117" s="4">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="E117" s="4">
-        <v>2531</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -2965,16 +2966,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>1781</v>
+        <v>1490</v>
       </c>
       <c r="C118" s="4">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="D118" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E118" s="4">
-        <v>2521</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -2982,16 +2983,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>2075</v>
+        <v>1781</v>
       </c>
       <c r="C119" s="4">
-        <v>1766</v>
+        <v>852</v>
       </c>
       <c r="D119" s="4">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E119" s="4">
-        <v>2494</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
@@ -2999,16 +3000,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="C120" s="4">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="D120" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E120" s="4">
-        <v>2465</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
@@ -3016,16 +3017,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>1218</v>
+        <v>2050</v>
       </c>
       <c r="C121" s="4">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="D121" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E121" s="4">
-        <v>2431</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -3033,16 +3034,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>1336</v>
+        <v>1218</v>
       </c>
       <c r="C122" s="4">
-        <v>1979</v>
+        <v>1734</v>
       </c>
       <c r="D122" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E122" s="4">
-        <v>2396</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
@@ -3050,16 +3051,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="C123" s="4">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="D123" s="4">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E123" s="4">
-        <v>2348</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124">
@@ -3067,16 +3068,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>1400</v>
+        <v>431</v>
       </c>
       <c r="C124" s="4">
-        <v>629</v>
+        <v>1999</v>
       </c>
       <c r="D124" s="4">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E124" s="4">
-        <v>2347</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -3084,16 +3085,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>1662</v>
+        <v>1400</v>
       </c>
       <c r="C125" s="4">
-        <v>762</v>
+        <v>629</v>
       </c>
       <c r="D125" s="4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E125" s="4">
-        <v>2343</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -3101,16 +3102,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>1210</v>
+        <v>1662</v>
       </c>
       <c r="C126" s="4">
-        <v>1553</v>
+        <v>762</v>
       </c>
       <c r="D126" s="4">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E126" s="4">
-        <v>2313</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
@@ -3118,16 +3119,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>1978</v>
+        <v>1210</v>
       </c>
       <c r="C127" s="4">
-        <v>1487</v>
+        <v>1553</v>
       </c>
       <c r="D127" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E127" s="4">
-        <v>2287</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -3135,16 +3136,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>1308</v>
+        <v>1978</v>
       </c>
       <c r="C128" s="4">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="D128" s="4">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E128" s="4">
-        <v>2249</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
@@ -3152,16 +3153,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>1131</v>
+        <v>1308</v>
       </c>
       <c r="C129" s="4">
-        <v>1485</v>
+        <v>1510</v>
       </c>
       <c r="D129" s="4">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E129" s="4">
-        <v>2204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -3169,16 +3170,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>512</v>
+        <v>1131</v>
       </c>
       <c r="C130" s="4">
-        <v>1736</v>
+        <v>1485</v>
       </c>
       <c r="D130" s="4">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E130" s="4">
-        <v>2172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -3186,16 +3187,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>1626</v>
+        <v>512</v>
       </c>
       <c r="C131" s="4">
-        <v>581</v>
+        <v>1735</v>
       </c>
       <c r="D131" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E131" s="4">
-        <v>2168</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -3203,16 +3204,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>1987</v>
+        <v>1626</v>
       </c>
       <c r="C132" s="4">
-        <v>719</v>
+        <v>581</v>
       </c>
       <c r="D132" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E132" s="4">
-        <v>2160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
@@ -3220,16 +3221,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>1582</v>
+        <v>1987</v>
       </c>
       <c r="C133" s="4">
-        <v>1411</v>
+        <v>719</v>
       </c>
       <c r="D133" s="4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E133" s="4">
-        <v>2134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
@@ -3237,16 +3238,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>2049</v>
+        <v>1582</v>
       </c>
       <c r="C134" s="4">
-        <v>1482</v>
+        <v>1411</v>
       </c>
       <c r="D134" s="4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E134" s="4">
-        <v>2092</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135">
@@ -3254,16 +3255,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>1185</v>
+        <v>2049</v>
       </c>
       <c r="C135" s="4">
-        <v>1738</v>
+        <v>1482</v>
       </c>
       <c r="D135" s="4">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E135" s="4">
-        <v>2050</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -3271,16 +3272,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>1694</v>
+        <v>1185</v>
       </c>
       <c r="C136" s="4">
-        <v>1546</v>
+        <v>1738</v>
       </c>
       <c r="D136" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E136" s="4">
-        <v>2010</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
@@ -3288,16 +3289,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>1388</v>
+        <v>1694</v>
       </c>
       <c r="C137" s="4">
-        <v>1911</v>
+        <v>1546</v>
       </c>
       <c r="D137" s="4">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E137" s="4">
-        <v>1982</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -3305,16 +3306,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="C138" s="4">
-        <v>710</v>
+        <v>1911</v>
       </c>
       <c r="D138" s="4">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E138" s="4">
-        <v>1969</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
@@ -3322,16 +3323,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>1753</v>
+        <v>1362</v>
       </c>
       <c r="C139" s="4">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="D139" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E139" s="4">
-        <v>1964</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -3339,16 +3340,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>2018</v>
+        <v>1753</v>
       </c>
       <c r="C140" s="4">
-        <v>1723</v>
+        <v>774</v>
       </c>
       <c r="D140" s="4">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E140" s="4">
-        <v>1924</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
@@ -3356,16 +3357,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>2411</v>
+        <v>2018</v>
       </c>
       <c r="C141" s="4">
-        <v>1804</v>
+        <v>1723</v>
       </c>
       <c r="D141" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E141" s="4">
-        <v>1903</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
@@ -3373,16 +3374,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>1826</v>
+        <v>2411</v>
       </c>
       <c r="C142" s="4">
-        <v>1841</v>
+        <v>1804</v>
       </c>
       <c r="D142" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E142" s="4">
-        <v>1865</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -3390,16 +3391,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="C143" s="4">
-        <v>2022</v>
+        <v>1841</v>
       </c>
       <c r="D143" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E143" s="4">
-        <v>1820</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
@@ -3407,16 +3408,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="C144" s="4">
-        <v>2131</v>
+        <v>2021</v>
       </c>
       <c r="D144" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E144" s="4">
-        <v>1790</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
@@ -3424,16 +3425,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>1645</v>
+        <v>1685</v>
       </c>
       <c r="C145" s="4">
-        <v>710</v>
+        <v>2130</v>
       </c>
       <c r="D145" s="4">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E145" s="4">
-        <v>1785</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -3441,16 +3442,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>2114</v>
+        <v>1645</v>
       </c>
       <c r="C146" s="4">
-        <v>874</v>
+        <v>710</v>
       </c>
       <c r="D146" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E146" s="4">
-        <v>1778</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
@@ -3458,16 +3459,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>2145</v>
+        <v>2114</v>
       </c>
       <c r="C147" s="4">
-        <v>1961</v>
+        <v>874</v>
       </c>
       <c r="D147" s="4">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E147" s="4">
-        <v>1746</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -3475,16 +3476,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>1945</v>
+        <v>2145</v>
       </c>
       <c r="C148" s="4">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="D148" s="4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E148" s="4">
-        <v>1726</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -3492,16 +3493,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>2191</v>
+        <v>1945</v>
       </c>
       <c r="C149" s="4">
-        <v>2021</v>
+        <v>1838</v>
       </c>
       <c r="D149" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E149" s="4">
-        <v>1698</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -3509,16 +3510,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>1863</v>
+        <v>2191</v>
       </c>
       <c r="C150" s="4">
-        <v>2283</v>
+        <v>2021</v>
       </c>
       <c r="D150" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E150" s="4">
-        <v>1668</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
@@ -3526,16 +3527,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>1291</v>
+        <v>1863</v>
       </c>
       <c r="C151" s="4">
-        <v>2331</v>
+        <v>2283</v>
       </c>
       <c r="D151" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E151" s="4">
-        <v>1642</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152">
@@ -3543,16 +3544,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>1820</v>
+        <v>1291</v>
       </c>
       <c r="C152" s="4">
-        <v>819</v>
+        <v>2331</v>
       </c>
       <c r="D152" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E152" s="4">
-        <v>1634</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
@@ -3560,16 +3561,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>2486</v>
+        <v>1820</v>
       </c>
       <c r="C153" s="4">
-        <v>967</v>
+        <v>819</v>
       </c>
       <c r="D153" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153" s="4">
-        <v>1629</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -3577,16 +3578,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>2082</v>
+        <v>2486</v>
       </c>
       <c r="C154" s="4">
-        <v>1943</v>
+        <v>967</v>
       </c>
       <c r="D154" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E154" s="4">
-        <v>1606</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -3594,16 +3595,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>2191</v>
+        <v>2082</v>
       </c>
       <c r="C155" s="4">
-        <v>2087</v>
+        <v>1943</v>
       </c>
       <c r="D155" s="4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E155" s="4">
-        <v>1588</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -3611,16 +3612,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>1816</v>
+        <v>2191</v>
       </c>
       <c r="C156" s="4">
-        <v>2240</v>
+        <v>2087</v>
       </c>
       <c r="D156" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E156" s="4">
-        <v>1568</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
@@ -3628,16 +3629,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>1991</v>
+        <v>1816</v>
       </c>
       <c r="C157" s="4">
-        <v>2458</v>
+        <v>2240</v>
       </c>
       <c r="D157" s="4">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E157" s="4">
-        <v>1552</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -3645,16 +3646,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>1846</v>
+        <v>1991</v>
       </c>
       <c r="C158" s="4">
-        <v>2486</v>
+        <v>2458</v>
       </c>
       <c r="D158" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E158" s="4">
-        <v>1510</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159">
@@ -3662,16 +3663,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>1909</v>
+        <v>1846</v>
       </c>
       <c r="C159" s="4">
-        <v>862</v>
+        <v>2486</v>
       </c>
       <c r="D159" s="4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E159" s="4">
-        <v>1503</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
@@ -3679,16 +3680,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>2467</v>
+        <v>1909</v>
       </c>
       <c r="C160" s="4">
-        <v>994</v>
+        <v>862</v>
       </c>
       <c r="D160" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E160" s="4">
-        <v>1499</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161">
@@ -3696,16 +3697,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>2007</v>
+        <v>2467</v>
       </c>
       <c r="C161" s="4">
-        <v>2142</v>
+        <v>994</v>
       </c>
       <c r="D161" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E161" s="4">
-        <v>1479</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -3713,16 +3714,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>2059</v>
+        <v>2007</v>
       </c>
       <c r="C162" s="4">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="D162" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E162" s="4">
-        <v>1461</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
@@ -3730,16 +3731,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>1449</v>
+        <v>2059</v>
       </c>
       <c r="C163" s="4">
-        <v>2567</v>
+        <v>2163</v>
       </c>
       <c r="D163" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E163" s="4">
-        <v>1441</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -3747,16 +3748,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>1367</v>
+        <v>1449</v>
       </c>
       <c r="C164" s="4">
-        <v>2814</v>
+        <v>2567</v>
       </c>
       <c r="D164" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E164" s="4">
-        <v>1420</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
@@ -3764,16 +3765,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>1563</v>
+        <v>1367</v>
       </c>
       <c r="C165" s="4">
-        <v>2538</v>
+        <v>2814</v>
       </c>
       <c r="D165" s="4">
         <v>22</v>
       </c>
       <c r="E165" s="4">
-        <v>1398</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -3781,16 +3782,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>1330</v>
+        <v>1563</v>
       </c>
       <c r="C166" s="4">
-        <v>767</v>
+        <v>2538</v>
       </c>
       <c r="D166" s="4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E166" s="4">
-        <v>1396</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -3798,16 +3799,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="C167" s="4">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="D167" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E167" s="4">
-        <v>1395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168">
@@ -3815,16 +3816,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>2102</v>
+        <v>1419</v>
       </c>
       <c r="C168" s="4">
-        <v>1362</v>
+        <v>587</v>
       </c>
       <c r="D168" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E168" s="4">
-        <v>1392</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -3832,16 +3833,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>1639</v>
+        <v>2102</v>
       </c>
       <c r="C169" s="4">
-        <v>2035</v>
+        <v>1362</v>
       </c>
       <c r="D169" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E169" s="4">
-        <v>1391</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -3849,16 +3850,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="C170" s="4">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="D170" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E170" s="4">
-        <v>1373</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
@@ -3866,16 +3867,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>1196</v>
+        <v>1862</v>
       </c>
       <c r="C171" s="4">
-        <v>2329</v>
+        <v>2075</v>
       </c>
       <c r="D171" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E171" s="4">
-        <v>1343</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -3883,16 +3884,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>1349</v>
+        <v>1196</v>
       </c>
       <c r="C172" s="4">
-        <v>2538</v>
+        <v>2329</v>
       </c>
       <c r="D172" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E172" s="4">
-        <v>1325</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
@@ -3900,16 +3901,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>1605</v>
+        <v>1349</v>
       </c>
       <c r="C173" s="4">
-        <v>1049</v>
+        <v>2538</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E173" s="4">
-        <v>1322</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174">
@@ -3917,16 +3918,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>1720</v>
+        <v>1605</v>
       </c>
       <c r="C174" s="4">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" s="4">
-        <v>1318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -3934,16 +3935,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>1649</v>
+        <v>1720</v>
       </c>
       <c r="C175" s="4">
-        <v>1972</v>
+        <v>939</v>
       </c>
       <c r="D175" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>1303</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -3951,16 +3952,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>1024</v>
+        <v>1649</v>
       </c>
       <c r="C176" s="4">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="D176" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E176" s="4">
-        <v>1290</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -3968,16 +3969,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>1724</v>
+        <v>1024</v>
       </c>
       <c r="C177" s="4">
-        <v>1905</v>
+        <v>1968</v>
       </c>
       <c r="D177" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E177" s="4">
-        <v>1271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
@@ -3985,16 +3986,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>854</v>
+        <v>1724</v>
       </c>
       <c r="C178" s="4">
-        <v>2092</v>
+        <v>1905</v>
       </c>
       <c r="D178" s="4">
         <v>10</v>
       </c>
       <c r="E178" s="4">
-        <v>1251</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -4002,16 +4003,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="C179" s="4">
-        <v>2043</v>
+        <v>2091</v>
       </c>
       <c r="D179" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E179" s="4">
-        <v>1223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -4019,16 +4020,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>1412</v>
+        <v>805</v>
       </c>
       <c r="C180" s="4">
-        <v>701</v>
+        <v>2043</v>
       </c>
       <c r="D180" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E180" s="4">
-        <v>1220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -4036,16 +4037,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>1549</v>
+        <v>1412</v>
       </c>
       <c r="C181" s="4">
-        <v>768</v>
+        <v>701</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>1212</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
@@ -4053,16 +4054,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>1655</v>
+        <v>1549</v>
       </c>
       <c r="C182" s="4">
-        <v>1629</v>
+        <v>768</v>
       </c>
       <c r="D182" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>1197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -4070,16 +4071,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>1335</v>
+        <v>1655</v>
       </c>
       <c r="C183" s="4">
-        <v>1788</v>
+        <v>1629</v>
       </c>
       <c r="D183" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E183" s="4">
-        <v>1175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184">
@@ -4087,16 +4088,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>1002</v>
+        <v>1335</v>
       </c>
       <c r="C184" s="4">
-        <v>1721</v>
+        <v>1788</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E184" s="4">
-        <v>